--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DC469-7BA4-4C3D-935A-9B8DF3353E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89602426-CC1A-45BA-8AAF-D7F190CC88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="699">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2569,6 +2569,19 @@
     <t>相比1143.多一步初始化
 注意583.只能删除不能替换，这里是+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.02.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>496. 下一个更大元素 I</t>
+  </si>
+  <si>
+    <t>503. 下一个更大元素 II</t>
+  </si>
+  <si>
+    <t>2353. 设计食物评分系统</t>
   </si>
 </sst>
 </file>
@@ -2704,17 +2717,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2742,16 +2745,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2815,19 +2808,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048526" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048526" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:G1048526" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G280">
     <sortCondition descending="1" ref="C1:C1048526"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3096,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G280"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8266,13 +8259,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="10" t="s">
         <v>571</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>220</v>
       </c>
+      <c r="C280" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D280" s="8" t="s">
         <v>572</v>
       </c>
@@ -8280,16 +8276,84 @@
         <v>14</v>
       </c>
     </row>
+    <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A281:A1048576 A1:A244">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="A1:A280 A285:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A281:A1048576 A1:A255">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A285:A1048576 A1:A244">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A285:A1048576 A1:A255">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A207" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -8641,7 +8705,7 @@
     <hyperlink ref="A68" r:id="rId347" display="https://leetcode.cn/problems/combinations/" xr:uid="{E08E7553-D443-45C6-B898-4BFEAE34B442}"/>
     <hyperlink ref="A280" r:id="rId348" display="https://leetcode.cn/problems/combination-sum-iii/" xr:uid="{B3833617-AF70-4FCE-8BFA-0BC090559E9E}"/>
     <hyperlink ref="E68" r:id="rId349" xr:uid="{6D15BC03-6C24-4CBE-B14F-AF46452744CA}"/>
-    <hyperlink ref="E280" r:id="rId350" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
+    <hyperlink ref="E280" r:id="rId350" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
     <hyperlink ref="E39" r:id="rId351" xr:uid="{70FB8C70-E662-43E4-9BEB-2C991560FFCD}"/>
     <hyperlink ref="A132" r:id="rId352" display="https://leetcode.cn/problems/subsets-ii/" xr:uid="{BF57B92E-019F-4853-BCA8-E284BE4E7D3F}"/>
     <hyperlink ref="A133" r:id="rId353" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{D1C2BD62-595B-4A7D-A2B7-61892FD813F8}"/>
@@ -8775,10 +8839,18 @@
     <hyperlink ref="A63" r:id="rId481" display="https://leetcode.cn/problems/palindromic-substrings/" xr:uid="{3562169F-461C-4C34-B821-C37DA25DF7D3}"/>
     <hyperlink ref="A221" r:id="rId482" display="https://leetcode.cn/problems/design-a-text-editor/" xr:uid="{B9C898F1-8F87-4779-8DF7-F041F4864256}"/>
     <hyperlink ref="E221" r:id="rId483" xr:uid="{2B238F66-0992-4025-8C40-B53095306D5C}"/>
+    <hyperlink ref="E281" r:id="rId484" xr:uid="{FAC4AB77-7FBF-444E-8395-14AF68E53C91}"/>
+    <hyperlink ref="E282" r:id="rId485" xr:uid="{E16C5A48-EE81-48CD-B0F5-181353C18128}"/>
+    <hyperlink ref="E283" r:id="rId486" xr:uid="{84C19260-CC43-4F6E-B81B-79A0DB0BC26D}"/>
+    <hyperlink ref="A281" r:id="rId487" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{7B07F28C-D4A1-4AC4-8A82-8EF76D230156}"/>
+    <hyperlink ref="A282" r:id="rId488" display="https://leetcode.cn/problems/next-greater-element-i/" xr:uid="{27CEEBA8-6963-43A7-8769-FF7963D5448B}"/>
+    <hyperlink ref="A283" r:id="rId489" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
+    <hyperlink ref="A284" r:id="rId490" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
+    <hyperlink ref="E284" r:id="rId491" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId484"/>
+    <tablePart r:id="rId492"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89602426-CC1A-45BA-8AAF-D7F190CC88B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D0728-6AE5-4D72-A6E6-F9781F406566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="702">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2582,6 +2582,18 @@
   </si>
   <si>
     <t>2353. 设计食物评分系统</t>
+  </si>
+  <si>
+    <t>2025.03.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w和h分开避免*优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比42.注意push(i)的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3089,10 +3101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+      <selection activeCell="I281" sqref="I281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8344,15 +8356,55 @@
         <v>46</v>
       </c>
     </row>
+    <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" s="14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A280 A285:A1048576">
+  <conditionalFormatting sqref="A1:A280 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A285:A1048576 A1:A244">
+  <conditionalFormatting sqref="A1:A244 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A285:A1048576 A1:A255">
+  <conditionalFormatting sqref="A1:A255 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -8847,10 +8899,14 @@
     <hyperlink ref="A283" r:id="rId489" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
     <hyperlink ref="A284" r:id="rId490" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
     <hyperlink ref="E284" r:id="rId491" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
+    <hyperlink ref="E285" r:id="rId492" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C45CA14-3139-41EA-9494-1B8EFDE805CF}"/>
+    <hyperlink ref="E286" r:id="rId493" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
+    <hyperlink ref="A286" r:id="rId494" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
+    <hyperlink ref="A285" r:id="rId495" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId492"/>
+    <tablePart r:id="rId496"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D0728-6AE5-4D72-A6E6-F9781F406566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0025716-E5B5-46B3-94BF-905251EF6F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,21 +2742,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3104,7 +3104,7 @@
   <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I281" sqref="I281"/>
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8398,14 +8398,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A280 A287:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A244 A287:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A255 A287:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A280 A287:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A207" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0025716-E5B5-46B3-94BF-905251EF6F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6682439B-0628-4484-8112-A0258AF05770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="706">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2593,6 +2593,22 @@
   </si>
   <si>
     <t>对比42.注意push(i)的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98. 所有可达路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻接矩阵、邻接表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3101,10 +3117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G286"/>
+  <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8394,6 +8410,26 @@
       </c>
       <c r="G286" s="14" t="s">
         <v>701</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" s="14" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -8903,10 +8939,12 @@
     <hyperlink ref="E286" r:id="rId493" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
     <hyperlink ref="A286" r:id="rId494" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
     <hyperlink ref="A285" r:id="rId495" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
+    <hyperlink ref="A287" r:id="rId496" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
+    <hyperlink ref="E287" r:id="rId497" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId496"/>
+    <tablePart r:id="rId498"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6682439B-0628-4484-8112-A0258AF05770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04925002-9545-4AA8-9A98-8AADF8F5BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="708">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2609,6 +2609,13 @@
   </si>
   <si>
     <t>邻接矩阵、邻接表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1262. 可被三整除的最大和</t>
+  </si>
+  <si>
+    <t>腾讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3117,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G287"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290"/>
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8432,15 +8439,32 @@
         <v>705</v>
       </c>
     </row>
+    <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="G288" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A244 A287:A1048576">
+  <conditionalFormatting sqref="A1:A244 A287 A289:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A255 A287:A1048576">
+  <conditionalFormatting sqref="A1:A255 A287 A289:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A280 A287:A1048576">
+  <conditionalFormatting sqref="A1:A280 A287 A289:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -8941,10 +8965,11 @@
     <hyperlink ref="A285" r:id="rId495" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
     <hyperlink ref="A287" r:id="rId496" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
     <hyperlink ref="E287" r:id="rId497" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
+    <hyperlink ref="A288" r:id="rId498" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{F11D5CB7-1445-44AB-BB53-9A23001890D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId498"/>
+    <tablePart r:id="rId499"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04925002-9545-4AA8-9A98-8AADF8F5BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249491C-821C-4ADB-AA75-232A484F0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="711">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2616,6 +2616,18 @@
   </si>
   <si>
     <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99. 岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100. 岛屿的最大面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3124,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8454,6 +8466,40 @@
       </c>
       <c r="G288" s="14" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8966,10 +9012,14 @@
     <hyperlink ref="A287" r:id="rId496" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
     <hyperlink ref="E287" r:id="rId497" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
     <hyperlink ref="A288" r:id="rId498" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{F11D5CB7-1445-44AB-BB53-9A23001890D9}"/>
+    <hyperlink ref="E289" r:id="rId499" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
+    <hyperlink ref="E290" r:id="rId500" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
+    <hyperlink ref="A289" r:id="rId501" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
+    <hyperlink ref="A290" r:id="rId502" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId499"/>
+    <tablePart r:id="rId503"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249491C-821C-4ADB-AA75-232A484F0512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29A8D4-68C4-461A-AB41-9F7DDF6F54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16044" yWindow="3180" windowWidth="16128" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="717">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2596,10 +2596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98. 所有可达路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2612,22 +2608,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1262. 可被三整除的最大和</t>
-  </si>
-  <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2025.03.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99. 岛屿数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100. 岛屿的最大面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K101. 孤岛的总面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K102. 沉没孤岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K103. 水流问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K104. 建造最大岛屿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K99. 岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K98. 所有可达路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系K102.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系K101.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2855,10 +2880,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048526" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:G1048526" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048525" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:G1048525" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G280">
-    <sortCondition descending="1" ref="C1:C1048526"/>
+    <sortCondition descending="1" ref="C1:C1048525"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="9"/>
@@ -3136,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8433,84 +8458,144 @@
     </row>
     <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D287" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="E287" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="14" t="s">
-        <v>705</v>
-      </c>
     </row>
     <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="10" t="s">
-        <v>706</v>
+      <c r="A288" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="G288" s="14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>705</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D289" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="E289" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="4" t="s">
-        <v>710</v>
-      </c>
       <c r="B290" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E290" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" s="14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" s="14" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="E293" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A244 A287 A289:A1048576">
+  <conditionalFormatting sqref="A1:A244 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A255 A287 A289:A1048576">
+  <conditionalFormatting sqref="A1:A255 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A280 A287 A289:A1048576">
+  <conditionalFormatting sqref="A1:A280 A287:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -9009,17 +9094,24 @@
     <hyperlink ref="E286" r:id="rId493" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
     <hyperlink ref="A286" r:id="rId494" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
     <hyperlink ref="A285" r:id="rId495" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
-    <hyperlink ref="A287" r:id="rId496" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
+    <hyperlink ref="A287" r:id="rId496" display="98. 所有可达路径" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
     <hyperlink ref="E287" r:id="rId497" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
-    <hyperlink ref="A288" r:id="rId498" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{F11D5CB7-1445-44AB-BB53-9A23001890D9}"/>
-    <hyperlink ref="E289" r:id="rId499" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
-    <hyperlink ref="E290" r:id="rId500" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
-    <hyperlink ref="A289" r:id="rId501" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
-    <hyperlink ref="A290" r:id="rId502" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
+    <hyperlink ref="E288" r:id="rId498" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
+    <hyperlink ref="E289" r:id="rId499" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
+    <hyperlink ref="A288" r:id="rId500" display="99. 岛屿数量" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
+    <hyperlink ref="A289" r:id="rId501" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
+    <hyperlink ref="E290" r:id="rId502" location="%E6%80%9D%E8%B7%AF" xr:uid="{098EEA69-7F3E-4AB5-9FE2-6C004D9AC270}"/>
+    <hyperlink ref="E291" r:id="rId503" location="%E6%80%9D%E8%B7%AF" xr:uid="{E1175A95-B33F-490F-9A15-9C1CF7EEA311}"/>
+    <hyperlink ref="E292" r:id="rId504" xr:uid="{88D74155-E61B-4394-AFF5-41569453B560}"/>
+    <hyperlink ref="E293" r:id="rId505" xr:uid="{2B226A0C-43B6-4229-B22B-FB771DAC3E7E}"/>
+    <hyperlink ref="A290" r:id="rId506" display="101. 孤岛的总面积" xr:uid="{8E2FC539-C4C8-4464-B413-335E4931ACDF}"/>
+    <hyperlink ref="A291" r:id="rId507" display="102. 沉没孤岛" xr:uid="{34543BD5-F8EB-4D0E-B9E6-3814D57A9274}"/>
+    <hyperlink ref="A292" r:id="rId508" display="103. 水流问题" xr:uid="{67D7BD9F-E083-4F3B-AA58-56F357345DB9}"/>
+    <hyperlink ref="A293" r:id="rId509" display="104. 建造最大岛屿" xr:uid="{9BB8D65F-78F2-45D1-A5A5-15A66F7737DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId503"/>
+    <tablePart r:id="rId510"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29A8D4-68C4-461A-AB41-9F7DDF6F54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B373EB0-F7D8-47EF-9022-ECECE5296AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16044" yWindow="3180" windowWidth="16128" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="721">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -369,10 +369,6 @@
     <t>11. 盛最多水的容器</t>
   </si>
   <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Krahets</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,10 +482,6 @@
     <t>53. 最大子数组和</t>
   </si>
   <si>
-    <t>liweiwei1419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>56. 合并区间</t>
   </si>
   <si>
@@ -888,17 +880,9 @@
     <t>739. 每日温度</t>
   </si>
   <si>
-    <t>程序员吴师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>84. 柱状图中最大的矩形</t>
   </si>
   <si>
-    <t>入栈递减栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>215. 数组中的第K个最大元素</t>
   </si>
   <si>
@@ -1190,10 +1174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以空间换时间，可以使用的数据结构是栈；哨兵；向左向右扩展；739.题的延申</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024.11.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,9 +1565,6 @@
   <si>
     <t>2025.01.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I3lissful MaxvvellNIC</t>
   </si>
   <si>
     <t>代码随想录、美团</t>
@@ -2592,10 +2569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对比42.注意push(i)的时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2653,6 +2626,50 @@
   </si>
   <si>
     <t>联系K101.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K105. 有向图的完全可达性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K110. 字符串接龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K106. 岛屿的周长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2588. 统计美丽子数组数目</t>
+  </si>
+  <si>
+    <t>BFS、Set、挨个替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度还行，注意DFS处理当前节点/处理下一处节点的两种写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避免惯性思维、不用DFS BFS、挨个探索统计即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化为560.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以空间换时间，可以使用的数据结构是栈；哨兵；向左向右扩展；739.题的延申
+对比42.注意push(i)的时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2880,10 +2897,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048525" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:G1048525" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G280">
-    <sortCondition descending="1" ref="C1:C1048525"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
+    <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="9"/>
@@ -3161,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3204,33 +3221,33 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -3239,21 +3256,21 @@
         <v>5</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
@@ -3264,10 +3281,10 @@
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>49</v>
@@ -3276,58 +3293,58 @@
         <v>4</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>14</v>
@@ -3336,18 +3353,18 @@
         <v>6</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>14</v>
@@ -3356,41 +3373,41 @@
         <v>4</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F10" s="6">
         <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
@@ -3398,36 +3415,36 @@
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>14</v>
@@ -3436,44 +3453,44 @@
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F14" s="6">
         <v>3</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
@@ -3482,21 +3499,21 @@
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -3505,24 +3522,24 @@
         <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="6">
         <v>3</v>
@@ -3530,16 +3547,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -3548,104 +3565,107 @@
         <v>5</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>102</v>
+        <v>559</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>448</v>
+        <v>693</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>450</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>480</v>
+        <v>145</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>481</v>
+        <v>101</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>482</v>
+        <v>104</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>584</v>
+        <v>474</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>582</v>
+        <v>467</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>585</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>298</v>
+        <v>578</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="6">
-        <v>2</v>
+      <c r="G22" s="15" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>14</v>
@@ -3653,348 +3673,348 @@
       <c r="F23" s="6">
         <v>2</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>633</v>
-      </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>293</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>341</v>
+        <v>625</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>329</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>582</v>
+        <v>336</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="6">
-        <v>2</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>637</v>
+        <v>4</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>461</v>
+        <v>296</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>460</v>
+        <v>628</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>683</v>
+        <v>455</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>675</v>
+        <v>454</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F28" s="6">
-        <v>4</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>694</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>399</v>
+        <v>677</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>34</v>
+        <v>669</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>400</v>
+        <v>14</v>
+      </c>
+      <c r="F29" s="6">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>404</v>
+      <c r="E30" s="9" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>114</v>
+        <v>398</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>102</v>
+        <v>394</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="6">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>485</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>565</v>
+        <v>101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>368</v>
+        <v>477</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F32" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>327</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>324</v>
+        <v>559</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>355</v>
+        <v>693</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F33" s="6">
-        <v>3</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>325</v>
+        <v>4</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>671</v>
+        <v>211</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>124</v>
+        <v>320</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
+        <v>350</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>673</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>207</v>
+        <v>626</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F36" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>341</v>
+        <v>522</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>413</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>390</v>
+        <v>336</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="F38" s="6">
-        <v>4</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>347</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>220</v>
+        <v>387</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
+        <v>385</v>
       </c>
       <c r="F39" s="6">
         <v>4</v>
       </c>
+      <c r="G39" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>14</v>
@@ -4005,16 +4025,16 @@
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>14</v>
@@ -4025,73 +4045,70 @@
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>214</v>
+        <v>180</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>356</v>
+        <v>421</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>641</v>
+        <v>212</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="F43" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>220</v>
+        <v>635</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>542</v>
+        <v>634</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="6">
-        <v>4</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>546</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>638</v>
+        <v>536</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>14</v>
@@ -4099,22 +4116,25 @@
       <c r="F45" s="6">
         <v>4</v>
       </c>
+      <c r="G45" s="14" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>52</v>
+        <v>632</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F46" s="6">
         <v>4</v>
@@ -4122,202 +4142,202 @@
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>370</v>
+        <v>52</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F47" s="6">
-        <v>3</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="F48" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F49" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F50" s="6">
-        <v>5</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>496</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F51" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>367</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>550</v>
+        <v>232</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>574</v>
+        <v>361</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>14</v>
+        <v>94</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>94</v>
+        <v>544</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="F53" s="6">
-        <v>4</v>
+        <v>568</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>14</v>
@@ -4326,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4346,207 +4366,201 @@
         <v>5</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>688</v>
+        <v>559</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>123</v>
+        <v>680</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="6">
-        <v>6</v>
-      </c>
       <c r="G60" s="15" t="s">
-        <v>493</v>
+        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>635</v>
+        <v>121</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>300</v>
+        <v>607</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F61" s="6">
+        <v>6</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>677</v>
+        <v>629</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>682</v>
+        <v>296</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>690</v>
+      <c r="G63" s="14" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>378</v>
+        <v>681</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>124</v>
+        <v>682</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="6">
-        <v>2</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>669</v>
+      <c r="G64" s="15" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>399</v>
+        <v>122</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>396</v>
+        <v>660</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>401</v>
+        <v>14</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>239</v>
+        <v>393</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>242</v>
+        <v>394</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F66" s="6">
-        <v>2</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>369</v>
+        <v>395</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>14</v>
@@ -4557,184 +4571,181 @@
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="10" t="s">
-        <v>77</v>
+      <c r="A69" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>48</v>
+        <v>695</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="F69" s="6">
-        <v>5</v>
+        <v>700</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>80</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
-        <v>15</v>
+        <v>704</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>12</v>
+        <v>695</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>295</v>
+        <v>700</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F70" s="6">
-        <v>2</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>335</v>
+        <v>77</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>332</v>
+        <v>433</v>
+      </c>
+      <c r="F71" s="6">
+        <v>5</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="10" t="s">
-        <v>202</v>
+      <c r="A72" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>561</v>
+        <v>698</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="6">
-        <v>4</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="10" t="s">
-        <v>529</v>
+      <c r="A73" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>531</v>
+        <v>12</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>528</v>
+        <v>291</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>14</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>352</v>
+        <v>555</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F75" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>320</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>278</v>
+        <v>523</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>124</v>
+        <v>525</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F76" s="6">
-        <v>5</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>676</v>
+        <v>524</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>681</v>
+        <v>345</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>675</v>
+        <v>522</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>14</v>
@@ -4742,1269 +4753,1278 @@
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>665</v>
+        <v>204</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>664</v>
+        <v>347</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>659</v>
+        <v>274</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>648</v>
+        <v>391</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>658</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>318</v>
+        <v>670</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>124</v>
+        <v>675</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F80" s="6">
-        <v>3</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>319</v>
+        <v>655</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>124</v>
+        <v>659</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="6">
-        <v>2</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>651</v>
+        <v>8</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>210</v>
+        <v>653</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>355</v>
+        <v>642</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F82" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>211</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>389</v>
+        <v>314</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>391</v>
+        <v>642</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="6">
+        <v>3</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>344</v>
+        <v>642</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F84" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="F85" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>343</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="6">
-        <v>5</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>456</v>
+        <v>385</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>366</v>
+        <v>339</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="F87" s="6">
         <v>3</v>
       </c>
-      <c r="G87" s="14" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>58</v>
+        <v>431</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>98</v>
+        <v>427</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="F88" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>668</v>
+        <v>91</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>665</v>
+        <v>422</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>666</v>
+        <v>442</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6">
+        <v>5</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F90" s="6">
         <v>3</v>
       </c>
+      <c r="G90" s="14" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>379</v>
+        <v>234</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>380</v>
+        <v>363</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F91" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>457</v>
+        <v>662</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>48</v>
+        <v>659</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>458</v>
+        <v>660</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>434</v>
+        <v>251</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="F93" s="6">
-        <v>5</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>316</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>212</v>
+        <v>374</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F94" s="6">
-        <v>3</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>215</v>
+        <v>451</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F95" s="6">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>244</v>
+        <v>428</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="F96" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F97" s="6">
         <v>3</v>
       </c>
+      <c r="G97" s="14" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>517</v>
+        <v>213</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="F98" s="6">
         <v>3</v>
       </c>
-      <c r="G98" s="14" t="s">
-        <v>518</v>
-      </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>497</v>
+        <v>239</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>499</v>
+        <v>240</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>498</v>
+        <v>365</v>
+      </c>
+      <c r="F99" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>193</v>
+        <v>565</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F100" s="6">
-        <v>3</v>
+        <v>566</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>204</v>
+        <v>222</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="F101" s="6">
         <v>3</v>
       </c>
-      <c r="G101" s="14" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>552</v>
+        <v>196</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F102" s="6">
+        <v>3</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>14</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>334</v>
+        <v>191</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>333</v>
+        <v>343</v>
+      </c>
+      <c r="F104" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>150</v>
+        <v>347</v>
+      </c>
+      <c r="F105" s="6">
+        <v>3</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>262</v>
+        <v>546</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>371</v>
+        <v>547</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="6">
-        <v>3</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>124</v>
+        <v>511</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>540</v>
+        <v>514</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>484</v>
+        <v>714</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>102</v>
+        <v>719</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>483</v>
+        <v>710</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="G108" s="14" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>46</v>
+        <v>327</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F110" s="6">
-        <v>3</v>
+        <v>147</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>46</v>
+        <v>259</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>420</v>
+        <v>529</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>445</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>588</v>
+        <v>480</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>582</v>
+        <v>481</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="F115" s="6">
-        <v>4</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>357</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>672</v>
+        <v>412</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>680</v>
+        <v>101</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>670</v>
+        <v>413</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>525</v>
+        <v>414</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>520</v>
+        <v>413</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="F118" s="6">
-        <v>4</v>
+        <v>433</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>304</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>607</v>
+        <v>218</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>606</v>
+        <v>666</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>607</v>
+        <v>674</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G121" s="14" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>200</v>
+        <v>519</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F122" s="6">
-        <v>3</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>351</v>
+        <v>514</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>589</v>
+        <v>169</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>14</v>
+        <v>514</v>
       </c>
       <c r="F123" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>626</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>276</v>
+        <v>603</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>124</v>
+        <v>601</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F124" s="6">
-        <v>3</v>
+        <v>602</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>377</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>534</v>
+        <v>246</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F125" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>429</v>
+        <v>600</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>430</v>
+        <v>601</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>426</v>
+        <v>602</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>559</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>613</v>
+        <v>198</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>616</v>
+        <v>344</v>
+      </c>
+      <c r="F128" s="6">
+        <v>3</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>256</v>
+        <v>583</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>371</v>
+        <v>617</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F129" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>372</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="F130" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>220</v>
+        <v>528</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>358</v>
+        <v>529</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F131" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>575</v>
+        <v>424</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>580</v>
+        <v>421</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F132" s="6">
-        <v>2</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>124</v>
+        <v>607</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>598</v>
+        <v>237</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>140</v>
+        <v>559</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F135" s="6">
+        <v>3</v>
+      </c>
       <c r="G135" s="14" t="s">
-        <v>599</v>
+        <v>364</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>199</v>
+        <v>252</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>14</v>
+        <v>366</v>
       </c>
       <c r="F136" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>527</v>
+        <v>218</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>567</v>
+        <v>218</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>501</v>
+        <v>353</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F138" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F139" s="6">
+        <v>2</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>506</v>
+        <v>218</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>418</v>
+        <v>617</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F141" s="6">
-        <v>5</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="10" t="s">
-        <v>523</v>
+      <c r="A142" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G142" s="14" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="10" t="s">
-        <v>514</v>
+      <c r="A143" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>695</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>501</v>
+        <v>700</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="17" t="s">
-        <v>515</v>
+      <c r="G143" s="14" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="10" t="s">
-        <v>512</v>
+      <c r="A144" s="4" t="s">
+        <v>711</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>501</v>
+        <v>710</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G144" s="14" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="10" t="s">
-        <v>513</v>
+      <c r="A145" s="4" t="s">
+        <v>705</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>501</v>
+        <v>698</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>14</v>
@@ -6012,854 +6032,860 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>350</v>
+        <v>197</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>394</v>
+        <v>510</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>313</v>
+        <v>521</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>342</v>
+        <v>495</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F148" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>336</v>
+        <v>195</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>561</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>332</v>
+        <v>495</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>338</v>
+        <v>14</v>
+      </c>
+      <c r="F149" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F150" s="6">
-        <v>2</v>
+        <v>481</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>678</v>
+        <v>499</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>675</v>
+        <v>495</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>684</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>494</v>
+        <v>89</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="F152" s="6">
+        <v>5</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>495</v>
+        <v>288</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>339</v>
+        <v>508</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>340</v>
+        <v>495</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>266</v>
+        <v>506</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>640</v>
+        <v>495</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F155" s="6">
-        <v>4</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>205</v>
+        <v>507</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F156" s="6">
-        <v>4</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>428</v>
+        <v>596</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>424</v>
+        <v>345</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="11" t="s">
-        <v>186</v>
+      <c r="A159" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F159" s="6">
         <v>3</v>
       </c>
-      <c r="G159" s="14" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>489</v>
+        <v>331</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>487</v>
+        <v>327</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>14</v>
+        <v>332</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>490</v>
+        <v>282</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>14</v>
+        <v>284</v>
+      </c>
+      <c r="F161" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>40</v>
+        <v>672</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>21</v>
+        <v>669</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>39</v>
+        <v>678</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>180</v>
+        <v>488</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F163" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>655</v>
+        <v>334</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="G165" s="14" t="s">
-        <v>660</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>62</v>
+        <v>635</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>63</v>
+        <v>634</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="F166" s="6">
+        <v>4</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>65</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>58</v>
+        <v>500</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>59</v>
+        <v>495</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="F167" s="6">
+        <v>4</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>42</v>
+        <v>418</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G169" s="14" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>124</v>
+      <c r="A170" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="F170" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
-        <v>258</v>
+        <v>482</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F171" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>387</v>
+        <v>484</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>388</v>
+        <v>481</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F173" s="6">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10" t="s">
-        <v>586</v>
+        <v>178</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="F174" s="6">
+        <v>5</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
-        <v>229</v>
+        <v>437</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F175" s="6">
-        <v>3</v>
-      </c>
-      <c r="G175" s="14" t="s">
-        <v>362</v>
+        <v>433</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>162</v>
+        <v>649</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>161</v>
+        <v>657</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>593</v>
+        <v>61</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>595</v>
+        <v>62</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>590</v>
+        <v>63</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>594</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>605</v>
+        <v>57</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>601</v>
+        <v>59</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>510</v>
+        <v>54</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>527</v>
+        <v>56</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>501</v>
+        <v>55</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="4" t="s">
-        <v>422</v>
+      <c r="A180" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>425</v>
+        <v>44</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>418</v>
+        <v>43</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>618</v>
+        <v>266</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F181" s="6">
+        <v>4</v>
+      </c>
       <c r="G181" s="14" t="s">
-        <v>621</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>526</v>
+        <v>254</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>528</v>
+        <v>366</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>14</v>
+        <v>255</v>
+      </c>
+      <c r="F182" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>527</v>
+        <v>382</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>14</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
-        <v>121</v>
+        <v>377</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>693</v>
+        <v>138</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>670</v>
+        <v>378</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F184" s="6">
-        <v>7</v>
-      </c>
-      <c r="G184" s="14" t="s">
-        <v>596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10" t="s">
-        <v>564</v>
+        <v>580</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>307</v>
+        <v>226</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>177</v>
+        <v>356</v>
       </c>
       <c r="F186" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10" t="s">
-        <v>464</v>
+        <v>158</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>465</v>
+        <v>160</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>466</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10" t="s">
-        <v>476</v>
+        <v>587</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>478</v>
+        <v>589</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>473</v>
+        <v>584</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>477</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="4" t="s">
-        <v>421</v>
+      <c r="A189" s="10" t="s">
+        <v>599</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>418</v>
+        <v>595</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10" t="s">
-        <v>275</v>
+        <v>504</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>623</v>
+        <v>495</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F190" s="6">
-        <v>4</v>
-      </c>
     </row>
     <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="10" t="s">
-        <v>331</v>
+      <c r="A191" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>332</v>
+        <v>413</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10" t="s">
-        <v>509</v>
+        <v>612</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>506</v>
+        <v>122</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>501</v>
+        <v>611</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10" t="s">
-        <v>563</v>
+        <v>520</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>14</v>
@@ -6867,16 +6893,16 @@
     </row>
     <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10" t="s">
-        <v>667</v>
+        <v>505</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>124</v>
+        <v>521</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>666</v>
+        <v>495</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>14</v>
@@ -6884,133 +6910,133 @@
     </row>
     <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>124</v>
+        <v>687</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>617</v>
+        <v>664</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>87</v>
+        <v>558</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>84</v>
+        <v>555</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E197" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="E197" s="10" t="s">
         <v>175</v>
       </c>
       <c r="F197" s="6">
         <v>4</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10" t="s">
-        <v>230</v>
+        <v>458</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>228</v>
+        <v>459</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F198" s="6">
-        <v>3</v>
-      </c>
-      <c r="G198" s="14" t="s">
-        <v>364</v>
+        <v>454</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" s="15" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10" t="s">
-        <v>619</v>
+        <v>470</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>124</v>
+        <v>472</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>617</v>
+        <v>467</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>622</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="10" t="s">
-        <v>604</v>
+      <c r="A200" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="E200" s="9" t="s">
-        <v>14</v>
+        <v>413</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10" t="s">
-        <v>196</v>
+        <v>271</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>14</v>
@@ -7021,2097 +7047,2116 @@
     </row>
     <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" s="6">
-        <v>2</v>
+        <v>327</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="10" t="s">
-        <v>203</v>
+        <v>503</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F203" s="6">
-        <v>4</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>453</v>
+        <v>557</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G204" s="14" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="4" t="s">
-        <v>18</v>
+      <c r="A205" s="10" t="s">
+        <v>661</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>20</v>
+        <v>660</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G205" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>328</v>
+        <v>611</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F206" s="6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="4" t="s">
-        <v>4</v>
+      <c r="A207" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G207" s="14" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="10" t="s">
-        <v>629</v>
+        <v>171</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>630</v>
+        <v>529</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F208" s="6">
+        <v>4</v>
+      </c>
+      <c r="G208" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="10" t="s">
-        <v>600</v>
+        <v>228</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>14</v>
+        <v>358</v>
+      </c>
+      <c r="F209" s="6">
+        <v>3</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="10" t="s">
-        <v>502</v>
+        <v>613</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>501</v>
+        <v>611</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>504</v>
+        <v>616</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="10" t="s">
-        <v>503</v>
+        <v>598</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G211" s="14" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>374</v>
+        <v>194</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>373</v>
+        <v>495</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F212" s="6">
-        <v>3</v>
-      </c>
-      <c r="G212" s="14" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="10" t="s">
-        <v>181</v>
+        <v>278</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>448</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="E213" s="13" t="s">
-        <v>311</v>
+        <v>410</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F213" s="6">
-        <v>4</v>
-      </c>
-      <c r="G213" s="14" t="s">
-        <v>310</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="10" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>344</v>
+        <v>529</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F214" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="10" t="s">
-        <v>446</v>
+      <c r="A215" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>452</v>
+        <v>695</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>439</v>
+        <v>710</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G215" s="14" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="10" t="s">
-        <v>71</v>
+      <c r="A216" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>72</v>
+        <v>695</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>73</v>
+        <v>710</v>
       </c>
       <c r="E216" s="9" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>76</v>
+        <v>715</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="10" t="s">
-        <v>558</v>
+        <v>429</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>48</v>
+        <v>447</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>559</v>
+        <v>427</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" s="14" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="10" t="s">
-        <v>649</v>
+      <c r="A218" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>648</v>
+        <v>20</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="10" t="s">
-        <v>414</v>
+        <v>261</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E219" s="9" t="s">
-        <v>46</v>
+        <v>323</v>
+      </c>
+      <c r="F219" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="10" t="s">
-        <v>438</v>
+      <c r="A220" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="G220" s="15" t="s">
-        <v>440</v>
+        <v>5</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="E221" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="10" t="s">
-        <v>170</v>
+        <v>594</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>303</v>
+        <v>138</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F222" s="6">
-        <v>4</v>
+        <v>595</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>542</v>
+        <v>495</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="G223" s="14" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>34</v>
+        <v>495</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G224" s="14" t="s">
-        <v>36</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="10" t="s">
-        <v>674</v>
+        <v>268</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>665</v>
+        <v>369</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>670</v>
+        <v>368</v>
+      </c>
+      <c r="F225" s="6">
+        <v>3</v>
+      </c>
+      <c r="G225" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>643</v>
+        <v>179</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>640</v>
+        <v>555</v>
+      </c>
+      <c r="E226" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F226" s="6">
+        <v>4</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="F227" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="10" t="s">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>111</v>
+        <v>446</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>108</v>
+        <v>433</v>
       </c>
       <c r="E228" s="9" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="10" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="10" t="s">
-        <v>133</v>
+        <v>552</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E230" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G230" s="14" t="s">
-        <v>136</v>
+        <v>553</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="10" t="s">
-        <v>384</v>
+        <v>643</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G231" s="14" t="s">
-        <v>386</v>
+        <v>642</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G232" s="14" t="s">
-        <v>397</v>
+        <v>410</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>124</v>
+        <v>432</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="E233" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" s="14" t="s">
-        <v>627</v>
+        <v>433</v>
+      </c>
+      <c r="G233" s="15" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="10" t="s">
-        <v>462</v>
+        <v>685</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>463</v>
+        <v>659</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>460</v>
+        <v>679</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="10" t="s">
-        <v>47</v>
+        <v>692</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>455</v>
+        <v>659</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>448</v>
+        <v>689</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F235" s="6">
-        <v>2</v>
-      </c>
-      <c r="G235" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="10" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E236" s="9" t="s">
-        <v>14</v>
+        <v>510</v>
+      </c>
+      <c r="F236" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="10" t="s">
-        <v>178</v>
+        <v>541</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>179</v>
+        <v>543</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="E237" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F237" s="6">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="10" t="s">
-        <v>543</v>
+        <v>33</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>542</v>
+        <v>34</v>
       </c>
       <c r="E238" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="10" t="s">
-        <v>163</v>
+        <v>668</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>166</v>
+        <v>659</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>165</v>
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="10" t="s">
-        <v>541</v>
+        <v>636</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>637</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" s="14" t="s">
-        <v>545</v>
+        <v>634</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="10" t="s">
-        <v>467</v>
+        <v>277</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>118</v>
+        <v>411</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" s="15" t="s">
-        <v>468</v>
+        <v>410</v>
+      </c>
+      <c r="F241" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>597</v>
+        <v>107</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F242" s="6">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="10" t="s">
-        <v>441</v>
+        <v>142</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>439</v>
+        <v>144</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" s="15" t="s">
-        <v>442</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G244" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="10" t="s">
-        <v>554</v>
+        <v>379</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>14</v>
+        <v>380</v>
+      </c>
+      <c r="G245" s="14" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="10" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>454</v>
+        <v>153</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F246" s="6">
-        <v>2</v>
+        <v>391</v>
+      </c>
+      <c r="G246" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="10" t="s">
-        <v>106</v>
+        <v>618</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="E247" s="9" t="s">
-        <v>109</v>
+        <v>14</v>
+      </c>
+      <c r="G247" s="14" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="10" t="s">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>97</v>
+        <v>454</v>
       </c>
       <c r="E248" s="9" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="10" t="s">
-        <v>615</v>
+        <v>47</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>140</v>
+        <v>449</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>612</v>
+        <v>442</v>
       </c>
       <c r="E249" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F249" s="6">
+        <v>2</v>
+      </c>
+      <c r="G249" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="10" t="s">
-        <v>253</v>
+        <v>445</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F250" s="6">
-        <v>3</v>
+        <v>442</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="10" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>97</v>
+        <v>545</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="F251" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>140</v>
+        <v>537</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="E252" s="9"/>
+        <v>536</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" s="14" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="253" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="10" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="4" t="s">
-        <v>169</v>
+      <c r="A254" s="10" t="s">
+        <v>535</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="F254" s="6">
-        <v>4</v>
+        <v>536</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" s="14" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="10" t="s">
-        <v>66</v>
+        <v>461</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>68</v>
+        <v>454</v>
       </c>
       <c r="E255" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G255" s="14" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="10" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>128</v>
+        <v>591</v>
       </c>
       <c r="E256" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G256" s="14" t="s">
-        <v>308</v>
+        <v>14</v>
+      </c>
+      <c r="F256" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="10" t="s">
-        <v>521</v>
+        <v>435</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>517</v>
+        <v>299</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>520</v>
+        <v>433</v>
       </c>
       <c r="E257" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G257" s="14" t="s">
-        <v>522</v>
+      <c r="G257" s="15" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="10" t="s">
-        <v>500</v>
+        <v>139</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>501</v>
+        <v>137</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G258" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="10" t="s">
-        <v>407</v>
+        <v>548</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G259" s="16" t="s">
-        <v>408</v>
+        <v>547</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="10" t="s">
-        <v>447</v>
+        <v>276</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>448</v>
+        <v>410</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="10" t="s">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>412</v>
+        <v>106</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G261" s="14" t="s">
-        <v>406</v>
+        <v>107</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>118</v>
+        <v>560</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="10" t="s">
-        <v>167</v>
+        <v>609</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>168</v>
+        <v>606</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="10" t="s">
-        <v>129</v>
+      <c r="A264" s="4" t="s">
+        <v>706</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>131</v>
+        <v>695</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>130</v>
+        <v>696</v>
       </c>
       <c r="E264" s="9" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="G264" s="14" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="10" t="s">
-        <v>156</v>
+        <v>249</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>157</v>
+        <v>366</v>
+      </c>
+      <c r="F265" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="10" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G266" s="14" t="s">
-        <v>154</v>
+        <v>96</v>
+      </c>
+      <c r="E266" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="10" t="s">
-        <v>158</v>
+        <v>513</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>159</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="E267" s="9"/>
     </row>
     <row r="268" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="10" t="s">
-        <v>410</v>
+        <v>23</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>411</v>
+        <v>24</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>179</v>
+      <c r="A269" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C269" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>460</v>
+        <v>492</v>
+      </c>
+      <c r="F269" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="10" t="s">
-        <v>472</v>
+        <v>66</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>474</v>
+        <v>67</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>473</v>
+        <v>68</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G270" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="10" t="s">
-        <v>284</v>
+        <v>123</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>283</v>
+        <v>126</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G271" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="10" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>179</v>
+        <v>511</v>
       </c>
       <c r="C272" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>432</v>
+        <v>514</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>48</v>
+        <v>494</v>
       </c>
       <c r="C273" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E273" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G273" s="14" t="s">
-        <v>53</v>
+        <v>495</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="E274" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" s="14" t="s">
-        <v>592</v>
+        <v>43</v>
+      </c>
+      <c r="G274" s="16" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="10" t="s">
-        <v>28</v>
+        <v>441</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E275" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G275" s="14" t="s">
-        <v>31</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="10" t="s">
-        <v>536</v>
+        <v>400</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E276" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="G276" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="10" t="s">
-        <v>560</v>
+        <v>116</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="G277" s="14" t="s">
-        <v>562</v>
+        <v>118</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="10" t="s">
-        <v>537</v>
+        <v>165</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="E278" s="9" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="10" t="s">
-        <v>82</v>
+        <v>127</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="10" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>565</v>
+        <v>153</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E281" s="9" t="s">
-        <v>14</v>
+        <v>151</v>
+      </c>
+      <c r="G281" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>565</v>
+        <v>156</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E282" s="9" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="10" t="s">
-        <v>697</v>
+        <v>405</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>565</v>
+        <v>406</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E283" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="10" t="s">
-        <v>698</v>
+        <v>453</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>665</v>
+        <v>177</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E284" s="9" t="s">
-        <v>46</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="10" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>565</v>
+        <v>468</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="E285" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" s="14" t="s">
-        <v>700</v>
+        <v>467</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>565</v>
+        <v>280</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="E286" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G286" s="14" t="s">
-        <v>701</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" s="4" t="s">
-        <v>713</v>
+      <c r="A287" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>702</v>
+        <v>177</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G287" s="14" t="s">
-        <v>704</v>
+        <v>427</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="4" t="s">
-        <v>712</v>
+      <c r="A288" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>702</v>
+        <v>48</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>705</v>
+        <v>52</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="G288" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="4" t="s">
-        <v>706</v>
+      <c r="A289" s="10" t="s">
+        <v>585</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>702</v>
+        <v>138</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>705</v>
+        <v>584</v>
       </c>
       <c r="E289" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G289" s="14" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="4" t="s">
-        <v>708</v>
+      <c r="A290" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>702</v>
+        <v>32</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>707</v>
+        <v>29</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G290" s="14" t="s">
-        <v>715</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>702</v>
+      <c r="A291" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>707</v>
+        <v>529</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G291" s="14" t="s">
-        <v>716</v>
-      </c>
     </row>
     <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="4" t="s">
-        <v>710</v>
+      <c r="A292" s="10" t="s">
+        <v>554</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>702</v>
+        <v>345</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>14</v>
+        <v>555</v>
       </c>
       <c r="G292" s="14" t="s">
-        <v>714</v>
+        <v>556</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>702</v>
+      <c r="A293" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>707</v>
+        <v>529</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A244 A287:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A255 A287:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A280 A287:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A207" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A70" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A205" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A253" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A275" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A224" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A162" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A169" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A235" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A273" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A168" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A167" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A166" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A255" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A216" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A69" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A73" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A218" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A268" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A290" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A238" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A173" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A180" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A249" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A288" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A179" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A178" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A177" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A270" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A229" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A71" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
     <hyperlink ref="A57" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A37" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A279" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A46" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A196" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A141" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A86" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A53" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A248" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A251" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A48" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A19" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A247" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A228" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A27" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A8" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A31" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A262" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A256" r:id="rId35" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A264" r:id="rId36" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A230" r:id="rId37" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A244" r:id="rId38" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E244" r:id="rId39" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E230" r:id="rId40" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E264" r:id="rId41" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E256" r:id="rId42" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E262" r:id="rId43" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E31" r:id="rId44" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E8" r:id="rId45" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E27" r:id="rId46" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E228" r:id="rId47" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E247" r:id="rId48" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E19" r:id="rId49" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E48" r:id="rId50" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E251" r:id="rId51" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E248" r:id="rId52" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E141" r:id="rId53" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E196" r:id="rId54" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E46" r:id="rId55" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E279" r:id="rId56" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E216" r:id="rId57" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E255" r:id="rId58" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E166" r:id="rId59" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E167" r:id="rId60" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E168" r:id="rId61" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E273" r:id="rId62" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E169" r:id="rId63" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E162" r:id="rId64" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E224" r:id="rId65" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E275" r:id="rId66" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E253" r:id="rId67" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E205" r:id="rId68" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E207" r:id="rId70" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A229" r:id="rId71" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E229" r:id="rId72" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A105" r:id="rId73" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E105" r:id="rId74" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A266" r:id="rId75" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A265" r:id="rId76" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A267" r:id="rId77" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A176" r:id="rId78" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A239" r:id="rId79" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E239" r:id="rId80" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A263" r:id="rId81" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A254" r:id="rId82" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A222" r:id="rId83" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A118" r:id="rId84" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A197" r:id="rId85" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E197" r:id="rId86" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A186" r:id="rId87" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E186" r:id="rId88" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A237" r:id="rId89" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E237" r:id="rId90" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A163" r:id="rId91" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E163" r:id="rId92" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A213" r:id="rId93" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A41" r:id="rId94" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A7" r:id="rId95" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A148" r:id="rId96" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A85" r:id="rId97" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A159" r:id="rId98" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A214" r:id="rId99" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A93" r:id="rId100" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A10" r:id="rId101" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A84" r:id="rId102" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E84" r:id="rId103" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A38" r:id="rId104" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A100" r:id="rId105" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A5" r:id="rId106" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A98" r:id="rId107" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A136" r:id="rId108" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A122" r:id="rId109" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A72" r:id="rId110" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A101" r:id="rId111" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A75" r:id="rId112" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A54" r:id="rId113" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A82" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A94" r:id="rId115" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A33" r:id="rId116" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A42" r:id="rId117" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A95" r:id="rId118" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="A56" r:id="rId119" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A130" r:id="rId120" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="A39" r:id="rId121" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="A115" r:id="rId122" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E131" r:id="rId123" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A131" r:id="rId124" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A97" r:id="rId125" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A3" r:id="rId126" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A25" r:id="rId127" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E25" r:id="rId128" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E49" r:id="rId129" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A49" r:id="rId130" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A175" r:id="rId131" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A198" r:id="rId132" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E14" r:id="rId133" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A14" r:id="rId134" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A87" r:id="rId135" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E51" r:id="rId136" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A40" r:id="rId137" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A51" r:id="rId138" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E88" r:id="rId139" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A88" r:id="rId140" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A17" r:id="rId141" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E17" r:id="rId142" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A66" r:id="rId143" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E66" r:id="rId144" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A32" r:id="rId145" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E32" r:id="rId146" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A96" r:id="rId147" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E47" r:id="rId148" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A47" r:id="rId149" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A50" r:id="rId150" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A250" r:id="rId151" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A90" r:id="rId152" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A129" r:id="rId153" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A171" r:id="rId154" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E171" r:id="rId155" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A106" r:id="rId156" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E106" r:id="rId157" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A206" r:id="rId158" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A212" r:id="rId159" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A110" r:id="rId160" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A124" r:id="rId161" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A24" r:id="rId162" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E24" r:id="rId163" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A76" r:id="rId164" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E76" r:id="rId165" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A271" r:id="rId166" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A150" r:id="rId167" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="A22" r:id="rId168" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E22" r:id="rId169" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="E213" r:id="rId170" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="E85" r:id="rId171" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="A9" r:id="rId172" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A191" r:id="rId173" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A104" r:id="rId174" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A71" r:id="rId175" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A149" r:id="rId176" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E149" r:id="rId177" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A154" r:id="rId178" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E97" r:id="rId179" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="A91" r:id="rId180" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A173" r:id="rId181" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E173" r:id="rId182" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A231" r:id="rId183" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A172" r:id="rId184" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A83" r:id="rId185" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A147" r:id="rId186" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A232" r:id="rId187" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A65" r:id="rId188" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E65" r:id="rId189" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G65" r:id="rId190" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A29" r:id="rId191" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E29" r:id="rId192" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A30" r:id="rId193" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A261" r:id="rId194" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A259" r:id="rId195" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G259" r:id="rId196" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
-    <hyperlink ref="A268" r:id="rId197" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
-    <hyperlink ref="E37" r:id="rId198" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
-    <hyperlink ref="A219" r:id="rId199" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
-    <hyperlink ref="E219" r:id="rId200" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
-    <hyperlink ref="A227" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
-    <hyperlink ref="A246" r:id="rId202" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
-    <hyperlink ref="A202" r:id="rId203" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
-    <hyperlink ref="A111" r:id="rId204" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
-    <hyperlink ref="E111" r:id="rId205" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
-    <hyperlink ref="A112" r:id="rId206" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
-    <hyperlink ref="E112" r:id="rId207" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
-    <hyperlink ref="G112" r:id="rId208" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
-    <hyperlink ref="A158" r:id="rId209" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
-    <hyperlink ref="A189" r:id="rId210" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
-    <hyperlink ref="A180" r:id="rId211" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
-    <hyperlink ref="E86" r:id="rId212" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
-    <hyperlink ref="A157" r:id="rId213" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
-    <hyperlink ref="A126" r:id="rId214" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
-    <hyperlink ref="E157" r:id="rId215" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
-    <hyperlink ref="E126" r:id="rId216" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
-    <hyperlink ref="E41" r:id="rId217" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
-    <hyperlink ref="A272" r:id="rId218" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
-    <hyperlink ref="E53" r:id="rId219" xr:uid="{D6944F92-75CA-4EB9-A660-B0C40022253D}"/>
-    <hyperlink ref="A204" r:id="rId220" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
-    <hyperlink ref="A220" r:id="rId221" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{C85C80EC-3ACB-4A15-B7C5-6111F13AD561}"/>
-    <hyperlink ref="A243" r:id="rId222" xr:uid="{F0F851C2-AB91-4D3D-B35A-03A67A2935E2}"/>
-    <hyperlink ref="A164" r:id="rId223" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
-    <hyperlink ref="A113" r:id="rId224" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
-    <hyperlink ref="A215" r:id="rId225" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
-    <hyperlink ref="A260" r:id="rId226" display="https://leetcode.cn/problems/number-of-ways-to-split-array/" xr:uid="{0083AF73-8A8C-48E0-8E76-76A6C4FC67CD}"/>
-    <hyperlink ref="A236" r:id="rId227" display="https://leetcode.cn/problems/4sum-ii/" xr:uid="{2EE7F96A-F6A7-429F-BFB7-7BA3E80D9896}"/>
-    <hyperlink ref="E236" r:id="rId228" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D2DA8351-DC34-44A8-924F-C24DFAB45BD5}"/>
-    <hyperlink ref="A92" r:id="rId229" display="https://leetcode.cn/problems/4sum/" xr:uid="{FC5299F8-4C72-4AB9-9C54-517DEBF830F6}"/>
-    <hyperlink ref="E92" r:id="rId230" xr:uid="{F3766F46-B32F-4AF5-A0AB-F19AED32B55B}"/>
-    <hyperlink ref="E215" r:id="rId231" xr:uid="{0F6A52C4-8EA8-4AF1-8CDB-67CF474C7907}"/>
-    <hyperlink ref="E113" r:id="rId232" xr:uid="{8316C500-0D41-455C-8EA5-0D189B83EAFD}"/>
-    <hyperlink ref="E164" r:id="rId233" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
-    <hyperlink ref="E243" r:id="rId234" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
-    <hyperlink ref="E204" r:id="rId235" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
-    <hyperlink ref="A269" r:id="rId236" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-i/" xr:uid="{E49E6490-9385-40D0-AEA8-799F5892BD00}"/>
-    <hyperlink ref="A234" r:id="rId237" display="https://leetcode.cn/problems/reverse-string/" xr:uid="{57B0A443-1236-4D51-9226-49C188B529DA}"/>
-    <hyperlink ref="E234" r:id="rId238" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
-    <hyperlink ref="A187" r:id="rId239" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
-    <hyperlink ref="E187" r:id="rId240" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
-    <hyperlink ref="A241" r:id="rId241" xr:uid="{85C8A5C1-F8C0-4B5F-9625-B7B85D6CFB62}"/>
-    <hyperlink ref="E241" r:id="rId242" xr:uid="{CCFEC5D8-FDFD-4AAB-91B8-F54059304742}"/>
-    <hyperlink ref="A153" r:id="rId243" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
-    <hyperlink ref="E153" r:id="rId244" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
-    <hyperlink ref="E202" r:id="rId245" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
-    <hyperlink ref="A270" r:id="rId246" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-ii/" xr:uid="{1E11646A-D940-446C-8E1B-6F3CD471DAEC}"/>
-    <hyperlink ref="A188" r:id="rId247" xr:uid="{EECF5DCB-F6DA-4CC6-B808-B6D1A0FD2EA7}"/>
-    <hyperlink ref="E188" r:id="rId248" location="%E6%80%9D%E8%B7%AF" xr:uid="{7DC750A1-BD6D-404C-A7A2-3CC13D80ECC3}"/>
-    <hyperlink ref="A11" r:id="rId249" display="https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{023E2A06-6F13-495C-B896-F7241E8F25EB}"/>
-    <hyperlink ref="A20" r:id="rId250" display="https://leetcode.cn/problems/repeated-substring-pattern/" xr:uid="{1EBC7A26-002F-442F-A7E1-A7CB3DFA8EAF}"/>
-    <hyperlink ref="E11" r:id="rId251" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B0445983-C761-4027-9892-5CFEFE2DE00C}"/>
-    <hyperlink ref="E20" r:id="rId252" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
-    <hyperlink ref="A108" r:id="rId253" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
-    <hyperlink ref="E108" r:id="rId254" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
-    <hyperlink ref="A109" r:id="rId255" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-ii/" xr:uid="{9008DB9E-D93F-4EF3-8591-DBCFDD2E3EF7}"/>
-    <hyperlink ref="E109" r:id="rId256" xr:uid="{8DC848F8-A815-4218-9456-9703CE7BE7CE}"/>
-    <hyperlink ref="E161" r:id="rId257" xr:uid="{8E8A4275-1999-4D2D-8BB7-7CED3278C51A}"/>
-    <hyperlink ref="A160" r:id="rId258" display="https://leetcode.cn/problems/implement-stack-using-queues/" xr:uid="{E12BF282-5E70-47AC-9C5D-9D60391E9296}"/>
-    <hyperlink ref="A161" r:id="rId259" display="https://leetcode.cn/problems/implement-queue-using-stacks/" xr:uid="{ADE59DCF-8B21-45AD-B53B-361152381BF1}"/>
-    <hyperlink ref="E160" r:id="rId260" xr:uid="{05957446-1D31-4C7B-8F6C-B82E8DB12F66}"/>
-    <hyperlink ref="E40" r:id="rId261" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
-    <hyperlink ref="A139" r:id="rId262" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
-    <hyperlink ref="E139" r:id="rId263" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
-    <hyperlink ref="A152" r:id="rId264" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
-    <hyperlink ref="E152" r:id="rId265" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
-    <hyperlink ref="E50" r:id="rId266" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
-    <hyperlink ref="A99" r:id="rId267" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
-    <hyperlink ref="A258" r:id="rId268" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
-    <hyperlink ref="A210" r:id="rId269" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/" xr:uid="{A363BEEA-7BE6-456D-804D-7BDCB7E85DFB}"/>
-    <hyperlink ref="A211" r:id="rId270" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/" xr:uid="{B9D197B4-5C37-4A5A-A04B-CF78AB20E147}"/>
-    <hyperlink ref="A201" r:id="rId271" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{69C20845-0A3D-46F4-B444-CCFBE6E145DF}"/>
-    <hyperlink ref="E210" r:id="rId272" location="%E6%80%9D%E8%B7%AF" xr:uid="{98F6803B-8B83-416E-BB2C-1DEB8182DC48}"/>
-    <hyperlink ref="E211" r:id="rId273" location="%E6%80%9D%E8%B7%AF" xr:uid="{1897748C-87BB-4965-9122-C18B341FD11F}"/>
-    <hyperlink ref="E201" r:id="rId274" location="%E6%80%9D%E8%B7%AF" xr:uid="{5AAB9E5A-B815-4599-8632-18036AFBCA56}"/>
-    <hyperlink ref="A137" r:id="rId275" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{47A5225C-E21F-4CDB-B91E-B037F15E66B5}"/>
-    <hyperlink ref="E137" r:id="rId276" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{80D4DA8D-8725-4E23-8B72-625D6B2399C8}"/>
-    <hyperlink ref="A140" r:id="rId277" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D38A3DEC-21B5-4E17-8300-F5CDEABAE95B}"/>
-    <hyperlink ref="E140" r:id="rId278" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{D14E61DA-9CA2-4C2F-8D77-DA86B2095FE2}"/>
-    <hyperlink ref="A156" r:id="rId279" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{A94BE682-8FEF-4F77-A6A6-1534F6170AAF}"/>
-    <hyperlink ref="E156" r:id="rId280" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{157959E8-1676-4092-960B-BD1BAB6322C0}"/>
-    <hyperlink ref="A192" r:id="rId281" display="https://leetcode.cn/problems/average-of-levels-in-binary-tree/" xr:uid="{548700C6-87D6-4750-8347-AE75CB5503B2}"/>
-    <hyperlink ref="E192" r:id="rId282" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A1BD98FE-922C-4415-86C7-6C62E6A2EB3A}"/>
-    <hyperlink ref="A179" r:id="rId283" display="https://leetcode.cn/problems/n-ary-tree-level-order-traversal/" xr:uid="{DB1F1A45-50E7-4BE5-BC27-E3A5F0B77994}"/>
-    <hyperlink ref="E179" r:id="rId284" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{7026BEA4-FFE1-4096-B74B-18EE89FBC364}"/>
-    <hyperlink ref="A183" r:id="rId285" display="https://leetcode.cn/problems/find-largest-value-in-each-tree-row/" xr:uid="{2D9F9242-5DD7-412B-9B91-0324111C907B}"/>
-    <hyperlink ref="E183" r:id="rId286" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A2D8F24C-89FF-48CD-9847-5EABD20E5A80}"/>
-    <hyperlink ref="A144" r:id="rId287" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/" xr:uid="{FF0B08ED-1029-4393-B66C-B3B18518EA93}"/>
-    <hyperlink ref="E144" r:id="rId288" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{F0B76380-5057-4A8B-8B43-B4462F3760D5}"/>
-    <hyperlink ref="A145" r:id="rId289" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/" xr:uid="{1A1AE58D-05B7-4CD7-A7D8-091047D2C221}"/>
-    <hyperlink ref="E145" r:id="rId290" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{EAC85DDC-91B8-4291-8C7C-02883E894FC3}"/>
-    <hyperlink ref="A138" r:id="rId291" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{C713E8BB-D494-44B5-A38F-4DF7C24A82BA}"/>
-    <hyperlink ref="E138" r:id="rId292" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{5862B7B3-DE27-4C51-84AC-4E300421C5A2}"/>
-    <hyperlink ref="E143" r:id="rId293" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{72902DFB-E152-4455-8BE8-DBD03A1711B9}"/>
-    <hyperlink ref="A143" r:id="rId294" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
-    <hyperlink ref="E98" r:id="rId295" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{81CAA0A8-8752-4618-9D62-09BBBFFF2C27}"/>
-    <hyperlink ref="E136" r:id="rId296" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D6275CE0-A5A1-49EA-95B5-AEEF25043C1A}"/>
-    <hyperlink ref="A252" r:id="rId297" display="https://leetcode.cn/problems/maximum-number-of-coins-you-can-get/" xr:uid="{6253DCFD-BC5B-475C-B48A-6312D8994C29}"/>
-    <hyperlink ref="A257" r:id="rId298" display="https://leetcode.cn/problems/count-complete-tree-nodes/" xr:uid="{F930D6BF-CA2D-4A54-B2D3-48894D2C1667}"/>
-    <hyperlink ref="A142" r:id="rId299" display="https://leetcode.cn/problems/balanced-binary-tree/" xr:uid="{C1BECD37-06E7-4598-B8DB-061CBE7524E6}"/>
-    <hyperlink ref="E257" r:id="rId300" xr:uid="{383058B6-56FE-4767-9EFE-11985B0ACFF7}"/>
-    <hyperlink ref="E142" r:id="rId301" xr:uid="{8E965AA3-76D1-4573-AC6D-DBBF9F8EA2E5}"/>
-    <hyperlink ref="A103" r:id="rId302" display="https://leetcode.cn/problems/binary-tree-paths/" xr:uid="{24B65BC3-D63A-4953-B234-BC917C774B36}"/>
-    <hyperlink ref="E103" r:id="rId303" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
-    <hyperlink ref="A117" r:id="rId304" display="https://leetcode.cn/problems/sum-of-left-leaves/" xr:uid="{45E92AA8-EE9D-4B26-9FCD-76DEC3E2C4D9}"/>
-    <hyperlink ref="E117" r:id="rId305" xr:uid="{DE2D445A-E5A2-4AA6-BDD7-7B4DEA2D6E4D}"/>
-    <hyperlink ref="A182" r:id="rId306" display="https://leetcode.cn/problems/find-bottom-left-tree-value/" xr:uid="{605FF5ED-AF07-4B3C-997C-08D492E45CCC}"/>
-    <hyperlink ref="E182" r:id="rId307" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{A2AE7B1C-E34F-4D80-9E21-2DB694BBA70E}"/>
-    <hyperlink ref="A73" r:id="rId308" display="https://leetcode.cn/problems/path-sum/" xr:uid="{03532BB2-4E89-494A-8802-8347D5114E0B}"/>
-    <hyperlink ref="E73" r:id="rId309" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D197415D-351F-446B-9C9E-03F06E868673}"/>
-    <hyperlink ref="A74" r:id="rId310" display="https://leetcode.cn/problems/path-sum-ii/" xr:uid="{329C8E00-A066-4945-8956-A6F8ED53A18C}"/>
-    <hyperlink ref="E74" r:id="rId311" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{7C5C3F77-D704-4BBB-B0E6-B9BC2AC892F8}"/>
-    <hyperlink ref="A2" r:id="rId312" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{3E7EFB2F-8AEC-45A6-BE9F-EC92BE5A99CC}"/>
-    <hyperlink ref="A36" r:id="rId313" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{32EEC8BE-6003-46DD-9E50-476A3C61F75C}"/>
-    <hyperlink ref="E2" r:id="rId314" location="%E6%80%9D%E8%B7%AF" xr:uid="{3E5E0DD5-5351-4BDD-A84B-DF8F6DCFC6EA}"/>
-    <hyperlink ref="E36" r:id="rId315" location="%E6%80%9D%E8%B7%AF" xr:uid="{3324E13D-AF5D-47ED-85B8-024405BDEC52}"/>
-    <hyperlink ref="A125" r:id="rId316" display="https://leetcode.cn/problems/maximum-binary-tree/" xr:uid="{EDE93708-788E-4B93-93BD-8B3B578CB97C}"/>
-    <hyperlink ref="E125" r:id="rId317" xr:uid="{7E949249-0778-4990-9EC2-391AB5FB8BC1}"/>
-    <hyperlink ref="A276" r:id="rId318" display="https://leetcode.cn/problems/merge-two-binary-trees/" xr:uid="{685BF7C8-5943-4F05-8B8D-9DF774BF8A81}"/>
-    <hyperlink ref="E276" r:id="rId319" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4D503492-1F73-4A12-B899-CFB53D19F967}"/>
-    <hyperlink ref="E278" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{01B8B85B-7DC4-42D9-8779-C96D3EF0B7FE}"/>
-    <hyperlink ref="A278" r:id="rId321" display="https://leetcode.cn/problems/search-in-a-binary-search-tree/" xr:uid="{48AEF775-6F49-49B6-9D85-EED4A8ECA17B}"/>
-    <hyperlink ref="A203" r:id="rId322" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{36A3B1F7-40A8-438D-B66A-0972D2106EC2}"/>
-    <hyperlink ref="E203" r:id="rId323" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{664D0036-97FD-400D-A9BB-4B9D3BED8E05}"/>
-    <hyperlink ref="A107" r:id="rId324" display="https://leetcode.cn/problems/minimum-number-of-coins-for-fruits/" xr:uid="{B94ED6A5-59A7-40F8-ADED-AD8034C8B0CB}"/>
-    <hyperlink ref="E240" r:id="rId325" xr:uid="{28F0E083-1137-4751-BEB3-72761861DA55}"/>
-    <hyperlink ref="E238" r:id="rId326" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{10E95789-DF12-4B52-A2D1-B9410F6D0A14}"/>
-    <hyperlink ref="E44" r:id="rId327" xr:uid="{62659393-12B3-4388-AB36-42818C940F03}"/>
-    <hyperlink ref="A240" r:id="rId328" display="https://leetcode.cn/problems/minimum-absolute-difference-in-bst/" xr:uid="{CA149B8E-4083-40F2-8797-87524934E57A}"/>
-    <hyperlink ref="A238" r:id="rId329" display="https://leetcode.cn/problems/find-mode-in-binary-search-tree/" xr:uid="{66FED396-569A-4F51-A1C3-9EC522A53341}"/>
-    <hyperlink ref="A44" r:id="rId330" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{3E15CC50-0479-40F6-A46D-60B9456C12A7}"/>
-    <hyperlink ref="A223" r:id="rId331" display="https://leetcode.cn/problems/minimum-money-required-before-transactions/" xr:uid="{A89F13A8-8C3C-43F7-A17A-E6D934DD82F6}"/>
-    <hyperlink ref="E223" r:id="rId332" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
-    <hyperlink ref="A52" r:id="rId333" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
-    <hyperlink ref="A102" r:id="rId334" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8860768E-4F64-4B3B-98EC-BF7A17FA992E}"/>
-    <hyperlink ref="E102" r:id="rId335" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AA67F91A-6273-43E9-AAE2-A65FC5D48A3B}"/>
-    <hyperlink ref="E55" r:id="rId336" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6F24E2BA-88C0-465F-8F6A-7F082BD77BE1}"/>
-    <hyperlink ref="E245" r:id="rId337" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
-    <hyperlink ref="A245" r:id="rId338" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
-    <hyperlink ref="A55" r:id="rId339" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
-    <hyperlink ref="A217" r:id="rId340" display="https://leetcode.cn/problems/contains-duplicate-ii/" xr:uid="{82304D18-534F-4B45-8873-2AE0CE4E2E67}"/>
-    <hyperlink ref="A277" r:id="rId341" display="https://leetcode.cn/problems/valid-palindrome-ii/" xr:uid="{63A3FF91-0B2A-469A-A4E1-921A7A854BE7}"/>
-    <hyperlink ref="E72" r:id="rId342" xr:uid="{908B2229-B6AF-4E37-A17A-BBF0B94C435E}"/>
-    <hyperlink ref="A193" r:id="rId343" display="https://leetcode.cn/problems/trim-a-binary-search-tree/" xr:uid="{2F2A1D6B-336A-4622-A218-F447E1C570E2}"/>
-    <hyperlink ref="A185" r:id="rId344" display="https://leetcode.cn/problems/convert-bst-to-greater-tree/" xr:uid="{694FDE47-C328-4D63-95C4-92DA21BF968A}"/>
-    <hyperlink ref="E193" r:id="rId345" location="%E6%80%9D%E8%B7%AF" xr:uid="{DB0877C7-738D-42DE-BB61-8C9C23171F43}"/>
-    <hyperlink ref="E185" r:id="rId346" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FEC1A6E3-ACED-476E-A7CA-907F84756D84}"/>
-    <hyperlink ref="A68" r:id="rId347" display="https://leetcode.cn/problems/combinations/" xr:uid="{E08E7553-D443-45C6-B898-4BFEAE34B442}"/>
-    <hyperlink ref="A280" r:id="rId348" display="https://leetcode.cn/problems/combination-sum-iii/" xr:uid="{B3833617-AF70-4FCE-8BFA-0BC090559E9E}"/>
-    <hyperlink ref="E68" r:id="rId349" xr:uid="{6D15BC03-6C24-4CBE-B14F-AF46452744CA}"/>
-    <hyperlink ref="E280" r:id="rId350" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
-    <hyperlink ref="E39" r:id="rId351" xr:uid="{70FB8C70-E662-43E4-9BEB-2C991560FFCD}"/>
-    <hyperlink ref="A132" r:id="rId352" display="https://leetcode.cn/problems/subsets-ii/" xr:uid="{BF57B92E-019F-4853-BCA8-E284BE4E7D3F}"/>
-    <hyperlink ref="A133" r:id="rId353" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{D1C2BD62-595B-4A7D-A2B7-61892FD813F8}"/>
-    <hyperlink ref="E133" r:id="rId354" xr:uid="{799CE8DF-ABD0-4935-AF11-4FFE538FF6DB}"/>
-    <hyperlink ref="E132" r:id="rId355" xr:uid="{39B538B3-95D9-49AB-A21C-769543C63F39}"/>
-    <hyperlink ref="A58" r:id="rId356" display="https://leetcode.cn/problems/non-decreasing-subsequences/" xr:uid="{270BDDBE-643B-4DB5-8074-FFAC63F713AC}"/>
-    <hyperlink ref="E58" r:id="rId357" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{70096A3A-7A54-46BB-AEA3-E6C944EB027F}"/>
-    <hyperlink ref="A21" r:id="rId358" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{02BDF740-3DE5-4E13-8B41-60BD596468BC}"/>
-    <hyperlink ref="E21" r:id="rId359" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7532296D-4A89-495D-B3C4-872925E401C5}"/>
-    <hyperlink ref="A174" r:id="rId360" display="https://leetcode.cn/problems/reconstruct-itinerary/" xr:uid="{3CFD64BF-5BFC-4EE6-B10D-17D9CD13C100}"/>
-    <hyperlink ref="E174" r:id="rId361" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B978FA55-1557-4A14-9DE1-55E425C57427}"/>
-    <hyperlink ref="A114" r:id="rId362" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{1DA82971-1CAA-40D0-8F79-6BF174433576}"/>
-    <hyperlink ref="E114" r:id="rId363" xr:uid="{9F82BAB4-3F09-4281-914C-501D4F4EF17F}"/>
-    <hyperlink ref="A274" r:id="rId364" display="https://leetcode.cn/problems/assign-cookies/" xr:uid="{F7EF2770-1F4D-43A2-8C07-073CE2DC7E84}"/>
-    <hyperlink ref="E274" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{216A86D0-0D27-4596-8EE1-FD617CC8D658}"/>
-    <hyperlink ref="E177" r:id="rId366" xr:uid="{D774326A-9BD5-4FB5-8D59-3230132C6B87}"/>
-    <hyperlink ref="A177" r:id="rId367" display="https://leetcode.cn/problems/wiggle-subsequence/" xr:uid="{0592CD1C-63BF-483C-BC97-6A61F95B162E}"/>
-    <hyperlink ref="E3" r:id="rId368" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{26251414-EEC8-40E6-AAF9-A7DC88CA4AFC}"/>
-    <hyperlink ref="E235" r:id="rId369" location="%E6%80%9D%E8%B7%AF" xr:uid="{8D2F5BA2-CCA4-4F92-B531-19C4C4CC12AD}"/>
-    <hyperlink ref="E115" r:id="rId370" xr:uid="{A5992457-448E-4A74-B543-EB9B92483919}"/>
-    <hyperlink ref="E52" r:id="rId371" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AFC059A5-7AB0-4F8B-80A6-AB7F930F591A}"/>
-    <hyperlink ref="E56" r:id="rId372" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{E274F954-DDF7-48B3-97C4-2E75AC4FACE0}"/>
-    <hyperlink ref="E130" r:id="rId373" xr:uid="{4EFD1FC3-B71B-4B3E-8EBA-906D275376B4}"/>
-    <hyperlink ref="E242" r:id="rId374" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FAA033A6-0F1F-4690-93C1-69A784F1F297}"/>
-    <hyperlink ref="E120" r:id="rId375" xr:uid="{93B07DB7-E781-4E85-AF0F-69E2D5EC79A2}"/>
-    <hyperlink ref="E135" r:id="rId376" location="%E6%80%9D%E8%B7%AF" xr:uid="{6537664E-6B77-473A-9F48-179C67A9E7E2}"/>
-    <hyperlink ref="A242" r:id="rId377" display="https://leetcode.cn/problems/jump-game/" xr:uid="{7451D1E2-4D07-44FE-82F8-CD5855BDC24F}"/>
-    <hyperlink ref="A120" r:id="rId378" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{9FA7CDA6-9BB3-4FD0-8B15-B1BF05FA7C77}"/>
-    <hyperlink ref="A135" r:id="rId379" display="https://leetcode.cn/problems/maximize-sum-of-array-after-k-negations/" xr:uid="{0AA036B1-B7B6-42E2-9671-1CFD7D9304D2}"/>
-    <hyperlink ref="A209" r:id="rId380" display="https://leetcode.cn/problems/gas-station/" xr:uid="{8BE0126A-0FB4-4962-9266-4B0136E1903E}"/>
-    <hyperlink ref="E209" r:id="rId381" xr:uid="{8578DCBC-2857-4702-B5E7-F8D4C43D958E}"/>
-    <hyperlink ref="E146" r:id="rId382" location="%E6%80%BB%E7%BB%93" xr:uid="{C6162979-B3C3-4038-AE92-D5E305BC769E}"/>
-    <hyperlink ref="E200" r:id="rId383" location="%E6%80%9D%E8%B7%AF" xr:uid="{32C011D2-56A2-4808-A3E1-EDC267B4334C}"/>
-    <hyperlink ref="E178" r:id="rId384" location="%E6%80%9D%E8%B7%AF" xr:uid="{683A44D4-A2B2-416E-A8BE-7EC1E9F8306E}"/>
-    <hyperlink ref="A146" r:id="rId385" display="https://leetcode.cn/problems/candy/" xr:uid="{18479118-046B-47F9-BF00-EDB78C5B66CA}"/>
-    <hyperlink ref="A200" r:id="rId386" display="https://leetcode.cn/problems/lemonade-change/" xr:uid="{F39F3153-0FD0-4978-8BEA-61C073F71CFA}"/>
-    <hyperlink ref="A178" r:id="rId387" display="https://leetcode.cn/problems/queue-reconstruction-by-height/" xr:uid="{E168B8BA-7F5D-410D-AD08-44337C7FD1F4}"/>
-    <hyperlink ref="A121" r:id="rId388" display="https://leetcode.cn/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{4D6F0443-D33C-47EA-BECD-B50501B5FBBA}"/>
-    <hyperlink ref="E121" r:id="rId389" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CBB26C51-416C-405F-A302-C40E70A77B5C}"/>
-    <hyperlink ref="A119" r:id="rId390" display="https://leetcode.cn/problems/non-overlapping-intervals/" xr:uid="{B26AD955-41C7-4022-8511-3AB9509D1C8E}"/>
-    <hyperlink ref="E119" r:id="rId391" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4B828D7A-002E-4ADB-AE2B-475B229F918E}"/>
-    <hyperlink ref="A67" r:id="rId392" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{DE31B183-147C-4384-B7D9-9B33C2E423D9}"/>
-    <hyperlink ref="E67" r:id="rId393" location="%E6%80%9D%E8%B7%AF" xr:uid="{69E3EE0D-E859-4939-8D4E-0AF73914B2F0}"/>
-    <hyperlink ref="E60" r:id="rId394" xr:uid="{54C11488-329F-4F9A-9365-E3B63CE1ED57}"/>
-    <hyperlink ref="E128" r:id="rId395" xr:uid="{687C952A-C1EA-4399-AD6B-56C3A015A665}"/>
-    <hyperlink ref="E249" r:id="rId396" xr:uid="{30B4EFBE-DC1F-4CB1-9838-F38E6CDCC86F}"/>
-    <hyperlink ref="A60" r:id="rId397" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{6A479462-3315-4D0E-A19A-CBED939F685E}"/>
-    <hyperlink ref="A128" r:id="rId398" display="https://leetcode.cn/problems/monotone-increasing-digits/" xr:uid="{515D2D14-7BB9-4C97-B572-FFEED20AAE2C}"/>
-    <hyperlink ref="A249" r:id="rId399" display="https://leetcode.cn/problems/binary-tree-cameras/" xr:uid="{E2712FA3-3451-44F9-9595-EECCA34B8C08}"/>
-    <hyperlink ref="E181" r:id="rId400" xr:uid="{11637D6C-418A-41BD-B312-324687673583}"/>
-    <hyperlink ref="E195" r:id="rId401" xr:uid="{3426D3A6-A466-4066-BBDC-42833D2C33B4}"/>
-    <hyperlink ref="E199" r:id="rId402" xr:uid="{FA814D02-2656-46FB-BF95-2C8194762320}"/>
-    <hyperlink ref="A181" r:id="rId403" display="https://leetcode.cn/problems/fibonacci-number/" xr:uid="{45D0AF0C-7A16-43CB-887C-B48B7C848C29}"/>
-    <hyperlink ref="A195" r:id="rId404" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{9307DB6E-85CA-4E49-B429-29CD68B962DE}"/>
-    <hyperlink ref="A199" r:id="rId405" display="https://leetcode.cn/problems/min-cost-climbing-stairs/" xr:uid="{88A0429A-E979-48F0-AF62-D957E16ECA8A}"/>
-    <hyperlink ref="A190" r:id="rId406" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{AE2EA362-B732-43FB-9627-5F017B157DEF}"/>
-    <hyperlink ref="E190" r:id="rId407" location="%E6%80%9D%E8%B7%AF" xr:uid="{6DFEF880-D831-4C40-8255-C9CF884EC732}"/>
-    <hyperlink ref="E123" r:id="rId408" location="%E6%80%9D%E8%B7%AF" xr:uid="{4FBA42A5-E29D-4F2F-8DB8-728E6478F1C6}"/>
-    <hyperlink ref="E233" r:id="rId409" location="%E6%80%9D%E8%B7%AF" xr:uid="{08B109D0-F657-4B45-AC95-1598B638C2B3}"/>
-    <hyperlink ref="A233" r:id="rId410" display="https://leetcode.cn/problems/integer-break/" xr:uid="{20215E46-76E6-4D90-9D96-5FCB469BFC54}"/>
-    <hyperlink ref="E134" r:id="rId411" location="%E6%80%9D%E8%B7%AF" xr:uid="{B0C1AD17-C274-44F8-831D-FFCE6D7BD562}"/>
-    <hyperlink ref="A134" r:id="rId412" display="https://leetcode.cn/problems/unique-binary-search-trees/" xr:uid="{929D6B30-6DE3-4985-9B27-18F0CE7F3CF6}"/>
-    <hyperlink ref="A123" r:id="rId413" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{337BF453-6142-4FF1-BBBE-68A7B961EAE5}"/>
-    <hyperlink ref="A18" r:id="rId414" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{C1C4A4AE-2F75-44E9-8876-4F424F268E3E}"/>
-    <hyperlink ref="E18" r:id="rId415" location="%E6%80%9D%E8%B7%AF" xr:uid="{FB2239CC-5C43-4BBC-9F43-C36A427D6D6E}"/>
-    <hyperlink ref="A208" r:id="rId416" display="https://leetcode.cn/problems/replace-elements-with-greatest-element-on-right-side/" xr:uid="{105BA842-262A-4968-A11E-37CB8BD12E82}"/>
-    <hyperlink ref="E35" r:id="rId417" xr:uid="{DF77FF27-55F0-498E-926D-A94C9D4EEA7C}"/>
-    <hyperlink ref="E23" r:id="rId418" xr:uid="{37887993-2194-4ACA-AC5D-4CDE934AB3B1}"/>
-    <hyperlink ref="A35" r:id="rId419" display="https://leetcode.cn/problems/last-stone-weight-ii/" xr:uid="{083E5E28-9F83-4ADC-A743-D815C8AA5C49}"/>
-    <hyperlink ref="A23" r:id="rId420" display="https://leetcode.cn/problems/target-sum/" xr:uid="{23D53EEC-2F69-4C8F-A3BD-679FD488FA4F}"/>
-    <hyperlink ref="E26" r:id="rId421" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{5B8A88B2-7D44-4AEA-A7DE-F623804B7BF4}"/>
-    <hyperlink ref="E16" r:id="rId422" xr:uid="{4170896B-569C-48A0-AF10-F406B7FE1316}"/>
-    <hyperlink ref="E61" r:id="rId423" xr:uid="{61979918-D117-4461-AB6E-AEF6690C6A2E}"/>
-    <hyperlink ref="A26" r:id="rId424" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{E109E17B-ABBC-495E-A8D9-5E7EF59BA8C1}"/>
-    <hyperlink ref="A16" r:id="rId425" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{F3A184F5-5DCA-4220-BF55-8C70F41FB616}"/>
-    <hyperlink ref="A61" r:id="rId426" xr:uid="{DE59C999-64B7-4EEB-A945-6201D6C316B1}"/>
-    <hyperlink ref="E13" r:id="rId427" xr:uid="{56E0D5A5-9B68-40DC-991B-1128B39FAD51}"/>
-    <hyperlink ref="E4" r:id="rId428" xr:uid="{42070A93-072E-4F38-B3D5-C6E81890734B}"/>
-    <hyperlink ref="E45" r:id="rId429" xr:uid="{C413FA90-6248-41A1-BA43-473F5292496D}"/>
-    <hyperlink ref="A13" r:id="rId430" display="https://leetcode.cn/problems/coin-change/" xr:uid="{E0CCFFBE-8489-4D6A-BE69-0792D03399C7}"/>
-    <hyperlink ref="A45" r:id="rId431" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{62271432-DB27-401D-B084-2DC16FE0054B}"/>
-    <hyperlink ref="A4" r:id="rId432" display="https://leetcode.cn/problems/word-break/" xr:uid="{BDD96A07-894E-4FF1-8629-85064E3D8EDC}"/>
-    <hyperlink ref="E155" r:id="rId433" xr:uid="{724AEED3-3723-4675-866D-DEC487B97B1D}"/>
-    <hyperlink ref="E43" r:id="rId434" xr:uid="{38A9F4E6-3C04-4BB6-B47F-FF350EF1F8F5}"/>
-    <hyperlink ref="E15" r:id="rId435" xr:uid="{6FE19704-4847-4D00-85E9-6C864BB0A5D8}"/>
-    <hyperlink ref="A155" r:id="rId436" display="https://leetcode.cn/problems/house-robber/" xr:uid="{578CE9B6-F395-4BF2-AB3E-1F598B75B8D3}"/>
-    <hyperlink ref="A43" r:id="rId437" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{3F82E365-9C94-487D-A990-D4F9FE6B08AE}"/>
-    <hyperlink ref="A15" r:id="rId438" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{1022CB4C-6CDE-4D9F-864E-12ED007C30BA}"/>
-    <hyperlink ref="A226" r:id="rId439" display="https://leetcode.cn/problems/number-of-even-and-odd-bits/" xr:uid="{D8939EF7-7C6E-4CA6-812B-942B24465534}"/>
-    <hyperlink ref="E9" r:id="rId440" xr:uid="{D8C26BDB-A838-4342-B102-409F07BE683C}"/>
-    <hyperlink ref="E79" r:id="rId441" xr:uid="{1F17BC21-6737-4AA1-9B66-039A6F5E2928}"/>
-    <hyperlink ref="E80" r:id="rId442" xr:uid="{635C34E3-8A8A-4C5F-8D2D-4F53BA8BD45B}"/>
-    <hyperlink ref="E81" r:id="rId443" xr:uid="{B43D2CAB-87AB-4F9B-8E9C-54B5E4CE0F84}"/>
-    <hyperlink ref="A80" r:id="rId444" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{C7FC4C62-A665-4F8B-847A-9E7374997C77}"/>
-    <hyperlink ref="A81" r:id="rId445" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{60D6A262-1D1C-46C5-A53B-8FD8967DE55C}"/>
-    <hyperlink ref="A79" r:id="rId446" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{4343F38D-D3BB-4CCF-8446-EFA4A579A6D5}"/>
-    <hyperlink ref="A218" r:id="rId447" display="https://leetcode.cn/problems/minimum-white-tiles-after-covering-with-carpets/" xr:uid="{D20C3F82-1D87-4A53-AF26-84AC68AF5D8C}"/>
-    <hyperlink ref="E6" r:id="rId448" xr:uid="{F3BFB4EE-BECD-4F29-8825-7C1F34B5BC0A}"/>
-    <hyperlink ref="E12" r:id="rId449" xr:uid="{9F90F279-3F85-4BE2-8007-32F2CD2DE738}"/>
-    <hyperlink ref="E127" r:id="rId450" xr:uid="{B3D98882-5398-4509-B222-A0E9F356016E}"/>
-    <hyperlink ref="A6" r:id="rId451" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/" xr:uid="{FADC0B19-2B73-46B8-A20F-FA465F9E5456}"/>
-    <hyperlink ref="A12" r:id="rId452" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/" xr:uid="{D0775EC9-5A55-4411-8065-0F0EBB23309D}"/>
-    <hyperlink ref="A127" r:id="rId453" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/" xr:uid="{BBB417D8-4C15-407F-999D-EC8CB3CB5800}"/>
-    <hyperlink ref="A165" r:id="rId454" display="https://leetcode.cn/problems/count-pairs-of-similar-strings/" xr:uid="{41A17AE6-B69A-4186-AF52-6BD9896663A8}"/>
-    <hyperlink ref="A78" r:id="rId455" display="https://leetcode.cn/problems/design-skiplist/" xr:uid="{2A72B84E-DDE9-4DAE-BB41-030F70D30900}"/>
-    <hyperlink ref="E78" r:id="rId456" xr:uid="{7C6878E4-B748-4CA6-9993-57CE23114C44}"/>
-    <hyperlink ref="E170" r:id="rId457" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{768EFE1F-6F7F-4560-BE69-910CE4C840E6}"/>
-    <hyperlink ref="E194" r:id="rId458" xr:uid="{B88F5E69-A725-45BC-A276-53516697D7DD}"/>
-    <hyperlink ref="E64" r:id="rId459" xr:uid="{FDB5C438-9651-460A-AA4D-AA8B0FE51236}"/>
-    <hyperlink ref="A170" r:id="rId460" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{42B986BE-8B52-4D96-9512-30E029195851}"/>
-    <hyperlink ref="A194" r:id="rId461" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/" xr:uid="{57DEA55C-80A1-44BE-B714-ABB16A0E4F16}"/>
-    <hyperlink ref="A64" r:id="rId462" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{B34D464B-3593-4A39-97BC-0EE4E6ACA28A}"/>
-    <hyperlink ref="A89" r:id="rId463" display="https://leetcode.cn/problems/design-an-ordered-stream/" xr:uid="{E759308B-F20A-472F-B4B1-66EAFEAA8C98}"/>
-    <hyperlink ref="E34" r:id="rId464" xr:uid="{262CF7BE-094F-471C-A17F-9C657D32DA10}"/>
-    <hyperlink ref="E184" r:id="rId465" xr:uid="{D4D73E4F-D9EB-468B-8DC3-DB0F7CD9C814}"/>
-    <hyperlink ref="E116" r:id="rId466" xr:uid="{A36DE704-AA91-4EEE-9BCE-2946D5B3553F}"/>
-    <hyperlink ref="A34" r:id="rId467" display="https://leetcode.cn/problems/uncrossed-lines/" xr:uid="{688A92DB-9275-41B1-8150-3590FF4B4661}"/>
-    <hyperlink ref="A184" r:id="rId468" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{3DFEADD4-92A1-4349-8AAB-9FCDCDCB4BFA}"/>
-    <hyperlink ref="A116" r:id="rId469" display="https://leetcode.cn/problems/is-subsequence/" xr:uid="{331EBBB1-645B-4C03-97DC-07712F6517EA}"/>
-    <hyperlink ref="A225" r:id="rId470" display="https://leetcode.cn/problems/design-memory-allocator/" xr:uid="{425892CA-7454-42D2-8E9D-EBACDE0A9FB9}"/>
-    <hyperlink ref="E77" r:id="rId471" xr:uid="{B7DB546A-BB2E-4CBE-BE1D-90734243F066}"/>
-    <hyperlink ref="E62" r:id="rId472" xr:uid="{2122D83F-9CAA-4287-8127-F5013D7DEA86}"/>
-    <hyperlink ref="E28" r:id="rId473" xr:uid="{FA290801-F856-40DF-9042-7EA0BA45F20A}"/>
-    <hyperlink ref="A77" r:id="rId474" display="https://leetcode.cn/problems/distinct-subsequences/" xr:uid="{F831AC00-214B-46FE-85F6-0A821639565C}"/>
-    <hyperlink ref="A62" r:id="rId475" display="https://leetcode.cn/problems/delete-operation-for-two-strings/" xr:uid="{3C1ABA42-39A4-48E5-96D2-980D6F692351}"/>
-    <hyperlink ref="A28" r:id="rId476" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{E77CDB8C-709B-4448-A672-2FEEA7FFB3C2}"/>
-    <hyperlink ref="A151" r:id="rId477" display="https://leetcode.cn/problems/design-browser-history/" xr:uid="{484B523B-B9C8-4D07-AF2E-FFD615036865}"/>
-    <hyperlink ref="E63" r:id="rId478" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{68B4C6AD-61ED-4FD3-95E3-ECBDB15DA45C}"/>
-    <hyperlink ref="E59" r:id="rId479" xr:uid="{6B671C33-84AD-4C39-954C-9376CAC79153}"/>
-    <hyperlink ref="A59" r:id="rId480" display="https://leetcode.cn/problems/longest-palindromic-subsequence/" xr:uid="{95DE1D99-1585-4BFA-80AD-0A1AE4DE16DF}"/>
-    <hyperlink ref="A63" r:id="rId481" display="https://leetcode.cn/problems/palindromic-substrings/" xr:uid="{3562169F-461C-4C34-B821-C37DA25DF7D3}"/>
-    <hyperlink ref="A221" r:id="rId482" display="https://leetcode.cn/problems/design-a-text-editor/" xr:uid="{B9C898F1-8F87-4779-8DF7-F041F4864256}"/>
-    <hyperlink ref="E221" r:id="rId483" xr:uid="{2B238F66-0992-4025-8C40-B53095306D5C}"/>
-    <hyperlink ref="E281" r:id="rId484" xr:uid="{FAC4AB77-7FBF-444E-8395-14AF68E53C91}"/>
-    <hyperlink ref="E282" r:id="rId485" xr:uid="{E16C5A48-EE81-48CD-B0F5-181353C18128}"/>
-    <hyperlink ref="E283" r:id="rId486" xr:uid="{84C19260-CC43-4F6E-B81B-79A0DB0BC26D}"/>
-    <hyperlink ref="A281" r:id="rId487" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{7B07F28C-D4A1-4AC4-8A82-8EF76D230156}"/>
-    <hyperlink ref="A282" r:id="rId488" display="https://leetcode.cn/problems/next-greater-element-i/" xr:uid="{27CEEBA8-6963-43A7-8769-FF7963D5448B}"/>
-    <hyperlink ref="A283" r:id="rId489" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
-    <hyperlink ref="A284" r:id="rId490" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
-    <hyperlink ref="E284" r:id="rId491" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
-    <hyperlink ref="E285" r:id="rId492" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C45CA14-3139-41EA-9494-1B8EFDE805CF}"/>
-    <hyperlink ref="E286" r:id="rId493" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
-    <hyperlink ref="A286" r:id="rId494" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
-    <hyperlink ref="A285" r:id="rId495" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
-    <hyperlink ref="A287" r:id="rId496" display="98. 所有可达路径" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
-    <hyperlink ref="E287" r:id="rId497" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
-    <hyperlink ref="E288" r:id="rId498" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
-    <hyperlink ref="E289" r:id="rId499" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
-    <hyperlink ref="A288" r:id="rId500" display="99. 岛屿数量" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
-    <hyperlink ref="A289" r:id="rId501" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
-    <hyperlink ref="E290" r:id="rId502" location="%E6%80%9D%E8%B7%AF" xr:uid="{098EEA69-7F3E-4AB5-9FE2-6C004D9AC270}"/>
-    <hyperlink ref="E291" r:id="rId503" location="%E6%80%9D%E8%B7%AF" xr:uid="{E1175A95-B33F-490F-9A15-9C1CF7EEA311}"/>
-    <hyperlink ref="E292" r:id="rId504" xr:uid="{88D74155-E61B-4394-AFF5-41569453B560}"/>
-    <hyperlink ref="E293" r:id="rId505" xr:uid="{2B226A0C-43B6-4229-B22B-FB771DAC3E7E}"/>
-    <hyperlink ref="A290" r:id="rId506" display="101. 孤岛的总面积" xr:uid="{8E2FC539-C4C8-4464-B413-335E4931ACDF}"/>
-    <hyperlink ref="A291" r:id="rId507" display="102. 沉没孤岛" xr:uid="{34543BD5-F8EB-4D0E-B9E6-3814D57A9274}"/>
-    <hyperlink ref="A292" r:id="rId508" display="103. 水流问题" xr:uid="{67D7BD9F-E083-4F3B-AA58-56F357345DB9}"/>
-    <hyperlink ref="A293" r:id="rId509" display="104. 建造最大岛屿" xr:uid="{9BB8D65F-78F2-45D1-A5A5-15A66F7737DB}"/>
+    <hyperlink ref="A38" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A294" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A47" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A207" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A152" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A89" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A262" r:id="rId24" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A266" r:id="rId25" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A49" r:id="rId26" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A20" r:id="rId27" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A261" r:id="rId28" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A242" r:id="rId29" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A28" r:id="rId30" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A8" r:id="rId31" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A277" r:id="rId33" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A271" r:id="rId34" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A279" r:id="rId35" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A244" r:id="rId36" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A258" r:id="rId37" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E258" r:id="rId38" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E244" r:id="rId39" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E279" r:id="rId40" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E271" r:id="rId41" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E277" r:id="rId42" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E32" r:id="rId43" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E8" r:id="rId44" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E28" r:id="rId45" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E242" r:id="rId46" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E261" r:id="rId47" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E20" r:id="rId48" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E49" r:id="rId49" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E266" r:id="rId50" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E262" r:id="rId51" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E152" r:id="rId52" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E207" r:id="rId53" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E47" r:id="rId54" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E294" r:id="rId55" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E229" r:id="rId56" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E270" r:id="rId57" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E177" r:id="rId58" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E178" r:id="rId59" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E179" r:id="rId60" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E288" r:id="rId61" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E180" r:id="rId62" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E173" r:id="rId63" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E238" r:id="rId64" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E290" r:id="rId65" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E268" r:id="rId66" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E218" r:id="rId67" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E73" r:id="rId68" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E220" r:id="rId69" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A243" r:id="rId70" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E243" r:id="rId71" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A110" r:id="rId72" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E110" r:id="rId73" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A281" r:id="rId74" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A280" r:id="rId75" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A282" r:id="rId76" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A187" r:id="rId77" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A253" r:id="rId78" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E253" r:id="rId79" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A278" r:id="rId80" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A269" r:id="rId81" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A236" r:id="rId82" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A123" r:id="rId83" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A208" r:id="rId84" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E208" r:id="rId85" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A197" r:id="rId86" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E197" r:id="rId87" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A251" r:id="rId88" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E251" r:id="rId89" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A174" r:id="rId90" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E174" r:id="rId91" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A226" r:id="rId92" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A42" r:id="rId93" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A7" r:id="rId94" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A159" r:id="rId95" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A88" r:id="rId96" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A170" r:id="rId97" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A227" r:id="rId98" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A96" r:id="rId99" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A10" r:id="rId100" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A87" r:id="rId101" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E87" r:id="rId102" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A39" r:id="rId103" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A104" r:id="rId104" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A5" r:id="rId105" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A102" r:id="rId106" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A147" r:id="rId107" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A128" r:id="rId108" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A75" r:id="rId109" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A105" r:id="rId110" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A78" r:id="rId111" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A54" r:id="rId112" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A85" r:id="rId113" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A97" r:id="rId114" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A34" r:id="rId115" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A43" r:id="rId116" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A98" r:id="rId117" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="A56" r:id="rId118" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A137" r:id="rId119" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="A40" r:id="rId120" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="A120" r:id="rId121" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E138" r:id="rId122" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A138" r:id="rId123" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A101" r:id="rId124" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A3" r:id="rId125" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A26" r:id="rId126" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E26" r:id="rId127" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E50" r:id="rId128" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A50" r:id="rId129" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A186" r:id="rId130" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A209" r:id="rId131" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E14" r:id="rId132" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A14" r:id="rId133" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A90" r:id="rId134" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E52" r:id="rId135" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A41" r:id="rId136" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A52" r:id="rId137" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E91" r:id="rId138" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A91" r:id="rId139" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A17" r:id="rId140" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E17" r:id="rId141" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A99" r:id="rId142" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E48" r:id="rId143" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A48" r:id="rId144" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A51" r:id="rId145" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A265" r:id="rId146" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A93" r:id="rId147" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A136" r:id="rId148" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A182" r:id="rId149" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E182" r:id="rId150" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A111" r:id="rId151" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E111" r:id="rId152" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A219" r:id="rId153" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A225" r:id="rId154" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A115" r:id="rId155" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A130" r:id="rId156" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A25" r:id="rId157" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E25" r:id="rId158" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A79" r:id="rId159" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E79" r:id="rId160" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A286" r:id="rId161" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A161" r:id="rId162" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="A23" r:id="rId163" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E23" r:id="rId164" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="E226" r:id="rId165" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="E88" r:id="rId166" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="A9" r:id="rId167" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A202" r:id="rId168" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A109" r:id="rId169" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A74" r:id="rId170" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A160" r:id="rId171" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E160" r:id="rId172" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A165" r:id="rId173" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E101" r:id="rId174" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="A94" r:id="rId175" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A184" r:id="rId176" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E184" r:id="rId177" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A245" r:id="rId178" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A183" r:id="rId179" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A86" r:id="rId180" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A158" r:id="rId181" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A246" r:id="rId182" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A66" r:id="rId183" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E66" r:id="rId184" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G66" r:id="rId185" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A30" r:id="rId186" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E30" r:id="rId187" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A31" r:id="rId188" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A276" r:id="rId189" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A274" r:id="rId190" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G274" r:id="rId191" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A283" r:id="rId192" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E38" r:id="rId193" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A232" r:id="rId194" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
+    <hyperlink ref="E232" r:id="rId195" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
+    <hyperlink ref="A241" r:id="rId196" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
+    <hyperlink ref="A260" r:id="rId197" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A213" r:id="rId198" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A116" r:id="rId199" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
+    <hyperlink ref="E116" r:id="rId200" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
+    <hyperlink ref="A117" r:id="rId201" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
+    <hyperlink ref="E117" r:id="rId202" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
+    <hyperlink ref="G117" r:id="rId203" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
+    <hyperlink ref="A169" r:id="rId204" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
+    <hyperlink ref="A200" r:id="rId205" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
+    <hyperlink ref="A191" r:id="rId206" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
+    <hyperlink ref="E89" r:id="rId207" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
+    <hyperlink ref="A168" r:id="rId208" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
+    <hyperlink ref="A132" r:id="rId209" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
+    <hyperlink ref="E168" r:id="rId210" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
+    <hyperlink ref="E132" r:id="rId211" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
+    <hyperlink ref="E42" r:id="rId212" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
+    <hyperlink ref="A287" r:id="rId213" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
+    <hyperlink ref="A217" r:id="rId214" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
+    <hyperlink ref="A233" r:id="rId215" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{C85C80EC-3ACB-4A15-B7C5-6111F13AD561}"/>
+    <hyperlink ref="A257" r:id="rId216" xr:uid="{F0F851C2-AB91-4D3D-B35A-03A67A2935E2}"/>
+    <hyperlink ref="A175" r:id="rId217" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
+    <hyperlink ref="A118" r:id="rId218" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
+    <hyperlink ref="A228" r:id="rId219" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
+    <hyperlink ref="A275" r:id="rId220" display="https://leetcode.cn/problems/number-of-ways-to-split-array/" xr:uid="{0083AF73-8A8C-48E0-8E76-76A6C4FC67CD}"/>
+    <hyperlink ref="A250" r:id="rId221" display="https://leetcode.cn/problems/4sum-ii/" xr:uid="{2EE7F96A-F6A7-429F-BFB7-7BA3E80D9896}"/>
+    <hyperlink ref="E250" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D2DA8351-DC34-44A8-924F-C24DFAB45BD5}"/>
+    <hyperlink ref="A95" r:id="rId223" display="https://leetcode.cn/problems/4sum/" xr:uid="{FC5299F8-4C72-4AB9-9C54-517DEBF830F6}"/>
+    <hyperlink ref="E95" r:id="rId224" xr:uid="{F3766F46-B32F-4AF5-A0AB-F19AED32B55B}"/>
+    <hyperlink ref="E228" r:id="rId225" xr:uid="{0F6A52C4-8EA8-4AF1-8CDB-67CF474C7907}"/>
+    <hyperlink ref="E118" r:id="rId226" xr:uid="{8316C500-0D41-455C-8EA5-0D189B83EAFD}"/>
+    <hyperlink ref="E175" r:id="rId227" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
+    <hyperlink ref="E257" r:id="rId228" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
+    <hyperlink ref="E217" r:id="rId229" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
+    <hyperlink ref="A284" r:id="rId230" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-i/" xr:uid="{E49E6490-9385-40D0-AEA8-799F5892BD00}"/>
+    <hyperlink ref="A248" r:id="rId231" display="https://leetcode.cn/problems/reverse-string/" xr:uid="{57B0A443-1236-4D51-9226-49C188B529DA}"/>
+    <hyperlink ref="E248" r:id="rId232" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
+    <hyperlink ref="A198" r:id="rId233" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
+    <hyperlink ref="E198" r:id="rId234" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
+    <hyperlink ref="A255" r:id="rId235" xr:uid="{85C8A5C1-F8C0-4B5F-9625-B7B85D6CFB62}"/>
+    <hyperlink ref="E255" r:id="rId236" xr:uid="{CCFEC5D8-FDFD-4AAB-91B8-F54059304742}"/>
+    <hyperlink ref="A164" r:id="rId237" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
+    <hyperlink ref="E164" r:id="rId238" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
+    <hyperlink ref="E213" r:id="rId239" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
+    <hyperlink ref="A285" r:id="rId240" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-ii/" xr:uid="{1E11646A-D940-446C-8E1B-6F3CD471DAEC}"/>
+    <hyperlink ref="A199" r:id="rId241" xr:uid="{EECF5DCB-F6DA-4CC6-B808-B6D1A0FD2EA7}"/>
+    <hyperlink ref="E199" r:id="rId242" location="%E6%80%9D%E8%B7%AF" xr:uid="{7DC750A1-BD6D-404C-A7A2-3CC13D80ECC3}"/>
+    <hyperlink ref="A11" r:id="rId243" display="https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{023E2A06-6F13-495C-B896-F7241E8F25EB}"/>
+    <hyperlink ref="A21" r:id="rId244" display="https://leetcode.cn/problems/repeated-substring-pattern/" xr:uid="{1EBC7A26-002F-442F-A7E1-A7CB3DFA8EAF}"/>
+    <hyperlink ref="E11" r:id="rId245" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B0445983-C761-4027-9892-5CFEFE2DE00C}"/>
+    <hyperlink ref="E21" r:id="rId246" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
+    <hyperlink ref="A113" r:id="rId247" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
+    <hyperlink ref="E113" r:id="rId248" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
+    <hyperlink ref="A114" r:id="rId249" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-ii/" xr:uid="{9008DB9E-D93F-4EF3-8591-DBCFDD2E3EF7}"/>
+    <hyperlink ref="E114" r:id="rId250" xr:uid="{8DC848F8-A815-4218-9456-9703CE7BE7CE}"/>
+    <hyperlink ref="E172" r:id="rId251" xr:uid="{8E8A4275-1999-4D2D-8BB7-7CED3278C51A}"/>
+    <hyperlink ref="A171" r:id="rId252" display="https://leetcode.cn/problems/implement-stack-using-queues/" xr:uid="{E12BF282-5E70-47AC-9C5D-9D60391E9296}"/>
+    <hyperlink ref="A172" r:id="rId253" display="https://leetcode.cn/problems/implement-queue-using-stacks/" xr:uid="{ADE59DCF-8B21-45AD-B53B-361152381BF1}"/>
+    <hyperlink ref="E171" r:id="rId254" xr:uid="{05957446-1D31-4C7B-8F6C-B82E8DB12F66}"/>
+    <hyperlink ref="E41" r:id="rId255" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
+    <hyperlink ref="A150" r:id="rId256" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
+    <hyperlink ref="E150" r:id="rId257" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
+    <hyperlink ref="A163" r:id="rId258" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
+    <hyperlink ref="E163" r:id="rId259" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
+    <hyperlink ref="E51" r:id="rId260" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
+    <hyperlink ref="A103" r:id="rId261" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
+    <hyperlink ref="A273" r:id="rId262" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
+    <hyperlink ref="A223" r:id="rId263" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/" xr:uid="{A363BEEA-7BE6-456D-804D-7BDCB7E85DFB}"/>
+    <hyperlink ref="A224" r:id="rId264" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/" xr:uid="{B9D197B4-5C37-4A5A-A04B-CF78AB20E147}"/>
+    <hyperlink ref="A212" r:id="rId265" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{69C20845-0A3D-46F4-B444-CCFBE6E145DF}"/>
+    <hyperlink ref="E223" r:id="rId266" location="%E6%80%9D%E8%B7%AF" xr:uid="{98F6803B-8B83-416E-BB2C-1DEB8182DC48}"/>
+    <hyperlink ref="E224" r:id="rId267" location="%E6%80%9D%E8%B7%AF" xr:uid="{1897748C-87BB-4965-9122-C18B341FD11F}"/>
+    <hyperlink ref="E212" r:id="rId268" location="%E6%80%9D%E8%B7%AF" xr:uid="{5AAB9E5A-B815-4599-8632-18036AFBCA56}"/>
+    <hyperlink ref="A148" r:id="rId269" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{47A5225C-E21F-4CDB-B91E-B037F15E66B5}"/>
+    <hyperlink ref="E148" r:id="rId270" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{80D4DA8D-8725-4E23-8B72-625D6B2399C8}"/>
+    <hyperlink ref="A151" r:id="rId271" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D38A3DEC-21B5-4E17-8300-F5CDEABAE95B}"/>
+    <hyperlink ref="E151" r:id="rId272" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{D14E61DA-9CA2-4C2F-8D77-DA86B2095FE2}"/>
+    <hyperlink ref="A167" r:id="rId273" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{A94BE682-8FEF-4F77-A6A6-1534F6170AAF}"/>
+    <hyperlink ref="E167" r:id="rId274" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{157959E8-1676-4092-960B-BD1BAB6322C0}"/>
+    <hyperlink ref="A203" r:id="rId275" display="https://leetcode.cn/problems/average-of-levels-in-binary-tree/" xr:uid="{548700C6-87D6-4750-8347-AE75CB5503B2}"/>
+    <hyperlink ref="E203" r:id="rId276" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A1BD98FE-922C-4415-86C7-6C62E6A2EB3A}"/>
+    <hyperlink ref="A190" r:id="rId277" display="https://leetcode.cn/problems/n-ary-tree-level-order-traversal/" xr:uid="{DB1F1A45-50E7-4BE5-BC27-E3A5F0B77994}"/>
+    <hyperlink ref="E190" r:id="rId278" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{7026BEA4-FFE1-4096-B74B-18EE89FBC364}"/>
+    <hyperlink ref="A194" r:id="rId279" display="https://leetcode.cn/problems/find-largest-value-in-each-tree-row/" xr:uid="{2D9F9242-5DD7-412B-9B91-0324111C907B}"/>
+    <hyperlink ref="E194" r:id="rId280" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A2D8F24C-89FF-48CD-9847-5EABD20E5A80}"/>
+    <hyperlink ref="A155" r:id="rId281" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/" xr:uid="{FF0B08ED-1029-4393-B66C-B3B18518EA93}"/>
+    <hyperlink ref="E155" r:id="rId282" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{F0B76380-5057-4A8B-8B43-B4462F3760D5}"/>
+    <hyperlink ref="A156" r:id="rId283" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/" xr:uid="{1A1AE58D-05B7-4CD7-A7D8-091047D2C221}"/>
+    <hyperlink ref="E156" r:id="rId284" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{EAC85DDC-91B8-4291-8C7C-02883E894FC3}"/>
+    <hyperlink ref="A149" r:id="rId285" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{C713E8BB-D494-44B5-A38F-4DF7C24A82BA}"/>
+    <hyperlink ref="E149" r:id="rId286" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{5862B7B3-DE27-4C51-84AC-4E300421C5A2}"/>
+    <hyperlink ref="E154" r:id="rId287" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{72902DFB-E152-4455-8BE8-DBD03A1711B9}"/>
+    <hyperlink ref="A154" r:id="rId288" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
+    <hyperlink ref="E102" r:id="rId289" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{81CAA0A8-8752-4618-9D62-09BBBFFF2C27}"/>
+    <hyperlink ref="E147" r:id="rId290" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D6275CE0-A5A1-49EA-95B5-AEEF25043C1A}"/>
+    <hyperlink ref="A267" r:id="rId291" display="https://leetcode.cn/problems/maximum-number-of-coins-you-can-get/" xr:uid="{6253DCFD-BC5B-475C-B48A-6312D8994C29}"/>
+    <hyperlink ref="A272" r:id="rId292" display="https://leetcode.cn/problems/count-complete-tree-nodes/" xr:uid="{F930D6BF-CA2D-4A54-B2D3-48894D2C1667}"/>
+    <hyperlink ref="A153" r:id="rId293" display="https://leetcode.cn/problems/balanced-binary-tree/" xr:uid="{C1BECD37-06E7-4598-B8DB-061CBE7524E6}"/>
+    <hyperlink ref="E272" r:id="rId294" xr:uid="{383058B6-56FE-4767-9EFE-11985B0ACFF7}"/>
+    <hyperlink ref="E153" r:id="rId295" xr:uid="{8E965AA3-76D1-4573-AC6D-DBBF9F8EA2E5}"/>
+    <hyperlink ref="A107" r:id="rId296" display="https://leetcode.cn/problems/binary-tree-paths/" xr:uid="{24B65BC3-D63A-4953-B234-BC917C774B36}"/>
+    <hyperlink ref="E107" r:id="rId297" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
+    <hyperlink ref="A122" r:id="rId298" display="https://leetcode.cn/problems/sum-of-left-leaves/" xr:uid="{45E92AA8-EE9D-4B26-9FCD-76DEC3E2C4D9}"/>
+    <hyperlink ref="E122" r:id="rId299" xr:uid="{DE2D445A-E5A2-4AA6-BDD7-7B4DEA2D6E4D}"/>
+    <hyperlink ref="A193" r:id="rId300" display="https://leetcode.cn/problems/find-bottom-left-tree-value/" xr:uid="{605FF5ED-AF07-4B3C-997C-08D492E45CCC}"/>
+    <hyperlink ref="E193" r:id="rId301" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{A2AE7B1C-E34F-4D80-9E21-2DB694BBA70E}"/>
+    <hyperlink ref="A76" r:id="rId302" display="https://leetcode.cn/problems/path-sum/" xr:uid="{03532BB2-4E89-494A-8802-8347D5114E0B}"/>
+    <hyperlink ref="E76" r:id="rId303" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D197415D-351F-446B-9C9E-03F06E868673}"/>
+    <hyperlink ref="A77" r:id="rId304" display="https://leetcode.cn/problems/path-sum-ii/" xr:uid="{329C8E00-A066-4945-8956-A6F8ED53A18C}"/>
+    <hyperlink ref="E77" r:id="rId305" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{7C5C3F77-D704-4BBB-B0E6-B9BC2AC892F8}"/>
+    <hyperlink ref="A2" r:id="rId306" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{3E7EFB2F-8AEC-45A6-BE9F-EC92BE5A99CC}"/>
+    <hyperlink ref="A37" r:id="rId307" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{32EEC8BE-6003-46DD-9E50-476A3C61F75C}"/>
+    <hyperlink ref="E2" r:id="rId308" location="%E6%80%9D%E8%B7%AF" xr:uid="{3E5E0DD5-5351-4BDD-A84B-DF8F6DCFC6EA}"/>
+    <hyperlink ref="E37" r:id="rId309" location="%E6%80%9D%E8%B7%AF" xr:uid="{3324E13D-AF5D-47ED-85B8-024405BDEC52}"/>
+    <hyperlink ref="A131" r:id="rId310" display="https://leetcode.cn/problems/maximum-binary-tree/" xr:uid="{EDE93708-788E-4B93-93BD-8B3B578CB97C}"/>
+    <hyperlink ref="E131" r:id="rId311" xr:uid="{7E949249-0778-4990-9EC2-391AB5FB8BC1}"/>
+    <hyperlink ref="A291" r:id="rId312" display="https://leetcode.cn/problems/merge-two-binary-trees/" xr:uid="{685BF7C8-5943-4F05-8B8D-9DF774BF8A81}"/>
+    <hyperlink ref="E291" r:id="rId313" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4D503492-1F73-4A12-B899-CFB53D19F967}"/>
+    <hyperlink ref="E293" r:id="rId314" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{01B8B85B-7DC4-42D9-8779-C96D3EF0B7FE}"/>
+    <hyperlink ref="A293" r:id="rId315" display="https://leetcode.cn/problems/search-in-a-binary-search-tree/" xr:uid="{48AEF775-6F49-49B6-9D85-EED4A8ECA17B}"/>
+    <hyperlink ref="A214" r:id="rId316" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{36A3B1F7-40A8-438D-B66A-0972D2106EC2}"/>
+    <hyperlink ref="E214" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{664D0036-97FD-400D-A9BB-4B9D3BED8E05}"/>
+    <hyperlink ref="A112" r:id="rId318" display="https://leetcode.cn/problems/minimum-number-of-coins-for-fruits/" xr:uid="{B94ED6A5-59A7-40F8-ADED-AD8034C8B0CB}"/>
+    <hyperlink ref="E254" r:id="rId319" xr:uid="{28F0E083-1137-4751-BEB3-72761861DA55}"/>
+    <hyperlink ref="E252" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{10E95789-DF12-4B52-A2D1-B9410F6D0A14}"/>
+    <hyperlink ref="E45" r:id="rId321" xr:uid="{62659393-12B3-4388-AB36-42818C940F03}"/>
+    <hyperlink ref="A254" r:id="rId322" display="https://leetcode.cn/problems/minimum-absolute-difference-in-bst/" xr:uid="{CA149B8E-4083-40F2-8797-87524934E57A}"/>
+    <hyperlink ref="A252" r:id="rId323" display="https://leetcode.cn/problems/find-mode-in-binary-search-tree/" xr:uid="{66FED396-569A-4F51-A1C3-9EC522A53341}"/>
+    <hyperlink ref="A45" r:id="rId324" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{3E15CC50-0479-40F6-A46D-60B9456C12A7}"/>
+    <hyperlink ref="A237" r:id="rId325" display="https://leetcode.cn/problems/minimum-money-required-before-transactions/" xr:uid="{A89F13A8-8C3C-43F7-A17A-E6D934DD82F6}"/>
+    <hyperlink ref="E237" r:id="rId326" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
+    <hyperlink ref="A53" r:id="rId327" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
+    <hyperlink ref="A106" r:id="rId328" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8860768E-4F64-4B3B-98EC-BF7A17FA992E}"/>
+    <hyperlink ref="E106" r:id="rId329" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AA67F91A-6273-43E9-AAE2-A65FC5D48A3B}"/>
+    <hyperlink ref="E55" r:id="rId330" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6F24E2BA-88C0-465F-8F6A-7F082BD77BE1}"/>
+    <hyperlink ref="E259" r:id="rId331" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
+    <hyperlink ref="A259" r:id="rId332" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
+    <hyperlink ref="A55" r:id="rId333" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
+    <hyperlink ref="A230" r:id="rId334" display="https://leetcode.cn/problems/contains-duplicate-ii/" xr:uid="{82304D18-534F-4B45-8873-2AE0CE4E2E67}"/>
+    <hyperlink ref="A292" r:id="rId335" display="https://leetcode.cn/problems/valid-palindrome-ii/" xr:uid="{63A3FF91-0B2A-469A-A4E1-921A7A854BE7}"/>
+    <hyperlink ref="E75" r:id="rId336" xr:uid="{908B2229-B6AF-4E37-A17A-BBF0B94C435E}"/>
+    <hyperlink ref="A204" r:id="rId337" display="https://leetcode.cn/problems/trim-a-binary-search-tree/" xr:uid="{2F2A1D6B-336A-4622-A218-F447E1C570E2}"/>
+    <hyperlink ref="A196" r:id="rId338" display="https://leetcode.cn/problems/convert-bst-to-greater-tree/" xr:uid="{694FDE47-C328-4D63-95C4-92DA21BF968A}"/>
+    <hyperlink ref="E204" r:id="rId339" location="%E6%80%9D%E8%B7%AF" xr:uid="{DB0877C7-738D-42DE-BB61-8C9C23171F43}"/>
+    <hyperlink ref="E196" r:id="rId340" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FEC1A6E3-ACED-476E-A7CA-907F84756D84}"/>
+    <hyperlink ref="A68" r:id="rId341" display="https://leetcode.cn/problems/combinations/" xr:uid="{E08E7553-D443-45C6-B898-4BFEAE34B442}"/>
+    <hyperlink ref="A100" r:id="rId342" display="https://leetcode.cn/problems/combination-sum-iii/" xr:uid="{B3833617-AF70-4FCE-8BFA-0BC090559E9E}"/>
+    <hyperlink ref="E68" r:id="rId343" xr:uid="{6D15BC03-6C24-4CBE-B14F-AF46452744CA}"/>
+    <hyperlink ref="E100" r:id="rId344" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
+    <hyperlink ref="E40" r:id="rId345" xr:uid="{70FB8C70-E662-43E4-9BEB-2C991560FFCD}"/>
+    <hyperlink ref="A139" r:id="rId346" display="https://leetcode.cn/problems/subsets-ii/" xr:uid="{BF57B92E-019F-4853-BCA8-E284BE4E7D3F}"/>
+    <hyperlink ref="A140" r:id="rId347" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{D1C2BD62-595B-4A7D-A2B7-61892FD813F8}"/>
+    <hyperlink ref="E140" r:id="rId348" xr:uid="{799CE8DF-ABD0-4935-AF11-4FFE538FF6DB}"/>
+    <hyperlink ref="E139" r:id="rId349" xr:uid="{39B538B3-95D9-49AB-A21C-769543C63F39}"/>
+    <hyperlink ref="A58" r:id="rId350" display="https://leetcode.cn/problems/non-decreasing-subsequences/" xr:uid="{270BDDBE-643B-4DB5-8074-FFAC63F713AC}"/>
+    <hyperlink ref="E58" r:id="rId351" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{70096A3A-7A54-46BB-AEA3-E6C944EB027F}"/>
+    <hyperlink ref="A22" r:id="rId352" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{02BDF740-3DE5-4E13-8B41-60BD596468BC}"/>
+    <hyperlink ref="E22" r:id="rId353" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7532296D-4A89-495D-B3C4-872925E401C5}"/>
+    <hyperlink ref="A185" r:id="rId354" display="https://leetcode.cn/problems/reconstruct-itinerary/" xr:uid="{3CFD64BF-5BFC-4EE6-B10D-17D9CD13C100}"/>
+    <hyperlink ref="E185" r:id="rId355" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B978FA55-1557-4A14-9DE1-55E425C57427}"/>
+    <hyperlink ref="A119" r:id="rId356" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{1DA82971-1CAA-40D0-8F79-6BF174433576}"/>
+    <hyperlink ref="E119" r:id="rId357" xr:uid="{9F82BAB4-3F09-4281-914C-501D4F4EF17F}"/>
+    <hyperlink ref="A289" r:id="rId358" display="https://leetcode.cn/problems/assign-cookies/" xr:uid="{F7EF2770-1F4D-43A2-8C07-073CE2DC7E84}"/>
+    <hyperlink ref="E289" r:id="rId359" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{216A86D0-0D27-4596-8EE1-FD617CC8D658}"/>
+    <hyperlink ref="E188" r:id="rId360" xr:uid="{D774326A-9BD5-4FB5-8D59-3230132C6B87}"/>
+    <hyperlink ref="A188" r:id="rId361" display="https://leetcode.cn/problems/wiggle-subsequence/" xr:uid="{0592CD1C-63BF-483C-BC97-6A61F95B162E}"/>
+    <hyperlink ref="E3" r:id="rId362" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{26251414-EEC8-40E6-AAF9-A7DC88CA4AFC}"/>
+    <hyperlink ref="E249" r:id="rId363" location="%E6%80%9D%E8%B7%AF" xr:uid="{8D2F5BA2-CCA4-4F92-B531-19C4C4CC12AD}"/>
+    <hyperlink ref="E120" r:id="rId364" xr:uid="{A5992457-448E-4A74-B543-EB9B92483919}"/>
+    <hyperlink ref="E53" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AFC059A5-7AB0-4F8B-80A6-AB7F930F591A}"/>
+    <hyperlink ref="E56" r:id="rId366" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{E274F954-DDF7-48B3-97C4-2E75AC4FACE0}"/>
+    <hyperlink ref="E137" r:id="rId367" xr:uid="{4EFD1FC3-B71B-4B3E-8EBA-906D275376B4}"/>
+    <hyperlink ref="E256" r:id="rId368" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FAA033A6-0F1F-4690-93C1-69A784F1F297}"/>
+    <hyperlink ref="E125" r:id="rId369" xr:uid="{93B07DB7-E781-4E85-AF0F-69E2D5EC79A2}"/>
+    <hyperlink ref="E146" r:id="rId370" location="%E6%80%9D%E8%B7%AF" xr:uid="{6537664E-6B77-473A-9F48-179C67A9E7E2}"/>
+    <hyperlink ref="A256" r:id="rId371" display="https://leetcode.cn/problems/jump-game/" xr:uid="{7451D1E2-4D07-44FE-82F8-CD5855BDC24F}"/>
+    <hyperlink ref="A125" r:id="rId372" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{9FA7CDA6-9BB3-4FD0-8B15-B1BF05FA7C77}"/>
+    <hyperlink ref="A146" r:id="rId373" display="https://leetcode.cn/problems/maximize-sum-of-array-after-k-negations/" xr:uid="{0AA036B1-B7B6-42E2-9671-1CFD7D9304D2}"/>
+    <hyperlink ref="A222" r:id="rId374" display="https://leetcode.cn/problems/gas-station/" xr:uid="{8BE0126A-0FB4-4962-9266-4B0136E1903E}"/>
+    <hyperlink ref="E222" r:id="rId375" xr:uid="{8578DCBC-2857-4702-B5E7-F8D4C43D958E}"/>
+    <hyperlink ref="E157" r:id="rId376" location="%E6%80%BB%E7%BB%93" xr:uid="{C6162979-B3C3-4038-AE92-D5E305BC769E}"/>
+    <hyperlink ref="E211" r:id="rId377" location="%E6%80%9D%E8%B7%AF" xr:uid="{32C011D2-56A2-4808-A3E1-EDC267B4334C}"/>
+    <hyperlink ref="E189" r:id="rId378" location="%E6%80%9D%E8%B7%AF" xr:uid="{683A44D4-A2B2-416E-A8BE-7EC1E9F8306E}"/>
+    <hyperlink ref="A157" r:id="rId379" display="https://leetcode.cn/problems/candy/" xr:uid="{18479118-046B-47F9-BF00-EDB78C5B66CA}"/>
+    <hyperlink ref="A211" r:id="rId380" display="https://leetcode.cn/problems/lemonade-change/" xr:uid="{F39F3153-0FD0-4978-8BEA-61C073F71CFA}"/>
+    <hyperlink ref="A189" r:id="rId381" display="https://leetcode.cn/problems/queue-reconstruction-by-height/" xr:uid="{E168B8BA-7F5D-410D-AD08-44337C7FD1F4}"/>
+    <hyperlink ref="A126" r:id="rId382" display="https://leetcode.cn/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{4D6F0443-D33C-47EA-BECD-B50501B5FBBA}"/>
+    <hyperlink ref="E126" r:id="rId383" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CBB26C51-416C-405F-A302-C40E70A77B5C}"/>
+    <hyperlink ref="A124" r:id="rId384" display="https://leetcode.cn/problems/non-overlapping-intervals/" xr:uid="{B26AD955-41C7-4022-8511-3AB9509D1C8E}"/>
+    <hyperlink ref="E124" r:id="rId385" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4B828D7A-002E-4ADB-AE2B-475B229F918E}"/>
+    <hyperlink ref="A67" r:id="rId386" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{DE31B183-147C-4384-B7D9-9B33C2E423D9}"/>
+    <hyperlink ref="E67" r:id="rId387" location="%E6%80%9D%E8%B7%AF" xr:uid="{69E3EE0D-E859-4939-8D4E-0AF73914B2F0}"/>
+    <hyperlink ref="E61" r:id="rId388" xr:uid="{54C11488-329F-4F9A-9365-E3B63CE1ED57}"/>
+    <hyperlink ref="E134" r:id="rId389" xr:uid="{687C952A-C1EA-4399-AD6B-56C3A015A665}"/>
+    <hyperlink ref="E263" r:id="rId390" xr:uid="{30B4EFBE-DC1F-4CB1-9838-F38E6CDCC86F}"/>
+    <hyperlink ref="A61" r:id="rId391" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{6A479462-3315-4D0E-A19A-CBED939F685E}"/>
+    <hyperlink ref="A134" r:id="rId392" display="https://leetcode.cn/problems/monotone-increasing-digits/" xr:uid="{515D2D14-7BB9-4C97-B572-FFEED20AAE2C}"/>
+    <hyperlink ref="A263" r:id="rId393" display="https://leetcode.cn/problems/binary-tree-cameras/" xr:uid="{E2712FA3-3451-44F9-9595-EECCA34B8C08}"/>
+    <hyperlink ref="E192" r:id="rId394" xr:uid="{11637D6C-418A-41BD-B312-324687673583}"/>
+    <hyperlink ref="E206" r:id="rId395" xr:uid="{3426D3A6-A466-4066-BBDC-42833D2C33B4}"/>
+    <hyperlink ref="E210" r:id="rId396" xr:uid="{FA814D02-2656-46FB-BF95-2C8194762320}"/>
+    <hyperlink ref="A192" r:id="rId397" display="https://leetcode.cn/problems/fibonacci-number/" xr:uid="{45D0AF0C-7A16-43CB-887C-B48B7C848C29}"/>
+    <hyperlink ref="A206" r:id="rId398" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{9307DB6E-85CA-4E49-B429-29CD68B962DE}"/>
+    <hyperlink ref="A210" r:id="rId399" display="https://leetcode.cn/problems/min-cost-climbing-stairs/" xr:uid="{88A0429A-E979-48F0-AF62-D957E16ECA8A}"/>
+    <hyperlink ref="A201" r:id="rId400" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{AE2EA362-B732-43FB-9627-5F017B157DEF}"/>
+    <hyperlink ref="E201" r:id="rId401" location="%E6%80%9D%E8%B7%AF" xr:uid="{6DFEF880-D831-4C40-8255-C9CF884EC732}"/>
+    <hyperlink ref="E129" r:id="rId402" location="%E6%80%9D%E8%B7%AF" xr:uid="{4FBA42A5-E29D-4F2F-8DB8-728E6478F1C6}"/>
+    <hyperlink ref="E247" r:id="rId403" location="%E6%80%9D%E8%B7%AF" xr:uid="{08B109D0-F657-4B45-AC95-1598B638C2B3}"/>
+    <hyperlink ref="A247" r:id="rId404" display="https://leetcode.cn/problems/integer-break/" xr:uid="{20215E46-76E6-4D90-9D96-5FCB469BFC54}"/>
+    <hyperlink ref="E141" r:id="rId405" location="%E6%80%9D%E8%B7%AF" xr:uid="{B0C1AD17-C274-44F8-831D-FFCE6D7BD562}"/>
+    <hyperlink ref="A141" r:id="rId406" display="https://leetcode.cn/problems/unique-binary-search-trees/" xr:uid="{929D6B30-6DE3-4985-9B27-18F0CE7F3CF6}"/>
+    <hyperlink ref="A129" r:id="rId407" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{337BF453-6142-4FF1-BBBE-68A7B961EAE5}"/>
+    <hyperlink ref="A18" r:id="rId408" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{C1C4A4AE-2F75-44E9-8876-4F424F268E3E}"/>
+    <hyperlink ref="E18" r:id="rId409" location="%E6%80%9D%E8%B7%AF" xr:uid="{FB2239CC-5C43-4BBC-9F43-C36A427D6D6E}"/>
+    <hyperlink ref="A221" r:id="rId410" display="https://leetcode.cn/problems/replace-elements-with-greatest-element-on-right-side/" xr:uid="{105BA842-262A-4968-A11E-37CB8BD12E82}"/>
+    <hyperlink ref="E36" r:id="rId411" xr:uid="{DF77FF27-55F0-498E-926D-A94C9D4EEA7C}"/>
+    <hyperlink ref="E24" r:id="rId412" xr:uid="{37887993-2194-4ACA-AC5D-4CDE934AB3B1}"/>
+    <hyperlink ref="A36" r:id="rId413" display="https://leetcode.cn/problems/last-stone-weight-ii/" xr:uid="{083E5E28-9F83-4ADC-A743-D815C8AA5C49}"/>
+    <hyperlink ref="A24" r:id="rId414" display="https://leetcode.cn/problems/target-sum/" xr:uid="{23D53EEC-2F69-4C8F-A3BD-679FD488FA4F}"/>
+    <hyperlink ref="E27" r:id="rId415" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{5B8A88B2-7D44-4AEA-A7DE-F623804B7BF4}"/>
+    <hyperlink ref="E16" r:id="rId416" xr:uid="{4170896B-569C-48A0-AF10-F406B7FE1316}"/>
+    <hyperlink ref="E62" r:id="rId417" xr:uid="{61979918-D117-4461-AB6E-AEF6690C6A2E}"/>
+    <hyperlink ref="A27" r:id="rId418" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{E109E17B-ABBC-495E-A8D9-5E7EF59BA8C1}"/>
+    <hyperlink ref="A16" r:id="rId419" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{F3A184F5-5DCA-4220-BF55-8C70F41FB616}"/>
+    <hyperlink ref="A62" r:id="rId420" xr:uid="{DE59C999-64B7-4EEB-A945-6201D6C316B1}"/>
+    <hyperlink ref="E13" r:id="rId421" xr:uid="{56E0D5A5-9B68-40DC-991B-1128B39FAD51}"/>
+    <hyperlink ref="E4" r:id="rId422" xr:uid="{42070A93-072E-4F38-B3D5-C6E81890734B}"/>
+    <hyperlink ref="E46" r:id="rId423" xr:uid="{C413FA90-6248-41A1-BA43-473F5292496D}"/>
+    <hyperlink ref="A13" r:id="rId424" display="https://leetcode.cn/problems/coin-change/" xr:uid="{E0CCFFBE-8489-4D6A-BE69-0792D03399C7}"/>
+    <hyperlink ref="A46" r:id="rId425" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{62271432-DB27-401D-B084-2DC16FE0054B}"/>
+    <hyperlink ref="A4" r:id="rId426" display="https://leetcode.cn/problems/word-break/" xr:uid="{BDD96A07-894E-4FF1-8629-85064E3D8EDC}"/>
+    <hyperlink ref="E166" r:id="rId427" xr:uid="{724AEED3-3723-4675-866D-DEC487B97B1D}"/>
+    <hyperlink ref="E44" r:id="rId428" xr:uid="{38A9F4E6-3C04-4BB6-B47F-FF350EF1F8F5}"/>
+    <hyperlink ref="E15" r:id="rId429" xr:uid="{6FE19704-4847-4D00-85E9-6C864BB0A5D8}"/>
+    <hyperlink ref="A166" r:id="rId430" display="https://leetcode.cn/problems/house-robber/" xr:uid="{578CE9B6-F395-4BF2-AB3E-1F598B75B8D3}"/>
+    <hyperlink ref="A44" r:id="rId431" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{3F82E365-9C94-487D-A990-D4F9FE6B08AE}"/>
+    <hyperlink ref="A15" r:id="rId432" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{1022CB4C-6CDE-4D9F-864E-12ED007C30BA}"/>
+    <hyperlink ref="A240" r:id="rId433" display="https://leetcode.cn/problems/number-of-even-and-odd-bits/" xr:uid="{D8939EF7-7C6E-4CA6-812B-942B24465534}"/>
+    <hyperlink ref="E9" r:id="rId434" xr:uid="{D8C26BDB-A838-4342-B102-409F07BE683C}"/>
+    <hyperlink ref="E82" r:id="rId435" xr:uid="{1F17BC21-6737-4AA1-9B66-039A6F5E2928}"/>
+    <hyperlink ref="E83" r:id="rId436" xr:uid="{635C34E3-8A8A-4C5F-8D2D-4F53BA8BD45B}"/>
+    <hyperlink ref="E84" r:id="rId437" xr:uid="{B43D2CAB-87AB-4F9B-8E9C-54B5E4CE0F84}"/>
+    <hyperlink ref="A83" r:id="rId438" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{C7FC4C62-A665-4F8B-847A-9E7374997C77}"/>
+    <hyperlink ref="A84" r:id="rId439" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{60D6A262-1D1C-46C5-A53B-8FD8967DE55C}"/>
+    <hyperlink ref="A82" r:id="rId440" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{4343F38D-D3BB-4CCF-8446-EFA4A579A6D5}"/>
+    <hyperlink ref="A231" r:id="rId441" display="https://leetcode.cn/problems/minimum-white-tiles-after-covering-with-carpets/" xr:uid="{D20C3F82-1D87-4A53-AF26-84AC68AF5D8C}"/>
+    <hyperlink ref="E6" r:id="rId442" xr:uid="{F3BFB4EE-BECD-4F29-8825-7C1F34B5BC0A}"/>
+    <hyperlink ref="E12" r:id="rId443" xr:uid="{9F90F279-3F85-4BE2-8007-32F2CD2DE738}"/>
+    <hyperlink ref="E133" r:id="rId444" xr:uid="{B3D98882-5398-4509-B222-A0E9F356016E}"/>
+    <hyperlink ref="A6" r:id="rId445" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/" xr:uid="{FADC0B19-2B73-46B8-A20F-FA465F9E5456}"/>
+    <hyperlink ref="A12" r:id="rId446" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/" xr:uid="{D0775EC9-5A55-4411-8065-0F0EBB23309D}"/>
+    <hyperlink ref="A133" r:id="rId447" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/" xr:uid="{BBB417D8-4C15-407F-999D-EC8CB3CB5800}"/>
+    <hyperlink ref="A176" r:id="rId448" display="https://leetcode.cn/problems/count-pairs-of-similar-strings/" xr:uid="{41A17AE6-B69A-4186-AF52-6BD9896663A8}"/>
+    <hyperlink ref="A81" r:id="rId449" display="https://leetcode.cn/problems/design-skiplist/" xr:uid="{2A72B84E-DDE9-4DAE-BB41-030F70D30900}"/>
+    <hyperlink ref="E81" r:id="rId450" xr:uid="{7C6878E4-B748-4CA6-9993-57CE23114C44}"/>
+    <hyperlink ref="E181" r:id="rId451" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{768EFE1F-6F7F-4560-BE69-910CE4C840E6}"/>
+    <hyperlink ref="E205" r:id="rId452" xr:uid="{B88F5E69-A725-45BC-A276-53516697D7DD}"/>
+    <hyperlink ref="E65" r:id="rId453" xr:uid="{FDB5C438-9651-460A-AA4D-AA8B0FE51236}"/>
+    <hyperlink ref="A181" r:id="rId454" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{42B986BE-8B52-4D96-9512-30E029195851}"/>
+    <hyperlink ref="A205" r:id="rId455" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/" xr:uid="{57DEA55C-80A1-44BE-B714-ABB16A0E4F16}"/>
+    <hyperlink ref="A65" r:id="rId456" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{B34D464B-3593-4A39-97BC-0EE4E6ACA28A}"/>
+    <hyperlink ref="A92" r:id="rId457" display="https://leetcode.cn/problems/design-an-ordered-stream/" xr:uid="{E759308B-F20A-472F-B4B1-66EAFEAA8C98}"/>
+    <hyperlink ref="E35" r:id="rId458" xr:uid="{262CF7BE-094F-471C-A17F-9C657D32DA10}"/>
+    <hyperlink ref="E195" r:id="rId459" xr:uid="{D4D73E4F-D9EB-468B-8DC3-DB0F7CD9C814}"/>
+    <hyperlink ref="E121" r:id="rId460" xr:uid="{A36DE704-AA91-4EEE-9BCE-2946D5B3553F}"/>
+    <hyperlink ref="A35" r:id="rId461" display="https://leetcode.cn/problems/uncrossed-lines/" xr:uid="{688A92DB-9275-41B1-8150-3590FF4B4661}"/>
+    <hyperlink ref="A195" r:id="rId462" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{3DFEADD4-92A1-4349-8AAB-9FCDCDCB4BFA}"/>
+    <hyperlink ref="A121" r:id="rId463" display="https://leetcode.cn/problems/is-subsequence/" xr:uid="{331EBBB1-645B-4C03-97DC-07712F6517EA}"/>
+    <hyperlink ref="A239" r:id="rId464" display="https://leetcode.cn/problems/design-memory-allocator/" xr:uid="{425892CA-7454-42D2-8E9D-EBACDE0A9FB9}"/>
+    <hyperlink ref="E80" r:id="rId465" xr:uid="{B7DB546A-BB2E-4CBE-BE1D-90734243F066}"/>
+    <hyperlink ref="E63" r:id="rId466" xr:uid="{2122D83F-9CAA-4287-8127-F5013D7DEA86}"/>
+    <hyperlink ref="E29" r:id="rId467" xr:uid="{FA290801-F856-40DF-9042-7EA0BA45F20A}"/>
+    <hyperlink ref="A80" r:id="rId468" display="https://leetcode.cn/problems/distinct-subsequences/" xr:uid="{F831AC00-214B-46FE-85F6-0A821639565C}"/>
+    <hyperlink ref="A63" r:id="rId469" display="https://leetcode.cn/problems/delete-operation-for-two-strings/" xr:uid="{3C1ABA42-39A4-48E5-96D2-980D6F692351}"/>
+    <hyperlink ref="A29" r:id="rId470" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{E77CDB8C-709B-4448-A672-2FEEA7FFB3C2}"/>
+    <hyperlink ref="A162" r:id="rId471" display="https://leetcode.cn/problems/design-browser-history/" xr:uid="{484B523B-B9C8-4D07-AF2E-FFD615036865}"/>
+    <hyperlink ref="E64" r:id="rId472" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{68B4C6AD-61ED-4FD3-95E3-ECBDB15DA45C}"/>
+    <hyperlink ref="E60" r:id="rId473" xr:uid="{6B671C33-84AD-4C39-954C-9376CAC79153}"/>
+    <hyperlink ref="A60" r:id="rId474" display="https://leetcode.cn/problems/longest-palindromic-subsequence/" xr:uid="{95DE1D99-1585-4BFA-80AD-0A1AE4DE16DF}"/>
+    <hyperlink ref="A64" r:id="rId475" display="https://leetcode.cn/problems/palindromic-substrings/" xr:uid="{3562169F-461C-4C34-B821-C37DA25DF7D3}"/>
+    <hyperlink ref="A234" r:id="rId476" display="https://leetcode.cn/problems/design-a-text-editor/" xr:uid="{B9C898F1-8F87-4779-8DF7-F041F4864256}"/>
+    <hyperlink ref="E234" r:id="rId477" xr:uid="{2B238F66-0992-4025-8C40-B53095306D5C}"/>
+    <hyperlink ref="E135" r:id="rId478" xr:uid="{FAC4AB77-7FBF-444E-8395-14AF68E53C91}"/>
+    <hyperlink ref="E59" r:id="rId479" xr:uid="{E16C5A48-EE81-48CD-B0F5-181353C18128}"/>
+    <hyperlink ref="E127" r:id="rId480" xr:uid="{84C19260-CC43-4F6E-B81B-79A0DB0BC26D}"/>
+    <hyperlink ref="A135" r:id="rId481" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{7B07F28C-D4A1-4AC4-8A82-8EF76D230156}"/>
+    <hyperlink ref="A59" r:id="rId482" display="https://leetcode.cn/problems/next-greater-element-i/" xr:uid="{27CEEBA8-6963-43A7-8769-FF7963D5448B}"/>
+    <hyperlink ref="A127" r:id="rId483" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
+    <hyperlink ref="A235" r:id="rId484" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
+    <hyperlink ref="E235" r:id="rId485" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
+    <hyperlink ref="E19" r:id="rId486" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C45CA14-3139-41EA-9494-1B8EFDE805CF}"/>
+    <hyperlink ref="E33" r:id="rId487" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
+    <hyperlink ref="A33" r:id="rId488" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
+    <hyperlink ref="A19" r:id="rId489" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
+    <hyperlink ref="A264" r:id="rId490" display="98. 所有可达路径" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
+    <hyperlink ref="E264" r:id="rId491" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
+    <hyperlink ref="E145" r:id="rId492" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
+    <hyperlink ref="E72" r:id="rId493" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
+    <hyperlink ref="A145" r:id="rId494" display="99. 岛屿数量" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
+    <hyperlink ref="A72" r:id="rId495" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
+    <hyperlink ref="E142" r:id="rId496" location="%E6%80%9D%E8%B7%AF" xr:uid="{098EEA69-7F3E-4AB5-9FE2-6C004D9AC270}"/>
+    <hyperlink ref="E143" r:id="rId497" location="%E6%80%9D%E8%B7%AF" xr:uid="{E1175A95-B33F-490F-9A15-9C1CF7EEA311}"/>
+    <hyperlink ref="E69" r:id="rId498" xr:uid="{88D74155-E61B-4394-AFF5-41569453B560}"/>
+    <hyperlink ref="E70" r:id="rId499" xr:uid="{2B226A0C-43B6-4229-B22B-FB771DAC3E7E}"/>
+    <hyperlink ref="A142" r:id="rId500" display="101. 孤岛的总面积" xr:uid="{8E2FC539-C4C8-4464-B413-335E4931ACDF}"/>
+    <hyperlink ref="A143" r:id="rId501" display="102. 沉没孤岛" xr:uid="{34543BD5-F8EB-4D0E-B9E6-3814D57A9274}"/>
+    <hyperlink ref="A69" r:id="rId502" display="103. 水流问题" xr:uid="{67D7BD9F-E083-4F3B-AA58-56F357345DB9}"/>
+    <hyperlink ref="A70" r:id="rId503" display="104. 建造最大岛屿" xr:uid="{9BB8D65F-78F2-45D1-A5A5-15A66F7737DB}"/>
+    <hyperlink ref="E216" r:id="rId504" location="%E6%80%9D%E8%B7%AF" xr:uid="{07EEE79A-C3E2-493C-A408-6984D41184DD}"/>
+    <hyperlink ref="E144" r:id="rId505" xr:uid="{DA7485E3-BDC7-4ACA-A2F6-4393A9990679}"/>
+    <hyperlink ref="E215" r:id="rId506" xr:uid="{2F2321A2-B478-4399-82B3-344EEDBE2D24}"/>
+    <hyperlink ref="A216" r:id="rId507" xr:uid="{3B7CD5FD-8B4F-4698-BDA8-63D1F733738B}"/>
+    <hyperlink ref="A144" r:id="rId508" xr:uid="{581EF9B9-3D2C-403E-9E2D-E8CF5D5C562D}"/>
+    <hyperlink ref="A215" r:id="rId509" xr:uid="{66ED2192-5B55-42D3-8D2E-22ADD1946B1B}"/>
+    <hyperlink ref="A108" r:id="rId510" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{7A419034-2EC5-43E6-8BD8-4AB8848ACF5D}"/>
+    <hyperlink ref="E108" r:id="rId511" xr:uid="{CC660FDB-4E08-4F7E-A8D0-7CEC29FAEE52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId510"/>
+    <tablePart r:id="rId512"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B373EB0-F7D8-47EF-9022-ECECE5296AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31311-701D-45E8-AFB5-E52B9AA17A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="725">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2670,6 +2670,22 @@
   <si>
     <t>以空间换时间，可以使用的数据结构是栈；哨兵；向左向右扩展；739.题的延申
 对比42.注意push(i)的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K107. 寻找存在的路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集模板题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3178,10 +3194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8628,6 +8644,26 @@
       </c>
       <c r="E294" s="9" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" s="14" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -9153,10 +9189,12 @@
     <hyperlink ref="A215" r:id="rId509" xr:uid="{66ED2192-5B55-42D3-8D2E-22ADD1946B1B}"/>
     <hyperlink ref="A108" r:id="rId510" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{7A419034-2EC5-43E6-8BD8-4AB8848ACF5D}"/>
     <hyperlink ref="E108" r:id="rId511" xr:uid="{CC660FDB-4E08-4F7E-A8D0-7CEC29FAEE52}"/>
+    <hyperlink ref="E295" r:id="rId512" location="%E6%80%9D%E8%B7%AF" xr:uid="{CDC4413E-F609-4AEB-BC27-E97EB17C8153}"/>
+    <hyperlink ref="A295" r:id="rId513" xr:uid="{8EE4829C-60FB-4E89-940B-1E2790DC93A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId512"/>
+    <tablePart r:id="rId514"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31311-701D-45E8-AFB5-E52B9AA17A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170015F-DF5C-4326-B159-7F35B1A930F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="730">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2686,6 +2686,25 @@
   </si>
   <si>
     <t>并查集模板题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K108. 冗余连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K109. 冗余连接II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2234. 花园的最大总美丽值</t>
+  </si>
+  <si>
+    <t>前后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3194,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8666,15 +8685,72 @@
         <v>724</v>
       </c>
     </row>
+    <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G298" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A299:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A299:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A299:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -9191,10 +9267,16 @@
     <hyperlink ref="E108" r:id="rId511" xr:uid="{CC660FDB-4E08-4F7E-A8D0-7CEC29FAEE52}"/>
     <hyperlink ref="E295" r:id="rId512" location="%E6%80%9D%E8%B7%AF" xr:uid="{CDC4413E-F609-4AEB-BC27-E97EB17C8153}"/>
     <hyperlink ref="A295" r:id="rId513" xr:uid="{8EE4829C-60FB-4E89-940B-1E2790DC93A9}"/>
+    <hyperlink ref="E296" r:id="rId514" xr:uid="{8DFDD3FD-F471-42CD-87F5-803786CD5439}"/>
+    <hyperlink ref="E297" r:id="rId515" xr:uid="{3681C961-DAEE-4D31-B01E-633848A859C0}"/>
+    <hyperlink ref="A296" r:id="rId516" display="108. 冗余连接" xr:uid="{08FF9D4A-B028-4BC4-807E-E64F7AC7E2A8}"/>
+    <hyperlink ref="A297" r:id="rId517" display="109. 冗余连接II" xr:uid="{7185B69E-56C4-4330-9EA7-313233A3DED4}"/>
+    <hyperlink ref="A298" r:id="rId518" display="https://leetcode.cn/problems/maximum-total-beauty-of-the-gardens/" xr:uid="{E7C5B506-8790-4198-BB44-E5E99EDFE0D5}"/>
+    <hyperlink ref="E298" r:id="rId519" xr:uid="{952BA3DA-2B75-467D-9171-91BA2D550794}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId514"/>
+    <tablePart r:id="rId520"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170015F-DF5C-4326-B159-7F35B1A930F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC9D0D-9469-4270-A9A5-900173422E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="734">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2706,6 +2706,20 @@
   <si>
     <t>前后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2070. 每一个查询的最大美丽值</t>
+  </si>
+  <si>
+    <t>2025.03.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线算法+前缀最大值+二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
   </si>
 </sst>
 </file>
@@ -3213,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G299"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8742,15 +8756,35 @@
         <v>324</v>
       </c>
     </row>
+    <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G299" s="14" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A299:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A300:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A299:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A300:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A299:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A300:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -9273,10 +9307,12 @@
     <hyperlink ref="A297" r:id="rId517" display="109. 冗余连接II" xr:uid="{7185B69E-56C4-4330-9EA7-313233A3DED4}"/>
     <hyperlink ref="A298" r:id="rId518" display="https://leetcode.cn/problems/maximum-total-beauty-of-the-gardens/" xr:uid="{E7C5B506-8790-4198-BB44-E5E99EDFE0D5}"/>
     <hyperlink ref="E298" r:id="rId519" xr:uid="{952BA3DA-2B75-467D-9171-91BA2D550794}"/>
+    <hyperlink ref="A299" r:id="rId520" display="https://leetcode.cn/problems/most-beautiful-item-for-each-query/" xr:uid="{6BA2699D-5954-4301-8029-72CD44181800}"/>
+    <hyperlink ref="E299" r:id="rId521" xr:uid="{9F736D86-2D8A-4BCF-8639-3091FCF7242A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId520"/>
+    <tablePart r:id="rId522"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC9D0D-9469-4270-A9A5-900173422E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF9E02-712A-41E3-9B3F-80457B8FD1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="746">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2720,6 +2720,55 @@
   </si>
   <si>
     <t>二分查找</t>
+  </si>
+  <si>
+    <t>2269. 找到一个数字的 K 美丽值</t>
+  </si>
+  <si>
+    <t>2025.03.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String s = String.valueOf(num);
+int x = Integer.parseInt(s.substring(i - k, i));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prim最小生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kruskal最小生成树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prim按点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K53. 寻宝（prim）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K53. 寻宝（kruskal）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kruskal按边、并查集
+edges.sort(Comparator.comparingInt(edge -&gt; edge.val));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K117. 软件构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一种重上数据结构课的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3227,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G299"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8776,15 +8825,89 @@
         <v>732</v>
       </c>
     </row>
+    <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="G300" s="15" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G301" s="14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" s="15" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A300:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A300:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A300:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -9309,10 +9432,17 @@
     <hyperlink ref="E298" r:id="rId519" xr:uid="{952BA3DA-2B75-467D-9171-91BA2D550794}"/>
     <hyperlink ref="A299" r:id="rId520" display="https://leetcode.cn/problems/most-beautiful-item-for-each-query/" xr:uid="{6BA2699D-5954-4301-8029-72CD44181800}"/>
     <hyperlink ref="E299" r:id="rId521" xr:uid="{9F736D86-2D8A-4BCF-8639-3091FCF7242A}"/>
+    <hyperlink ref="A300" r:id="rId522" display="https://leetcode.cn/problems/find-the-k-beauty-of-a-number/" xr:uid="{64DBCBF6-8ECC-4132-BD50-1AD681A3DB9A}"/>
+    <hyperlink ref="A301" r:id="rId523" display="K53. 寻宝" xr:uid="{24349FDF-AE74-495F-9EFB-CFB9597EB709}"/>
+    <hyperlink ref="E301" r:id="rId524" xr:uid="{78CF9125-A046-4547-AC24-88F6233CED2A}"/>
+    <hyperlink ref="A302" r:id="rId525" display="K53. 寻宝" xr:uid="{A17AFF1F-4A6F-4FFF-98BC-251A095D7118}"/>
+    <hyperlink ref="E302" r:id="rId526" xr:uid="{E1457EEB-17BA-40CE-9AC0-7D14F38E8E3B}"/>
+    <hyperlink ref="E303" r:id="rId527" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" xr:uid="{9B9908E6-B215-4CD5-B08E-D6326287A79A}"/>
+    <hyperlink ref="A303" r:id="rId528" xr:uid="{161991EB-90D0-4CB8-8B81-ECE441D35CE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId522"/>
+    <tablePart r:id="rId529"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EF9E02-712A-41E3-9B3F-80457B8FD1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F22193-062D-4112-8C75-051DF84EAC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="769">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2770,12 +2771,140 @@
     <t>有一种重上数据结构课的感觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字符串乘法，输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次方</t>
+    </r>
+  </si>
+  <si>
+    <t>1262. 可被三整除的最大和</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijstra朴素版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K47. 参加科学大会（dijstra朴素版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K47. 参加科学大会（dijstra堆优化版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijstra堆优化版</t>
+  </si>
+  <si>
+    <t>grid.get(p1).add(new Edge(p2, val));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellman_ford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K94. 城市间货物运输 I（SPFA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K94. 城市间货物运输 I（BF）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数权值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K95. 城市间货物运输 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断负权回路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K96. 城市间货物运输 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列优化（SPFA）</t>
+  </si>
+  <si>
+    <t>单源有限最短路、十分综合的一道题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K97. 小明逛公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K127. 骑士的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多源最短路问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2826,16 +2955,56 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2843,12 +3012,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,12 +3144,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2995,19 +3344,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3276,10 +3625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8899,16 +9248,173 @@
         <v>745</v>
       </c>
     </row>
+    <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G305" s="14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E306" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" s="14" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" s="14" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" s="14" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E312" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -9439,10 +9945,158 @@
     <hyperlink ref="E302" r:id="rId526" xr:uid="{E1457EEB-17BA-40CE-9AC0-7D14F38E8E3B}"/>
     <hyperlink ref="E303" r:id="rId527" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" xr:uid="{9B9908E6-B215-4CD5-B08E-D6326287A79A}"/>
     <hyperlink ref="A303" r:id="rId528" xr:uid="{161991EB-90D0-4CB8-8B81-ECE441D35CE9}"/>
+    <hyperlink ref="E304" r:id="rId529" xr:uid="{08552FD3-08A3-4C2B-8087-DFA90CDE79CB}"/>
+    <hyperlink ref="E305" r:id="rId530" xr:uid="{1E76C702-F3B7-45E5-A138-F8EDD5663DBA}"/>
+    <hyperlink ref="E306" r:id="rId531" location="%E6%80%9D%E8%B7%AF" xr:uid="{04A67395-F47F-4DC6-8B8C-1AED1EB64AB5}"/>
+    <hyperlink ref="E307" r:id="rId532" location="%E8%83%8C%E6%99%AF" xr:uid="{29CEA416-A056-49B5-97F6-BDF5E8155617}"/>
+    <hyperlink ref="E308" r:id="rId533" location="%E6%80%9D%E8%B7%AF" xr:uid="{A2718796-50BE-4047-93F0-ECD9B2D894BB}"/>
+    <hyperlink ref="E309" r:id="rId534" location="%E6%80%9D%E8%B7%AF" xr:uid="{78191124-EDD8-419F-832B-AC1E33665E2D}"/>
+    <hyperlink ref="E310" r:id="rId535" xr:uid="{252A3F76-2AD9-46F5-9B39-9462B9487AF9}"/>
+    <hyperlink ref="E311" r:id="rId536" location="%E6%80%9D%E8%B7%AF" xr:uid="{F64B5CD9-9AFE-4107-A27D-F900EFF94B1F}"/>
+    <hyperlink ref="A304" r:id="rId537" display="K47. 参加科学大会" xr:uid="{436D3D71-60C0-4794-B5B8-36E491E4F857}"/>
+    <hyperlink ref="A305" r:id="rId538" display="K47. 参加科学大会" xr:uid="{9A8BEFE1-B749-4AA6-BFFD-C68F54DEFDEE}"/>
+    <hyperlink ref="A306" r:id="rId539" display="K94. 城市间货物运输 I" xr:uid="{3265D523-DAAB-4C65-9A26-24A20AE58777}"/>
+    <hyperlink ref="A307" r:id="rId540" display="K94. 城市间货物运输 I" xr:uid="{BF2508BE-BAC1-4F28-A76B-D696EB9A28A1}"/>
+    <hyperlink ref="A308" r:id="rId541" xr:uid="{91FFF0F7-465E-4EE4-A725-C092939177F6}"/>
+    <hyperlink ref="A309" r:id="rId542" xr:uid="{B85F0365-9A7E-4326-9361-1B1C4595B1BE}"/>
+    <hyperlink ref="A310" r:id="rId543" xr:uid="{C0461820-4989-4E7D-B67A-8105D390F544}"/>
+    <hyperlink ref="A311" r:id="rId544" xr:uid="{F92CBEBB-AD6C-4E23-B030-AD02CBA1E16C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId529"/>
+    <tablePart r:id="rId545"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.640625" customWidth="1"/>
+    <col min="2" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="30.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.600000000000001" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="30" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>749</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1 A7">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.cn/problems/sort-list/" xr:uid="{087A88F4-F491-4C41-8A79-5828D03E6719}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{962C8ACD-A861-4F70-B29A-E672641EE7D2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{190D02FA-C796-4813-A6F6-1BB726C48B23}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{6C937BA3-FD28-4EAB-9E03-BB4F9E216256}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F22193-062D-4112-8C75-051DF84EAC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3B876-84EF-416D-98F5-627CDC2018BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="770">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,6 +2897,10 @@
   </si>
   <si>
     <t>Astar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3093,7 +3097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3188,12 +3192,43 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3344,19 +3379,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3627,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9408,13 +9443,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -9973,8 +10008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10071,24 +10106,37 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26"/>
+      <c r="A7" s="34" t="s">
+        <v>192</v>
+      </c>
       <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="C7" s="22" t="s">
+        <v>769</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
       <c r="F7" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 A7">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>
@@ -10096,6 +10144,7 @@
     <hyperlink ref="A5" r:id="rId3" display="https://leetcode.cn/problems/greatest-sum-divisible-by-three/" xr:uid="{962C8ACD-A861-4F70-B29A-E672641EE7D2}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{190D02FA-C796-4813-A6F6-1BB726C48B23}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{6C937BA3-FD28-4EAB-9E03-BB4F9E216256}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{5FD3AD78-A80A-4EF3-B69C-4A1187081B51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3B876-84EF-416D-98F5-627CDC2018BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF332C3C-C992-4F76-894D-B0928AD58F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="772">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2902,6 +2902,13 @@
   <si>
     <t>腾讯云</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3306. 元音辅音字符串计数 II</t>
   </si>
 </sst>
 </file>
@@ -3097,7 +3104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3192,13 +3199,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3216,16 +3232,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3662,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9437,18 +9443,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E312" s="9"/>
+    <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E312" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A313:A1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A313:A1048576">
     <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A313:A1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -9996,10 +10016,12 @@
     <hyperlink ref="A309" r:id="rId542" xr:uid="{B85F0365-9A7E-4326-9361-1B1C4595B1BE}"/>
     <hyperlink ref="A310" r:id="rId543" xr:uid="{C0461820-4989-4E7D-B67A-8105D390F544}"/>
     <hyperlink ref="A311" r:id="rId544" xr:uid="{F92CBEBB-AD6C-4E23-B030-AD02CBA1E16C}"/>
+    <hyperlink ref="A312" r:id="rId545" display="https://leetcode.cn/problems/count-of-substrings-containing-every-vowel-and-k-consonants-ii/" xr:uid="{A4CFE49C-A2A2-4C43-8B6D-89E8AC76B415}"/>
+    <hyperlink ref="E312" r:id="rId546" xr:uid="{9154C15D-2B5B-472B-B749-10977FCCE63B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId545"/>
+    <tablePart r:id="rId547"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10008,7 +10030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10106,7 +10128,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="26" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="27"/>
@@ -10130,13 +10152,9 @@
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF332C3C-C992-4F76-894D-B0928AD58F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CFA04-955C-4DDE-AC44-8CE167E89D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-206" yWindow="514" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="774">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2909,6 +2909,14 @@
   </si>
   <si>
     <t>3306. 元音辅音字符串计数 II</t>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3015,7 +3023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3099,12 +3107,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3199,12 +3218,46 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3385,19 +3438,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3668,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9463,13 +9516,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -10028,10 +10081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10139,22 +10192,45 @@
       <c r="E7" s="27"/>
       <c r="F7" s="33"/>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>772</v>
+      </c>
+      <c r="F8" t="s">
+        <v>773</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>
@@ -10163,6 +10239,7 @@
     <hyperlink ref="A6" r:id="rId4" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{190D02FA-C796-4813-A6F6-1BB726C48B23}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{6C937BA3-FD28-4EAB-9E03-BB4F9E216256}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{5FD3AD78-A80A-4EF3-B69C-4A1187081B51}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{532C7E56-206F-4442-B106-C83E6D87C927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CFA04-955C-4DDE-AC44-8CE167E89D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38655B-B85B-4A6A-873D-D985978DBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-206" yWindow="514" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="781">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2917,6 +2917,29 @@
   <si>
     <t>萝卜面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长重复子串</t>
+  </si>
+  <si>
+    <t>华为笔试必出图</t>
+  </si>
+  <si>
+    <t>华为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接雨水</t>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大不重复字符串</t>
+  </si>
+  <si>
+    <t>2628. 完全相等的 JSON 字符串</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3107,23 +3130,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3218,16 +3230,68 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3245,16 +3309,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3438,19 +3492,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}" name="表2" displayName="表2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:F1048576" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{85179507-D1A4-4FE2-ACD8-A710E3C849A5}" name="题目"/>
+    <tableColumn id="2" xr3:uid="{D08C1FF3-0377-4C89-9B23-90492D8DA871}" name="标签"/>
+    <tableColumn id="3" xr3:uid="{D998EDD8-AC1D-4EA6-B4C3-132E83DD83F3}" name="大厂" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4B82994A-7230-4629-9C6E-1938B54E7944}" name="价值"/>
+    <tableColumn id="5" xr3:uid="{77313547-2666-4294-837E-C1DE87262636}" name="参考题解"/>
+    <tableColumn id="6" xr3:uid="{012B5B42-1C3F-4A70-B9CB-09D4F065A846}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9516,13 +9585,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -10081,16 +10150,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.640625" customWidth="1"/>
-    <col min="2" max="5" width="15.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="15.640625" customWidth="1"/>
     <col min="6" max="6" width="30.640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10119,7 +10190,6 @@
         <v>186</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
@@ -10129,7 +10199,6 @@
         <v>189</v>
       </c>
       <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
@@ -10139,7 +10208,6 @@
         <v>747</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
       <c r="F4" s="32"/>
@@ -10149,7 +10217,7 @@
         <v>748</v>
       </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="6" t="s">
         <v>749</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -10167,7 +10235,7 @@
       <c r="B6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="6" t="s">
         <v>749</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -10185,7 +10253,7 @@
         <v>192</v>
       </c>
       <c r="B7" s="27"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="6" t="s">
         <v>769</v>
       </c>
       <c r="D7" s="28"/>
@@ -10193,44 +10261,71 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="21" t="s">
         <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="6" t="s">
         <v>772</v>
       </c>
       <c r="F8" t="s">
         <v>773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>
@@ -10240,7 +10335,11 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{6C937BA3-FD28-4EAB-9E03-BB4F9E216256}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{5FD3AD78-A80A-4EF3-B69C-4A1187081B51}"/>
     <hyperlink ref="A8" r:id="rId7" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{532C7E56-206F-4442-B106-C83E6D87C927}"/>
+    <hyperlink ref="A13" r:id="rId8" display="https://leetcode.cn/problems/json-deep-equal/" xr:uid="{5C5BD27A-1506-421A-AE6C-F1783B823F3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38655B-B85B-4A6A-873D-D985978DBCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF481A4-75E2-44E0-8705-DB059A46D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="785">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2776,8 +2776,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1262. 可被三整除的最大和</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijstra朴素版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K47. 参加科学大会（dijstra朴素版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K47. 参加科学大会（dijstra堆优化版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dijstra堆优化版</t>
+  </si>
+  <si>
+    <t>grid.get(p1).add(new Edge(p2, val));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellman_ford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K94. 城市间货物运输 I（SPFA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K94. 城市间货物运输 I（BF）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负数权值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K95. 城市间货物运输 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断负权回路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K96. 城市间货物运输 III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列优化（SPFA）</t>
+  </si>
+  <si>
+    <t>单源有限最短路、十分综合的一道题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K97. 小明逛公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K127. 骑士的攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多源最短路问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3306. 元音辅音字符串计数 II</t>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2628. 完全相等的 JSON 字符串</t>
+  </si>
+  <si>
+    <t>2829. k-avoiding 数组的最小总和</t>
+  </si>
+  <si>
+    <t>2025.03.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按k/2分为两部分，等差数列计算求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1044. 最长重复子串</t>
+  </si>
+  <si>
+    <t>LCR 016. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>字符串乘法</t>
+  </si>
+  <si>
     <r>
-      <t>字符串乘法，输出</t>
+      <t>输出</t>
     </r>
     <r>
       <rPr>
@@ -2817,129 +2948,23 @@
       </rPr>
       <t>次方</t>
     </r>
-  </si>
-  <si>
-    <t>1262. 可被三整除的最大和</t>
-  </si>
-  <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dijstra朴素版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K47. 参加科学大会（dijstra朴素版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K47. 参加科学大会（dijstra堆优化版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dijstra堆优化版</t>
-  </si>
-  <si>
-    <t>grid.get(p1).add(new Edge(p2, val));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bellman_ford</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K94. 城市间货物运输 I（SPFA）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K94. 城市间货物运输 I（BF）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负数权值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K95. 城市间货物运输 II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断负权回路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K96. 城市间货物运输 III</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列优化（SPFA）</t>
-  </si>
-  <si>
-    <t>单源有限最短路、十分综合的一道题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Floyd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K97. 小明逛公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K127. 骑士的攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多源最短路问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Astar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.03.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3306. 元音辅音字符串计数 II</t>
-  </si>
-  <si>
-    <t>快手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最长重复子串</t>
-  </si>
-  <si>
-    <t>华为笔试必出图</t>
-  </si>
-  <si>
-    <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接雨水</t>
-  </si>
-  <si>
-    <t>字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大不重复字符串</t>
-  </si>
-  <si>
-    <t>2628. 完全相等的 JSON 字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 反向遍历字符串并相乘
+        for (int i = len1 - 1; i &gt;= 0; i--) {
+            for (int j = len2 - 1; j &gt;= 0; j--) {
+                int product = (num1.charAt(i) - '0') * (num2.charAt(j) - '0');
+                int sum = product + result[i + j + 1];
+                result[i + j + 1] = sum % 10;  // 当前位数
+                result[i + j] += sum / 10;     // 进位
+            }
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3020,7 +3045,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3043,6 +3068,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3135,7 +3178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3230,58 +3273,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3433,6 +3433,55 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3492,31 +3541,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}" name="表2" displayName="表2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:F1048576" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}" name="表2" displayName="表2" ref="A1:F1048573" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17">
+  <autoFilter ref="A1:F1048573" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{85179507-D1A4-4FE2-ACD8-A710E3C849A5}" name="题目"/>
-    <tableColumn id="2" xr3:uid="{D08C1FF3-0377-4C89-9B23-90492D8DA871}" name="标签"/>
-    <tableColumn id="3" xr3:uid="{D998EDD8-AC1D-4EA6-B4C3-132E83DD83F3}" name="大厂" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D08C1FF3-0377-4C89-9B23-90492D8DA871}" name="标签" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D998EDD8-AC1D-4EA6-B4C3-132E83DD83F3}" name="大厂" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{4B82994A-7230-4629-9C6E-1938B54E7944}" name="价值"/>
     <tableColumn id="5" xr3:uid="{77313547-2666-4294-837E-C1DE87262636}" name="参考题解"/>
     <tableColumn id="6" xr3:uid="{012B5B42-1C3F-4A70-B9CB-09D4F065A846}" name="备注"/>
@@ -3788,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView topLeftCell="A303" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9413,10 +9462,10 @@
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>41</v>
@@ -9430,10 +9479,10 @@
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>79</v>
@@ -9445,15 +9494,15 @@
         <v>14</v>
       </c>
       <c r="G305" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>13</v>
@@ -9465,15 +9514,15 @@
         <v>14</v>
       </c>
       <c r="G306" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>79</v>
@@ -9485,15 +9534,15 @@
         <v>14</v>
       </c>
       <c r="G307" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>79</v>
@@ -9505,15 +9554,15 @@
         <v>14</v>
       </c>
       <c r="G308" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>92</v>
@@ -9525,15 +9574,15 @@
         <v>14</v>
       </c>
       <c r="G309" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>79</v>
@@ -9545,15 +9594,15 @@
         <v>14</v>
       </c>
       <c r="G310" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>41</v>
@@ -9567,7 +9616,7 @@
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>101</v>
@@ -9576,22 +9625,42 @@
         <v>79</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G313" s="14" t="s">
+        <v>778</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A314:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A314:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A313:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A314:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
@@ -10140,10 +10209,12 @@
     <hyperlink ref="A311" r:id="rId544" xr:uid="{F92CBEBB-AD6C-4E23-B030-AD02CBA1E16C}"/>
     <hyperlink ref="A312" r:id="rId545" display="https://leetcode.cn/problems/count-of-substrings-containing-every-vowel-and-k-consonants-ii/" xr:uid="{A4CFE49C-A2A2-4C43-8B6D-89E8AC76B415}"/>
     <hyperlink ref="E312" r:id="rId546" xr:uid="{9154C15D-2B5B-472B-B749-10977FCCE63B}"/>
+    <hyperlink ref="A313" r:id="rId547" display="https://leetcode.cn/problems/determine-the-minimum-sum-of-a-k-avoiding-array/" xr:uid="{840A92A7-960A-451A-ACE1-450F44768F18}"/>
+    <hyperlink ref="E313" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId547"/>
+    <tablePart r:id="rId549"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10152,15 +10223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.640625" customWidth="1"/>
-    <col min="2" max="2" width="15.640625" customWidth="1"/>
-    <col min="3" max="3" width="15.640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.640625" style="6" customWidth="1"/>
     <col min="4" max="5" width="15.640625" customWidth="1"/>
     <col min="6" max="6" width="30.640625" customWidth="1"/>
   </cols>
@@ -10189,8 +10259,12 @@
       <c r="A2" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
@@ -10198,27 +10272,39 @@
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="E3" s="29"/>
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="34" t="s">
         <v>747</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="26" t="s">
-        <v>748</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -10229,14 +10315,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="35" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>13</v>
@@ -10249,83 +10335,80 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="34" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="F8" t="s">
         <v>772</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>775</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>777</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>778</v>
+      <c r="A11" s="36" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>779</v>
+      <c r="A12" s="36" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="36" t="s">
         <v>780</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{E9182431-CCAC-4778-AF3E-11724741BEC4}"/>
@@ -10335,11 +10418,15 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{6C937BA3-FD28-4EAB-9E03-BB4F9E216256}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{5FD3AD78-A80A-4EF3-B69C-4A1187081B51}"/>
     <hyperlink ref="A8" r:id="rId7" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{532C7E56-206F-4442-B106-C83E6D87C927}"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://leetcode.cn/problems/json-deep-equal/" xr:uid="{5C5BD27A-1506-421A-AE6C-F1783B823F3B}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://leetcode.cn/problems/json-deep-equal/" xr:uid="{5C5BD27A-1506-421A-AE6C-F1783B823F3B}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{2D158848-0347-4CBE-99FF-5F1A121B9ADD}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode.cn/problems/longest-duplicate-substring/" xr:uid="{267509DF-7E84-4B6A-8C28-89B5207D42CE}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{F26440FA-8023-47FA-8E2C-DAD07569FDBD}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode.cn/problems/wtcaE1/" xr:uid="{2BD9CF79-512D-439D-A072-CE25C8E95139}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF481A4-75E2-44E0-8705-DB059A46D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2D6C9-946A-4164-B3A6-918EE4F78F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="788">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2965,6 +2965,16 @@
   <si>
     <t>GPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+  </si>
+  <si>
+    <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1456. 定长子串中元音的最大数目</t>
   </si>
 </sst>
 </file>
@@ -3564,8 +3574,8 @@
   <autoFilter ref="A1:F1048573" xr:uid="{6894CDFF-6F76-415D-A412-9FF309A5A3D9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{85179507-D1A4-4FE2-ACD8-A710E3C849A5}" name="题目"/>
-    <tableColumn id="2" xr3:uid="{D08C1FF3-0377-4C89-9B23-90492D8DA871}" name="标签" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{D998EDD8-AC1D-4EA6-B4C3-132E83DD83F3}" name="大厂" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D08C1FF3-0377-4C89-9B23-90492D8DA871}" name="标签" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D998EDD8-AC1D-4EA6-B4C3-132E83DD83F3}" name="大厂" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{4B82994A-7230-4629-9C6E-1938B54E7944}" name="价值"/>
     <tableColumn id="5" xr3:uid="{77313547-2666-4294-837E-C1DE87262636}" name="参考题解"/>
     <tableColumn id="6" xr3:uid="{012B5B42-1C3F-4A70-B9CB-09D4F065A846}" name="备注"/>
@@ -10221,10 +10231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10386,6 +10396,30 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
         <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -10423,10 +10457,13 @@
     <hyperlink ref="A11" r:id="rId10" display="https://leetcode.cn/problems/longest-duplicate-substring/" xr:uid="{267509DF-7E84-4B6A-8C28-89B5207D42CE}"/>
     <hyperlink ref="A12" r:id="rId11" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{F26440FA-8023-47FA-8E2C-DAD07569FDBD}"/>
     <hyperlink ref="A13" r:id="rId12" display="https://leetcode.cn/problems/wtcaE1/" xr:uid="{2BD9CF79-512D-439D-A072-CE25C8E95139}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode.cn/problems/3sum-closest/" xr:uid="{2AE9206C-C4B9-4049-BC69-78F6260AC063}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{208CA88A-18B4-4A6B-AF2F-635BA7EE6B86}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode.cn/problems/maximum-number-of-vowels-in-a-substring-of-given-length/" xr:uid="{23191E48-CC4D-4CD2-A3CE-9610F20D27FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2D6C9-946A-4164-B3A6-918EE4F78F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ACDE9-0184-4A7A-842F-5003CC7E98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10234,7 +10234,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10399,7 +10399,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="36" t="s">
         <v>785</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -10407,7 +10407,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -10415,7 +10415,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="36" t="s">
         <v>787</v>
       </c>
       <c r="C16" s="6" t="s">

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ACDE9-0184-4A7A-842F-5003CC7E98A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1636B1A2-CF1C-4F53-B1BF-DF234DF485B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="790">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2291,10 +2291,6 @@
   </si>
   <si>
     <t>算术几何平均不等式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.02.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2975,6 +2971,17 @@
   </si>
   <si>
     <t>1456. 定长子串中元音的最大数目</t>
+  </si>
+  <si>
+    <t>2025.04.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3396. 使数组元素互不相同所需的最少操作次数</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3188,7 +3195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3286,6 +3293,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3847,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E313" sqref="E313"/>
+    <sheetView topLeftCell="A304" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3939,7 +3947,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
@@ -3967,7 +3975,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>122</v>
@@ -3976,13 +3984,13 @@
         <v>92</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4084,7 +4092,7 @@
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>122</v>
@@ -4093,13 +4101,13 @@
         <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4113,7 +4121,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>14</v>
@@ -4122,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4153,13 +4161,13 @@
         <v>308</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
@@ -4168,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4176,13 +4184,13 @@
         <v>298</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -4191,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4225,13 +4233,13 @@
         <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>622</v>
+        <v>787</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>371</v>
@@ -4248,7 +4256,7 @@
         <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -4257,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4334,7 +4342,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>14</v>
@@ -4354,7 +4362,7 @@
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>14</v>
@@ -4363,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4423,7 +4431,7 @@
         <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>14</v>
@@ -4432,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4460,13 +4468,13 @@
         <v>275</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>14</v>
@@ -4475,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4546,7 +4554,7 @@
         <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
@@ -4555,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4580,7 +4588,7 @@
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>122</v>
@@ -4589,18 +4597,18 @@
         <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>293</v>
@@ -4609,7 +4617,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>14</v>
@@ -4751,13 +4759,13 @@
         <v>305</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>14</v>
@@ -4800,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>14</v>
@@ -5060,7 +5068,7 @@
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>559</v>
@@ -5069,7 +5077,7 @@
         <v>79</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>14</v>
@@ -5077,22 +5085,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5120,7 +5128,7 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>296</v>
@@ -5129,7 +5137,7 @@
         <v>79</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>14</v>
@@ -5137,42 +5145,42 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5186,7 +5194,7 @@
         <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>14</v>
@@ -5195,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5260,36 +5268,36 @@
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>14</v>
@@ -5317,16 +5325,16 @@
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>14</v>
@@ -5462,16 +5470,16 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>14</v>
@@ -5479,27 +5487,27 @@
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>122</v>
@@ -5508,7 +5516,7 @@
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>14</v>
@@ -5517,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5531,7 +5539,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>14</v>
@@ -5540,7 +5548,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5554,7 +5562,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>14</v>
@@ -5563,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5708,16 +5716,16 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5983,22 +5991,22 @@
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6222,16 +6230,16 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -6336,7 +6344,7 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>559</v>
@@ -6345,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>14</v>
@@ -6444,7 +6452,7 @@
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>122</v>
@@ -6453,13 +6461,13 @@
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6493,7 +6501,7 @@
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
@@ -6624,76 +6632,76 @@
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>14</v>
@@ -6988,16 +6996,16 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7056,13 +7064,13 @@
         <v>262</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>14</v>
@@ -7071,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7241,16 +7249,16 @@
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7338,7 +7346,7 @@
         <v>41</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
@@ -7582,13 +7590,13 @@
         <v>120</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>14</v>
@@ -7758,7 +7766,7 @@
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>122</v>
@@ -7767,7 +7775,7 @@
         <v>41</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>14</v>
@@ -7952,42 +7960,42 @@
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8069,13 +8077,13 @@
     </row>
     <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8236,7 +8244,7 @@
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>345</v>
@@ -8245,7 +8253,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8278,36 +8286,36 @@
     </row>
     <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E235" s="9" t="s">
         <v>46</v>
@@ -8372,30 +8380,30 @@
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8815,22 +8823,22 @@
     </row>
     <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D264" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" s="14" t="s">
         <v>696</v>
-      </c>
-      <c r="E264" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" s="14" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9301,36 +9309,36 @@
     </row>
     <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E295" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G295" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>14</v>
@@ -9338,16 +9346,16 @@
     </row>
     <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E297" s="9" t="s">
         <v>14</v>
@@ -9358,16 +9366,16 @@
     </row>
     <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E298" s="9" t="s">
         <v>46</v>
@@ -9378,110 +9386,110 @@
     </row>
     <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E299" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G299" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D300" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="G300" s="15" t="s">
         <v>735</v>
-      </c>
-      <c r="G300" s="15" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E301" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G301" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E302" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G302" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B303" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E303" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G303" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E304" s="9" t="s">
         <v>14</v>
@@ -9489,136 +9497,136 @@
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>751</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="C305" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E305" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G305" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E306" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G306" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C307" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E307" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G307" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C308" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E308" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G308" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E309" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G309" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C310" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E310" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G310" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E311" s="9" t="s">
         <v>14</v>
@@ -9626,7 +9634,7 @@
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>101</v>
@@ -9635,7 +9643,7 @@
         <v>79</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E312" s="9" t="s">
         <v>46</v>
@@ -9643,33 +9651,47 @@
     </row>
     <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E313" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G313" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A314:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A315:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A314:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A315:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A314:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A315:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10221,10 +10243,11 @@
     <hyperlink ref="E312" r:id="rId546" xr:uid="{9154C15D-2B5B-472B-B749-10977FCCE63B}"/>
     <hyperlink ref="A313" r:id="rId547" display="https://leetcode.cn/problems/determine-the-minimum-sum-of-a-k-avoiding-array/" xr:uid="{840A92A7-960A-451A-ACE1-450F44768F18}"/>
     <hyperlink ref="E313" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
+    <hyperlink ref="A314" r:id="rId549" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-elements-in-array-distinct/" xr:uid="{83894381-B921-4F4B-B83A-6531769D7A95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId549"/>
+    <tablePart r:id="rId550"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10234,7 +10257,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10253,7 +10276,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -10293,28 +10316,30 @@
     </row>
     <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -10325,14 +10350,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>13</v>
@@ -10350,7 +10375,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
@@ -10364,10 +10389,10 @@
         <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="F8" t="s">
         <v>771</v>
-      </c>
-      <c r="F8" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -10375,17 +10400,17 @@
         <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -10395,15 +10420,15 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>785</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10411,15 +10436,15 @@
         <v>184</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1636B1A2-CF1C-4F53-B1BF-DF234DF485B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E22B9E-8BEC-4E86-AA03-134ACDE76715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="793">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2981,6 +2981,17 @@
   </si>
   <si>
     <t>HashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3375. 使数组的值全部为 K 的最少操作次数</t>
+  </si>
+  <si>
+    <t>2025.04.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次选次大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3855,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D314" sqref="D314"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9683,15 +9694,32 @@
         <v>787</v>
       </c>
     </row>
+    <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="G315" s="14" t="s">
+        <v>792</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A315:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A316:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A315:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A316:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A315:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A316:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10244,10 +10272,11 @@
     <hyperlink ref="A313" r:id="rId547" display="https://leetcode.cn/problems/determine-the-minimum-sum-of-a-k-avoiding-array/" xr:uid="{840A92A7-960A-451A-ACE1-450F44768F18}"/>
     <hyperlink ref="E313" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
     <hyperlink ref="A314" r:id="rId549" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-elements-in-array-distinct/" xr:uid="{83894381-B921-4F4B-B83A-6531769D7A95}"/>
+    <hyperlink ref="A315" r:id="rId550" display="https://leetcode.cn/problems/minimum-operations-to-make-array-values-equal-to-k/" xr:uid="{59AE66E2-83FE-4916-BED0-94383A9E2944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId550"/>
+    <tablePart r:id="rId551"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10256,7 +10285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E22B9E-8BEC-4E86-AA03-134ACDE76715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17617E48-1AAA-43A6-B690-0A561C7812A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="798">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2992,6 +2992,23 @@
   </si>
   <si>
     <t>每次选次大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>2025.04.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1922. 统计好数字的数目</t>
+  </si>
+  <si>
+    <t>1534. 统计好三元组</t>
+  </si>
+  <si>
+    <t>2025.04.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3866,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G315"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A304" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+      <selection activeCell="G318" sqref="G318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -9711,15 +9728,60 @@
         <v>792</v>
       </c>
     </row>
+    <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A316:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A319:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A316:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A319:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A316:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A319:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10273,10 +10335,16 @@
     <hyperlink ref="E313" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
     <hyperlink ref="A314" r:id="rId549" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-elements-in-array-distinct/" xr:uid="{83894381-B921-4F4B-B83A-6531769D7A95}"/>
     <hyperlink ref="A315" r:id="rId550" display="https://leetcode.cn/problems/minimum-operations-to-make-array-values-equal-to-k/" xr:uid="{59AE66E2-83FE-4916-BED0-94383A9E2944}"/>
+    <hyperlink ref="A316" r:id="rId551" display="https://leetcode.cn/problems/powx-n/" xr:uid="{89F61F47-27DE-4DBF-B364-39847EBE9EAF}"/>
+    <hyperlink ref="E316" r:id="rId552" xr:uid="{B9C063BC-C598-4C1C-87B4-4612F74B4595}"/>
+    <hyperlink ref="A317" r:id="rId553" display="https://leetcode.cn/problems/count-good-numbers/" xr:uid="{9D746BC5-314B-4E2D-ADBF-7F5B5F3F8218}"/>
+    <hyperlink ref="E317" r:id="rId554" xr:uid="{FF095E54-52BF-4F07-9336-84C3321BA321}"/>
+    <hyperlink ref="A318" r:id="rId555" display="https://leetcode.cn/problems/count-good-triplets/" xr:uid="{D946C7DE-B0FF-489D-B12A-F96D32452463}"/>
+    <hyperlink ref="E318" r:id="rId556" xr:uid="{AF485FBC-F658-43D3-AD38-896AC9E8659B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId551"/>
+    <tablePart r:id="rId557"/>
   </tableParts>
 </worksheet>
 </file>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17617E48-1AAA-43A6-B690-0A561C7812A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB005DA-64B7-4F77-B116-A6A20630BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="805">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,9 +983,6 @@
   </si>
   <si>
     <t>152. 乘积最大子数组</t>
-  </si>
-  <si>
-    <t>416. 分割等和子集</t>
   </si>
   <si>
     <t>32. 最长有效括号</t>
@@ -2559,10 +2556,6 @@
   </si>
   <si>
     <t>2025.03.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w和h分开避免*优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3009,6 +3002,42 @@
   </si>
   <si>
     <t>2025.04.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2364. 统计坏数对的数目</t>
+  </si>
+  <si>
+    <t>2025.04.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.无重复字符的最长子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2145. 统计隐藏数组数目</t>
+  </si>
+  <si>
+    <t>前缀和、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.04.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w和h分开避免*优先级
+mid在while里
+while里还要if判断st</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3090,7 +3119,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3130,6 +3159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3223,7 +3258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3322,6 +3357,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3589,7 +3643,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:G1048522" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G294">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G325">
     <sortCondition descending="1" ref="C1:C1048522"/>
   </sortState>
   <tableColumns count="7">
@@ -3883,10 +3937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G318"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G318" sqref="G318"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3925,217 +3979,238 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="38" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>527</v>
+      <c r="D2" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="39">
+        <v>7</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
-        <v>223</v>
+      <c r="A3" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>218</v>
+        <v>735</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>568</v>
+        <v>732</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>404</v>
+      <c r="G3" s="15" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
-        <v>265</v>
+      <c r="A4" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>751</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>631</v>
+        <v>732</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
-        <v>4</v>
+      <c r="G4" s="14" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
-        <v>192</v>
+      <c r="A5" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>720</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6">
-        <v>4</v>
+        <v>722</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>651</v>
+      <c r="D6" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="39">
+        <v>6</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>181</v>
+        <v>238</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>571</v>
+        <v>691</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>572</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>114</v>
+        <v>675</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>486</v>
+        <v>667</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>6</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>469</v>
+        <v>4</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>313</v>
+        <v>644</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>427</v>
+        <v>655</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
       <c r="G9" s="14" t="s">
-        <v>341</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>187</v>
+        <v>645</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>281</v>
+        <v>122</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4</v>
+        <v>655</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>340</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>473</v>
+        <v>307</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>475</v>
+        <v>636</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>467</v>
+        <v>632</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>646</v>
+        <v>265</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>122</v>
+        <v>295</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>650</v>
+      <c r="F12" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4143,13 +4218,13 @@
         <v>264</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>14</v>
@@ -4158,44 +4233,44 @@
         <v>4</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>226</v>
+        <v>639</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>229</v>
+        <v>626</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>360</v>
+        <v>2</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>637</v>
+        <v>295</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
@@ -4204,21 +4279,21 @@
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>640</v>
+        <v>294</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -4226,823 +4301,796 @@
       <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>629</v>
-      </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>363</v>
+        <v>623</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>269</v>
+        <v>577</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>787</v>
+        <v>575</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6">
-        <v>6</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>371</v>
+      <c r="G18" s="15" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>559</v>
+        <v>218</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>692</v>
+        <v>575</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>693</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>578</v>
+        <v>141</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>579</v>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>624</v>
+        <v>476</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F23" s="6">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>292</v>
+        <v>472</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>624</v>
+        <v>466</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F24" s="6">
-        <v>2</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>122</v>
+        <v>474</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>336</v>
+        <v>466</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="6">
-        <v>3</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>324</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>218</v>
+        <v>454</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>576</v>
+        <v>453</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="F26" s="6">
-        <v>4</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>355</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>627</v>
+        <v>441</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>630</v>
+        <v>5</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>455</v>
+        <v>312</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>676</v>
+        <v>236</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>668</v>
+        <v>362</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F29" s="6">
-        <v>4</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>687</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>397</v>
+        <v>230</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>394</v>
+        <v>226</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>395</v>
+        <v>357</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>398</v>
+        <v>211</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>394</v>
+        <v>319</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>34</v>
+        <v>349</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>101</v>
+        <v>280</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>479</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>559</v>
+        <v>122</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>692</v>
+        <v>335</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F33" s="6">
-        <v>4</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>719</v>
+        <v>3</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>350</v>
+        <v>570</v>
       </c>
       <c r="F34" s="6">
-        <v>3</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>321</v>
+        <v>4</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="F35" s="6">
+        <v>4</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>666</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>625</v>
+        <v>396</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>624</v>
+        <v>34</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>205</v>
+        <v>397</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="6">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>285</v>
+        <v>767</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>336</v>
+        <v>766</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="6">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10" t="s">
-        <v>189</v>
+      <c r="A39" s="4" t="s">
+        <v>737</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>387</v>
+        <v>734</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F39" s="6">
-        <v>4</v>
+        <v>732</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>342</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="10" t="s">
-        <v>217</v>
+      <c r="A40" s="4" t="s">
+        <v>748</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>218</v>
+        <v>749</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>566</v>
+        <v>732</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="6">
-        <v>4</v>
+      <c r="G40" s="14" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="10" t="s">
-        <v>233</v>
+      <c r="A41" s="4" t="s">
+        <v>752</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>58</v>
+        <v>751</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>481</v>
+        <v>732</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="6">
-        <v>4</v>
+      <c r="G41" s="14" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="10" t="s">
-        <v>180</v>
+      <c r="A42" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>44</v>
+        <v>751</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>421</v>
+        <v>732</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="6">
-        <v>4</v>
+      <c r="G42" s="14" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="10" t="s">
-        <v>212</v>
+      <c r="A43" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>760</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F43" s="6">
-        <v>3</v>
+        <v>732</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>305</v>
+        <v>727</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="6">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="10" t="s">
-        <v>207</v>
+      <c r="A45" s="4" t="s">
+        <v>723</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>218</v>
+        <v>720</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>536</v>
+        <v>722</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="6">
-        <v>4</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="10" t="s">
-        <v>263</v>
+      <c r="A46" s="4" t="s">
+        <v>718</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>296</v>
+        <v>720</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="6">
-        <v>4</v>
+      <c r="G46" s="14" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10" t="s">
-        <v>286</v>
+      <c r="A47" s="4" t="s">
+        <v>700</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>287</v>
+        <v>692</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>52</v>
+        <v>697</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" s="6">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="10" t="s">
-        <v>242</v>
+      <c r="A48" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>241</v>
+        <v>692</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>365</v>
+        <v>697</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="6">
-        <v>3</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>102</v>
+        <v>688</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>101</v>
+        <v>558</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>433</v>
+        <v>687</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="6">
-        <v>4</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>225</v>
+        <v>678</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>226</v>
+        <v>680</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>358</v>
+        <v>677</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>243</v>
+        <v>679</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>241</v>
+        <v>680</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>486</v>
+        <v>677</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="6">
-        <v>5</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>490</v>
+      <c r="G51" s="15" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>232</v>
+        <v>669</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>226</v>
+        <v>674</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>361</v>
+        <v>667</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>362</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>544</v>
+        <v>663</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>206</v>
+        <v>372</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>349</v>
+        <v>658</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F54" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>317</v>
+        <v>661</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>549</v>
+        <v>304</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>550</v>
+      <c r="F55" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>576</v>
+        <v>630</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>14</v>
@@ -5050,222 +5098,213 @@
       <c r="F56" s="6">
         <v>4</v>
       </c>
-      <c r="G56" s="14" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="6">
-        <v>5</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>289</v>
+        <v>626</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>689</v>
+        <v>121</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>688</v>
+        <v>605</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F59" s="6">
+        <v>6</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>679</v>
+        <v>247</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>681</v>
+        <v>600</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>678</v>
+        <v>601</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>682</v>
+      <c r="F60" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>607</v>
+        <v>219</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="6">
-        <v>6</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>487</v>
+        <v>4</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>670</v>
+        <v>543</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>675</v>
+        <v>218</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>668</v>
+        <v>567</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>680</v>
+        <v>217</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>681</v>
+        <v>218</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>678</v>
+        <v>565</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>683</v>
+      <c r="F64" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>373</v>
+        <v>563</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>659</v>
+        <v>565</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="6">
-        <v>2</v>
-      </c>
       <c r="G65" s="14" t="s">
-        <v>662</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>394</v>
+        <v>548</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>391</v>
+        <v>546</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>396</v>
+        <v>14</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>601</v>
+        <v>218</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>602</v>
+        <v>535</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>14</v>
@@ -5273,961 +5312,1009 @@
       <c r="F67" s="6">
         <v>4</v>
       </c>
+      <c r="G67" s="14" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>567</v>
+      <c r="F68" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="4" t="s">
-        <v>702</v>
+      <c r="A69" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>694</v>
+        <v>241</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>699</v>
+        <v>485</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F69" s="6">
+        <v>5</v>
+      </c>
       <c r="G69" s="14" t="s">
-        <v>706</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="4" t="s">
-        <v>703</v>
+      <c r="A70" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>694</v>
+        <v>58</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>699</v>
+        <v>480</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F71" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>80</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="4" t="s">
-        <v>698</v>
+      <c r="A72" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>694</v>
+        <v>44</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>697</v>
+        <v>420</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F72" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="4" t="s">
-        <v>15</v>
+      <c r="A73" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="6">
-        <v>2</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>17</v>
+        <v>394</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>330</v>
+        <v>189</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>327</v>
+        <v>384</v>
+      </c>
+      <c r="F74" s="6">
+        <v>4</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>200</v>
+        <v>242</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>555</v>
+        <v>364</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>562</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>523</v>
+        <v>232</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>525</v>
+        <v>226</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>522</v>
+        <v>360</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>14</v>
+        <v>94</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>524</v>
+        <v>225</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>522</v>
+        <v>357</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F78" s="6">
         <v>3</v>
       </c>
-      <c r="G78" s="14" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="F79" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>669</v>
+        <v>284</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>674</v>
+        <v>78</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>668</v>
+        <v>335</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>407</v>
+      </c>
+      <c r="F80" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>654</v>
+        <v>285</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>658</v>
+        <v>286</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>655</v>
+        <v>52</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>657</v>
+        <v>85</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>652</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F82" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>651</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>314</v>
+        <v>794</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>122</v>
+        <v>298</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>641</v>
+        <v>795</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="6">
-        <v>3</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>643</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>122</v>
+        <v>791</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>641</v>
+        <v>792</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="6">
-        <v>2</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>644</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="10" t="s">
-        <v>208</v>
+      <c r="A85" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>319</v>
+        <v>741</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F85" s="6">
-        <v>3</v>
+        <v>732</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>209</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="10" t="s">
-        <v>384</v>
+      <c r="A86" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>751</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>385</v>
+        <v>732</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>386</v>
+        <v>754</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>188</v>
+        <v>711</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>48</v>
+        <v>716</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>339</v>
+        <v>707</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F87" s="6">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="10" t="s">
-        <v>183</v>
+      <c r="A88" s="4" t="s">
+        <v>708</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>431</v>
+        <v>692</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F88" s="6">
-        <v>4</v>
+        <v>707</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>338</v>
+        <v>713</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="10" t="s">
-        <v>91</v>
+      <c r="A89" s="4" t="s">
+        <v>698</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>422</v>
+        <v>692</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>442</v>
+        <v>697</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="6">
-        <v>5</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>450</v>
+      <c r="G89" s="14" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="10" t="s">
-        <v>231</v>
+      <c r="A90" s="4" t="s">
+        <v>699</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>226</v>
+        <v>692</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F90" s="6">
-        <v>3</v>
+        <v>697</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>322</v>
+        <v>706</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="10" t="s">
-        <v>234</v>
+      <c r="A91" s="4" t="s">
+        <v>696</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>58</v>
+        <v>692</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>363</v>
+        <v>695</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="10" t="s">
-        <v>661</v>
+      <c r="A92" s="4" t="s">
+        <v>702</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>659</v>
+        <v>695</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>250</v>
+        <v>689</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>251</v>
+        <v>558</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F93" s="6">
-        <v>3</v>
+        <v>687</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>374</v>
+        <v>237</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>376</v>
+        <v>558</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>375</v>
+        <v>687</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F94" s="6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>451</v>
+        <v>668</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>48</v>
+        <v>673</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>442</v>
+        <v>667</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>186</v>
+        <v>664</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>428</v>
+        <v>672</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="F96" s="6">
-        <v>5</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>312</v>
+        <v>662</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>210</v>
+        <v>660</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>657</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F97" s="6">
-        <v>3</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>209</v>
+        <v>658</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>213</v>
+        <v>653</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>657</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F98" s="6">
-        <v>3</v>
+        <v>654</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>239</v>
+        <v>646</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F99" s="6">
-        <v>4</v>
+        <v>655</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>565</v>
+        <v>651</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F100" s="6">
+        <v>4</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>353</v>
+        <v>640</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="F101" s="6">
         <v>3</v>
       </c>
+      <c r="G101" s="15" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>511</v>
+        <v>122</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F102" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>512</v>
+        <v>643</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>493</v>
+        <v>122</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>492</v>
+        <v>616</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="6">
+        <v>2</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>191</v>
+        <v>618</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F104" s="6">
-        <v>3</v>
+        <v>616</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>202</v>
+        <v>607</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>606</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F105" s="6">
-        <v>3</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>348</v>
+        <v>605</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>546</v>
+        <v>602</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>600</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>518</v>
+        <v>599</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>713</v>
+        <v>246</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>718</v>
+        <v>138</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>709</v>
+        <v>590</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>717</v>
+        <v>14</v>
+      </c>
+      <c r="F108" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>329</v>
+        <v>581</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>328</v>
+        <v>575</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>147</v>
+        <v>573</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>148</v>
+        <v>14</v>
+      </c>
+      <c r="F110" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>257</v>
+        <v>568</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>366</v>
+        <v>573</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="F111" s="6">
-        <v>3</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>258</v>
+        <v>2</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>534</v>
+        <v>573</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>478</v>
+        <v>220</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>477</v>
+        <v>567</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="F113" s="6">
+        <v>4</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>480</v>
+        <v>564</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>481</v>
+        <v>565</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>368</v>
+        <v>554</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F115" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>101</v>
+        <v>545</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>413</v>
+        <v>546</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>415</v>
+        <v>528</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>48</v>
+        <v>527</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>218</v>
+        <v>524</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>576</v>
+        <v>521</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>14</v>
@@ -6235,39 +6322,33 @@
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>220</v>
+        <v>523</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>568</v>
+        <v>521</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F120" s="6">
-        <v>4</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>665</v>
+        <v>517</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>673</v>
+        <v>510</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>663</v>
+        <v>513</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>14</v>
@@ -6275,16 +6356,16 @@
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>14</v>
@@ -6301,278 +6382,278 @@
         <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F123" s="6">
         <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>603</v>
+        <v>196</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>601</v>
+        <v>510</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F124" s="6">
+        <v>3</v>
+      </c>
       <c r="G124" s="14" t="s">
-        <v>605</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>246</v>
+        <v>490</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>138</v>
+        <v>492</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="6">
-        <v>5</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>600</v>
+        <v>479</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>601</v>
+        <v>101</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>602</v>
+        <v>480</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>604</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>690</v>
+        <v>477</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>559</v>
+        <v>101</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>688</v>
+        <v>476</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>344</v>
+        <v>441</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F128" s="6">
-        <v>3</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>346</v>
+        <v>5</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>583</v>
+        <v>450</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>617</v>
+        <v>441</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F129" s="6">
-        <v>2</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>620</v>
+      <c r="G129" s="15" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>368</v>
+        <v>432</v>
       </c>
       <c r="F130" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>372</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>528</v>
+        <v>437</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="E131" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>424</v>
+        <v>183</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>14</v>
+        <v>426</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="F132" s="6">
+        <v>4</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>647</v>
+        <v>186</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>14</v>
+        <v>426</v>
+      </c>
+      <c r="F133" s="6">
+        <v>5</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>649</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>608</v>
+        <v>423</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>607</v>
+        <v>424</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>606</v>
+        <v>420</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>237</v>
+        <v>411</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>559</v>
+        <v>101</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>688</v>
+        <v>412</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" s="6">
-        <v>3</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>252</v>
+        <v>413</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F136" s="6">
-        <v>3</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>367</v>
+        <v>412</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>574</v>
+        <v>390</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -6580,70 +6661,61 @@
       <c r="F137" s="6">
         <v>5</v>
       </c>
+      <c r="G137" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F138" s="6">
-        <v>3</v>
+        <v>384</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>569</v>
+        <v>373</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="F139" s="6">
-        <v>2</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>570</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>573</v>
+        <v>269</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>14</v>
+        <v>367</v>
+      </c>
+      <c r="F140" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>619</v>
+        <v>271</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>122</v>
@@ -6652,564 +6724,570 @@
         <v>13</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>14</v>
+        <v>367</v>
+      </c>
+      <c r="F141" s="6">
+        <v>3</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="4" t="s">
-        <v>700</v>
+      <c r="A142" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>694</v>
+        <v>251</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>707</v>
+        <v>365</v>
+      </c>
+      <c r="F142" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="4" t="s">
-        <v>701</v>
+      <c r="A143" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>699</v>
+        <v>365</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>708</v>
+        <v>259</v>
+      </c>
+      <c r="F143" s="6">
+        <v>3</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="4" t="s">
-        <v>710</v>
+      <c r="A144" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>694</v>
+        <v>253</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>14</v>
+        <v>365</v>
+      </c>
+      <c r="F144" s="6">
+        <v>3</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>715</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="4" t="s">
-        <v>704</v>
+      <c r="A145" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>694</v>
+        <v>240</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>14</v>
+        <v>364</v>
+      </c>
+      <c r="F145" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>592</v>
+        <v>234</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>591</v>
+        <v>362</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>593</v>
+        <v>97</v>
+      </c>
+      <c r="F146" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>197</v>
+        <v>231</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="F147" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>521</v>
+        <v>218</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="F148" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>561</v>
+        <v>218</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F149" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>14</v>
+        <v>350</v>
+      </c>
+      <c r="F150" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>499</v>
+        <v>208</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>14</v>
+        <v>349</v>
+      </c>
+      <c r="F151" s="6">
+        <v>3</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>502</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="F152" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>517</v>
+        <v>204</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>14</v>
+        <v>346</v>
+      </c>
+      <c r="F153" s="6">
+        <v>3</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>508</v>
+        <v>202</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" s="17" t="s">
-        <v>509</v>
+        <v>346</v>
+      </c>
+      <c r="F154" s="6">
+        <v>3</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>500</v>
+        <v>198</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>14</v>
+        <v>343</v>
+      </c>
+      <c r="F155" s="6">
+        <v>3</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>507</v>
+        <v>191</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>14</v>
+        <v>342</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>596</v>
+        <v>188</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>595</v>
+        <v>338</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>597</v>
+        <v>85</v>
+      </c>
+      <c r="F157" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F159" s="6">
-        <v>3</v>
+        <v>326</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="10" t="s">
-        <v>331</v>
+      <c r="A160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>332</v>
+        <v>14</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F161" s="6">
-        <v>2</v>
+        <v>147</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>671</v>
+        <v>796</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>677</v>
+        <v>797</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>58</v>
+        <v>731</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>489</v>
+        <v>732</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="10" t="s">
-        <v>463</v>
+      <c r="A164" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>465</v>
+        <v>746</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>454</v>
+        <v>732</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G164" s="14" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="10" t="s">
-        <v>334</v>
+      <c r="A165" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>764</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>335</v>
+        <v>732</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>262</v>
+        <v>725</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>633</v>
+        <v>722</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" s="6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>639</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="10" t="s">
-        <v>203</v>
+      <c r="A167" s="4" t="s">
+        <v>710</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>500</v>
+        <v>692</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>495</v>
+        <v>707</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F167" s="6">
-        <v>4</v>
-      </c>
       <c r="G167" s="14" t="s">
-        <v>501</v>
+        <v>714</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="10" t="s">
-        <v>423</v>
+      <c r="A168" s="4" t="s">
+        <v>709</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>44</v>
+        <v>692</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>421</v>
+        <v>707</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>419</v>
+        <v>670</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>413</v>
+        <v>667</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="11" t="s">
-        <v>184</v>
+      <c r="A170" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>685</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>339</v>
+        <v>662</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F170" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>311</v>
+        <v>589</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
-        <v>482</v>
+        <v>266</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>483</v>
+        <v>122</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F171" s="6">
+        <v>4</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>484</v>
+        <v>659</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>483</v>
+        <v>122</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>14</v>
@@ -7217,562 +7295,586 @@
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>40</v>
+        <v>647</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>21</v>
+        <v>655</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>39</v>
+        <v>652</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>226</v>
+        <v>633</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="F174" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>551</v>
+        <v>638</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
-        <v>437</v>
+        <v>270</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>433</v>
+        <v>616</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F175" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>648</v>
+        <v>611</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>656</v>
+        <v>610</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>63</v>
+        <v>610</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="F177" s="6">
+        <v>4</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>65</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>57</v>
+        <v>612</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>59</v>
+        <v>610</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>55</v>
+        <v>594</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10" t="s">
-        <v>42</v>
+        <v>598</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>43</v>
+        <v>594</v>
       </c>
       <c r="E180" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G180" s="14" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>266</v>
+        <v>597</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>659</v>
+        <v>594</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F181" s="6">
-        <v>4</v>
-      </c>
-      <c r="G181" s="14" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>254</v>
+        <v>591</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F182" s="6">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10" t="s">
-        <v>382</v>
+        <v>586</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>383</v>
+        <v>583</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
-        <v>377</v>
+        <v>579</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>378</v>
+        <v>575</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F184" s="6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>218</v>
+        <v>557</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>226</v>
+        <v>556</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="F186" s="6">
-        <v>3</v>
-      </c>
-      <c r="G186" s="14" t="s">
-        <v>357</v>
+        <v>554</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>159</v>
+        <v>546</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F187" s="6">
+        <v>5</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10" t="s">
-        <v>587</v>
+        <v>174</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>589</v>
+        <v>302</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="E188" s="9" t="s">
-        <v>14</v>
+        <v>535</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F188" s="6">
+        <v>4</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>588</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10" t="s">
-        <v>599</v>
+        <v>171</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>595</v>
+        <v>528</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>14</v>
+        <v>173</v>
+      </c>
+      <c r="F189" s="6">
+        <v>4</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>521</v>
+        <v>201</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F190" s="6">
+        <v>4</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="4" t="s">
-        <v>417</v>
+      <c r="A191" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>413</v>
+        <v>521</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>122</v>
+        <v>516</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>611</v>
+        <v>513</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G192" s="14" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>521</v>
+        <v>197</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F193" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10" t="s">
-        <v>505</v>
+        <v>199</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F194" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>686</v>
+        <v>560</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>663</v>
+        <v>494</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F195" s="6">
-        <v>7</v>
-      </c>
-      <c r="G195" s="14" t="s">
-        <v>590</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10" t="s">
-        <v>558</v>
+        <v>498</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>563</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>303</v>
+        <v>507</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="E197" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F197" s="6">
-        <v>4</v>
-      </c>
-      <c r="G197" s="14" t="s">
-        <v>302</v>
+        <v>494</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" s="17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G198" s="15" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G199" s="14" t="s">
-        <v>471</v>
-      </c>
     </row>
     <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="4" t="s">
-        <v>416</v>
+      <c r="A200" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>413</v>
+        <v>494</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="6">
+        <v>4</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10" t="s">
-        <v>271</v>
+        <v>503</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>122</v>
+        <v>520</v>
       </c>
       <c r="C201" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>617</v>
+        <v>494</v>
       </c>
       <c r="E201" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F201" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="10" t="s">
-        <v>326</v>
+        <v>504</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>327</v>
+        <v>494</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>14</v>
@@ -7780,440 +7882,425 @@
     </row>
     <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="10" t="s">
-        <v>557</v>
+        <v>194</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="F204" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="10" t="s">
-        <v>660</v>
+        <v>487</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>659</v>
+        <v>485</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="10" t="s">
-        <v>260</v>
+        <v>484</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>611</v>
+        <v>480</v>
       </c>
       <c r="E206" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F206" s="6">
-        <v>4</v>
-      </c>
-      <c r="G206" s="14" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="10" t="s">
-        <v>86</v>
+        <v>481</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>87</v>
+        <v>482</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="E207" s="9" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="10" t="s">
-        <v>171</v>
+        <v>483</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>301</v>
+        <v>482</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F208" s="6">
-        <v>4</v>
-      </c>
-      <c r="G208" s="14" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="10" t="s">
-        <v>228</v>
+        <v>469</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="F209" s="6">
-        <v>3</v>
+        <v>466</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>359</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="10" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>611</v>
+        <v>453</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>616</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="10" t="s">
-        <v>598</v>
+        <v>457</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>138</v>
+        <v>458</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>595</v>
+        <v>453</v>
       </c>
       <c r="E211" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="10" t="s">
-        <v>194</v>
+        <v>436</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F212" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="10" t="s">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F213" s="6">
-        <v>2</v>
+      <c r="G213" s="14" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="10" t="s">
-        <v>201</v>
+        <v>422</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>529</v>
+        <v>420</v>
       </c>
       <c r="E214" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F214" s="6">
-        <v>4</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="4" t="s">
-        <v>712</v>
+      <c r="A215" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>709</v>
+        <v>412</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="F215" s="6">
+        <v>5</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>716</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="4" t="s">
-        <v>711</v>
+      <c r="A216" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>694</v>
+        <v>418</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="E216" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" s="14" t="s">
-        <v>714</v>
+        <v>412</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="10" t="s">
-        <v>429</v>
+      <c r="A217" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E217" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" s="14" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="4" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G218" s="14" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="10" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>323</v>
+        <v>409</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F219" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="4" t="s">
-        <v>4</v>
+      <c r="A220" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>9</v>
+        <v>344</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E220" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G220" s="14" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="10" t="s">
-        <v>622</v>
+        <v>381</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>623</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="10" t="s">
-        <v>594</v>
+        <v>376</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>595</v>
+        <v>377</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="F222" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="10" t="s">
-        <v>496</v>
+        <v>254</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>495</v>
+        <v>365</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" s="14" t="s">
-        <v>498</v>
+        <v>255</v>
+      </c>
+      <c r="F223" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="10" t="s">
-        <v>497</v>
+        <v>228</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E224" s="9" t="s">
-        <v>14</v>
+        <v>357</v>
+      </c>
+      <c r="F224" s="6">
+        <v>3</v>
       </c>
       <c r="G224" s="14" t="s">
-        <v>498</v>
+        <v>358</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="10" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="F225" s="6">
         <v>3</v>
       </c>
       <c r="G225" s="14" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="10" t="s">
-        <v>179</v>
+      <c r="A226" s="11" t="s">
+        <v>184</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="E226" s="13" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F226" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G226" s="14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F227" s="6">
         <v>3</v>
@@ -8221,1101 +8308,1136 @@
     </row>
     <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>446</v>
+        <v>333</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E228" s="9" t="s">
-        <v>14</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>73</v>
+        <v>326</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="G229" s="14" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>553</v>
+        <v>326</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="10" t="s">
-        <v>642</v>
+        <v>281</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>641</v>
+        <v>283</v>
+      </c>
+      <c r="F231" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="10" t="s">
-        <v>409</v>
+        <v>158</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E232" s="9" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="10" t="s">
-        <v>432</v>
+        <v>86</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G233" s="15" t="s">
-        <v>434</v>
+        <v>84</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="10" t="s">
-        <v>684</v>
+        <v>61</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>658</v>
+        <v>62</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>678</v>
+        <v>63</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>685</v>
+        <v>64</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="10" t="s">
-        <v>691</v>
+        <v>57</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>658</v>
+        <v>58</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>688</v>
+        <v>59</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="10" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="F236" s="6">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="10" t="s">
-        <v>541</v>
+        <v>42</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>543</v>
+        <v>44</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>536</v>
+        <v>43</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G237" s="14" t="s">
-        <v>542</v>
+        <v>45</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E238" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G238" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="10" t="s">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>663</v>
+        <v>802</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>636</v>
+        <v>793</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>633</v>
+        <v>792</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="10" t="s">
-        <v>277</v>
+        <v>788</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>411</v>
+        <v>138</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="F241" s="6">
-        <v>2</v>
+        <v>789</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10" t="s">
-        <v>109</v>
+        <v>772</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>110</v>
+        <v>774</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>107</v>
+        <v>773</v>
       </c>
       <c r="E242" s="9" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="G242" s="14" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="10" t="s">
-        <v>142</v>
+      <c r="A243" s="4" t="s">
+        <v>703</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>143</v>
+        <v>692</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>144</v>
+        <v>693</v>
       </c>
       <c r="E243" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="G243" s="14" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="10" t="s">
-        <v>131</v>
+        <v>690</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>132</v>
+        <v>657</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>133</v>
+        <v>687</v>
       </c>
       <c r="E244" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="G244" s="14" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="10" t="s">
-        <v>379</v>
+        <v>683</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>657</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="G245" s="14" t="s">
-        <v>381</v>
+        <v>677</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="10" t="s">
-        <v>390</v>
+        <v>666</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G246" s="14" t="s">
-        <v>392</v>
+        <v>662</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="10" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>122</v>
+        <v>344</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="E247" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" s="14" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="10" t="s">
-        <v>456</v>
+        <v>634</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>457</v>
+        <v>635</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E248" s="9" t="s">
-        <v>14</v>
+        <v>632</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>449</v>
+        <v>621</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E249" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F249" s="6">
-        <v>2</v>
-      </c>
-      <c r="G249" s="14" t="s">
-        <v>50</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="10" t="s">
-        <v>445</v>
+        <v>617</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>442</v>
+        <v>616</v>
       </c>
       <c r="E250" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G250" s="14" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="10" t="s">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F251" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="10" t="s">
-        <v>537</v>
+        <v>593</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="E252" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G252" s="14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="10" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>162</v>
+        <v>590</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="F253" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="10" t="s">
-        <v>535</v>
+        <v>179</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="E254" s="9" t="s">
-        <v>14</v>
+        <v>554</v>
+      </c>
+      <c r="E254" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F254" s="6">
+        <v>4</v>
       </c>
       <c r="G254" s="14" t="s">
-        <v>539</v>
+        <v>305</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="10" t="s">
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E255" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" s="15" t="s">
-        <v>462</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>138</v>
+        <v>547</v>
       </c>
       <c r="C256" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="E256" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="F256" s="6">
-        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="10" t="s">
-        <v>435</v>
+        <v>176</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>433</v>
+        <v>544</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" s="15" t="s">
-        <v>436</v>
+        <v>90</v>
+      </c>
+      <c r="F257" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="10" t="s">
-        <v>139</v>
+        <v>540</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>138</v>
+        <v>542</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>137</v>
+        <v>535</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="G258" s="14" t="s">
-        <v>140</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="10" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E259" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G259" s="14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>448</v>
+        <v>534</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E260" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" s="6">
-        <v>2</v>
+        <v>535</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" s="14" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="10" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E261" s="9" t="s">
-        <v>108</v>
+        <v>509</v>
+      </c>
+      <c r="F261" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B262" s="6" t="s">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>96</v>
+        <v>494</v>
       </c>
       <c r="E262" s="9" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="G262" s="14" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B263" s="6" t="s">
-        <v>138</v>
+        <v>496</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>606</v>
+        <v>494</v>
       </c>
       <c r="E263" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G263" s="14" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="4" t="s">
-        <v>705</v>
+      <c r="A264" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>694</v>
+        <v>456</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>695</v>
+        <v>453</v>
       </c>
       <c r="E264" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="G264" s="14" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="10" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F265" s="6">
-        <v>3</v>
+        <v>453</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" s="15" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="10" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>96</v>
+        <v>441</v>
       </c>
       <c r="E266" s="9" t="s">
-        <v>99</v>
+        <v>14</v>
+      </c>
+      <c r="F266" s="6">
+        <v>2</v>
+      </c>
+      <c r="G266" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="10" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E267" s="9"/>
+        <v>441</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="268" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="10" t="s">
-        <v>23</v>
+        <v>439</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>24</v>
+        <v>445</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
       <c r="E268" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="4" t="s">
-        <v>167</v>
+      <c r="A269" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="F269" s="6">
-        <v>4</v>
+        <v>432</v>
+      </c>
+      <c r="G269" s="15" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="10" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
       <c r="E270" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G270" s="14" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="G270" s="15" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>126</v>
+        <v>409</v>
       </c>
       <c r="E271" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G271" s="14" t="s">
-        <v>304</v>
+        <v>46</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="10" t="s">
-        <v>515</v>
+        <v>276</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>511</v>
+        <v>410</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E272" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" s="14" t="s">
-        <v>516</v>
+        <v>409</v>
+      </c>
+      <c r="F272" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="10" t="s">
-        <v>494</v>
+        <v>275</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>495</v>
+        <v>409</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="10" t="s">
-        <v>402</v>
+        <v>389</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G274" s="16" t="s">
-        <v>403</v>
+        <v>390</v>
+      </c>
+      <c r="G274" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>442</v>
+        <v>379</v>
+      </c>
+      <c r="G275" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="10" t="s">
-        <v>400</v>
+        <v>268</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>43</v>
+        <v>367</v>
+      </c>
+      <c r="F276" s="6">
+        <v>3</v>
       </c>
       <c r="G276" s="14" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>119</v>
+        <v>338</v>
+      </c>
+      <c r="F277" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="10" t="s">
-        <v>165</v>
+        <v>261</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>166</v>
+        <v>322</v>
+      </c>
+      <c r="F278" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="10" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="E279" s="9" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="10" t="s">
-        <v>154</v>
+        <v>142</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="G281" s="14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="10" t="s">
-        <v>156</v>
+        <v>131</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G282" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="10" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="10" t="s">
-        <v>453</v>
+        <v>105</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>454</v>
+        <v>107</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="10" t="s">
-        <v>466</v>
+        <v>95</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>468</v>
+        <v>559</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>467</v>
+        <v>96</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="10" t="s">
-        <v>280</v>
+        <v>71</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>279</v>
+        <v>73</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G286" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="10" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>427</v>
+        <v>34</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="10" t="s">
-        <v>51</v>
+      <c r="A288" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E288" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G288" s="14" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="10" t="s">
-        <v>585</v>
+      <c r="A289" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>584</v>
+        <v>5</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G289" s="14" t="s">
-        <v>586</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="10" t="s">
-        <v>28</v>
+        <v>786</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>32</v>
+        <v>787</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E290" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G290" s="14" t="s">
-        <v>31</v>
+        <v>785</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="10" t="s">
-        <v>530</v>
+        <v>584</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="E291" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G291" s="14" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D292" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="G292" s="14" t="s">
         <v>555</v>
-      </c>
-      <c r="G292" s="14" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>14</v>
@@ -9323,1038 +9445,1005 @@
     </row>
     <row r="294" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="10" t="s">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="E294" s="9" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" s="4" t="s">
-        <v>720</v>
+      <c r="A295" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>722</v>
+        <v>138</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="E295" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G295" s="14" t="s">
-        <v>723</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="E295" s="9"/>
     </row>
     <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="4" t="s">
-        <v>725</v>
+      <c r="A296" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>722</v>
+        <v>510</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>724</v>
+        <v>513</v>
       </c>
       <c r="E296" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G296" s="14" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>722</v>
+      <c r="A297" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E297" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" s="14" t="s">
-        <v>324</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>728</v>
+      <c r="A298" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="E298" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G298" s="14" t="s">
-        <v>324</v>
+        <v>491</v>
+      </c>
+      <c r="F298" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="10" t="s">
-        <v>729</v>
+        <v>465</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>732</v>
+        <v>467</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="E299" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G299" s="14" t="s">
-        <v>731</v>
+        <v>466</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="10" t="s">
-        <v>733</v>
+        <v>452</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="G300" s="15" t="s">
-        <v>735</v>
+        <v>453</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="4" t="s">
-        <v>739</v>
+      <c r="A301" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>736</v>
+        <v>442</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E301" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" s="14" t="s">
-        <v>738</v>
+        <v>441</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="4" t="s">
-        <v>740</v>
+      <c r="A302" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>737</v>
+        <v>177</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E302" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G302" s="15" t="s">
-        <v>741</v>
+        <v>426</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="4" t="s">
-        <v>742</v>
+      <c r="A303" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>743</v>
+        <v>248</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E303" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G303" s="14" t="s">
-        <v>744</v>
+        <v>365</v>
+      </c>
+      <c r="F303" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>748</v>
+      <c r="A304" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E304" s="9" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>751</v>
+      <c r="A305" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E305" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" s="14" t="s">
-        <v>752</v>
+        <v>166</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>753</v>
+      <c r="A306" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E306" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G306" s="14" t="s">
-        <v>756</v>
+        <v>157</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>753</v>
+      <c r="A307" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G307" s="14" t="s">
-        <v>760</v>
+        <v>155</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="4" t="s">
-        <v>757</v>
+      <c r="A308" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>753</v>
+        <v>153</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="E308" s="9" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="G308" s="14" t="s">
-        <v>758</v>
+        <v>152</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="4" t="s">
-        <v>759</v>
+      <c r="A309" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>753</v>
+        <v>129</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>734</v>
+        <v>128</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G309" s="14" t="s">
-        <v>761</v>
+        <v>130</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="4" t="s">
-        <v>763</v>
+      <c r="A310" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>762</v>
+        <v>125</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>734</v>
+        <v>126</v>
       </c>
       <c r="E310" s="9" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G310" s="14" t="s">
-        <v>765</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="4" t="s">
-        <v>764</v>
+      <c r="A311" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>766</v>
+        <v>117</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>734</v>
+        <v>118</v>
       </c>
       <c r="E311" s="9" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="10" t="s">
-        <v>769</v>
+        <v>98</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>768</v>
+        <v>96</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="10" t="s">
-        <v>774</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>776</v>
+        <v>82</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>775</v>
+        <v>84</v>
       </c>
       <c r="E313" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G313" s="14" t="s">
-        <v>777</v>
+        <v>83</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="10" t="s">
-        <v>788</v>
+        <v>66</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>789</v>
+        <v>67</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>787</v>
+        <v>68</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G314" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="10" t="s">
-        <v>790</v>
+        <v>51</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>791</v>
+        <v>52</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G315" s="14" t="s">
-        <v>792</v>
+        <v>53</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="10" t="s">
-        <v>793</v>
+        <v>404</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E316" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="10" t="s">
-        <v>795</v>
+        <v>401</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E317" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G317" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="10" t="s">
-        <v>796</v>
+        <v>399</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="E318" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G318" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G319" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A319:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A321:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A319:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A321:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A319:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A321:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A220" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A73" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A218" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A268" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A290" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A238" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A173" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A180" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A249" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A288" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A179" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A178" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A177" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A270" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A229" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A71" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A57" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A38" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A294" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A47" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A207" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A152" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A89" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A262" r:id="rId24" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A266" r:id="rId25" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A49" r:id="rId26" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A20" r:id="rId27" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A261" r:id="rId28" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A242" r:id="rId29" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A28" r:id="rId30" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A8" r:id="rId31" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A277" r:id="rId33" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A271" r:id="rId34" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A279" r:id="rId35" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A244" r:id="rId36" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A258" r:id="rId37" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E258" r:id="rId38" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E244" r:id="rId39" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E279" r:id="rId40" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E271" r:id="rId41" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E277" r:id="rId42" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E32" r:id="rId43" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E8" r:id="rId44" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E28" r:id="rId45" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E242" r:id="rId46" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E261" r:id="rId47" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E20" r:id="rId48" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E49" r:id="rId49" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E266" r:id="rId50" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E262" r:id="rId51" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E152" r:id="rId52" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E207" r:id="rId53" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E47" r:id="rId54" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E294" r:id="rId55" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E229" r:id="rId56" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E270" r:id="rId57" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E177" r:id="rId58" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E178" r:id="rId59" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E179" r:id="rId60" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E288" r:id="rId61" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E180" r:id="rId62" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E173" r:id="rId63" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E238" r:id="rId64" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E290" r:id="rId65" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E268" r:id="rId66" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E218" r:id="rId67" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E73" r:id="rId68" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E220" r:id="rId69" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A243" r:id="rId70" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E243" r:id="rId71" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A110" r:id="rId72" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E110" r:id="rId73" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A281" r:id="rId74" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A280" r:id="rId75" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A282" r:id="rId76" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A187" r:id="rId77" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A253" r:id="rId78" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E253" r:id="rId79" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A278" r:id="rId80" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A269" r:id="rId81" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A236" r:id="rId82" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A289" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A160" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A288" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A320" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A319" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A287" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A238" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A237" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A266" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A315" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A236" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A235" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A234" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A314" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A286" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A130" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A82" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A80" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A313" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A81" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A233" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A215" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A128" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A285" r:id="rId24" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A312" r:id="rId25" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A71" r:id="rId26" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A284" r:id="rId28" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A283" r:id="rId29" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A26" r:id="rId30" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A22" r:id="rId31" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A23" r:id="rId32" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A311" r:id="rId33" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A310" r:id="rId34" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A309" r:id="rId35" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A282" r:id="rId36" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A281" r:id="rId37" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E281" r:id="rId38" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E282" r:id="rId39" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E309" r:id="rId40" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E310" r:id="rId41" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E311" r:id="rId42" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E23" r:id="rId43" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E22" r:id="rId44" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E26" r:id="rId45" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E283" r:id="rId46" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E284" r:id="rId47" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E27" r:id="rId48" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E71" r:id="rId49" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E312" r:id="rId50" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E285" r:id="rId51" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E215" r:id="rId52" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E233" r:id="rId53" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E81" r:id="rId54" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E313" r:id="rId55" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E286" r:id="rId56" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E314" r:id="rId57" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E234" r:id="rId58" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E235" r:id="rId59" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E236" r:id="rId60" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E315" r:id="rId61" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E237" r:id="rId62" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E238" r:id="rId63" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E287" r:id="rId64" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E319" r:id="rId65" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E320" r:id="rId66" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E288" r:id="rId67" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E160" r:id="rId68" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E289" r:id="rId69" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A280" r:id="rId70" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E280" r:id="rId71" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A161" r:id="rId72" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E161" r:id="rId73" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A308" r:id="rId74" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A307" r:id="rId75" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A306" r:id="rId76" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A232" r:id="rId77" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A279" r:id="rId78" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E279" r:id="rId79" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A305" r:id="rId80" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A298" r:id="rId81" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A261" r:id="rId82" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
     <hyperlink ref="A123" r:id="rId83" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A208" r:id="rId84" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E208" r:id="rId85" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A197" r:id="rId86" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E197" r:id="rId87" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A251" r:id="rId88" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E251" r:id="rId89" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A174" r:id="rId90" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E174" r:id="rId91" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A226" r:id="rId92" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A42" r:id="rId93" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A7" r:id="rId94" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A159" r:id="rId95" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A88" r:id="rId96" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A170" r:id="rId97" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A227" r:id="rId98" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A96" r:id="rId99" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A10" r:id="rId100" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A87" r:id="rId101" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E87" r:id="rId102" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A39" r:id="rId103" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A104" r:id="rId104" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A5" r:id="rId105" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A102" r:id="rId106" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A147" r:id="rId107" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A128" r:id="rId108" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A75" r:id="rId109" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A105" r:id="rId110" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A78" r:id="rId111" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A54" r:id="rId112" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A85" r:id="rId113" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A97" r:id="rId114" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A34" r:id="rId115" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A43" r:id="rId116" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A98" r:id="rId117" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="A56" r:id="rId118" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A137" r:id="rId119" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="A40" r:id="rId120" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="A120" r:id="rId121" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E138" r:id="rId122" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A138" r:id="rId123" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A101" r:id="rId124" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A3" r:id="rId125" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A26" r:id="rId126" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E26" r:id="rId127" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E50" r:id="rId128" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A50" r:id="rId129" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A186" r:id="rId130" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A209" r:id="rId131" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E14" r:id="rId132" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A14" r:id="rId133" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A90" r:id="rId134" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E52" r:id="rId135" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A41" r:id="rId136" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A52" r:id="rId137" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E91" r:id="rId138" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A91" r:id="rId139" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A17" r:id="rId140" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E17" r:id="rId141" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A99" r:id="rId142" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E48" r:id="rId143" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A48" r:id="rId144" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A51" r:id="rId145" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A265" r:id="rId146" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A93" r:id="rId147" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A136" r:id="rId148" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A182" r:id="rId149" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E182" r:id="rId150" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A111" r:id="rId151" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E111" r:id="rId152" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A219" r:id="rId153" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A225" r:id="rId154" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A115" r:id="rId155" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A130" r:id="rId156" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A25" r:id="rId157" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E25" r:id="rId158" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A79" r:id="rId159" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E79" r:id="rId160" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A286" r:id="rId161" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A161" r:id="rId162" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="A23" r:id="rId163" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E23" r:id="rId164" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="E226" r:id="rId165" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="E88" r:id="rId166" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="A9" r:id="rId167" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A202" r:id="rId168" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A109" r:id="rId169" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A74" r:id="rId170" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A160" r:id="rId171" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E160" r:id="rId172" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A165" r:id="rId173" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E101" r:id="rId174" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="A94" r:id="rId175" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A184" r:id="rId176" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E184" r:id="rId177" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A245" r:id="rId178" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A183" r:id="rId179" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A86" r:id="rId180" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A158" r:id="rId181" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A246" r:id="rId182" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A66" r:id="rId183" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E66" r:id="rId184" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G66" r:id="rId185" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A30" r:id="rId186" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E30" r:id="rId187" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A31" r:id="rId188" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A276" r:id="rId189" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A274" r:id="rId190" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G274" r:id="rId191" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
-    <hyperlink ref="A283" r:id="rId192" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
-    <hyperlink ref="E38" r:id="rId193" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
-    <hyperlink ref="A232" r:id="rId194" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
-    <hyperlink ref="E232" r:id="rId195" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
-    <hyperlink ref="A241" r:id="rId196" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
-    <hyperlink ref="A260" r:id="rId197" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
-    <hyperlink ref="A213" r:id="rId198" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
-    <hyperlink ref="A116" r:id="rId199" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
-    <hyperlink ref="E116" r:id="rId200" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
-    <hyperlink ref="A117" r:id="rId201" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
-    <hyperlink ref="E117" r:id="rId202" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
-    <hyperlink ref="G117" r:id="rId203" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
-    <hyperlink ref="A169" r:id="rId204" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
-    <hyperlink ref="A200" r:id="rId205" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
-    <hyperlink ref="A191" r:id="rId206" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
-    <hyperlink ref="E89" r:id="rId207" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
-    <hyperlink ref="A168" r:id="rId208" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
-    <hyperlink ref="A132" r:id="rId209" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
-    <hyperlink ref="E168" r:id="rId210" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
-    <hyperlink ref="E132" r:id="rId211" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
-    <hyperlink ref="E42" r:id="rId212" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
-    <hyperlink ref="A287" r:id="rId213" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
-    <hyperlink ref="A217" r:id="rId214" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
-    <hyperlink ref="A233" r:id="rId215" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{C85C80EC-3ACB-4A15-B7C5-6111F13AD561}"/>
-    <hyperlink ref="A257" r:id="rId216" xr:uid="{F0F851C2-AB91-4D3D-B35A-03A67A2935E2}"/>
-    <hyperlink ref="A175" r:id="rId217" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
-    <hyperlink ref="A118" r:id="rId218" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
-    <hyperlink ref="A228" r:id="rId219" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
-    <hyperlink ref="A275" r:id="rId220" display="https://leetcode.cn/problems/number-of-ways-to-split-array/" xr:uid="{0083AF73-8A8C-48E0-8E76-76A6C4FC67CD}"/>
-    <hyperlink ref="A250" r:id="rId221" display="https://leetcode.cn/problems/4sum-ii/" xr:uid="{2EE7F96A-F6A7-429F-BFB7-7BA3E80D9896}"/>
-    <hyperlink ref="E250" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D2DA8351-DC34-44A8-924F-C24DFAB45BD5}"/>
-    <hyperlink ref="A95" r:id="rId223" display="https://leetcode.cn/problems/4sum/" xr:uid="{FC5299F8-4C72-4AB9-9C54-517DEBF830F6}"/>
-    <hyperlink ref="E95" r:id="rId224" xr:uid="{F3766F46-B32F-4AF5-A0AB-F19AED32B55B}"/>
-    <hyperlink ref="E228" r:id="rId225" xr:uid="{0F6A52C4-8EA8-4AF1-8CDB-67CF474C7907}"/>
-    <hyperlink ref="E118" r:id="rId226" xr:uid="{8316C500-0D41-455C-8EA5-0D189B83EAFD}"/>
-    <hyperlink ref="E175" r:id="rId227" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
-    <hyperlink ref="E257" r:id="rId228" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
-    <hyperlink ref="E217" r:id="rId229" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
-    <hyperlink ref="A284" r:id="rId230" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-i/" xr:uid="{E49E6490-9385-40D0-AEA8-799F5892BD00}"/>
-    <hyperlink ref="A248" r:id="rId231" display="https://leetcode.cn/problems/reverse-string/" xr:uid="{57B0A443-1236-4D51-9226-49C188B529DA}"/>
-    <hyperlink ref="E248" r:id="rId232" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
-    <hyperlink ref="A198" r:id="rId233" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
-    <hyperlink ref="E198" r:id="rId234" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
-    <hyperlink ref="A255" r:id="rId235" xr:uid="{85C8A5C1-F8C0-4B5F-9625-B7B85D6CFB62}"/>
-    <hyperlink ref="E255" r:id="rId236" xr:uid="{CCFEC5D8-FDFD-4AAB-91B8-F54059304742}"/>
-    <hyperlink ref="A164" r:id="rId237" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
-    <hyperlink ref="E164" r:id="rId238" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
-    <hyperlink ref="E213" r:id="rId239" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
-    <hyperlink ref="A285" r:id="rId240" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-ii/" xr:uid="{1E11646A-D940-446C-8E1B-6F3CD471DAEC}"/>
-    <hyperlink ref="A199" r:id="rId241" xr:uid="{EECF5DCB-F6DA-4CC6-B808-B6D1A0FD2EA7}"/>
-    <hyperlink ref="E199" r:id="rId242" location="%E6%80%9D%E8%B7%AF" xr:uid="{7DC750A1-BD6D-404C-A7A2-3CC13D80ECC3}"/>
-    <hyperlink ref="A11" r:id="rId243" display="https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{023E2A06-6F13-495C-B896-F7241E8F25EB}"/>
-    <hyperlink ref="A21" r:id="rId244" display="https://leetcode.cn/problems/repeated-substring-pattern/" xr:uid="{1EBC7A26-002F-442F-A7E1-A7CB3DFA8EAF}"/>
-    <hyperlink ref="E11" r:id="rId245" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B0445983-C761-4027-9892-5CFEFE2DE00C}"/>
-    <hyperlink ref="E21" r:id="rId246" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
-    <hyperlink ref="A113" r:id="rId247" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
-    <hyperlink ref="E113" r:id="rId248" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
-    <hyperlink ref="A114" r:id="rId249" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-ii/" xr:uid="{9008DB9E-D93F-4EF3-8591-DBCFDD2E3EF7}"/>
-    <hyperlink ref="E114" r:id="rId250" xr:uid="{8DC848F8-A815-4218-9456-9703CE7BE7CE}"/>
-    <hyperlink ref="E172" r:id="rId251" xr:uid="{8E8A4275-1999-4D2D-8BB7-7CED3278C51A}"/>
-    <hyperlink ref="A171" r:id="rId252" display="https://leetcode.cn/problems/implement-stack-using-queues/" xr:uid="{E12BF282-5E70-47AC-9C5D-9D60391E9296}"/>
-    <hyperlink ref="A172" r:id="rId253" display="https://leetcode.cn/problems/implement-queue-using-stacks/" xr:uid="{ADE59DCF-8B21-45AD-B53B-361152381BF1}"/>
-    <hyperlink ref="E171" r:id="rId254" xr:uid="{05957446-1D31-4C7B-8F6C-B82E8DB12F66}"/>
-    <hyperlink ref="E41" r:id="rId255" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
-    <hyperlink ref="A150" r:id="rId256" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
-    <hyperlink ref="E150" r:id="rId257" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
-    <hyperlink ref="A163" r:id="rId258" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
-    <hyperlink ref="E163" r:id="rId259" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
-    <hyperlink ref="E51" r:id="rId260" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
-    <hyperlink ref="A103" r:id="rId261" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
-    <hyperlink ref="A273" r:id="rId262" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
-    <hyperlink ref="A223" r:id="rId263" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/" xr:uid="{A363BEEA-7BE6-456D-804D-7BDCB7E85DFB}"/>
-    <hyperlink ref="A224" r:id="rId264" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/" xr:uid="{B9D197B4-5C37-4A5A-A04B-CF78AB20E147}"/>
-    <hyperlink ref="A212" r:id="rId265" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{69C20845-0A3D-46F4-B444-CCFBE6E145DF}"/>
-    <hyperlink ref="E223" r:id="rId266" location="%E6%80%9D%E8%B7%AF" xr:uid="{98F6803B-8B83-416E-BB2C-1DEB8182DC48}"/>
-    <hyperlink ref="E224" r:id="rId267" location="%E6%80%9D%E8%B7%AF" xr:uid="{1897748C-87BB-4965-9122-C18B341FD11F}"/>
-    <hyperlink ref="E212" r:id="rId268" location="%E6%80%9D%E8%B7%AF" xr:uid="{5AAB9E5A-B815-4599-8632-18036AFBCA56}"/>
-    <hyperlink ref="A148" r:id="rId269" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{47A5225C-E21F-4CDB-B91E-B037F15E66B5}"/>
-    <hyperlink ref="E148" r:id="rId270" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{80D4DA8D-8725-4E23-8B72-625D6B2399C8}"/>
-    <hyperlink ref="A151" r:id="rId271" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D38A3DEC-21B5-4E17-8300-F5CDEABAE95B}"/>
-    <hyperlink ref="E151" r:id="rId272" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{D14E61DA-9CA2-4C2F-8D77-DA86B2095FE2}"/>
-    <hyperlink ref="A167" r:id="rId273" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{A94BE682-8FEF-4F77-A6A6-1534F6170AAF}"/>
-    <hyperlink ref="E167" r:id="rId274" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{157959E8-1676-4092-960B-BD1BAB6322C0}"/>
+    <hyperlink ref="A189" r:id="rId84" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E189" r:id="rId85" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A188" r:id="rId86" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E188" r:id="rId87" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A257" r:id="rId88" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E257" r:id="rId89" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A187" r:id="rId90" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E187" r:id="rId91" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A254" r:id="rId92" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A72" r:id="rId93" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A34" r:id="rId94" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A227" r:id="rId95" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A132" r:id="rId96" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A226" r:id="rId97" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A277" r:id="rId98" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A133" r:id="rId99" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A32" r:id="rId100" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A157" r:id="rId101" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E157" r:id="rId102" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A74" r:id="rId103" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A156" r:id="rId104" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A35" r:id="rId105" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A124" r:id="rId106" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A193" r:id="rId107" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A155" r:id="rId108" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A115" r:id="rId109" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A154" r:id="rId110" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A153" r:id="rId111" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A79" r:id="rId112" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A151" r:id="rId113" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A152" r:id="rId114" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A31" r:id="rId115" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A78" r:id="rId116" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A150" r:id="rId117" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="A61" r:id="rId118" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A110" r:id="rId119" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="A64" r:id="rId120" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="A113" r:id="rId121" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E149" r:id="rId122" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A149" r:id="rId123" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A148" r:id="rId124" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A20" r:id="rId125" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A19" r:id="rId126" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E19" r:id="rId127" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E77" r:id="rId128" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A77" r:id="rId129" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A225" r:id="rId130" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A224" r:id="rId131" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E30" r:id="rId132" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A30" r:id="rId133" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A147" r:id="rId134" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E76" r:id="rId135" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A70" r:id="rId136" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A76" r:id="rId137" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E146" r:id="rId138" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A146" r:id="rId139" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A29" r:id="rId140" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E29" r:id="rId141" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A145" r:id="rId142" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E75" r:id="rId143" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A75" r:id="rId144" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A69" r:id="rId145" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A303" r:id="rId146" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A142" r:id="rId147" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A144" r:id="rId148" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A223" r:id="rId149" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E223" r:id="rId150" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A143" r:id="rId151" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E143" r:id="rId152" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A278" r:id="rId153" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A276" r:id="rId154" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A140" r:id="rId155" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A141" r:id="rId156" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A33" r:id="rId157" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E33" r:id="rId158" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A137" r:id="rId159" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E137" r:id="rId160" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A304" r:id="rId161" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A231" r:id="rId162" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="A16" r:id="rId163" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E16" r:id="rId164" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="E254" r:id="rId165" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="E132" r:id="rId166" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="A28" r:id="rId167" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A230" r:id="rId168" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A159" r:id="rId169" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A158" r:id="rId170" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A229" r:id="rId171" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E229" r:id="rId172" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A228" r:id="rId173" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E148" r:id="rId174" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="A139" r:id="rId175" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A222" r:id="rId176" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E222" r:id="rId177" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A275" r:id="rId178" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A221" r:id="rId179" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A138" r:id="rId180" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A220" r:id="rId181" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A274" r:id="rId182" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A73" r:id="rId183" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E73" r:id="rId184" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G73" r:id="rId185" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A36" r:id="rId186" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E36" r:id="rId187" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A37" r:id="rId188" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A318" r:id="rId189" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A317" r:id="rId190" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G317" r:id="rId191" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A316" r:id="rId192" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E80" r:id="rId193" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A271" r:id="rId194" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
+    <hyperlink ref="E271" r:id="rId195" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
+    <hyperlink ref="A272" r:id="rId196" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
+    <hyperlink ref="A273" r:id="rId197" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A219" r:id="rId198" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A135" r:id="rId199" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
+    <hyperlink ref="E135" r:id="rId200" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
+    <hyperlink ref="A136" r:id="rId201" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
+    <hyperlink ref="E136" r:id="rId202" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
+    <hyperlink ref="G136" r:id="rId203" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
+    <hyperlink ref="A216" r:id="rId204" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
+    <hyperlink ref="A218" r:id="rId205" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
+    <hyperlink ref="A217" r:id="rId206" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
+    <hyperlink ref="E128" r:id="rId207" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
+    <hyperlink ref="A214" r:id="rId208" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
+    <hyperlink ref="A134" r:id="rId209" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
+    <hyperlink ref="E214" r:id="rId210" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
+    <hyperlink ref="E134" r:id="rId211" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
+    <hyperlink ref="E72" r:id="rId212" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
+    <hyperlink ref="A302" r:id="rId213" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
+    <hyperlink ref="A213" r:id="rId214" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
+    <hyperlink ref="A269" r:id="rId215" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{C85C80EC-3ACB-4A15-B7C5-6111F13AD561}"/>
+    <hyperlink ref="A270" r:id="rId216" xr:uid="{F0F851C2-AB91-4D3D-B35A-03A67A2935E2}"/>
+    <hyperlink ref="A212" r:id="rId217" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
+    <hyperlink ref="A131" r:id="rId218" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
+    <hyperlink ref="A268" r:id="rId219" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
+    <hyperlink ref="A301" r:id="rId220" display="https://leetcode.cn/problems/number-of-ways-to-split-array/" xr:uid="{0083AF73-8A8C-48E0-8E76-76A6C4FC67CD}"/>
+    <hyperlink ref="A267" r:id="rId221" display="https://leetcode.cn/problems/4sum-ii/" xr:uid="{2EE7F96A-F6A7-429F-BFB7-7BA3E80D9896}"/>
+    <hyperlink ref="E267" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D2DA8351-DC34-44A8-924F-C24DFAB45BD5}"/>
+    <hyperlink ref="A129" r:id="rId223" display="https://leetcode.cn/problems/4sum/" xr:uid="{FC5299F8-4C72-4AB9-9C54-517DEBF830F6}"/>
+    <hyperlink ref="E129" r:id="rId224" xr:uid="{F3766F46-B32F-4AF5-A0AB-F19AED32B55B}"/>
+    <hyperlink ref="E268" r:id="rId225" xr:uid="{0F6A52C4-8EA8-4AF1-8CDB-67CF474C7907}"/>
+    <hyperlink ref="E131" r:id="rId226" xr:uid="{8316C500-0D41-455C-8EA5-0D189B83EAFD}"/>
+    <hyperlink ref="E212" r:id="rId227" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
+    <hyperlink ref="E270" r:id="rId228" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
+    <hyperlink ref="E213" r:id="rId229" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
+    <hyperlink ref="A300" r:id="rId230" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-i/" xr:uid="{E49E6490-9385-40D0-AEA8-799F5892BD00}"/>
+    <hyperlink ref="A264" r:id="rId231" display="https://leetcode.cn/problems/reverse-string/" xr:uid="{57B0A443-1236-4D51-9226-49C188B529DA}"/>
+    <hyperlink ref="E264" r:id="rId232" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
+    <hyperlink ref="A211" r:id="rId233" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
+    <hyperlink ref="E211" r:id="rId234" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
+    <hyperlink ref="A265" r:id="rId235" xr:uid="{85C8A5C1-F8C0-4B5F-9625-B7B85D6CFB62}"/>
+    <hyperlink ref="E265" r:id="rId236" xr:uid="{CCFEC5D8-FDFD-4AAB-91B8-F54059304742}"/>
+    <hyperlink ref="A210" r:id="rId237" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
+    <hyperlink ref="E210" r:id="rId238" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
+    <hyperlink ref="E219" r:id="rId239" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
+    <hyperlink ref="A299" r:id="rId240" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-ii/" xr:uid="{1E11646A-D940-446C-8E1B-6F3CD471DAEC}"/>
+    <hyperlink ref="A209" r:id="rId241" xr:uid="{EECF5DCB-F6DA-4CC6-B808-B6D1A0FD2EA7}"/>
+    <hyperlink ref="E209" r:id="rId242" location="%E6%80%9D%E8%B7%AF" xr:uid="{7DC750A1-BD6D-404C-A7A2-3CC13D80ECC3}"/>
+    <hyperlink ref="A24" r:id="rId243" display="https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{023E2A06-6F13-495C-B896-F7241E8F25EB}"/>
+    <hyperlink ref="A25" r:id="rId244" display="https://leetcode.cn/problems/repeated-substring-pattern/" xr:uid="{1EBC7A26-002F-442F-A7E1-A7CB3DFA8EAF}"/>
+    <hyperlink ref="E24" r:id="rId245" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B0445983-C761-4027-9892-5CFEFE2DE00C}"/>
+    <hyperlink ref="E25" r:id="rId246" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
+    <hyperlink ref="A127" r:id="rId247" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
+    <hyperlink ref="E127" r:id="rId248" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
+    <hyperlink ref="A126" r:id="rId249" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-ii/" xr:uid="{9008DB9E-D93F-4EF3-8591-DBCFDD2E3EF7}"/>
+    <hyperlink ref="E126" r:id="rId250" xr:uid="{8DC848F8-A815-4218-9456-9703CE7BE7CE}"/>
+    <hyperlink ref="E208" r:id="rId251" xr:uid="{8E8A4275-1999-4D2D-8BB7-7CED3278C51A}"/>
+    <hyperlink ref="A207" r:id="rId252" display="https://leetcode.cn/problems/implement-stack-using-queues/" xr:uid="{E12BF282-5E70-47AC-9C5D-9D60391E9296}"/>
+    <hyperlink ref="A208" r:id="rId253" display="https://leetcode.cn/problems/implement-queue-using-stacks/" xr:uid="{ADE59DCF-8B21-45AD-B53B-361152381BF1}"/>
+    <hyperlink ref="E207" r:id="rId254" xr:uid="{05957446-1D31-4C7B-8F6C-B82E8DB12F66}"/>
+    <hyperlink ref="E70" r:id="rId255" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
+    <hyperlink ref="A206" r:id="rId256" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
+    <hyperlink ref="E206" r:id="rId257" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
+    <hyperlink ref="A205" r:id="rId258" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
+    <hyperlink ref="E205" r:id="rId259" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
+    <hyperlink ref="E69" r:id="rId260" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
+    <hyperlink ref="A125" r:id="rId261" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
+    <hyperlink ref="A297" r:id="rId262" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
+    <hyperlink ref="A262" r:id="rId263" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/" xr:uid="{A363BEEA-7BE6-456D-804D-7BDCB7E85DFB}"/>
+    <hyperlink ref="A263" r:id="rId264" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/" xr:uid="{B9D197B4-5C37-4A5A-A04B-CF78AB20E147}"/>
+    <hyperlink ref="A204" r:id="rId265" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{69C20845-0A3D-46F4-B444-CCFBE6E145DF}"/>
+    <hyperlink ref="E262" r:id="rId266" location="%E6%80%9D%E8%B7%AF" xr:uid="{98F6803B-8B83-416E-BB2C-1DEB8182DC48}"/>
+    <hyperlink ref="E263" r:id="rId267" location="%E6%80%9D%E8%B7%AF" xr:uid="{1897748C-87BB-4965-9122-C18B341FD11F}"/>
+    <hyperlink ref="E204" r:id="rId268" location="%E6%80%9D%E8%B7%AF" xr:uid="{5AAB9E5A-B815-4599-8632-18036AFBCA56}"/>
+    <hyperlink ref="A194" r:id="rId269" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{47A5225C-E21F-4CDB-B91E-B037F15E66B5}"/>
+    <hyperlink ref="E194" r:id="rId270" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{80D4DA8D-8725-4E23-8B72-625D6B2399C8}"/>
+    <hyperlink ref="A196" r:id="rId271" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D38A3DEC-21B5-4E17-8300-F5CDEABAE95B}"/>
+    <hyperlink ref="E196" r:id="rId272" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{D14E61DA-9CA2-4C2F-8D77-DA86B2095FE2}"/>
+    <hyperlink ref="A200" r:id="rId273" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{A94BE682-8FEF-4F77-A6A6-1534F6170AAF}"/>
+    <hyperlink ref="E200" r:id="rId274" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{157959E8-1676-4092-960B-BD1BAB6322C0}"/>
     <hyperlink ref="A203" r:id="rId275" display="https://leetcode.cn/problems/average-of-levels-in-binary-tree/" xr:uid="{548700C6-87D6-4750-8347-AE75CB5503B2}"/>
     <hyperlink ref="E203" r:id="rId276" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A1BD98FE-922C-4415-86C7-6C62E6A2EB3A}"/>
-    <hyperlink ref="A190" r:id="rId277" display="https://leetcode.cn/problems/n-ary-tree-level-order-traversal/" xr:uid="{DB1F1A45-50E7-4BE5-BC27-E3A5F0B77994}"/>
-    <hyperlink ref="E190" r:id="rId278" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{7026BEA4-FFE1-4096-B74B-18EE89FBC364}"/>
-    <hyperlink ref="A194" r:id="rId279" display="https://leetcode.cn/problems/find-largest-value-in-each-tree-row/" xr:uid="{2D9F9242-5DD7-412B-9B91-0324111C907B}"/>
-    <hyperlink ref="E194" r:id="rId280" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A2D8F24C-89FF-48CD-9847-5EABD20E5A80}"/>
-    <hyperlink ref="A155" r:id="rId281" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/" xr:uid="{FF0B08ED-1029-4393-B66C-B3B18518EA93}"/>
-    <hyperlink ref="E155" r:id="rId282" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{F0B76380-5057-4A8B-8B43-B4462F3760D5}"/>
-    <hyperlink ref="A156" r:id="rId283" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/" xr:uid="{1A1AE58D-05B7-4CD7-A7D8-091047D2C221}"/>
-    <hyperlink ref="E156" r:id="rId284" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{EAC85DDC-91B8-4291-8C7C-02883E894FC3}"/>
-    <hyperlink ref="A149" r:id="rId285" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{C713E8BB-D494-44B5-A38F-4DF7C24A82BA}"/>
-    <hyperlink ref="E149" r:id="rId286" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{5862B7B3-DE27-4C51-84AC-4E300421C5A2}"/>
-    <hyperlink ref="E154" r:id="rId287" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{72902DFB-E152-4455-8BE8-DBD03A1711B9}"/>
-    <hyperlink ref="A154" r:id="rId288" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
-    <hyperlink ref="E102" r:id="rId289" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{81CAA0A8-8752-4618-9D62-09BBBFFF2C27}"/>
-    <hyperlink ref="E147" r:id="rId290" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D6275CE0-A5A1-49EA-95B5-AEEF25043C1A}"/>
-    <hyperlink ref="A267" r:id="rId291" display="https://leetcode.cn/problems/maximum-number-of-coins-you-can-get/" xr:uid="{6253DCFD-BC5B-475C-B48A-6312D8994C29}"/>
-    <hyperlink ref="A272" r:id="rId292" display="https://leetcode.cn/problems/count-complete-tree-nodes/" xr:uid="{F930D6BF-CA2D-4A54-B2D3-48894D2C1667}"/>
-    <hyperlink ref="A153" r:id="rId293" display="https://leetcode.cn/problems/balanced-binary-tree/" xr:uid="{C1BECD37-06E7-4598-B8DB-061CBE7524E6}"/>
-    <hyperlink ref="E272" r:id="rId294" xr:uid="{383058B6-56FE-4767-9EFE-11985B0ACFF7}"/>
-    <hyperlink ref="E153" r:id="rId295" xr:uid="{8E965AA3-76D1-4573-AC6D-DBBF9F8EA2E5}"/>
-    <hyperlink ref="A107" r:id="rId296" display="https://leetcode.cn/problems/binary-tree-paths/" xr:uid="{24B65BC3-D63A-4953-B234-BC917C774B36}"/>
-    <hyperlink ref="E107" r:id="rId297" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
+    <hyperlink ref="A201" r:id="rId277" display="https://leetcode.cn/problems/n-ary-tree-level-order-traversal/" xr:uid="{DB1F1A45-50E7-4BE5-BC27-E3A5F0B77994}"/>
+    <hyperlink ref="E201" r:id="rId278" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{7026BEA4-FFE1-4096-B74B-18EE89FBC364}"/>
+    <hyperlink ref="A202" r:id="rId279" display="https://leetcode.cn/problems/find-largest-value-in-each-tree-row/" xr:uid="{2D9F9242-5DD7-412B-9B91-0324111C907B}"/>
+    <hyperlink ref="E202" r:id="rId280" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A2D8F24C-89FF-48CD-9847-5EABD20E5A80}"/>
+    <hyperlink ref="A198" r:id="rId281" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/" xr:uid="{FF0B08ED-1029-4393-B66C-B3B18518EA93}"/>
+    <hyperlink ref="E198" r:id="rId282" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{F0B76380-5057-4A8B-8B43-B4462F3760D5}"/>
+    <hyperlink ref="A199" r:id="rId283" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/" xr:uid="{1A1AE58D-05B7-4CD7-A7D8-091047D2C221}"/>
+    <hyperlink ref="E199" r:id="rId284" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{EAC85DDC-91B8-4291-8C7C-02883E894FC3}"/>
+    <hyperlink ref="A195" r:id="rId285" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{C713E8BB-D494-44B5-A38F-4DF7C24A82BA}"/>
+    <hyperlink ref="E195" r:id="rId286" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{5862B7B3-DE27-4C51-84AC-4E300421C5A2}"/>
+    <hyperlink ref="E197" r:id="rId287" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{72902DFB-E152-4455-8BE8-DBD03A1711B9}"/>
+    <hyperlink ref="A197" r:id="rId288" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
+    <hyperlink ref="E124" r:id="rId289" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{81CAA0A8-8752-4618-9D62-09BBBFFF2C27}"/>
+    <hyperlink ref="E193" r:id="rId290" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D6275CE0-A5A1-49EA-95B5-AEEF25043C1A}"/>
+    <hyperlink ref="A295" r:id="rId291" display="https://leetcode.cn/problems/maximum-number-of-coins-you-can-get/" xr:uid="{6253DCFD-BC5B-475C-B48A-6312D8994C29}"/>
+    <hyperlink ref="A296" r:id="rId292" display="https://leetcode.cn/problems/count-complete-tree-nodes/" xr:uid="{F930D6BF-CA2D-4A54-B2D3-48894D2C1667}"/>
+    <hyperlink ref="A192" r:id="rId293" display="https://leetcode.cn/problems/balanced-binary-tree/" xr:uid="{C1BECD37-06E7-4598-B8DB-061CBE7524E6}"/>
+    <hyperlink ref="E296" r:id="rId294" xr:uid="{383058B6-56FE-4767-9EFE-11985B0ACFF7}"/>
+    <hyperlink ref="E192" r:id="rId295" xr:uid="{8E965AA3-76D1-4573-AC6D-DBBF9F8EA2E5}"/>
+    <hyperlink ref="A121" r:id="rId296" display="https://leetcode.cn/problems/binary-tree-paths/" xr:uid="{24B65BC3-D63A-4953-B234-BC917C774B36}"/>
+    <hyperlink ref="E121" r:id="rId297" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
     <hyperlink ref="A122" r:id="rId298" display="https://leetcode.cn/problems/sum-of-left-leaves/" xr:uid="{45E92AA8-EE9D-4B26-9FCD-76DEC3E2C4D9}"/>
     <hyperlink ref="E122" r:id="rId299" xr:uid="{DE2D445A-E5A2-4AA6-BDD7-7B4DEA2D6E4D}"/>
-    <hyperlink ref="A193" r:id="rId300" display="https://leetcode.cn/problems/find-bottom-left-tree-value/" xr:uid="{605FF5ED-AF07-4B3C-997C-08D492E45CCC}"/>
-    <hyperlink ref="E193" r:id="rId301" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{A2AE7B1C-E34F-4D80-9E21-2DB694BBA70E}"/>
-    <hyperlink ref="A76" r:id="rId302" display="https://leetcode.cn/problems/path-sum/" xr:uid="{03532BB2-4E89-494A-8802-8347D5114E0B}"/>
-    <hyperlink ref="E76" r:id="rId303" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D197415D-351F-446B-9C9E-03F06E868673}"/>
-    <hyperlink ref="A77" r:id="rId304" display="https://leetcode.cn/problems/path-sum-ii/" xr:uid="{329C8E00-A066-4945-8956-A6F8ED53A18C}"/>
-    <hyperlink ref="E77" r:id="rId305" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{7C5C3F77-D704-4BBB-B0E6-B9BC2AC892F8}"/>
-    <hyperlink ref="A2" r:id="rId306" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{3E7EFB2F-8AEC-45A6-BE9F-EC92BE5A99CC}"/>
-    <hyperlink ref="A37" r:id="rId307" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{32EEC8BE-6003-46DD-9E50-476A3C61F75C}"/>
-    <hyperlink ref="E2" r:id="rId308" location="%E6%80%9D%E8%B7%AF" xr:uid="{3E5E0DD5-5351-4BDD-A84B-DF8F6DCFC6EA}"/>
-    <hyperlink ref="E37" r:id="rId309" location="%E6%80%9D%E8%B7%AF" xr:uid="{3324E13D-AF5D-47ED-85B8-024405BDEC52}"/>
-    <hyperlink ref="A131" r:id="rId310" display="https://leetcode.cn/problems/maximum-binary-tree/" xr:uid="{EDE93708-788E-4B93-93BD-8B3B578CB97C}"/>
-    <hyperlink ref="E131" r:id="rId311" xr:uid="{7E949249-0778-4990-9EC2-391AB5FB8BC1}"/>
-    <hyperlink ref="A291" r:id="rId312" display="https://leetcode.cn/problems/merge-two-binary-trees/" xr:uid="{685BF7C8-5943-4F05-8B8D-9DF774BF8A81}"/>
-    <hyperlink ref="E291" r:id="rId313" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4D503492-1F73-4A12-B899-CFB53D19F967}"/>
-    <hyperlink ref="E293" r:id="rId314" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{01B8B85B-7DC4-42D9-8779-C96D3EF0B7FE}"/>
-    <hyperlink ref="A293" r:id="rId315" display="https://leetcode.cn/problems/search-in-a-binary-search-tree/" xr:uid="{48AEF775-6F49-49B6-9D85-EED4A8ECA17B}"/>
-    <hyperlink ref="A214" r:id="rId316" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{36A3B1F7-40A8-438D-B66A-0972D2106EC2}"/>
-    <hyperlink ref="E214" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{664D0036-97FD-400D-A9BB-4B9D3BED8E05}"/>
-    <hyperlink ref="A112" r:id="rId318" display="https://leetcode.cn/problems/minimum-number-of-coins-for-fruits/" xr:uid="{B94ED6A5-59A7-40F8-ADED-AD8034C8B0CB}"/>
-    <hyperlink ref="E254" r:id="rId319" xr:uid="{28F0E083-1137-4751-BEB3-72761861DA55}"/>
-    <hyperlink ref="E252" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{10E95789-DF12-4B52-A2D1-B9410F6D0A14}"/>
-    <hyperlink ref="E45" r:id="rId321" xr:uid="{62659393-12B3-4388-AB36-42818C940F03}"/>
-    <hyperlink ref="A254" r:id="rId322" display="https://leetcode.cn/problems/minimum-absolute-difference-in-bst/" xr:uid="{CA149B8E-4083-40F2-8797-87524934E57A}"/>
-    <hyperlink ref="A252" r:id="rId323" display="https://leetcode.cn/problems/find-mode-in-binary-search-tree/" xr:uid="{66FED396-569A-4F51-A1C3-9EC522A53341}"/>
-    <hyperlink ref="A45" r:id="rId324" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{3E15CC50-0479-40F6-A46D-60B9456C12A7}"/>
-    <hyperlink ref="A237" r:id="rId325" display="https://leetcode.cn/problems/minimum-money-required-before-transactions/" xr:uid="{A89F13A8-8C3C-43F7-A17A-E6D934DD82F6}"/>
-    <hyperlink ref="E237" r:id="rId326" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
-    <hyperlink ref="A53" r:id="rId327" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
-    <hyperlink ref="A106" r:id="rId328" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8860768E-4F64-4B3B-98EC-BF7A17FA992E}"/>
-    <hyperlink ref="E106" r:id="rId329" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AA67F91A-6273-43E9-AAE2-A65FC5D48A3B}"/>
-    <hyperlink ref="E55" r:id="rId330" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6F24E2BA-88C0-465F-8F6A-7F082BD77BE1}"/>
-    <hyperlink ref="E259" r:id="rId331" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
-    <hyperlink ref="A259" r:id="rId332" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
-    <hyperlink ref="A55" r:id="rId333" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
-    <hyperlink ref="A230" r:id="rId334" display="https://leetcode.cn/problems/contains-duplicate-ii/" xr:uid="{82304D18-534F-4B45-8873-2AE0CE4E2E67}"/>
+    <hyperlink ref="A191" r:id="rId300" display="https://leetcode.cn/problems/find-bottom-left-tree-value/" xr:uid="{605FF5ED-AF07-4B3C-997C-08D492E45CCC}"/>
+    <hyperlink ref="E191" r:id="rId301" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{A2AE7B1C-E34F-4D80-9E21-2DB694BBA70E}"/>
+    <hyperlink ref="A119" r:id="rId302" display="https://leetcode.cn/problems/path-sum/" xr:uid="{03532BB2-4E89-494A-8802-8347D5114E0B}"/>
+    <hyperlink ref="E119" r:id="rId303" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D197415D-351F-446B-9C9E-03F06E868673}"/>
+    <hyperlink ref="A120" r:id="rId304" display="https://leetcode.cn/problems/path-sum-ii/" xr:uid="{329C8E00-A066-4945-8956-A6F8ED53A18C}"/>
+    <hyperlink ref="E120" r:id="rId305" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{7C5C3F77-D704-4BBB-B0E6-B9BC2AC892F8}"/>
+    <hyperlink ref="A21" r:id="rId306" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{3E7EFB2F-8AEC-45A6-BE9F-EC92BE5A99CC}"/>
+    <hyperlink ref="A68" r:id="rId307" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{32EEC8BE-6003-46DD-9E50-476A3C61F75C}"/>
+    <hyperlink ref="E21" r:id="rId308" location="%E6%80%9D%E8%B7%AF" xr:uid="{3E5E0DD5-5351-4BDD-A84B-DF8F6DCFC6EA}"/>
+    <hyperlink ref="E68" r:id="rId309" location="%E6%80%9D%E8%B7%AF" xr:uid="{3324E13D-AF5D-47ED-85B8-024405BDEC52}"/>
+    <hyperlink ref="A118" r:id="rId310" display="https://leetcode.cn/problems/maximum-binary-tree/" xr:uid="{EDE93708-788E-4B93-93BD-8B3B578CB97C}"/>
+    <hyperlink ref="E118" r:id="rId311" xr:uid="{7E949249-0778-4990-9EC2-391AB5FB8BC1}"/>
+    <hyperlink ref="A293" r:id="rId312" display="https://leetcode.cn/problems/merge-two-binary-trees/" xr:uid="{685BF7C8-5943-4F05-8B8D-9DF774BF8A81}"/>
+    <hyperlink ref="E293" r:id="rId313" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4D503492-1F73-4A12-B899-CFB53D19F967}"/>
+    <hyperlink ref="E294" r:id="rId314" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{01B8B85B-7DC4-42D9-8779-C96D3EF0B7FE}"/>
+    <hyperlink ref="A294" r:id="rId315" display="https://leetcode.cn/problems/search-in-a-binary-search-tree/" xr:uid="{48AEF775-6F49-49B6-9D85-EED4A8ECA17B}"/>
+    <hyperlink ref="A190" r:id="rId316" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{36A3B1F7-40A8-438D-B66A-0972D2106EC2}"/>
+    <hyperlink ref="E190" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{664D0036-97FD-400D-A9BB-4B9D3BED8E05}"/>
+    <hyperlink ref="A117" r:id="rId318" display="https://leetcode.cn/problems/minimum-number-of-coins-for-fruits/" xr:uid="{B94ED6A5-59A7-40F8-ADED-AD8034C8B0CB}"/>
+    <hyperlink ref="E260" r:id="rId319" xr:uid="{28F0E083-1137-4751-BEB3-72761861DA55}"/>
+    <hyperlink ref="E259" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{10E95789-DF12-4B52-A2D1-B9410F6D0A14}"/>
+    <hyperlink ref="E67" r:id="rId321" xr:uid="{62659393-12B3-4388-AB36-42818C940F03}"/>
+    <hyperlink ref="A260" r:id="rId322" display="https://leetcode.cn/problems/minimum-absolute-difference-in-bst/" xr:uid="{CA149B8E-4083-40F2-8797-87524934E57A}"/>
+    <hyperlink ref="A259" r:id="rId323" display="https://leetcode.cn/problems/find-mode-in-binary-search-tree/" xr:uid="{66FED396-569A-4F51-A1C3-9EC522A53341}"/>
+    <hyperlink ref="A67" r:id="rId324" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{3E15CC50-0479-40F6-A46D-60B9456C12A7}"/>
+    <hyperlink ref="A258" r:id="rId325" display="https://leetcode.cn/problems/minimum-money-required-before-transactions/" xr:uid="{A89F13A8-8C3C-43F7-A17A-E6D934DD82F6}"/>
+    <hyperlink ref="E258" r:id="rId326" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
+    <hyperlink ref="A63" r:id="rId327" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
+    <hyperlink ref="A116" r:id="rId328" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8860768E-4F64-4B3B-98EC-BF7A17FA992E}"/>
+    <hyperlink ref="E116" r:id="rId329" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AA67F91A-6273-43E9-AAE2-A65FC5D48A3B}"/>
+    <hyperlink ref="E66" r:id="rId330" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6F24E2BA-88C0-465F-8F6A-7F082BD77BE1}"/>
+    <hyperlink ref="E256" r:id="rId331" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
+    <hyperlink ref="A256" r:id="rId332" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
+    <hyperlink ref="A66" r:id="rId333" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
+    <hyperlink ref="A255" r:id="rId334" display="https://leetcode.cn/problems/contains-duplicate-ii/" xr:uid="{82304D18-534F-4B45-8873-2AE0CE4E2E67}"/>
     <hyperlink ref="A292" r:id="rId335" display="https://leetcode.cn/problems/valid-palindrome-ii/" xr:uid="{63A3FF91-0B2A-469A-A4E1-921A7A854BE7}"/>
-    <hyperlink ref="E75" r:id="rId336" xr:uid="{908B2229-B6AF-4E37-A17A-BBF0B94C435E}"/>
-    <hyperlink ref="A204" r:id="rId337" display="https://leetcode.cn/problems/trim-a-binary-search-tree/" xr:uid="{2F2A1D6B-336A-4622-A218-F447E1C570E2}"/>
-    <hyperlink ref="A196" r:id="rId338" display="https://leetcode.cn/problems/convert-bst-to-greater-tree/" xr:uid="{694FDE47-C328-4D63-95C4-92DA21BF968A}"/>
-    <hyperlink ref="E204" r:id="rId339" location="%E6%80%9D%E8%B7%AF" xr:uid="{DB0877C7-738D-42DE-BB61-8C9C23171F43}"/>
-    <hyperlink ref="E196" r:id="rId340" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FEC1A6E3-ACED-476E-A7CA-907F84756D84}"/>
-    <hyperlink ref="A68" r:id="rId341" display="https://leetcode.cn/problems/combinations/" xr:uid="{E08E7553-D443-45C6-B898-4BFEAE34B442}"/>
-    <hyperlink ref="A100" r:id="rId342" display="https://leetcode.cn/problems/combination-sum-iii/" xr:uid="{B3833617-AF70-4FCE-8BFA-0BC090559E9E}"/>
-    <hyperlink ref="E68" r:id="rId343" xr:uid="{6D15BC03-6C24-4CBE-B14F-AF46452744CA}"/>
-    <hyperlink ref="E100" r:id="rId344" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
-    <hyperlink ref="E40" r:id="rId345" xr:uid="{70FB8C70-E662-43E4-9BEB-2C991560FFCD}"/>
-    <hyperlink ref="A139" r:id="rId346" display="https://leetcode.cn/problems/subsets-ii/" xr:uid="{BF57B92E-019F-4853-BCA8-E284BE4E7D3F}"/>
-    <hyperlink ref="A140" r:id="rId347" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{D1C2BD62-595B-4A7D-A2B7-61892FD813F8}"/>
-    <hyperlink ref="E140" r:id="rId348" xr:uid="{799CE8DF-ABD0-4935-AF11-4FFE538FF6DB}"/>
-    <hyperlink ref="E139" r:id="rId349" xr:uid="{39B538B3-95D9-49AB-A21C-769543C63F39}"/>
-    <hyperlink ref="A58" r:id="rId350" display="https://leetcode.cn/problems/non-decreasing-subsequences/" xr:uid="{270BDDBE-643B-4DB5-8074-FFAC63F713AC}"/>
-    <hyperlink ref="E58" r:id="rId351" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{70096A3A-7A54-46BB-AEA3-E6C944EB027F}"/>
-    <hyperlink ref="A22" r:id="rId352" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{02BDF740-3DE5-4E13-8B41-60BD596468BC}"/>
-    <hyperlink ref="E22" r:id="rId353" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7532296D-4A89-495D-B3C4-872925E401C5}"/>
-    <hyperlink ref="A185" r:id="rId354" display="https://leetcode.cn/problems/reconstruct-itinerary/" xr:uid="{3CFD64BF-5BFC-4EE6-B10D-17D9CD13C100}"/>
-    <hyperlink ref="E185" r:id="rId355" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B978FA55-1557-4A14-9DE1-55E425C57427}"/>
-    <hyperlink ref="A119" r:id="rId356" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{1DA82971-1CAA-40D0-8F79-6BF174433576}"/>
-    <hyperlink ref="E119" r:id="rId357" xr:uid="{9F82BAB4-3F09-4281-914C-501D4F4EF17F}"/>
-    <hyperlink ref="A289" r:id="rId358" display="https://leetcode.cn/problems/assign-cookies/" xr:uid="{F7EF2770-1F4D-43A2-8C07-073CE2DC7E84}"/>
-    <hyperlink ref="E289" r:id="rId359" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{216A86D0-0D27-4596-8EE1-FD617CC8D658}"/>
-    <hyperlink ref="E188" r:id="rId360" xr:uid="{D774326A-9BD5-4FB5-8D59-3230132C6B87}"/>
-    <hyperlink ref="A188" r:id="rId361" display="https://leetcode.cn/problems/wiggle-subsequence/" xr:uid="{0592CD1C-63BF-483C-BC97-6A61F95B162E}"/>
-    <hyperlink ref="E3" r:id="rId362" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{26251414-EEC8-40E6-AAF9-A7DC88CA4AFC}"/>
-    <hyperlink ref="E249" r:id="rId363" location="%E6%80%9D%E8%B7%AF" xr:uid="{8D2F5BA2-CCA4-4F92-B531-19C4C4CC12AD}"/>
-    <hyperlink ref="E120" r:id="rId364" xr:uid="{A5992457-448E-4A74-B543-EB9B92483919}"/>
-    <hyperlink ref="E53" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AFC059A5-7AB0-4F8B-80A6-AB7F930F591A}"/>
-    <hyperlink ref="E56" r:id="rId366" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{E274F954-DDF7-48B3-97C4-2E75AC4FACE0}"/>
-    <hyperlink ref="E137" r:id="rId367" xr:uid="{4EFD1FC3-B71B-4B3E-8EBA-906D275376B4}"/>
-    <hyperlink ref="E256" r:id="rId368" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FAA033A6-0F1F-4690-93C1-69A784F1F297}"/>
-    <hyperlink ref="E125" r:id="rId369" xr:uid="{93B07DB7-E781-4E85-AF0F-69E2D5EC79A2}"/>
-    <hyperlink ref="E146" r:id="rId370" location="%E6%80%9D%E8%B7%AF" xr:uid="{6537664E-6B77-473A-9F48-179C67A9E7E2}"/>
-    <hyperlink ref="A256" r:id="rId371" display="https://leetcode.cn/problems/jump-game/" xr:uid="{7451D1E2-4D07-44FE-82F8-CD5855BDC24F}"/>
-    <hyperlink ref="A125" r:id="rId372" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{9FA7CDA6-9BB3-4FD0-8B15-B1BF05FA7C77}"/>
-    <hyperlink ref="A146" r:id="rId373" display="https://leetcode.cn/problems/maximize-sum-of-array-after-k-negations/" xr:uid="{0AA036B1-B7B6-42E2-9671-1CFD7D9304D2}"/>
-    <hyperlink ref="A222" r:id="rId374" display="https://leetcode.cn/problems/gas-station/" xr:uid="{8BE0126A-0FB4-4962-9266-4B0136E1903E}"/>
-    <hyperlink ref="E222" r:id="rId375" xr:uid="{8578DCBC-2857-4702-B5E7-F8D4C43D958E}"/>
-    <hyperlink ref="E157" r:id="rId376" location="%E6%80%BB%E7%BB%93" xr:uid="{C6162979-B3C3-4038-AE92-D5E305BC769E}"/>
-    <hyperlink ref="E211" r:id="rId377" location="%E6%80%9D%E8%B7%AF" xr:uid="{32C011D2-56A2-4808-A3E1-EDC267B4334C}"/>
-    <hyperlink ref="E189" r:id="rId378" location="%E6%80%9D%E8%B7%AF" xr:uid="{683A44D4-A2B2-416E-A8BE-7EC1E9F8306E}"/>
-    <hyperlink ref="A157" r:id="rId379" display="https://leetcode.cn/problems/candy/" xr:uid="{18479118-046B-47F9-BF00-EDB78C5B66CA}"/>
-    <hyperlink ref="A211" r:id="rId380" display="https://leetcode.cn/problems/lemonade-change/" xr:uid="{F39F3153-0FD0-4978-8BEA-61C073F71CFA}"/>
-    <hyperlink ref="A189" r:id="rId381" display="https://leetcode.cn/problems/queue-reconstruction-by-height/" xr:uid="{E168B8BA-7F5D-410D-AD08-44337C7FD1F4}"/>
-    <hyperlink ref="A126" r:id="rId382" display="https://leetcode.cn/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{4D6F0443-D33C-47EA-BECD-B50501B5FBBA}"/>
-    <hyperlink ref="E126" r:id="rId383" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CBB26C51-416C-405F-A302-C40E70A77B5C}"/>
-    <hyperlink ref="A124" r:id="rId384" display="https://leetcode.cn/problems/non-overlapping-intervals/" xr:uid="{B26AD955-41C7-4022-8511-3AB9509D1C8E}"/>
-    <hyperlink ref="E124" r:id="rId385" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4B828D7A-002E-4ADB-AE2B-475B229F918E}"/>
-    <hyperlink ref="A67" r:id="rId386" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{DE31B183-147C-4384-B7D9-9B33C2E423D9}"/>
-    <hyperlink ref="E67" r:id="rId387" location="%E6%80%9D%E8%B7%AF" xr:uid="{69E3EE0D-E859-4939-8D4E-0AF73914B2F0}"/>
-    <hyperlink ref="E61" r:id="rId388" xr:uid="{54C11488-329F-4F9A-9365-E3B63CE1ED57}"/>
-    <hyperlink ref="E134" r:id="rId389" xr:uid="{687C952A-C1EA-4399-AD6B-56C3A015A665}"/>
-    <hyperlink ref="E263" r:id="rId390" xr:uid="{30B4EFBE-DC1F-4CB1-9838-F38E6CDCC86F}"/>
-    <hyperlink ref="A61" r:id="rId391" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{6A479462-3315-4D0E-A19A-CBED939F685E}"/>
-    <hyperlink ref="A134" r:id="rId392" display="https://leetcode.cn/problems/monotone-increasing-digits/" xr:uid="{515D2D14-7BB9-4C97-B572-FFEED20AAE2C}"/>
-    <hyperlink ref="A263" r:id="rId393" display="https://leetcode.cn/problems/binary-tree-cameras/" xr:uid="{E2712FA3-3451-44F9-9595-EECCA34B8C08}"/>
-    <hyperlink ref="E192" r:id="rId394" xr:uid="{11637D6C-418A-41BD-B312-324687673583}"/>
-    <hyperlink ref="E206" r:id="rId395" xr:uid="{3426D3A6-A466-4066-BBDC-42833D2C33B4}"/>
-    <hyperlink ref="E210" r:id="rId396" xr:uid="{FA814D02-2656-46FB-BF95-2C8194762320}"/>
-    <hyperlink ref="A192" r:id="rId397" display="https://leetcode.cn/problems/fibonacci-number/" xr:uid="{45D0AF0C-7A16-43CB-887C-B48B7C848C29}"/>
-    <hyperlink ref="A206" r:id="rId398" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{9307DB6E-85CA-4E49-B429-29CD68B962DE}"/>
-    <hyperlink ref="A210" r:id="rId399" display="https://leetcode.cn/problems/min-cost-climbing-stairs/" xr:uid="{88A0429A-E979-48F0-AF62-D957E16ECA8A}"/>
-    <hyperlink ref="A201" r:id="rId400" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{AE2EA362-B732-43FB-9627-5F017B157DEF}"/>
-    <hyperlink ref="E201" r:id="rId401" location="%E6%80%9D%E8%B7%AF" xr:uid="{6DFEF880-D831-4C40-8255-C9CF884EC732}"/>
-    <hyperlink ref="E129" r:id="rId402" location="%E6%80%9D%E8%B7%AF" xr:uid="{4FBA42A5-E29D-4F2F-8DB8-728E6478F1C6}"/>
-    <hyperlink ref="E247" r:id="rId403" location="%E6%80%9D%E8%B7%AF" xr:uid="{08B109D0-F657-4B45-AC95-1598B638C2B3}"/>
-    <hyperlink ref="A247" r:id="rId404" display="https://leetcode.cn/problems/integer-break/" xr:uid="{20215E46-76E6-4D90-9D96-5FCB469BFC54}"/>
-    <hyperlink ref="E141" r:id="rId405" location="%E6%80%9D%E8%B7%AF" xr:uid="{B0C1AD17-C274-44F8-831D-FFCE6D7BD562}"/>
-    <hyperlink ref="A141" r:id="rId406" display="https://leetcode.cn/problems/unique-binary-search-trees/" xr:uid="{929D6B30-6DE3-4985-9B27-18F0CE7F3CF6}"/>
-    <hyperlink ref="A129" r:id="rId407" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{337BF453-6142-4FF1-BBBE-68A7B961EAE5}"/>
-    <hyperlink ref="A18" r:id="rId408" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{C1C4A4AE-2F75-44E9-8876-4F424F268E3E}"/>
-    <hyperlink ref="E18" r:id="rId409" location="%E6%80%9D%E8%B7%AF" xr:uid="{FB2239CC-5C43-4BBC-9F43-C36A427D6D6E}"/>
-    <hyperlink ref="A221" r:id="rId410" display="https://leetcode.cn/problems/replace-elements-with-greatest-element-on-right-side/" xr:uid="{105BA842-262A-4968-A11E-37CB8BD12E82}"/>
-    <hyperlink ref="E36" r:id="rId411" xr:uid="{DF77FF27-55F0-498E-926D-A94C9D4EEA7C}"/>
-    <hyperlink ref="E24" r:id="rId412" xr:uid="{37887993-2194-4ACA-AC5D-4CDE934AB3B1}"/>
-    <hyperlink ref="A36" r:id="rId413" display="https://leetcode.cn/problems/last-stone-weight-ii/" xr:uid="{083E5E28-9F83-4ADC-A743-D815C8AA5C49}"/>
-    <hyperlink ref="A24" r:id="rId414" display="https://leetcode.cn/problems/target-sum/" xr:uid="{23D53EEC-2F69-4C8F-A3BD-679FD488FA4F}"/>
-    <hyperlink ref="E27" r:id="rId415" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{5B8A88B2-7D44-4AEA-A7DE-F623804B7BF4}"/>
-    <hyperlink ref="E16" r:id="rId416" xr:uid="{4170896B-569C-48A0-AF10-F406B7FE1316}"/>
-    <hyperlink ref="E62" r:id="rId417" xr:uid="{61979918-D117-4461-AB6E-AEF6690C6A2E}"/>
-    <hyperlink ref="A27" r:id="rId418" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{E109E17B-ABBC-495E-A8D9-5E7EF59BA8C1}"/>
-    <hyperlink ref="A16" r:id="rId419" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{F3A184F5-5DCA-4220-BF55-8C70F41FB616}"/>
-    <hyperlink ref="A62" r:id="rId420" xr:uid="{DE59C999-64B7-4EEB-A945-6201D6C316B1}"/>
+    <hyperlink ref="E115" r:id="rId336" xr:uid="{908B2229-B6AF-4E37-A17A-BBF0B94C435E}"/>
+    <hyperlink ref="A186" r:id="rId337" display="https://leetcode.cn/problems/trim-a-binary-search-tree/" xr:uid="{2F2A1D6B-336A-4622-A218-F447E1C570E2}"/>
+    <hyperlink ref="A185" r:id="rId338" display="https://leetcode.cn/problems/convert-bst-to-greater-tree/" xr:uid="{694FDE47-C328-4D63-95C4-92DA21BF968A}"/>
+    <hyperlink ref="E186" r:id="rId339" location="%E6%80%9D%E8%B7%AF" xr:uid="{DB0877C7-738D-42DE-BB61-8C9C23171F43}"/>
+    <hyperlink ref="E185" r:id="rId340" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FEC1A6E3-ACED-476E-A7CA-907F84756D84}"/>
+    <hyperlink ref="A65" r:id="rId341" display="https://leetcode.cn/problems/combinations/" xr:uid="{E08E7553-D443-45C6-B898-4BFEAE34B442}"/>
+    <hyperlink ref="A114" r:id="rId342" display="https://leetcode.cn/problems/combination-sum-iii/" xr:uid="{B3833617-AF70-4FCE-8BFA-0BC090559E9E}"/>
+    <hyperlink ref="E65" r:id="rId343" xr:uid="{6D15BC03-6C24-4CBE-B14F-AF46452744CA}"/>
+    <hyperlink ref="E114" r:id="rId344" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C359A588-9D3C-4865-9578-14B87A056CA9}"/>
+    <hyperlink ref="E64" r:id="rId345" xr:uid="{70FB8C70-E662-43E4-9BEB-2C991560FFCD}"/>
+    <hyperlink ref="A111" r:id="rId346" display="https://leetcode.cn/problems/subsets-ii/" xr:uid="{BF57B92E-019F-4853-BCA8-E284BE4E7D3F}"/>
+    <hyperlink ref="A112" r:id="rId347" display="https://leetcode.cn/problems/restore-ip-addresses/" xr:uid="{D1C2BD62-595B-4A7D-A2B7-61892FD813F8}"/>
+    <hyperlink ref="E112" r:id="rId348" xr:uid="{799CE8DF-ABD0-4935-AF11-4FFE538FF6DB}"/>
+    <hyperlink ref="E111" r:id="rId349" xr:uid="{39B538B3-95D9-49AB-A21C-769543C63F39}"/>
+    <hyperlink ref="A62" r:id="rId350" display="https://leetcode.cn/problems/non-decreasing-subsequences/" xr:uid="{270BDDBE-643B-4DB5-8074-FFAC63F713AC}"/>
+    <hyperlink ref="E62" r:id="rId351" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{70096A3A-7A54-46BB-AEA3-E6C944EB027F}"/>
+    <hyperlink ref="A18" r:id="rId352" display="https://leetcode.cn/problems/permutations-ii/" xr:uid="{02BDF740-3DE5-4E13-8B41-60BD596468BC}"/>
+    <hyperlink ref="E18" r:id="rId353" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7532296D-4A89-495D-B3C4-872925E401C5}"/>
+    <hyperlink ref="A184" r:id="rId354" display="https://leetcode.cn/problems/reconstruct-itinerary/" xr:uid="{3CFD64BF-5BFC-4EE6-B10D-17D9CD13C100}"/>
+    <hyperlink ref="E184" r:id="rId355" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B978FA55-1557-4A14-9DE1-55E425C57427}"/>
+    <hyperlink ref="A109" r:id="rId356" display="https://leetcode.cn/problems/sudoku-solver/" xr:uid="{1DA82971-1CAA-40D0-8F79-6BF174433576}"/>
+    <hyperlink ref="E109" r:id="rId357" xr:uid="{9F82BAB4-3F09-4281-914C-501D4F4EF17F}"/>
+    <hyperlink ref="A291" r:id="rId358" display="https://leetcode.cn/problems/assign-cookies/" xr:uid="{F7EF2770-1F4D-43A2-8C07-073CE2DC7E84}"/>
+    <hyperlink ref="E291" r:id="rId359" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{216A86D0-0D27-4596-8EE1-FD617CC8D658}"/>
+    <hyperlink ref="E183" r:id="rId360" xr:uid="{D774326A-9BD5-4FB5-8D59-3230132C6B87}"/>
+    <hyperlink ref="A183" r:id="rId361" display="https://leetcode.cn/problems/wiggle-subsequence/" xr:uid="{0592CD1C-63BF-483C-BC97-6A61F95B162E}"/>
+    <hyperlink ref="E20" r:id="rId362" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{26251414-EEC8-40E6-AAF9-A7DC88CA4AFC}"/>
+    <hyperlink ref="E266" r:id="rId363" location="%E6%80%9D%E8%B7%AF" xr:uid="{8D2F5BA2-CCA4-4F92-B531-19C4C4CC12AD}"/>
+    <hyperlink ref="E113" r:id="rId364" xr:uid="{A5992457-448E-4A74-B543-EB9B92483919}"/>
+    <hyperlink ref="E63" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AFC059A5-7AB0-4F8B-80A6-AB7F930F591A}"/>
+    <hyperlink ref="E61" r:id="rId366" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{E274F954-DDF7-48B3-97C4-2E75AC4FACE0}"/>
+    <hyperlink ref="E110" r:id="rId367" xr:uid="{4EFD1FC3-B71B-4B3E-8EBA-906D275376B4}"/>
+    <hyperlink ref="E253" r:id="rId368" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{FAA033A6-0F1F-4690-93C1-69A784F1F297}"/>
+    <hyperlink ref="E108" r:id="rId369" xr:uid="{93B07DB7-E781-4E85-AF0F-69E2D5EC79A2}"/>
+    <hyperlink ref="E182" r:id="rId370" location="%E6%80%9D%E8%B7%AF" xr:uid="{6537664E-6B77-473A-9F48-179C67A9E7E2}"/>
+    <hyperlink ref="A253" r:id="rId371" display="https://leetcode.cn/problems/jump-game/" xr:uid="{7451D1E2-4D07-44FE-82F8-CD5855BDC24F}"/>
+    <hyperlink ref="A108" r:id="rId372" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{9FA7CDA6-9BB3-4FD0-8B15-B1BF05FA7C77}"/>
+    <hyperlink ref="A182" r:id="rId373" display="https://leetcode.cn/problems/maximize-sum-of-array-after-k-negations/" xr:uid="{0AA036B1-B7B6-42E2-9671-1CFD7D9304D2}"/>
+    <hyperlink ref="A252" r:id="rId374" display="https://leetcode.cn/problems/gas-station/" xr:uid="{8BE0126A-0FB4-4962-9266-4B0136E1903E}"/>
+    <hyperlink ref="E252" r:id="rId375" xr:uid="{8578DCBC-2857-4702-B5E7-F8D4C43D958E}"/>
+    <hyperlink ref="E179" r:id="rId376" location="%E6%80%BB%E7%BB%93" xr:uid="{C6162979-B3C3-4038-AE92-D5E305BC769E}"/>
+    <hyperlink ref="E181" r:id="rId377" location="%E6%80%9D%E8%B7%AF" xr:uid="{32C011D2-56A2-4808-A3E1-EDC267B4334C}"/>
+    <hyperlink ref="E180" r:id="rId378" location="%E6%80%9D%E8%B7%AF" xr:uid="{683A44D4-A2B2-416E-A8BE-7EC1E9F8306E}"/>
+    <hyperlink ref="A179" r:id="rId379" display="https://leetcode.cn/problems/candy/" xr:uid="{18479118-046B-47F9-BF00-EDB78C5B66CA}"/>
+    <hyperlink ref="A181" r:id="rId380" display="https://leetcode.cn/problems/lemonade-change/" xr:uid="{F39F3153-0FD0-4978-8BEA-61C073F71CFA}"/>
+    <hyperlink ref="A180" r:id="rId381" display="https://leetcode.cn/problems/queue-reconstruction-by-height/" xr:uid="{E168B8BA-7F5D-410D-AD08-44337C7FD1F4}"/>
+    <hyperlink ref="A107" r:id="rId382" display="https://leetcode.cn/problems/minimum-number-of-arrows-to-burst-balloons/" xr:uid="{4D6F0443-D33C-47EA-BECD-B50501B5FBBA}"/>
+    <hyperlink ref="E107" r:id="rId383" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CBB26C51-416C-405F-A302-C40E70A77B5C}"/>
+    <hyperlink ref="A106" r:id="rId384" display="https://leetcode.cn/problems/non-overlapping-intervals/" xr:uid="{B26AD955-41C7-4022-8511-3AB9509D1C8E}"/>
+    <hyperlink ref="E106" r:id="rId385" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{4B828D7A-002E-4ADB-AE2B-475B229F918E}"/>
+    <hyperlink ref="A60" r:id="rId386" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{DE31B183-147C-4384-B7D9-9B33C2E423D9}"/>
+    <hyperlink ref="E60" r:id="rId387" location="%E6%80%9D%E8%B7%AF" xr:uid="{69E3EE0D-E859-4939-8D4E-0AF73914B2F0}"/>
+    <hyperlink ref="E59" r:id="rId388" xr:uid="{54C11488-329F-4F9A-9365-E3B63CE1ED57}"/>
+    <hyperlink ref="E105" r:id="rId389" xr:uid="{687C952A-C1EA-4399-AD6B-56C3A015A665}"/>
+    <hyperlink ref="E251" r:id="rId390" xr:uid="{30B4EFBE-DC1F-4CB1-9838-F38E6CDCC86F}"/>
+    <hyperlink ref="A59" r:id="rId391" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{6A479462-3315-4D0E-A19A-CBED939F685E}"/>
+    <hyperlink ref="A105" r:id="rId392" display="https://leetcode.cn/problems/monotone-increasing-digits/" xr:uid="{515D2D14-7BB9-4C97-B572-FFEED20AAE2C}"/>
+    <hyperlink ref="A251" r:id="rId393" display="https://leetcode.cn/problems/binary-tree-cameras/" xr:uid="{E2712FA3-3451-44F9-9595-EECCA34B8C08}"/>
+    <hyperlink ref="E176" r:id="rId394" xr:uid="{11637D6C-418A-41BD-B312-324687673583}"/>
+    <hyperlink ref="E177" r:id="rId395" xr:uid="{3426D3A6-A466-4066-BBDC-42833D2C33B4}"/>
+    <hyperlink ref="E178" r:id="rId396" xr:uid="{FA814D02-2656-46FB-BF95-2C8194762320}"/>
+    <hyperlink ref="A176" r:id="rId397" display="https://leetcode.cn/problems/fibonacci-number/" xr:uid="{45D0AF0C-7A16-43CB-887C-B48B7C848C29}"/>
+    <hyperlink ref="A177" r:id="rId398" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{9307DB6E-85CA-4E49-B429-29CD68B962DE}"/>
+    <hyperlink ref="A178" r:id="rId399" display="https://leetcode.cn/problems/min-cost-climbing-stairs/" xr:uid="{88A0429A-E979-48F0-AF62-D957E16ECA8A}"/>
+    <hyperlink ref="A175" r:id="rId400" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{AE2EA362-B732-43FB-9627-5F017B157DEF}"/>
+    <hyperlink ref="E175" r:id="rId401" location="%E6%80%9D%E8%B7%AF" xr:uid="{6DFEF880-D831-4C40-8255-C9CF884EC732}"/>
+    <hyperlink ref="E103" r:id="rId402" location="%E6%80%9D%E8%B7%AF" xr:uid="{4FBA42A5-E29D-4F2F-8DB8-728E6478F1C6}"/>
+    <hyperlink ref="E250" r:id="rId403" location="%E6%80%9D%E8%B7%AF" xr:uid="{08B109D0-F657-4B45-AC95-1598B638C2B3}"/>
+    <hyperlink ref="A250" r:id="rId404" display="https://leetcode.cn/problems/integer-break/" xr:uid="{20215E46-76E6-4D90-9D96-5FCB469BFC54}"/>
+    <hyperlink ref="E104" r:id="rId405" location="%E6%80%9D%E8%B7%AF" xr:uid="{B0C1AD17-C274-44F8-831D-FFCE6D7BD562}"/>
+    <hyperlink ref="A104" r:id="rId406" display="https://leetcode.cn/problems/unique-binary-search-trees/" xr:uid="{929D6B30-6DE3-4985-9B27-18F0CE7F3CF6}"/>
+    <hyperlink ref="A103" r:id="rId407" display="https://leetcode.cn/problems/unique-paths-ii/" xr:uid="{337BF453-6142-4FF1-BBBE-68A7B961EAE5}"/>
+    <hyperlink ref="A2" r:id="rId408" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{C1C4A4AE-2F75-44E9-8876-4F424F268E3E}"/>
+    <hyperlink ref="E2" r:id="rId409" location="%E6%80%9D%E8%B7%AF" xr:uid="{FB2239CC-5C43-4BBC-9F43-C36A427D6D6E}"/>
+    <hyperlink ref="A249" r:id="rId410" display="https://leetcode.cn/problems/replace-elements-with-greatest-element-on-right-side/" xr:uid="{105BA842-262A-4968-A11E-37CB8BD12E82}"/>
+    <hyperlink ref="E58" r:id="rId411" xr:uid="{DF77FF27-55F0-498E-926D-A94C9D4EEA7C}"/>
+    <hyperlink ref="E17" r:id="rId412" xr:uid="{37887993-2194-4ACA-AC5D-4CDE934AB3B1}"/>
+    <hyperlink ref="A58" r:id="rId413" display="https://leetcode.cn/problems/last-stone-weight-ii/" xr:uid="{083E5E28-9F83-4ADC-A743-D815C8AA5C49}"/>
+    <hyperlink ref="A17" r:id="rId414" display="https://leetcode.cn/problems/target-sum/" xr:uid="{23D53EEC-2F69-4C8F-A3BD-679FD488FA4F}"/>
+    <hyperlink ref="E15" r:id="rId415" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{5B8A88B2-7D44-4AEA-A7DE-F623804B7BF4}"/>
+    <hyperlink ref="E14" r:id="rId416" xr:uid="{4170896B-569C-48A0-AF10-F406B7FE1316}"/>
+    <hyperlink ref="E57" r:id="rId417" xr:uid="{61979918-D117-4461-AB6E-AEF6690C6A2E}"/>
+    <hyperlink ref="A15" r:id="rId418" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{E109E17B-ABBC-495E-A8D9-5E7EF59BA8C1}"/>
+    <hyperlink ref="A14" r:id="rId419" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{F3A184F5-5DCA-4220-BF55-8C70F41FB616}"/>
+    <hyperlink ref="A57" r:id="rId420" xr:uid="{DE59C999-64B7-4EEB-A945-6201D6C316B1}"/>
     <hyperlink ref="E13" r:id="rId421" xr:uid="{56E0D5A5-9B68-40DC-991B-1128B39FAD51}"/>
-    <hyperlink ref="E4" r:id="rId422" xr:uid="{42070A93-072E-4F38-B3D5-C6E81890734B}"/>
-    <hyperlink ref="E46" r:id="rId423" xr:uid="{C413FA90-6248-41A1-BA43-473F5292496D}"/>
+    <hyperlink ref="E12" r:id="rId422" xr:uid="{42070A93-072E-4F38-B3D5-C6E81890734B}"/>
+    <hyperlink ref="E56" r:id="rId423" xr:uid="{C413FA90-6248-41A1-BA43-473F5292496D}"/>
     <hyperlink ref="A13" r:id="rId424" display="https://leetcode.cn/problems/coin-change/" xr:uid="{E0CCFFBE-8489-4D6A-BE69-0792D03399C7}"/>
-    <hyperlink ref="A46" r:id="rId425" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{62271432-DB27-401D-B084-2DC16FE0054B}"/>
-    <hyperlink ref="A4" r:id="rId426" display="https://leetcode.cn/problems/word-break/" xr:uid="{BDD96A07-894E-4FF1-8629-85064E3D8EDC}"/>
-    <hyperlink ref="E166" r:id="rId427" xr:uid="{724AEED3-3723-4675-866D-DEC487B97B1D}"/>
-    <hyperlink ref="E44" r:id="rId428" xr:uid="{38A9F4E6-3C04-4BB6-B47F-FF350EF1F8F5}"/>
-    <hyperlink ref="E15" r:id="rId429" xr:uid="{6FE19704-4847-4D00-85E9-6C864BB0A5D8}"/>
-    <hyperlink ref="A166" r:id="rId430" display="https://leetcode.cn/problems/house-robber/" xr:uid="{578CE9B6-F395-4BF2-AB3E-1F598B75B8D3}"/>
-    <hyperlink ref="A44" r:id="rId431" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{3F82E365-9C94-487D-A990-D4F9FE6B08AE}"/>
-    <hyperlink ref="A15" r:id="rId432" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{1022CB4C-6CDE-4D9F-864E-12ED007C30BA}"/>
-    <hyperlink ref="A240" r:id="rId433" display="https://leetcode.cn/problems/number-of-even-and-odd-bits/" xr:uid="{D8939EF7-7C6E-4CA6-812B-942B24465534}"/>
-    <hyperlink ref="E9" r:id="rId434" xr:uid="{D8C26BDB-A838-4342-B102-409F07BE683C}"/>
-    <hyperlink ref="E82" r:id="rId435" xr:uid="{1F17BC21-6737-4AA1-9B66-039A6F5E2928}"/>
-    <hyperlink ref="E83" r:id="rId436" xr:uid="{635C34E3-8A8A-4C5F-8D2D-4F53BA8BD45B}"/>
-    <hyperlink ref="E84" r:id="rId437" xr:uid="{B43D2CAB-87AB-4F9B-8E9C-54B5E4CE0F84}"/>
-    <hyperlink ref="A83" r:id="rId438" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{C7FC4C62-A665-4F8B-847A-9E7374997C77}"/>
-    <hyperlink ref="A84" r:id="rId439" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{60D6A262-1D1C-46C5-A53B-8FD8967DE55C}"/>
-    <hyperlink ref="A82" r:id="rId440" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{4343F38D-D3BB-4CCF-8446-EFA4A579A6D5}"/>
-    <hyperlink ref="A231" r:id="rId441" display="https://leetcode.cn/problems/minimum-white-tiles-after-covering-with-carpets/" xr:uid="{D20C3F82-1D87-4A53-AF26-84AC68AF5D8C}"/>
-    <hyperlink ref="E6" r:id="rId442" xr:uid="{F3BFB4EE-BECD-4F29-8825-7C1F34B5BC0A}"/>
-    <hyperlink ref="E12" r:id="rId443" xr:uid="{9F90F279-3F85-4BE2-8007-32F2CD2DE738}"/>
-    <hyperlink ref="E133" r:id="rId444" xr:uid="{B3D98882-5398-4509-B222-A0E9F356016E}"/>
-    <hyperlink ref="A6" r:id="rId445" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/" xr:uid="{FADC0B19-2B73-46B8-A20F-FA465F9E5456}"/>
-    <hyperlink ref="A12" r:id="rId446" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/" xr:uid="{D0775EC9-5A55-4411-8065-0F0EBB23309D}"/>
-    <hyperlink ref="A133" r:id="rId447" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/" xr:uid="{BBB417D8-4C15-407F-999D-EC8CB3CB5800}"/>
-    <hyperlink ref="A176" r:id="rId448" display="https://leetcode.cn/problems/count-pairs-of-similar-strings/" xr:uid="{41A17AE6-B69A-4186-AF52-6BD9896663A8}"/>
-    <hyperlink ref="A81" r:id="rId449" display="https://leetcode.cn/problems/design-skiplist/" xr:uid="{2A72B84E-DDE9-4DAE-BB41-030F70D30900}"/>
-    <hyperlink ref="E81" r:id="rId450" xr:uid="{7C6878E4-B748-4CA6-9993-57CE23114C44}"/>
-    <hyperlink ref="E181" r:id="rId451" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{768EFE1F-6F7F-4560-BE69-910CE4C840E6}"/>
-    <hyperlink ref="E205" r:id="rId452" xr:uid="{B88F5E69-A725-45BC-A276-53516697D7DD}"/>
-    <hyperlink ref="E65" r:id="rId453" xr:uid="{FDB5C438-9651-460A-AA4D-AA8B0FE51236}"/>
-    <hyperlink ref="A181" r:id="rId454" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{42B986BE-8B52-4D96-9512-30E029195851}"/>
-    <hyperlink ref="A205" r:id="rId455" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/" xr:uid="{57DEA55C-80A1-44BE-B714-ABB16A0E4F16}"/>
-    <hyperlink ref="A65" r:id="rId456" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{B34D464B-3593-4A39-97BC-0EE4E6ACA28A}"/>
-    <hyperlink ref="A92" r:id="rId457" display="https://leetcode.cn/problems/design-an-ordered-stream/" xr:uid="{E759308B-F20A-472F-B4B1-66EAFEAA8C98}"/>
-    <hyperlink ref="E35" r:id="rId458" xr:uid="{262CF7BE-094F-471C-A17F-9C657D32DA10}"/>
-    <hyperlink ref="E195" r:id="rId459" xr:uid="{D4D73E4F-D9EB-468B-8DC3-DB0F7CD9C814}"/>
-    <hyperlink ref="E121" r:id="rId460" xr:uid="{A36DE704-AA91-4EEE-9BCE-2946D5B3553F}"/>
-    <hyperlink ref="A35" r:id="rId461" display="https://leetcode.cn/problems/uncrossed-lines/" xr:uid="{688A92DB-9275-41B1-8150-3590FF4B4661}"/>
-    <hyperlink ref="A195" r:id="rId462" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{3DFEADD4-92A1-4349-8AAB-9FCDCDCB4BFA}"/>
-    <hyperlink ref="A121" r:id="rId463" display="https://leetcode.cn/problems/is-subsequence/" xr:uid="{331EBBB1-645B-4C03-97DC-07712F6517EA}"/>
-    <hyperlink ref="A239" r:id="rId464" display="https://leetcode.cn/problems/design-memory-allocator/" xr:uid="{425892CA-7454-42D2-8E9D-EBACDE0A9FB9}"/>
-    <hyperlink ref="E80" r:id="rId465" xr:uid="{B7DB546A-BB2E-4CBE-BE1D-90734243F066}"/>
-    <hyperlink ref="E63" r:id="rId466" xr:uid="{2122D83F-9CAA-4287-8127-F5013D7DEA86}"/>
-    <hyperlink ref="E29" r:id="rId467" xr:uid="{FA290801-F856-40DF-9042-7EA0BA45F20A}"/>
-    <hyperlink ref="A80" r:id="rId468" display="https://leetcode.cn/problems/distinct-subsequences/" xr:uid="{F831AC00-214B-46FE-85F6-0A821639565C}"/>
-    <hyperlink ref="A63" r:id="rId469" display="https://leetcode.cn/problems/delete-operation-for-two-strings/" xr:uid="{3C1ABA42-39A4-48E5-96D2-980D6F692351}"/>
-    <hyperlink ref="A29" r:id="rId470" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{E77CDB8C-709B-4448-A672-2FEEA7FFB3C2}"/>
-    <hyperlink ref="A162" r:id="rId471" display="https://leetcode.cn/problems/design-browser-history/" xr:uid="{484B523B-B9C8-4D07-AF2E-FFD615036865}"/>
-    <hyperlink ref="E64" r:id="rId472" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{68B4C6AD-61ED-4FD3-95E3-ECBDB15DA45C}"/>
-    <hyperlink ref="E60" r:id="rId473" xr:uid="{6B671C33-84AD-4C39-954C-9376CAC79153}"/>
-    <hyperlink ref="A60" r:id="rId474" display="https://leetcode.cn/problems/longest-palindromic-subsequence/" xr:uid="{95DE1D99-1585-4BFA-80AD-0A1AE4DE16DF}"/>
-    <hyperlink ref="A64" r:id="rId475" display="https://leetcode.cn/problems/palindromic-substrings/" xr:uid="{3562169F-461C-4C34-B821-C37DA25DF7D3}"/>
-    <hyperlink ref="A234" r:id="rId476" display="https://leetcode.cn/problems/design-a-text-editor/" xr:uid="{B9C898F1-8F87-4779-8DF7-F041F4864256}"/>
-    <hyperlink ref="E234" r:id="rId477" xr:uid="{2B238F66-0992-4025-8C40-B53095306D5C}"/>
-    <hyperlink ref="E135" r:id="rId478" xr:uid="{FAC4AB77-7FBF-444E-8395-14AF68E53C91}"/>
-    <hyperlink ref="E59" r:id="rId479" xr:uid="{E16C5A48-EE81-48CD-B0F5-181353C18128}"/>
-    <hyperlink ref="E127" r:id="rId480" xr:uid="{84C19260-CC43-4F6E-B81B-79A0DB0BC26D}"/>
-    <hyperlink ref="A135" r:id="rId481" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{7B07F28C-D4A1-4AC4-8A82-8EF76D230156}"/>
-    <hyperlink ref="A59" r:id="rId482" display="https://leetcode.cn/problems/next-greater-element-i/" xr:uid="{27CEEBA8-6963-43A7-8769-FF7963D5448B}"/>
-    <hyperlink ref="A127" r:id="rId483" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
-    <hyperlink ref="A235" r:id="rId484" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
-    <hyperlink ref="E235" r:id="rId485" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
-    <hyperlink ref="E19" r:id="rId486" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C45CA14-3139-41EA-9494-1B8EFDE805CF}"/>
-    <hyperlink ref="E33" r:id="rId487" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
-    <hyperlink ref="A33" r:id="rId488" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
-    <hyperlink ref="A19" r:id="rId489" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
-    <hyperlink ref="A264" r:id="rId490" display="98. 所有可达路径" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
-    <hyperlink ref="E264" r:id="rId491" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
-    <hyperlink ref="E145" r:id="rId492" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
-    <hyperlink ref="E72" r:id="rId493" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
-    <hyperlink ref="A145" r:id="rId494" display="99. 岛屿数量" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
-    <hyperlink ref="A72" r:id="rId495" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
-    <hyperlink ref="E142" r:id="rId496" location="%E6%80%9D%E8%B7%AF" xr:uid="{098EEA69-7F3E-4AB5-9FE2-6C004D9AC270}"/>
-    <hyperlink ref="E143" r:id="rId497" location="%E6%80%9D%E8%B7%AF" xr:uid="{E1175A95-B33F-490F-9A15-9C1CF7EEA311}"/>
-    <hyperlink ref="E69" r:id="rId498" xr:uid="{88D74155-E61B-4394-AFF5-41569453B560}"/>
-    <hyperlink ref="E70" r:id="rId499" xr:uid="{2B226A0C-43B6-4229-B22B-FB771DAC3E7E}"/>
-    <hyperlink ref="A142" r:id="rId500" display="101. 孤岛的总面积" xr:uid="{8E2FC539-C4C8-4464-B413-335E4931ACDF}"/>
-    <hyperlink ref="A143" r:id="rId501" display="102. 沉没孤岛" xr:uid="{34543BD5-F8EB-4D0E-B9E6-3814D57A9274}"/>
-    <hyperlink ref="A69" r:id="rId502" display="103. 水流问题" xr:uid="{67D7BD9F-E083-4F3B-AA58-56F357345DB9}"/>
-    <hyperlink ref="A70" r:id="rId503" display="104. 建造最大岛屿" xr:uid="{9BB8D65F-78F2-45D1-A5A5-15A66F7737DB}"/>
-    <hyperlink ref="E216" r:id="rId504" location="%E6%80%9D%E8%B7%AF" xr:uid="{07EEE79A-C3E2-493C-A408-6984D41184DD}"/>
-    <hyperlink ref="E144" r:id="rId505" xr:uid="{DA7485E3-BDC7-4ACA-A2F6-4393A9990679}"/>
-    <hyperlink ref="E215" r:id="rId506" xr:uid="{2F2321A2-B478-4399-82B3-344EEDBE2D24}"/>
-    <hyperlink ref="A216" r:id="rId507" xr:uid="{3B7CD5FD-8B4F-4698-BDA8-63D1F733738B}"/>
-    <hyperlink ref="A144" r:id="rId508" xr:uid="{581EF9B9-3D2C-403E-9E2D-E8CF5D5C562D}"/>
-    <hyperlink ref="A215" r:id="rId509" xr:uid="{66ED2192-5B55-42D3-8D2E-22ADD1946B1B}"/>
-    <hyperlink ref="A108" r:id="rId510" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{7A419034-2EC5-43E6-8BD8-4AB8848ACF5D}"/>
-    <hyperlink ref="E108" r:id="rId511" xr:uid="{CC660FDB-4E08-4F7E-A8D0-7CEC29FAEE52}"/>
-    <hyperlink ref="E295" r:id="rId512" location="%E6%80%9D%E8%B7%AF" xr:uid="{CDC4413E-F609-4AEB-BC27-E97EB17C8153}"/>
-    <hyperlink ref="A295" r:id="rId513" xr:uid="{8EE4829C-60FB-4E89-940B-1E2790DC93A9}"/>
-    <hyperlink ref="E296" r:id="rId514" xr:uid="{8DFDD3FD-F471-42CD-87F5-803786CD5439}"/>
-    <hyperlink ref="E297" r:id="rId515" xr:uid="{3681C961-DAEE-4D31-B01E-633848A859C0}"/>
-    <hyperlink ref="A296" r:id="rId516" display="108. 冗余连接" xr:uid="{08FF9D4A-B028-4BC4-807E-E64F7AC7E2A8}"/>
-    <hyperlink ref="A297" r:id="rId517" display="109. 冗余连接II" xr:uid="{7185B69E-56C4-4330-9EA7-313233A3DED4}"/>
-    <hyperlink ref="A298" r:id="rId518" display="https://leetcode.cn/problems/maximum-total-beauty-of-the-gardens/" xr:uid="{E7C5B506-8790-4198-BB44-E5E99EDFE0D5}"/>
-    <hyperlink ref="E298" r:id="rId519" xr:uid="{952BA3DA-2B75-467D-9171-91BA2D550794}"/>
-    <hyperlink ref="A299" r:id="rId520" display="https://leetcode.cn/problems/most-beautiful-item-for-each-query/" xr:uid="{6BA2699D-5954-4301-8029-72CD44181800}"/>
-    <hyperlink ref="E299" r:id="rId521" xr:uid="{9F736D86-2D8A-4BCF-8639-3091FCF7242A}"/>
-    <hyperlink ref="A300" r:id="rId522" display="https://leetcode.cn/problems/find-the-k-beauty-of-a-number/" xr:uid="{64DBCBF6-8ECC-4132-BD50-1AD681A3DB9A}"/>
-    <hyperlink ref="A301" r:id="rId523" display="K53. 寻宝" xr:uid="{24349FDF-AE74-495F-9EFB-CFB9597EB709}"/>
-    <hyperlink ref="E301" r:id="rId524" xr:uid="{78CF9125-A046-4547-AC24-88F6233CED2A}"/>
-    <hyperlink ref="A302" r:id="rId525" display="K53. 寻宝" xr:uid="{A17AFF1F-4A6F-4FFF-98BC-251A095D7118}"/>
-    <hyperlink ref="E302" r:id="rId526" xr:uid="{E1457EEB-17BA-40CE-9AC0-7D14F38E8E3B}"/>
-    <hyperlink ref="E303" r:id="rId527" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" xr:uid="{9B9908E6-B215-4CD5-B08E-D6326287A79A}"/>
-    <hyperlink ref="A303" r:id="rId528" xr:uid="{161991EB-90D0-4CB8-8B81-ECE441D35CE9}"/>
-    <hyperlink ref="E304" r:id="rId529" xr:uid="{08552FD3-08A3-4C2B-8087-DFA90CDE79CB}"/>
-    <hyperlink ref="E305" r:id="rId530" xr:uid="{1E76C702-F3B7-45E5-A138-F8EDD5663DBA}"/>
-    <hyperlink ref="E306" r:id="rId531" location="%E6%80%9D%E8%B7%AF" xr:uid="{04A67395-F47F-4DC6-8B8C-1AED1EB64AB5}"/>
-    <hyperlink ref="E307" r:id="rId532" location="%E8%83%8C%E6%99%AF" xr:uid="{29CEA416-A056-49B5-97F6-BDF5E8155617}"/>
-    <hyperlink ref="E308" r:id="rId533" location="%E6%80%9D%E8%B7%AF" xr:uid="{A2718796-50BE-4047-93F0-ECD9B2D894BB}"/>
-    <hyperlink ref="E309" r:id="rId534" location="%E6%80%9D%E8%B7%AF" xr:uid="{78191124-EDD8-419F-832B-AC1E33665E2D}"/>
-    <hyperlink ref="E310" r:id="rId535" xr:uid="{252A3F76-2AD9-46F5-9B39-9462B9487AF9}"/>
-    <hyperlink ref="E311" r:id="rId536" location="%E6%80%9D%E8%B7%AF" xr:uid="{F64B5CD9-9AFE-4107-A27D-F900EFF94B1F}"/>
-    <hyperlink ref="A304" r:id="rId537" display="K47. 参加科学大会" xr:uid="{436D3D71-60C0-4794-B5B8-36E491E4F857}"/>
-    <hyperlink ref="A305" r:id="rId538" display="K47. 参加科学大会" xr:uid="{9A8BEFE1-B749-4AA6-BFFD-C68F54DEFDEE}"/>
-    <hyperlink ref="A306" r:id="rId539" display="K94. 城市间货物运输 I" xr:uid="{3265D523-DAAB-4C65-9A26-24A20AE58777}"/>
-    <hyperlink ref="A307" r:id="rId540" display="K94. 城市间货物运输 I" xr:uid="{BF2508BE-BAC1-4F28-A76B-D696EB9A28A1}"/>
-    <hyperlink ref="A308" r:id="rId541" xr:uid="{91FFF0F7-465E-4EE4-A725-C092939177F6}"/>
-    <hyperlink ref="A309" r:id="rId542" xr:uid="{B85F0365-9A7E-4326-9361-1B1C4595B1BE}"/>
-    <hyperlink ref="A310" r:id="rId543" xr:uid="{C0461820-4989-4E7D-B67A-8105D390F544}"/>
-    <hyperlink ref="A311" r:id="rId544" xr:uid="{F92CBEBB-AD6C-4E23-B030-AD02CBA1E16C}"/>
-    <hyperlink ref="A312" r:id="rId545" display="https://leetcode.cn/problems/count-of-substrings-containing-every-vowel-and-k-consonants-ii/" xr:uid="{A4CFE49C-A2A2-4C43-8B6D-89E8AC76B415}"/>
-    <hyperlink ref="E312" r:id="rId546" xr:uid="{9154C15D-2B5B-472B-B749-10977FCCE63B}"/>
-    <hyperlink ref="A313" r:id="rId547" display="https://leetcode.cn/problems/determine-the-minimum-sum-of-a-k-avoiding-array/" xr:uid="{840A92A7-960A-451A-ACE1-450F44768F18}"/>
-    <hyperlink ref="E313" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
-    <hyperlink ref="A314" r:id="rId549" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-elements-in-array-distinct/" xr:uid="{83894381-B921-4F4B-B83A-6531769D7A95}"/>
-    <hyperlink ref="A315" r:id="rId550" display="https://leetcode.cn/problems/minimum-operations-to-make-array-values-equal-to-k/" xr:uid="{59AE66E2-83FE-4916-BED0-94383A9E2944}"/>
-    <hyperlink ref="A316" r:id="rId551" display="https://leetcode.cn/problems/powx-n/" xr:uid="{89F61F47-27DE-4DBF-B364-39847EBE9EAF}"/>
-    <hyperlink ref="E316" r:id="rId552" xr:uid="{B9C063BC-C598-4C1C-87B4-4612F74B4595}"/>
-    <hyperlink ref="A317" r:id="rId553" display="https://leetcode.cn/problems/count-good-numbers/" xr:uid="{9D746BC5-314B-4E2D-ADBF-7F5B5F3F8218}"/>
-    <hyperlink ref="E317" r:id="rId554" xr:uid="{FF095E54-52BF-4F07-9336-84C3321BA321}"/>
-    <hyperlink ref="A318" r:id="rId555" display="https://leetcode.cn/problems/count-good-triplets/" xr:uid="{D946C7DE-B0FF-489D-B12A-F96D32452463}"/>
-    <hyperlink ref="E318" r:id="rId556" xr:uid="{AF485FBC-F658-43D3-AD38-896AC9E8659B}"/>
+    <hyperlink ref="A56" r:id="rId425" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{62271432-DB27-401D-B084-2DC16FE0054B}"/>
+    <hyperlink ref="A12" r:id="rId426" display="https://leetcode.cn/problems/word-break/" xr:uid="{BDD96A07-894E-4FF1-8629-85064E3D8EDC}"/>
+    <hyperlink ref="E174" r:id="rId427" xr:uid="{724AEED3-3723-4675-866D-DEC487B97B1D}"/>
+    <hyperlink ref="E55" r:id="rId428" xr:uid="{38A9F4E6-3C04-4BB6-B47F-FF350EF1F8F5}"/>
+    <hyperlink ref="E11" r:id="rId429" xr:uid="{6FE19704-4847-4D00-85E9-6C864BB0A5D8}"/>
+    <hyperlink ref="A174" r:id="rId430" display="https://leetcode.cn/problems/house-robber/" xr:uid="{578CE9B6-F395-4BF2-AB3E-1F598B75B8D3}"/>
+    <hyperlink ref="A55" r:id="rId431" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{3F82E365-9C94-487D-A990-D4F9FE6B08AE}"/>
+    <hyperlink ref="A11" r:id="rId432" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{1022CB4C-6CDE-4D9F-864E-12ED007C30BA}"/>
+    <hyperlink ref="A248" r:id="rId433" display="https://leetcode.cn/problems/number-of-even-and-odd-bits/" xr:uid="{D8939EF7-7C6E-4CA6-812B-942B24465534}"/>
+    <hyperlink ref="E28" r:id="rId434" xr:uid="{D8C26BDB-A838-4342-B102-409F07BE683C}"/>
+    <hyperlink ref="E100" r:id="rId435" xr:uid="{1F17BC21-6737-4AA1-9B66-039A6F5E2928}"/>
+    <hyperlink ref="E101" r:id="rId436" xr:uid="{635C34E3-8A8A-4C5F-8D2D-4F53BA8BD45B}"/>
+    <hyperlink ref="E102" r:id="rId437" xr:uid="{B43D2CAB-87AB-4F9B-8E9C-54B5E4CE0F84}"/>
+    <hyperlink ref="A101" r:id="rId438" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{C7FC4C62-A665-4F8B-847A-9E7374997C77}"/>
+    <hyperlink ref="A102" r:id="rId439" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{60D6A262-1D1C-46C5-A53B-8FD8967DE55C}"/>
+    <hyperlink ref="A100" r:id="rId440" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{4343F38D-D3BB-4CCF-8446-EFA4A579A6D5}"/>
+    <hyperlink ref="A247" r:id="rId441" display="https://leetcode.cn/problems/minimum-white-tiles-after-covering-with-carpets/" xr:uid="{D20C3F82-1D87-4A53-AF26-84AC68AF5D8C}"/>
+    <hyperlink ref="E9" r:id="rId442" xr:uid="{F3BFB4EE-BECD-4F29-8825-7C1F34B5BC0A}"/>
+    <hyperlink ref="E10" r:id="rId443" xr:uid="{9F90F279-3F85-4BE2-8007-32F2CD2DE738}"/>
+    <hyperlink ref="E99" r:id="rId444" xr:uid="{B3D98882-5398-4509-B222-A0E9F356016E}"/>
+    <hyperlink ref="A9" r:id="rId445" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iv/" xr:uid="{FADC0B19-2B73-46B8-A20F-FA465F9E5456}"/>
+    <hyperlink ref="A10" r:id="rId446" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-cooldown/" xr:uid="{D0775EC9-5A55-4411-8065-0F0EBB23309D}"/>
+    <hyperlink ref="A99" r:id="rId447" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/" xr:uid="{BBB417D8-4C15-407F-999D-EC8CB3CB5800}"/>
+    <hyperlink ref="A173" r:id="rId448" display="https://leetcode.cn/problems/count-pairs-of-similar-strings/" xr:uid="{41A17AE6-B69A-4186-AF52-6BD9896663A8}"/>
+    <hyperlink ref="A98" r:id="rId449" display="https://leetcode.cn/problems/design-skiplist/" xr:uid="{2A72B84E-DDE9-4DAE-BB41-030F70D30900}"/>
+    <hyperlink ref="E98" r:id="rId450" xr:uid="{7C6878E4-B748-4CA6-9993-57CE23114C44}"/>
+    <hyperlink ref="E171" r:id="rId451" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{768EFE1F-6F7F-4560-BE69-910CE4C840E6}"/>
+    <hyperlink ref="E172" r:id="rId452" xr:uid="{B88F5E69-A725-45BC-A276-53516697D7DD}"/>
+    <hyperlink ref="E54" r:id="rId453" xr:uid="{FDB5C438-9651-460A-AA4D-AA8B0FE51236}"/>
+    <hyperlink ref="A171" r:id="rId454" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{42B986BE-8B52-4D96-9512-30E029195851}"/>
+    <hyperlink ref="A172" r:id="rId455" display="https://leetcode.cn/problems/longest-continuous-increasing-subsequence/" xr:uid="{57DEA55C-80A1-44BE-B714-ABB16A0E4F16}"/>
+    <hyperlink ref="A54" r:id="rId456" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{B34D464B-3593-4A39-97BC-0EE4E6ACA28A}"/>
+    <hyperlink ref="A97" r:id="rId457" display="https://leetcode.cn/problems/design-an-ordered-stream/" xr:uid="{E759308B-F20A-472F-B4B1-66EAFEAA8C98}"/>
+    <hyperlink ref="E53" r:id="rId458" xr:uid="{262CF7BE-094F-471C-A17F-9C657D32DA10}"/>
+    <hyperlink ref="E170" r:id="rId459" xr:uid="{D4D73E4F-D9EB-468B-8DC3-DB0F7CD9C814}"/>
+    <hyperlink ref="E96" r:id="rId460" xr:uid="{A36DE704-AA91-4EEE-9BCE-2946D5B3553F}"/>
+    <hyperlink ref="A53" r:id="rId461" display="https://leetcode.cn/problems/uncrossed-lines/" xr:uid="{688A92DB-9275-41B1-8150-3590FF4B4661}"/>
+    <hyperlink ref="A170" r:id="rId462" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{3DFEADD4-92A1-4349-8AAB-9FCDCDCB4BFA}"/>
+    <hyperlink ref="A96" r:id="rId463" display="https://leetcode.cn/problems/is-subsequence/" xr:uid="{331EBBB1-645B-4C03-97DC-07712F6517EA}"/>
+    <hyperlink ref="A246" r:id="rId464" display="https://leetcode.cn/problems/design-memory-allocator/" xr:uid="{425892CA-7454-42D2-8E9D-EBACDE0A9FB9}"/>
+    <hyperlink ref="E95" r:id="rId465" xr:uid="{B7DB546A-BB2E-4CBE-BE1D-90734243F066}"/>
+    <hyperlink ref="E52" r:id="rId466" xr:uid="{2122D83F-9CAA-4287-8127-F5013D7DEA86}"/>
+    <hyperlink ref="E8" r:id="rId467" xr:uid="{FA290801-F856-40DF-9042-7EA0BA45F20A}"/>
+    <hyperlink ref="A95" r:id="rId468" display="https://leetcode.cn/problems/distinct-subsequences/" xr:uid="{F831AC00-214B-46FE-85F6-0A821639565C}"/>
+    <hyperlink ref="A52" r:id="rId469" display="https://leetcode.cn/problems/delete-operation-for-two-strings/" xr:uid="{3C1ABA42-39A4-48E5-96D2-980D6F692351}"/>
+    <hyperlink ref="A8" r:id="rId470" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{E77CDB8C-709B-4448-A672-2FEEA7FFB3C2}"/>
+    <hyperlink ref="A169" r:id="rId471" display="https://leetcode.cn/problems/design-browser-history/" xr:uid="{484B523B-B9C8-4D07-AF2E-FFD615036865}"/>
+    <hyperlink ref="E51" r:id="rId472" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{68B4C6AD-61ED-4FD3-95E3-ECBDB15DA45C}"/>
+    <hyperlink ref="E50" r:id="rId473" xr:uid="{6B671C33-84AD-4C39-954C-9376CAC79153}"/>
+    <hyperlink ref="A50" r:id="rId474" display="https://leetcode.cn/problems/longest-palindromic-subsequence/" xr:uid="{95DE1D99-1585-4BFA-80AD-0A1AE4DE16DF}"/>
+    <hyperlink ref="A51" r:id="rId475" display="https://leetcode.cn/problems/palindromic-substrings/" xr:uid="{3562169F-461C-4C34-B821-C37DA25DF7D3}"/>
+    <hyperlink ref="A245" r:id="rId476" display="https://leetcode.cn/problems/design-a-text-editor/" xr:uid="{B9C898F1-8F87-4779-8DF7-F041F4864256}"/>
+    <hyperlink ref="E245" r:id="rId477" xr:uid="{2B238F66-0992-4025-8C40-B53095306D5C}"/>
+    <hyperlink ref="E94" r:id="rId478" xr:uid="{FAC4AB77-7FBF-444E-8395-14AF68E53C91}"/>
+    <hyperlink ref="E49" r:id="rId479" xr:uid="{E16C5A48-EE81-48CD-B0F5-181353C18128}"/>
+    <hyperlink ref="E93" r:id="rId480" xr:uid="{84C19260-CC43-4F6E-B81B-79A0DB0BC26D}"/>
+    <hyperlink ref="A94" r:id="rId481" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{7B07F28C-D4A1-4AC4-8A82-8EF76D230156}"/>
+    <hyperlink ref="A49" r:id="rId482" display="https://leetcode.cn/problems/next-greater-element-i/" xr:uid="{27CEEBA8-6963-43A7-8769-FF7963D5448B}"/>
+    <hyperlink ref="A93" r:id="rId483" display="https://leetcode.cn/problems/next-greater-element-ii/" xr:uid="{A122FF04-E7A9-40DF-9948-96618DBF4C67}"/>
+    <hyperlink ref="A244" r:id="rId484" display="https://leetcode.cn/problems/design-a-food-rating-system/" xr:uid="{52B67C99-96DC-4348-8674-BEC2D00DC280}"/>
+    <hyperlink ref="E244" r:id="rId485" xr:uid="{A648CD5A-FBDE-48E6-AE1E-9715908E0AC5}"/>
+    <hyperlink ref="E6" r:id="rId486" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6C45CA14-3139-41EA-9494-1B8EFDE805CF}"/>
+    <hyperlink ref="E7" r:id="rId487" xr:uid="{0FC48B22-7D98-4977-B31D-7389F7D61067}"/>
+    <hyperlink ref="A7" r:id="rId488" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{8AF7193F-5725-4419-A158-FF372FE5982C}"/>
+    <hyperlink ref="A6" r:id="rId489" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{C8335AB2-5255-40CB-83A0-F554AF002F79}"/>
+    <hyperlink ref="A243" r:id="rId490" display="98. 所有可达路径" xr:uid="{16D56A24-9A79-482D-AAAA-C943CB02F4D3}"/>
+    <hyperlink ref="E243" r:id="rId491" location="%E6%8F%92%E6%9B%B2" xr:uid="{58DEA7F4-A428-4CD5-BCAE-C2FA678E0069}"/>
+    <hyperlink ref="E92" r:id="rId492" xr:uid="{CE75083E-FDED-4173-AEBF-24240B06A76A}"/>
+    <hyperlink ref="E91" r:id="rId493" xr:uid="{48AFDACB-1150-42C4-8F35-11436B994F70}"/>
+    <hyperlink ref="A92" r:id="rId494" display="99. 岛屿数量" xr:uid="{2AE262D3-A9FA-469A-AAE9-143D88BA2FA7}"/>
+    <hyperlink ref="A91" r:id="rId495" xr:uid="{78A45FDC-5F5C-48D4-BB7D-3E003DAA6C6D}"/>
+    <hyperlink ref="E89" r:id="rId496" location="%E6%80%9D%E8%B7%AF" xr:uid="{098EEA69-7F3E-4AB5-9FE2-6C004D9AC270}"/>
+    <hyperlink ref="E90" r:id="rId497" location="%E6%80%9D%E8%B7%AF" xr:uid="{E1175A95-B33F-490F-9A15-9C1CF7EEA311}"/>
+    <hyperlink ref="E47" r:id="rId498" xr:uid="{88D74155-E61B-4394-AFF5-41569453B560}"/>
+    <hyperlink ref="E48" r:id="rId499" xr:uid="{2B226A0C-43B6-4229-B22B-FB771DAC3E7E}"/>
+    <hyperlink ref="A89" r:id="rId500" display="101. 孤岛的总面积" xr:uid="{8E2FC539-C4C8-4464-B413-335E4931ACDF}"/>
+    <hyperlink ref="A90" r:id="rId501" display="102. 沉没孤岛" xr:uid="{34543BD5-F8EB-4D0E-B9E6-3814D57A9274}"/>
+    <hyperlink ref="A47" r:id="rId502" display="103. 水流问题" xr:uid="{67D7BD9F-E083-4F3B-AA58-56F357345DB9}"/>
+    <hyperlink ref="A48" r:id="rId503" display="104. 建造最大岛屿" xr:uid="{9BB8D65F-78F2-45D1-A5A5-15A66F7737DB}"/>
+    <hyperlink ref="E168" r:id="rId504" location="%E6%80%9D%E8%B7%AF" xr:uid="{07EEE79A-C3E2-493C-A408-6984D41184DD}"/>
+    <hyperlink ref="E88" r:id="rId505" xr:uid="{DA7485E3-BDC7-4ACA-A2F6-4393A9990679}"/>
+    <hyperlink ref="E167" r:id="rId506" xr:uid="{2F2321A2-B478-4399-82B3-344EEDBE2D24}"/>
+    <hyperlink ref="A168" r:id="rId507" xr:uid="{3B7CD5FD-8B4F-4698-BDA8-63D1F733738B}"/>
+    <hyperlink ref="A88" r:id="rId508" xr:uid="{581EF9B9-3D2C-403E-9E2D-E8CF5D5C562D}"/>
+    <hyperlink ref="A167" r:id="rId509" xr:uid="{66ED2192-5B55-42D3-8D2E-22ADD1946B1B}"/>
+    <hyperlink ref="A87" r:id="rId510" display="https://leetcode.cn/problems/count-the-number-of-beautiful-subarrays/" xr:uid="{7A419034-2EC5-43E6-8BD8-4AB8848ACF5D}"/>
+    <hyperlink ref="E87" r:id="rId511" xr:uid="{CC660FDB-4E08-4F7E-A8D0-7CEC29FAEE52}"/>
+    <hyperlink ref="E46" r:id="rId512" location="%E6%80%9D%E8%B7%AF" xr:uid="{CDC4413E-F609-4AEB-BC27-E97EB17C8153}"/>
+    <hyperlink ref="A46" r:id="rId513" xr:uid="{8EE4829C-60FB-4E89-940B-1E2790DC93A9}"/>
+    <hyperlink ref="E45" r:id="rId514" xr:uid="{8DFDD3FD-F471-42CD-87F5-803786CD5439}"/>
+    <hyperlink ref="E5" r:id="rId515" xr:uid="{3681C961-DAEE-4D31-B01E-633848A859C0}"/>
+    <hyperlink ref="A45" r:id="rId516" display="108. 冗余连接" xr:uid="{08FF9D4A-B028-4BC4-807E-E64F7AC7E2A8}"/>
+    <hyperlink ref="A5" r:id="rId517" display="109. 冗余连接II" xr:uid="{7185B69E-56C4-4330-9EA7-313233A3DED4}"/>
+    <hyperlink ref="A166" r:id="rId518" display="https://leetcode.cn/problems/maximum-total-beauty-of-the-gardens/" xr:uid="{E7C5B506-8790-4198-BB44-E5E99EDFE0D5}"/>
+    <hyperlink ref="E166" r:id="rId519" xr:uid="{952BA3DA-2B75-467D-9171-91BA2D550794}"/>
+    <hyperlink ref="A44" r:id="rId520" display="https://leetcode.cn/problems/most-beautiful-item-for-each-query/" xr:uid="{6BA2699D-5954-4301-8029-72CD44181800}"/>
+    <hyperlink ref="E44" r:id="rId521" xr:uid="{9F736D86-2D8A-4BCF-8639-3091FCF7242A}"/>
+    <hyperlink ref="A163" r:id="rId522" display="https://leetcode.cn/problems/find-the-k-beauty-of-a-number/" xr:uid="{64DBCBF6-8ECC-4132-BD50-1AD681A3DB9A}"/>
+    <hyperlink ref="A39" r:id="rId523" display="K53. 寻宝" xr:uid="{24349FDF-AE74-495F-9EFB-CFB9597EB709}"/>
+    <hyperlink ref="E39" r:id="rId524" xr:uid="{78CF9125-A046-4547-AC24-88F6233CED2A}"/>
+    <hyperlink ref="A3" r:id="rId525" display="K53. 寻宝" xr:uid="{A17AFF1F-4A6F-4FFF-98BC-251A095D7118}"/>
+    <hyperlink ref="E3" r:id="rId526" xr:uid="{E1457EEB-17BA-40CE-9AC0-7D14F38E8E3B}"/>
+    <hyperlink ref="E85" r:id="rId527" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" xr:uid="{9B9908E6-B215-4CD5-B08E-D6326287A79A}"/>
+    <hyperlink ref="A85" r:id="rId528" xr:uid="{161991EB-90D0-4CB8-8B81-ECE441D35CE9}"/>
+    <hyperlink ref="E164" r:id="rId529" xr:uid="{08552FD3-08A3-4C2B-8087-DFA90CDE79CB}"/>
+    <hyperlink ref="E40" r:id="rId530" xr:uid="{1E76C702-F3B7-45E5-A138-F8EDD5663DBA}"/>
+    <hyperlink ref="E86" r:id="rId531" location="%E6%80%9D%E8%B7%AF" xr:uid="{04A67395-F47F-4DC6-8B8C-1AED1EB64AB5}"/>
+    <hyperlink ref="E41" r:id="rId532" location="%E8%83%8C%E6%99%AF" xr:uid="{29CEA416-A056-49B5-97F6-BDF5E8155617}"/>
+    <hyperlink ref="E42" r:id="rId533" location="%E6%80%9D%E8%B7%AF" xr:uid="{A2718796-50BE-4047-93F0-ECD9B2D894BB}"/>
+    <hyperlink ref="E4" r:id="rId534" location="%E6%80%9D%E8%B7%AF" xr:uid="{78191124-EDD8-419F-832B-AC1E33665E2D}"/>
+    <hyperlink ref="E43" r:id="rId535" xr:uid="{252A3F76-2AD9-46F5-9B39-9462B9487AF9}"/>
+    <hyperlink ref="E165" r:id="rId536" location="%E6%80%9D%E8%B7%AF" xr:uid="{F64B5CD9-9AFE-4107-A27D-F900EFF94B1F}"/>
+    <hyperlink ref="A164" r:id="rId537" display="K47. 参加科学大会" xr:uid="{436D3D71-60C0-4794-B5B8-36E491E4F857}"/>
+    <hyperlink ref="A40" r:id="rId538" display="K47. 参加科学大会" xr:uid="{9A8BEFE1-B749-4AA6-BFFD-C68F54DEFDEE}"/>
+    <hyperlink ref="A86" r:id="rId539" display="K94. 城市间货物运输 I" xr:uid="{3265D523-DAAB-4C65-9A26-24A20AE58777}"/>
+    <hyperlink ref="A41" r:id="rId540" display="K94. 城市间货物运输 I" xr:uid="{BF2508BE-BAC1-4F28-A76B-D696EB9A28A1}"/>
+    <hyperlink ref="A42" r:id="rId541" xr:uid="{91FFF0F7-465E-4EE4-A725-C092939177F6}"/>
+    <hyperlink ref="A4" r:id="rId542" xr:uid="{B85F0365-9A7E-4326-9361-1B1C4595B1BE}"/>
+    <hyperlink ref="A43" r:id="rId543" xr:uid="{C0461820-4989-4E7D-B67A-8105D390F544}"/>
+    <hyperlink ref="A165" r:id="rId544" xr:uid="{F92CBEBB-AD6C-4E23-B030-AD02CBA1E16C}"/>
+    <hyperlink ref="A38" r:id="rId545" display="https://leetcode.cn/problems/count-of-substrings-containing-every-vowel-and-k-consonants-ii/" xr:uid="{A4CFE49C-A2A2-4C43-8B6D-89E8AC76B415}"/>
+    <hyperlink ref="E38" r:id="rId546" xr:uid="{9154C15D-2B5B-472B-B749-10977FCCE63B}"/>
+    <hyperlink ref="A242" r:id="rId547" display="https://leetcode.cn/problems/determine-the-minimum-sum-of-a-k-avoiding-array/" xr:uid="{840A92A7-960A-451A-ACE1-450F44768F18}"/>
+    <hyperlink ref="E242" r:id="rId548" xr:uid="{042A0711-255A-4CA6-A138-AF04BCF2CE45}"/>
+    <hyperlink ref="A290" r:id="rId549" display="https://leetcode.cn/problems/minimum-number-of-operations-to-make-elements-in-array-distinct/" xr:uid="{83894381-B921-4F4B-B83A-6531769D7A95}"/>
+    <hyperlink ref="A241" r:id="rId550" display="https://leetcode.cn/problems/minimum-operations-to-make-array-values-equal-to-k/" xr:uid="{59AE66E2-83FE-4916-BED0-94383A9E2944}"/>
+    <hyperlink ref="A84" r:id="rId551" display="https://leetcode.cn/problems/powx-n/" xr:uid="{89F61F47-27DE-4DBF-B364-39847EBE9EAF}"/>
+    <hyperlink ref="E84" r:id="rId552" xr:uid="{B9C063BC-C598-4C1C-87B4-4612F74B4595}"/>
+    <hyperlink ref="A240" r:id="rId553" display="https://leetcode.cn/problems/count-good-numbers/" xr:uid="{9D746BC5-314B-4E2D-ADBF-7F5B5F3F8218}"/>
+    <hyperlink ref="E240" r:id="rId554" xr:uid="{FF095E54-52BF-4F07-9336-84C3321BA321}"/>
+    <hyperlink ref="A83" r:id="rId555" display="https://leetcode.cn/problems/count-good-triplets/" xr:uid="{D946C7DE-B0FF-489D-B12A-F96D32452463}"/>
+    <hyperlink ref="E83" r:id="rId556" xr:uid="{AF485FBC-F658-43D3-AD38-896AC9E8659B}"/>
+    <hyperlink ref="A162" r:id="rId557" display="https://leetcode.cn/problems/count-number-of-bad-pairs/" xr:uid="{DD28B35B-27A6-411D-9D74-28E39BF84AC7}"/>
+    <hyperlink ref="E162" r:id="rId558" xr:uid="{B880784A-9CC9-4806-B82D-1C991416E7F8}"/>
+    <hyperlink ref="A239" r:id="rId559" display="https://leetcode.cn/problems/count-the-hidden-sequences/" xr:uid="{88117117-D832-4751-9573-7FEB2D1F7C11}"/>
+    <hyperlink ref="E239" r:id="rId560" xr:uid="{3F9CF6E7-2E1E-4547-84DE-377F39B21A6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId557"/>
+    <tablePart r:id="rId561"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220F95C2-2133-426A-8828-F5DD494E3308}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10373,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -10390,7 +10479,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>13</v>
@@ -10413,48 +10502,48 @@
     </row>
     <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>13</v>
@@ -10463,7 +10552,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -10472,7 +10561,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
@@ -10486,10 +10575,10 @@
         <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -10497,35 +10586,35 @@
         <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10533,15 +10622,23 @@
         <v>184</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>798</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB005DA-64B7-4F77-B116-A6A20630BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D35481-91C7-4094-84B0-525AE1E703C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="812">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2398,10 +2398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奇数持有、偶数不持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2555,10 +2551,6 @@
     <t>2353. 设计食物评分系统</t>
   </si>
   <si>
-    <t>2025.03.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2655,11 +2647,6 @@
   </si>
   <si>
     <t>前缀和、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以空间换时间，可以使用的数据结构是栈；哨兵；向左向右扩展；739.题的延申
-对比42.注意push(i)的时机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3040,12 +3027,64 @@
 while里还要if判断st</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2025.04.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以空间换时间，可以使用的数据结构是栈；哨兵；向左向右扩展；739.题的延申
+42.接雨水vs84.柱状图最大矩形：1、初始化；2、哨兵；3、单调栈顺序；4、求和/最大值；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1399. 统计最大组的数目</t>
+  </si>
+  <si>
+    <t>2025.04.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇持偶不持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2799. 统计完全子数组的数目</t>
+  </si>
+  <si>
+    <t>2025.04.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2845. 统计趣味子数组的数目</t>
+  </si>
+  <si>
+    <t>2025.04.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[0]=0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3117,6 +3156,15 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3937,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G320"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3980,7 +4028,7 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="38" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>292</v>
@@ -3989,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>14</v>
@@ -4003,56 +4051,56 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
@@ -4072,7 +4120,7 @@
         <v>92</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>14</v>
@@ -4081,94 +4129,98 @@
         <v>6</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>717</v>
+      <c r="D7" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="39">
+        <v>5</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="39" t="s">
+        <v>674</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>686</v>
+      <c r="D8" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="39">
+        <v>5</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="38" t="s">
         <v>644</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>650</v>
+      <c r="D9" s="41" t="s">
+        <v>805</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>649</v>
-      </c>
+      <c r="D10" s="41" t="s">
+        <v>805</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="39">
+        <v>2</v>
+      </c>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
@@ -4730,7 +4782,7 @@
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>101</v>
@@ -4739,7 +4791,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>46</v>
@@ -4747,136 +4799,136 @@
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>14</v>
@@ -4884,56 +4936,56 @@
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>14</v>
@@ -4941,7 +4993,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>558</v>
@@ -4950,7 +5002,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>14</v>
@@ -4958,67 +5010,67 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>680</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>122</v>
@@ -5027,13 +5079,13 @@
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5047,7 +5099,7 @@
         <v>79</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>14</v>
@@ -5056,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5621,7 +5673,7 @@
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>298</v>
@@ -5630,7 +5682,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>46</v>
@@ -5638,13 +5690,13 @@
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>46</v>
@@ -5652,136 +5704,136 @@
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>14</v>
@@ -5789,16 +5841,16 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>14</v>
@@ -5806,7 +5858,7 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>558</v>
@@ -5815,7 +5867,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -5832,7 +5884,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>14</v>
@@ -5846,16 +5898,16 @@
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>14</v>
@@ -5863,16 +5915,16 @@
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>14</v>
@@ -5880,36 +5932,36 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5923,7 +5975,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>14</v>
@@ -5934,7 +5986,7 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>122</v>
@@ -5952,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7096,13 +7148,13 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>46</v>
@@ -7110,30 +7162,30 @@
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G163" s="15" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>14</v>
@@ -7141,16 +7193,16 @@
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>14</v>
@@ -7158,16 +7210,16 @@
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>46</v>
@@ -7178,56 +7230,56 @@
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7235,13 +7287,13 @@
         <v>120</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>14</v>
@@ -7264,7 +7316,7 @@
         <v>41</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>14</v>
@@ -7278,7 +7330,7 @@
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>122</v>
@@ -7287,7 +7339,7 @@
         <v>41</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>14</v>
@@ -7301,10 +7353,10 @@
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8489,16 +8541,16 @@
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="10" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E239" s="9" t="s">
         <v>46</v>
@@ -8506,13 +8558,13 @@
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>46</v>
@@ -8520,7 +8572,7 @@
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>138</v>
@@ -8529,64 +8581,64 @@
         <v>6</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G241" s="14" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="10" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G242" s="14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G243" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>46</v>
@@ -8594,36 +8646,36 @@
     </row>
     <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="10" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E245" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C246" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9380,16 +9432,16 @@
     </row>
     <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="10" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9858,15 +9910,60 @@
         <v>26</v>
       </c>
     </row>
+    <row r="321" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G323" s="16" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A321:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A324:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A321:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A324:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A321:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A324:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10430,10 +10527,15 @@
     <hyperlink ref="E162" r:id="rId558" xr:uid="{B880784A-9CC9-4806-B82D-1C991416E7F8}"/>
     <hyperlink ref="A239" r:id="rId559" display="https://leetcode.cn/problems/count-the-hidden-sequences/" xr:uid="{88117117-D832-4751-9573-7FEB2D1F7C11}"/>
     <hyperlink ref="E239" r:id="rId560" xr:uid="{3F9CF6E7-2E1E-4547-84DE-377F39B21A6C}"/>
+    <hyperlink ref="A321" r:id="rId561" display="https://leetcode.cn/problems/count-largest-group/" xr:uid="{BB3E6607-B7BC-48A1-9289-EE7400D85E2B}"/>
+    <hyperlink ref="A322" r:id="rId562" display="https://leetcode.cn/problems/count-complete-subarrays-in-an-array/" xr:uid="{18E2801D-2CD0-47DB-9F00-853A5269C581}"/>
+    <hyperlink ref="A323" r:id="rId563" display="https://leetcode.cn/problems/count-of-interesting-subarrays/" xr:uid="{79F5B131-F7B1-4848-AAC0-AB73C65B9096}"/>
+    <hyperlink ref="G323" r:id="rId564" xr:uid="{CF12ED7E-7750-4F79-A99E-3CEB8670BD55}"/>
+    <hyperlink ref="E323" r:id="rId565" xr:uid="{8AFDD546-E7E6-41BD-BC9F-1E9724A4CB1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId561"/>
+    <tablePart r:id="rId566"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10462,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>2</v>
@@ -10502,30 +10604,30 @@
     </row>
     <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>13</v>
@@ -10543,7 +10645,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>13</v>
@@ -10561,7 +10663,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
@@ -10575,10 +10677,10 @@
         <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -10586,17 +10688,17 @@
         <v>93</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -10606,15 +10708,15 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="36" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10622,23 +10724,23 @@
         <v>184</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C25F05-B44B-4434-ADE5-5646161FE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21094" windowHeight="9145"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="796">
   <si>
     <t>题目</t>
   </si>
@@ -135,7 +139,7 @@
     <t>栈</t>
   </si>
   <si>
-    <t>2025.01.17</t>
+    <t>2025.05.30</t>
   </si>
   <si>
     <t>1049. 最后一块石头的重量 II</t>
@@ -230,7 +234,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>res++;</t>
     </r>
@@ -550,9 +554,6 @@
     <t>双指针、去重</t>
   </si>
   <si>
-    <t>2025.01.13</t>
-  </si>
-  <si>
     <t xml:space="preserve">引用还是副本？lists.add(list)时，慎用list.clear()。
 Arrays.asList
 去重逻辑
@@ -692,6 +693,9 @@
   </si>
   <si>
     <t>18. 四数之和</t>
+  </si>
+  <si>
+    <t>2025.01.13</t>
   </si>
   <si>
     <t>第二级剪枝
@@ -1403,6 +1407,9 @@
     <t>3097. 或值至少为 K 的最短子数组 II</t>
   </si>
   <si>
+    <t>2025.01.17</t>
+  </si>
+  <si>
     <t>31. 下一个排列</t>
   </si>
   <si>
@@ -2440,7 +2447,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 2 </t>
     </r>
@@ -2458,7 +2465,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 1000 </t>
     </r>
@@ -2531,18 +2538,23 @@
   <si>
     <t>蚂蚁</t>
   </si>
+  <si>
+    <t>2359. 找到离给定两个节点最近的节点</t>
+  </si>
+  <si>
+    <t>图、dfs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.05.30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2570,7 +2582,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2588,152 +2600,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2742,13 +2617,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2763,26 +2653,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor theme="9" tint="0.799951170384838"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor theme="9" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.799951170384838"/>
+        <bgColor theme="9" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.599993896298105"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
@@ -2797,194 +2687,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3068,249 +2772,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3326,24 +2791,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,19 +2817,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3383,29 +2848,26 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3415,102 +2877,65 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="24">
     <dxf>
-      <alignment horizontal="left"/>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
-      <alignment horizontal="fill"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3533,10 +2958,133 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="fill"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3544,39 +3092,39 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G1048522" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:G1048522">
-    <sortCondition ref="A1"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0">
+  <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="题目" dataDxfId="0"/>
-    <tableColumn id="2" name="标签" dataDxfId="1"/>
-    <tableColumn id="3" name="价值" dataDxfId="2"/>
-    <tableColumn id="4" name="最近提交" dataDxfId="3"/>
-    <tableColumn id="5" name="参考题解" dataDxfId="4"/>
-    <tableColumn id="7" name="做题次数" dataDxfId="5"/>
-    <tableColumn id="6" name="备注" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F1048573" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F1048573" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:F1048573" totalsRowShown="0">
+  <autoFilter ref="A1:F1048573" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="题目"/>
-    <tableColumn id="2" name="标签" dataDxfId="9"/>
-    <tableColumn id="3" name="大厂" dataDxfId="10"/>
-    <tableColumn id="4" name="价值"/>
-    <tableColumn id="5" name="参考题解"/>
-    <tableColumn id="6" name="备注"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="标签" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="参考题解"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3834,31 +3382,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G326"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="G324" sqref="G324"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6416666666667" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.6416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6416666666667" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.6416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.14166666666667" style="1"/>
-    <col min="7" max="7" width="20.6416666666667" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.14166666666667" style="23"/>
+    <col min="1" max="1" width="20.640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.640625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" s="22" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="17.1" spans="1:7">
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
@@ -3901,7 +3449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="17.1" spans="1:5">
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30" t="s">
         <v>12</v>
       </c>
@@ -3918,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="17.1" spans="1:7">
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
@@ -3938,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.1" spans="1:6">
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +3503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="17.1" spans="1:6">
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -3975,7 +3523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="17.1" spans="1:7">
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
         <v>26</v>
       </c>
@@ -3995,7 +3543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="17.1" spans="1:6">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
         <v>31</v>
       </c>
@@ -4015,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" ht="17.1" spans="1:5">
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
         <v>33</v>
       </c>
@@ -4031,8 +3579,11 @@
       <c r="E9" s="31" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="17.1" spans="1:5">
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
         <v>36</v>
       </c>
@@ -4049,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="17.1" spans="1:7">
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="30" t="s">
         <v>39</v>
       </c>
@@ -4072,7 +3623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="17.1" spans="1:6">
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
         <v>43</v>
       </c>
@@ -4089,7 +3640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" ht="17.1" spans="1:4">
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
         <v>45</v>
       </c>
@@ -4100,7 +3651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" ht="17.1" spans="1:7">
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>47</v>
       </c>
@@ -4117,7 +3668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" ht="17.1" spans="1:7">
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
         <v>50</v>
       </c>
@@ -4137,7 +3688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" ht="17.1" spans="1:7">
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
         <v>53</v>
       </c>
@@ -4157,7 +3708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" ht="17.1" spans="1:7">
+    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
         <v>56</v>
       </c>
@@ -4167,7 +3718,7 @@
       <c r="C17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E17" s="31" t="s">
@@ -4180,7 +3731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="17.1" spans="1:5">
+    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="28" t="s">
         <v>61</v>
       </c>
@@ -4194,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="17.1" spans="1:7">
+    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="28" t="s">
         <v>63</v>
       </c>
@@ -4207,11 +3758,11 @@
       <c r="E19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="17.1" spans="1:5">
+    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
@@ -4228,7 +3779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="17.1" spans="1:5">
+    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="28" t="s">
         <v>67</v>
       </c>
@@ -4245,7 +3796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" ht="17.1" spans="1:7">
+    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="28" t="s">
         <v>69</v>
       </c>
@@ -4262,7 +3813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="17.1" spans="1:7">
+    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="28" t="s">
         <v>72</v>
       </c>
@@ -4285,7 +3836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="17.1" spans="1:5">
+    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="28" t="s">
         <v>75</v>
       </c>
@@ -4302,7 +3853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" ht="17.1" spans="1:7">
+    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="30" t="s">
         <v>78</v>
       </c>
@@ -4322,7 +3873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="17.1" spans="1:5">
+    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="28" t="s">
         <v>84</v>
       </c>
@@ -4339,7 +3890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="17.1" spans="1:5">
+    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="28" t="s">
         <v>85</v>
       </c>
@@ -4356,7 +3907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" ht="17.1" spans="1:6">
+    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="28" t="s">
         <v>86</v>
       </c>
@@ -4373,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" ht="17.1" spans="1:7">
+    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="30" t="s">
         <v>89</v>
       </c>
@@ -4393,7 +3944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" ht="17.1" spans="1:7">
+    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="28" t="s">
         <v>94</v>
       </c>
@@ -4413,7 +3964,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" ht="17.1" spans="1:7">
+    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="28" t="s">
         <v>98</v>
       </c>
@@ -4436,7 +3987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" ht="17.1" spans="1:7">
+    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="28" t="s">
         <v>101</v>
       </c>
@@ -4459,7 +4010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" ht="17.1" spans="1:7">
+    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="28" t="s">
         <v>103</v>
       </c>
@@ -4482,7 +4033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" ht="17.1" spans="1:7">
+    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="28" t="s">
         <v>105</v>
       </c>
@@ -4502,7 +4053,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" ht="17.1" spans="1:6">
+    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
         <v>109</v>
       </c>
@@ -4522,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" ht="17.1" spans="1:4">
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="28" t="s">
         <v>112</v>
       </c>
@@ -4533,7 +4084,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" ht="17.1" spans="1:7">
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
         <v>114</v>
       </c>
@@ -4556,7 +4107,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" ht="17.1" spans="1:5">
+    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="28" t="s">
         <v>118</v>
       </c>
@@ -4573,7 +4124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" ht="17.1" spans="1:7">
+    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="28" t="s">
         <v>120</v>
       </c>
@@ -4593,7 +4144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" ht="17.1" spans="1:6">
+    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="28" t="s">
         <v>122</v>
       </c>
@@ -4610,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="17.1" spans="1:7">
+    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28" t="s">
         <v>126</v>
       </c>
@@ -4624,7 +4175,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="17.1" spans="1:4">
+    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28" t="s">
         <v>129</v>
       </c>
@@ -4638,7 +4189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" ht="17.1" spans="1:6">
+    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28" t="s">
         <v>131</v>
       </c>
@@ -4658,7 +4209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" ht="17.1" spans="1:6">
+    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="28" t="s">
         <v>134</v>
       </c>
@@ -4678,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" ht="17.1" spans="1:4">
+    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="28" t="s">
         <v>137</v>
       </c>
@@ -4689,7 +4240,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" ht="17.1" spans="1:6">
+    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="28" t="s">
         <v>139</v>
       </c>
@@ -4706,7 +4257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" ht="17.1" spans="1:7">
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="28" t="s">
         <v>142</v>
       </c>
@@ -4719,7 +4270,7 @@
       <c r="D47" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="34" t="s">
         <v>145</v>
       </c>
       <c r="F47" s="1">
@@ -4729,7 +4280,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" ht="17.1" spans="1:7">
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="28" t="s">
         <v>147</v>
       </c>
@@ -4746,7 +4297,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" ht="17.1" spans="1:7">
+    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="28" t="s">
         <v>150</v>
       </c>
@@ -4763,7 +4314,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" ht="17.1" spans="1:7">
+    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="28" t="s">
         <v>152</v>
       </c>
@@ -4780,7 +4331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" ht="17.1" spans="1:6">
+    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="28" t="s">
         <v>153</v>
       </c>
@@ -4797,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" ht="17.1" spans="1:7">
+    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="28" t="s">
         <v>156</v>
       </c>
@@ -4814,7 +4365,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" ht="17.1" spans="1:7">
+    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="28" t="s">
         <v>159</v>
       </c>
@@ -4828,7 +4379,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" ht="17.1" spans="1:7">
+    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="28" t="s">
         <v>161</v>
       </c>
@@ -4848,7 +4399,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" ht="17.1" spans="1:7">
+    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="28" t="s">
         <v>164</v>
       </c>
@@ -4859,21 +4410,21 @@
         <v>9</v>
       </c>
       <c r="D55" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="G55" s="32" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="28" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="56" ht="17.1" spans="1:7">
-      <c r="A56" s="28" t="s">
-        <v>168</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
@@ -4882,95 +4433,95 @@
         <v>18</v>
       </c>
       <c r="D56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="25" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="57" ht="17.1" spans="1:7">
-      <c r="A57" s="28" t="s">
+      <c r="B57" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D57" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="25" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="28" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" ht="17.1" spans="1:7">
-      <c r="A58" s="28" t="s">
+      <c r="B58" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
       <c r="G58" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="28" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" ht="17.1" spans="1:7">
-      <c r="A59" s="28" t="s">
+      <c r="B59" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
       <c r="G59" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="28" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" ht="17.1" spans="1:5">
-      <c r="A60" s="28" t="s">
+      <c r="B60" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="31" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="28" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="61" ht="17.1" spans="1:6">
-      <c r="A61" s="28" t="s">
-        <v>187</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>34</v>
@@ -4979,35 +4530,35 @@
         <v>9</v>
       </c>
       <c r="D61" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="31" t="s">
         <v>188</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>189</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" ht="17.1" spans="1:5">
+    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E62" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="63" ht="17.1" spans="1:5">
+    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
@@ -5020,26 +4571,26 @@
       </c>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" ht="17.1" spans="1:5">
+    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D64" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="31" t="s">
+    </row>
+    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="28" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="65" ht="17.1" spans="1:7">
-      <c r="A65" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>80</v>
@@ -5047,30 +4598,30 @@
       <c r="D65" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="35" t="s">
-        <v>199</v>
+      <c r="E65" s="34" t="s">
+        <v>198</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
       </c>
       <c r="G65" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="28" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="66" ht="17.1" spans="1:4">
-      <c r="A66" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="28" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="67" ht="17.1" spans="1:4">
-      <c r="A67" s="28" t="s">
-        <v>203</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>95</v>
@@ -5079,15 +4630,15 @@
         <v>9</v>
       </c>
       <c r="D67" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="28" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="68" ht="17.1" spans="1:6">
-      <c r="A68" s="28" t="s">
+      <c r="B68" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>9</v>
@@ -5099,9 +4650,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" ht="17.1" spans="1:6">
+    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>115</v>
@@ -5110,7 +4661,7 @@
         <v>28</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>15</v>
@@ -5119,26 +4670,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" ht="17.1" spans="1:6">
+    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="17.1" spans="1:7">
+    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
@@ -5147,7 +4698,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>15</v>
@@ -5156,30 +4707,30 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" ht="17.1" spans="1:7">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="37">
+      <c r="E72" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="36">
         <v>2</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="G72" s="40" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" ht="17.1" spans="1:6">
+    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="30" t="s">
         <v>216</v>
       </c>
@@ -5193,7 +4744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" ht="17.1" spans="1:7">
+    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="28" t="s">
         <v>218</v>
       </c>
@@ -5213,7 +4764,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" ht="17.1" spans="1:5">
+    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="28" t="s">
         <v>221</v>
       </c>
@@ -5224,10 +4775,10 @@
         <v>222</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="28" t="s">
         <v>223</v>
       </c>
@@ -5250,7 +4801,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" ht="17.1" spans="1:7">
+    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="28" t="s">
         <v>227</v>
       </c>
@@ -5273,7 +4824,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" ht="17.1" spans="1:6">
+    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="28" t="s">
         <v>229</v>
       </c>
@@ -5287,7 +4838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" ht="17.1" spans="1:6">
+    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="28" t="s">
         <v>230</v>
       </c>
@@ -5297,7 +4848,7 @@
       <c r="C79" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E79" s="31" t="s">
@@ -5307,7 +4858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="17.1" spans="1:7">
+    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="28" t="s">
         <v>231</v>
       </c>
@@ -5324,7 +4875,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" ht="17.1" spans="1:5">
+    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="28" t="s">
         <v>232</v>
       </c>
@@ -5341,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" ht="17.1" spans="1:5">
+    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="28" t="s">
         <v>235</v>
       </c>
@@ -5358,7 +4909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" ht="17.1" spans="1:6">
+    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="28" t="s">
         <v>238</v>
       </c>
@@ -5378,7 +4929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" ht="17.1" spans="1:6">
+    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="28" t="s">
         <v>239</v>
       </c>
@@ -5392,12 +4943,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" ht="17.1" spans="1:7">
+    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="28" t="s">
         <v>241</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>28</v>
@@ -5406,13 +4957,13 @@
         <v>242</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="86" ht="17.1" spans="1:6">
+    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="28" t="s">
         <v>244</v>
       </c>
@@ -5426,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" ht="17.1" spans="1:7">
+    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="28" t="s">
         <v>245</v>
       </c>
@@ -5440,13 +4991,13 @@
         <v>246</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G87" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="88" ht="17.1" spans="1:4">
+    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="28" t="s">
         <v>248</v>
       </c>
@@ -5460,8 +5011,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="89" ht="17.1" spans="1:7">
-      <c r="A89" s="42" t="s">
+    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="41" t="s">
         <v>251</v>
       </c>
       <c r="C89" s="29" t="s">
@@ -5477,7 +5028,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" ht="17.1" spans="1:6">
+    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="28" t="s">
         <v>253</v>
       </c>
@@ -5497,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" ht="17.1" spans="1:5">
+    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="28" t="s">
         <v>254</v>
       </c>
@@ -5511,10 +5062,10 @@
         <v>256</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" ht="17.1" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="28" t="s">
         <v>257</v>
       </c>
@@ -5531,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" ht="17.1" spans="1:5">
+    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="28" t="s">
         <v>260</v>
       </c>
@@ -5542,13 +5093,13 @@
         <v>9</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E93" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" ht="17.1" spans="1:7">
+    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="28" t="s">
         <v>261</v>
       </c>
@@ -5562,13 +5113,13 @@
         <v>263</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G94" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="95" ht="17.1" spans="1:7">
+    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="28" t="s">
         <v>265</v>
       </c>
@@ -5582,13 +5133,13 @@
         <v>267</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G95" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="96" ht="17.1" spans="1:4">
+    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="28" t="s">
         <v>269</v>
       </c>
@@ -5602,7 +5153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" ht="17.1" spans="1:6">
+    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="28" t="s">
         <v>271</v>
       </c>
@@ -5622,7 +5173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" ht="17.1" spans="1:4">
+    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="28" t="s">
         <v>274</v>
       </c>
@@ -5636,7 +5187,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" ht="17.1" spans="1:7">
+    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="28" t="s">
         <v>275</v>
       </c>
@@ -5656,7 +5207,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="100" ht="17.1" spans="1:7">
+    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="28" t="s">
         <v>278</v>
       </c>
@@ -5670,13 +5221,13 @@
         <v>280</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G100" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="101" ht="17.1" spans="1:4">
+    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="28" t="s">
         <v>282</v>
       </c>
@@ -5687,7 +5238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" ht="17.1" spans="1:7">
+    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="28" t="s">
         <v>283</v>
       </c>
@@ -5697,11 +5248,11 @@
       <c r="D102" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="G102" s="43" t="s">
+      <c r="G102" s="42" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="103" ht="17.1" spans="1:6">
+    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="28" t="s">
         <v>286</v>
       </c>
@@ -5711,7 +5262,7 @@
       <c r="C103" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="24" t="s">
         <v>288</v>
       </c>
       <c r="E103" s="31" t="s">
@@ -5721,7 +5272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" ht="17.1" spans="1:7">
+    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="28" t="s">
         <v>289</v>
       </c>
@@ -5744,7 +5295,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" ht="17.1" spans="1:5">
+    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="28" t="s">
         <v>291</v>
       </c>
@@ -5755,10 +5306,10 @@
         <v>292</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" ht="17.1" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="28" t="s">
         <v>293</v>
       </c>
@@ -5772,7 +5323,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" ht="17.1" spans="1:7">
+    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="28" t="s">
         <v>295</v>
       </c>
@@ -5786,7 +5337,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="108" ht="17.1" spans="1:4">
+    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="28" t="s">
         <v>298</v>
       </c>
@@ -5797,10 +5348,10 @@
         <v>124</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" ht="17.1" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="28" t="s">
         <v>300</v>
       </c>
@@ -5817,7 +5368,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" ht="17.1" spans="1:7">
+    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="28" t="s">
         <v>303</v>
       </c>
@@ -5831,7 +5382,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" ht="17.1" spans="1:7">
+    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="28" t="s">
         <v>305</v>
       </c>
@@ -5845,13 +5396,13 @@
         <v>306</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="112" ht="17.1" spans="1:6">
+    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="28" t="s">
         <v>308</v>
       </c>
@@ -5868,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" ht="17.1" spans="1:7">
+    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="28" t="s">
         <v>311</v>
       </c>
@@ -5885,7 +5436,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="114" ht="17.1" spans="1:6">
+    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="28" t="s">
         <v>313</v>
       </c>
@@ -5905,7 +5456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" ht="17.1" spans="1:7">
+    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="28" t="s">
         <v>314</v>
       </c>
@@ -5922,7 +5473,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="116" ht="17.1" spans="1:5">
+    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="28" t="s">
         <v>317</v>
       </c>
@@ -5936,7 +5487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" ht="17.1" spans="1:5">
+    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="28" t="s">
         <v>319</v>
       </c>
@@ -5950,10 +5501,10 @@
         <v>320</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="28" t="s">
         <v>321</v>
       </c>
@@ -5976,7 +5527,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" ht="17.1" spans="1:5">
+    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="28" t="s">
         <v>324</v>
       </c>
@@ -5987,15 +5538,15 @@
         <v>325</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" ht="17.1" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="28" t="s">
         <v>326</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="29" t="s">
         <v>80</v>
@@ -6007,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" ht="17.1" spans="1:7">
+    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="28" t="s">
         <v>327</v>
       </c>
@@ -6018,7 +5569,7 @@
         <v>48</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="31" t="s">
         <v>15</v>
@@ -6030,7 +5581,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="122" ht="17.1" spans="1:7">
+    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="28" t="s">
         <v>330</v>
       </c>
@@ -6050,7 +5601,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="123" ht="17.1" spans="1:7">
+    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="28" t="s">
         <v>334</v>
       </c>
@@ -6070,12 +5621,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="124" ht="17.1" spans="1:7">
+    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="28" t="s">
         <v>336</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C124" s="29" t="s">
         <v>18</v>
@@ -6093,7 +5644,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="125" ht="17.1" spans="1:7">
+    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="28" t="s">
         <v>338</v>
       </c>
@@ -6107,13 +5658,13 @@
         <v>322</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G125" s="25" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="126" ht="17.1" spans="1:5">
+    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="28" t="s">
         <v>341</v>
       </c>
@@ -6130,7 +5681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" ht="17.1" spans="1:7">
+    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="28" t="s">
         <v>342</v>
       </c>
@@ -6150,7 +5701,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="128" ht="17.1" spans="1:7">
+    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="28" t="s">
         <v>346</v>
       </c>
@@ -6170,7 +5721,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="129" ht="17.1" spans="1:4">
+    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="28" t="s">
         <v>348</v>
       </c>
@@ -6184,7 +5735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" ht="17.1" spans="1:7">
+    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="28" t="s">
         <v>349</v>
       </c>
@@ -6198,7 +5749,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="131" ht="17.1" spans="1:5">
+    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="28" t="s">
         <v>352</v>
       </c>
@@ -6215,7 +5766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" ht="17.1" spans="1:7">
+    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="28" t="s">
         <v>353</v>
       </c>
@@ -6229,13 +5780,13 @@
         <v>355</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G132" s="25" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="133" ht="17.1" spans="1:4">
+    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="28" t="s">
         <v>357</v>
       </c>
@@ -6249,7 +5800,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="134" ht="17.1" spans="1:7">
+    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="28" t="s">
         <v>359</v>
       </c>
@@ -6263,13 +5814,13 @@
         <v>360</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G134" s="25" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="135" ht="17.1" spans="1:5">
+    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="28" t="s">
         <v>362</v>
       </c>
@@ -6283,10 +5834,10 @@
         <v>363</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="136" ht="17.1" spans="1:6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="28" t="s">
         <v>364</v>
       </c>
@@ -6303,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" ht="17.1" spans="1:5">
+    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="28" t="s">
         <v>366</v>
       </c>
@@ -6317,10 +5868,10 @@
         <v>368</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" ht="17.1" spans="1:5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="28" t="s">
         <v>369</v>
       </c>
@@ -6337,7 +5888,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" ht="17.1" spans="1:5">
+    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="28" t="s">
         <v>372</v>
       </c>
@@ -6351,10 +5902,10 @@
         <v>374</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="140" ht="17.1" spans="1:5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="28" t="s">
         <v>375</v>
       </c>
@@ -6368,10 +5919,10 @@
         <v>377</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="28" t="s">
         <v>378</v>
       </c>
@@ -6385,13 +5936,13 @@
         <v>379</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G141" s="25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="142" ht="17.1" spans="1:6">
+    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="28" t="s">
         <v>381</v>
       </c>
@@ -6411,7 +5962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" ht="17.1" spans="1:4">
+    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="28" t="s">
         <v>382</v>
       </c>
@@ -6425,7 +5976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="144" ht="17.1" spans="1:5">
+    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="28" t="s">
         <v>385</v>
       </c>
@@ -6442,7 +5993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" ht="17.1" spans="1:7">
+    <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="28" t="s">
         <v>388</v>
       </c>
@@ -6456,7 +6007,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="146" ht="17.1" spans="1:7">
+    <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="28" t="s">
         <v>390</v>
       </c>
@@ -6470,13 +6021,13 @@
         <v>284</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G146" s="25" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="147" ht="17.1" spans="1:4">
+    <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="28" t="s">
         <v>392</v>
       </c>
@@ -6487,7 +6038,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="148" ht="17.1" spans="1:5">
+    <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="28" t="s">
         <v>394</v>
       </c>
@@ -6501,10 +6052,10 @@
         <v>396</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" ht="17.1" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="28" t="s">
         <v>397</v>
       </c>
@@ -6518,13 +6069,13 @@
         <v>399</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G149" s="25" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="150" ht="17.1" spans="1:6">
+    <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="28" t="s">
         <v>401</v>
       </c>
@@ -6534,7 +6085,7 @@
       <c r="C150" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="24" t="s">
         <v>288</v>
       </c>
       <c r="E150" s="31" t="s">
@@ -6544,12 +6095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="17.1" spans="1:7">
+    <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="28" t="s">
         <v>402</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C151" s="29" t="s">
         <v>9</v>
@@ -6558,13 +6109,13 @@
         <v>403</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G151" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G151" s="42" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="152" ht="17.1" spans="1:4">
+    <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="28" t="s">
         <v>405</v>
       </c>
@@ -6575,7 +6126,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="153" ht="17.1" spans="1:7">
+    <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="28" t="s">
         <v>407</v>
       </c>
@@ -6592,7 +6143,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="154" ht="17.1" spans="1:4">
+    <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="28" t="s">
         <v>411</v>
       </c>
@@ -6603,7 +6154,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="155" ht="17.1" spans="1:5">
+    <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="28" t="s">
         <v>413</v>
       </c>
@@ -6617,10 +6168,10 @@
         <v>415</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" ht="17.1" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="28" t="s">
         <v>416</v>
       </c>
@@ -6643,7 +6194,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="157" ht="17.1" spans="1:7">
+    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="28" t="s">
         <v>419</v>
       </c>
@@ -6660,7 +6211,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="158" ht="17.1" spans="1:7">
+    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="28" t="s">
         <v>422</v>
       </c>
@@ -6683,7 +6234,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" ht="17.1" spans="1:7">
+    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="28" t="s">
         <v>425</v>
       </c>
@@ -6706,7 +6257,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" ht="17.1" spans="1:7">
+    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="28" t="s">
         <v>427</v>
       </c>
@@ -6717,7 +6268,7 @@
         <v>18</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E160" s="31" t="s">
         <v>15</v>
@@ -6729,7 +6280,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="161" ht="17.1" spans="1:4">
+    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="28" t="s">
         <v>429</v>
       </c>
@@ -6743,7 +6294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" ht="17.1" spans="1:4">
+    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="28" t="s">
         <v>431</v>
       </c>
@@ -6754,10 +6305,10 @@
         <v>124</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" ht="17.1" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="28" t="s">
         <v>432</v>
       </c>
@@ -6771,7 +6322,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="164" ht="17.1" spans="1:7">
+    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="28" t="s">
         <v>434</v>
       </c>
@@ -6785,28 +6336,28 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" ht="17.1" spans="1:7">
-      <c r="A165" s="36" t="s">
+    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="38" t="s">
+      <c r="C165" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E165" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="37">
+      <c r="E165" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="36">
         <v>2</v>
       </c>
-      <c r="G165" s="41"/>
-    </row>
-    <row r="166" ht="17.1" spans="1:5">
+      <c r="G165" s="40"/>
+    </row>
+    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="28" t="s">
         <v>438</v>
       </c>
@@ -6820,10 +6371,10 @@
         <v>439</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" ht="17.1" spans="1:5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="28" t="s">
         <v>440</v>
       </c>
@@ -6834,18 +6385,18 @@
         <v>9</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>35</v>
+        <v>441</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" ht="17.1" spans="1:6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="28" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C168" s="29" t="s">
         <v>18</v>
@@ -6854,37 +6405,37 @@
         <v>125</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F168" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="169" ht="17.1" spans="1:4">
+    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C169" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="170" ht="17.1" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C170" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="171" ht="17.1" spans="1:6">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>27</v>
@@ -6893,15 +6444,15 @@
         <v>9</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F171" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="172" ht="17.1" spans="1:6">
+    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>17</v>
@@ -6910,18 +6461,18 @@
         <v>18</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F172" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="173" ht="17.1" spans="1:7">
+    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>135</v>
@@ -6939,12 +6490,12 @@
         <v>4</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="174" ht="17.1" spans="1:4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="28" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>87</v>
@@ -6956,9 +6507,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="175" ht="17.1" spans="1:7">
+    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>408</v>
@@ -6970,12 +6521,12 @@
         <v>73</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="176" ht="17.1" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>383</v>
@@ -6987,12 +6538,12 @@
         <v>250</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>383</v>
@@ -7004,38 +6555,38 @@
         <v>250</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G177" s="43" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="178" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+      <c r="G177" s="42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="28" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="E178" s="44" t="s">
         <v>461</v>
+      </c>
+      <c r="E178" s="43" t="s">
+        <v>462</v>
       </c>
       <c r="F178" s="1">
         <v>3</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="179" ht="17.1" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>383</v>
@@ -7044,15 +6595,15 @@
         <v>28</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="180" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="28" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>115</v>
@@ -7061,21 +6612,21 @@
         <v>18</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E180" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="181" ht="17.1" spans="1:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="28" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C181" s="29" t="s">
         <v>48</v>
@@ -7090,12 +6641,12 @@
         <v>2</v>
       </c>
       <c r="G181" s="32" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="182" ht="17.1" spans="1:7">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>17</v>
@@ -7104,38 +6655,38 @@
         <v>80</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="183" ht="17.1" spans="1:4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C183" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="184" ht="17.1" spans="1:6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C184" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E184" s="31" t="s">
         <v>82</v>
@@ -7144,9 +6695,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" ht="17.1" spans="1:7">
+    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>27</v>
@@ -7155,35 +6706,35 @@
         <v>80</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E185" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="186" ht="17.1" spans="1:5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C186" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E186" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" ht="17.1" spans="1:7">
+    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="28" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>423</v>
@@ -7192,7 +6743,7 @@
         <v>28</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E187" s="31" t="s">
         <v>15</v>
@@ -7201,12 +6752,12 @@
         <v>5</v>
       </c>
       <c r="G187" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="188" ht="17.1" spans="1:7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>8</v>
@@ -7221,46 +6772,46 @@
         <v>15</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="189" ht="17.1" spans="1:7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="28" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F189" s="1">
         <v>3</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" ht="17.1" spans="1:4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="28" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C190" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="191" ht="17.1" spans="1:5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>115</v>
@@ -7269,44 +6820,44 @@
         <v>9</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E191" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" ht="17.1" spans="1:7">
+    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C192" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E192" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="193" ht="17.1" spans="1:7">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C193" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E193" s="31" t="s">
         <v>15</v>
@@ -7315,21 +6866,21 @@
         <v>2</v>
       </c>
       <c r="G193" s="32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="194" ht="17.1" spans="1:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C194" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D194" s="24" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E194" s="31" t="s">
         <v>15</v>
@@ -7338,12 +6889,12 @@
         <v>2</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="195" ht="17.1" spans="1:7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="28" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>115</v>
@@ -7361,15 +6912,15 @@
         <v>4</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="196" ht="17.1" spans="1:5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="28" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C196" s="29" t="s">
         <v>9</v>
@@ -7381,18 +6932,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" ht="17.1" spans="1:6">
+    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="28" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C197" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E197" s="31" t="s">
         <v>59</v>
@@ -7401,32 +6952,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" ht="17.1" spans="1:7">
+    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C198" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F198" s="1">
         <v>2</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="199" ht="17.1" spans="1:5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>115</v>
@@ -7441,9 +6992,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" ht="17.1" spans="1:5">
+    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>68</v>
@@ -7458,9 +7009,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" ht="17.1" spans="1:5">
+    <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
@@ -7475,12 +7026,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" ht="17.1" spans="1:7">
+    <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C202" s="29" t="s">
         <v>9</v>
@@ -7492,58 +7043,58 @@
         <v>4</v>
       </c>
       <c r="G202" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="203" ht="17.1" spans="1:7">
-      <c r="A203" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="B203" s="37" t="s">
+    </row>
+    <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="B203" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C203" s="38" t="s">
+      <c r="C203" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D203" s="39" t="s">
+      <c r="D203" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E203" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F203" s="37">
+      <c r="E203" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="36">
         <v>7</v>
       </c>
-      <c r="G203" s="41" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="204" ht="17.1" spans="1:7">
-      <c r="A204" s="36" t="s">
+      <c r="G203" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="B204" s="37" t="s">
+    </row>
+    <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="B204" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C204" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D204" s="39" t="s">
+      <c r="D204" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E204" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="37">
+      <c r="E204" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="36">
         <v>6</v>
       </c>
-      <c r="G204" s="45" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="205" ht="17.1" spans="1:5">
+      <c r="G204" s="44" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>24</v>
@@ -7558,38 +7109,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" ht="17.1" spans="1:7">
+    <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C206" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E206" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="207" ht="17.1" spans="1:7">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="28" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C207" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F207" s="1">
         <v>3</v>
@@ -7598,9 +7149,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="208" ht="17.1" spans="1:7">
+    <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="28" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>383</v>
@@ -7609,24 +7160,24 @@
         <v>48</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F208" s="1">
         <v>5</v>
       </c>
       <c r="G208" s="25" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="209" ht="17.1" spans="1:4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="30" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C209" s="29" t="s">
         <v>18</v>
@@ -7635,9 +7186,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" ht="17.1" spans="1:7">
+    <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="28" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>8</v>
@@ -7646,18 +7197,18 @@
         <v>124</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E210" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G210" s="25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="211" ht="17.1" spans="1:6">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>17</v>
@@ -7675,9 +7226,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="17.1" spans="1:7">
+    <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C212" s="29" t="s">
         <v>28</v>
@@ -7689,32 +7240,32 @@
         <v>15</v>
       </c>
       <c r="G212" s="25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="213" ht="17.1" spans="1:7">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="28" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C213" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E213" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G213" s="25" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="214" ht="17.1" spans="1:5">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
@@ -7723,15 +7274,15 @@
         <v>80</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="E214" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="215" ht="17.1" spans="1:7">
+    <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>17</v>
@@ -7740,18 +7291,18 @@
         <v>124</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E215" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G215" s="25" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="216" ht="17.1" spans="1:7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>386</v>
@@ -7766,21 +7317,21 @@
         <v>15</v>
       </c>
       <c r="G216" s="32" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="217" ht="17.1" spans="1:7">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="28" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C217" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E217" s="31" t="s">
         <v>15</v>
@@ -7789,32 +7340,32 @@
         <v>4</v>
       </c>
       <c r="G217" s="25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="218" ht="17.1" spans="1:7">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="28" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C218" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G218" s="25" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="219" ht="17.1" spans="1:7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="28" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>115</v>
@@ -7823,21 +7374,21 @@
         <v>48</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E219" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="220" ht="17.1" spans="1:6">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="28" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C220" s="29" t="s">
         <v>48</v>
@@ -7852,9 +7403,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" ht="17.1" spans="1:6">
+    <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>87</v>
@@ -7863,7 +7414,7 @@
         <v>80</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E221" s="31" t="s">
         <v>59</v>
@@ -7872,9 +7423,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" ht="17.1" spans="1:7">
+    <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="28" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>8</v>
@@ -7889,12 +7440,12 @@
         <v>6</v>
       </c>
       <c r="G222" s="25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="223" ht="17.1" spans="1:7">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>115</v>
@@ -7903,18 +7454,18 @@
         <v>28</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E223" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G223" s="32" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="224" ht="17.1" spans="1:7">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="28" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>37</v>
@@ -7932,15 +7483,15 @@
         <v>2</v>
       </c>
       <c r="G224" s="25" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="225" ht="17.1" spans="1:5">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="28" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C225" s="29" t="s">
         <v>28</v>
@@ -7952,9 +7503,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" ht="17.1" spans="1:7">
+    <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="28" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>27</v>
@@ -7963,7 +7514,7 @@
         <v>48</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E226" s="31" t="s">
         <v>82</v>
@@ -7975,9 +7526,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="227" ht="17.1" spans="1:5">
+    <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C227" s="29" t="s">
         <v>9</v>
@@ -7986,12 +7537,12 @@
         <v>222</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="228" ht="17.1" spans="1:7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C228" s="29" t="s">
         <v>80</v>
@@ -8003,15 +7554,15 @@
         <v>15</v>
       </c>
       <c r="G228" s="25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="229" ht="17.1" spans="1:5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C229" s="29" t="s">
         <v>9</v>
@@ -8023,9 +7574,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" ht="17.1" spans="1:7">
+    <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>27</v>
@@ -8034,18 +7585,18 @@
         <v>18</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E230" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G230" s="25" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="231" ht="17.1" spans="1:7">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>115</v>
@@ -8054,7 +7605,7 @@
         <v>48</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E231" s="31" t="s">
         <v>15</v>
@@ -8063,12 +7614,12 @@
         <v>4</v>
       </c>
       <c r="G231" s="25" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="232" ht="17.1" spans="1:5">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>24</v>
@@ -8083,9 +7634,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" ht="17.1" spans="1:5">
+    <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>27</v>
@@ -8094,15 +7645,15 @@
         <v>80</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="234" ht="17.1" spans="1:5">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="28" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>24</v>
@@ -8117,12 +7668,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" ht="17.1" spans="1:7">
+    <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C235" s="29" t="s">
         <v>28</v>
@@ -8134,12 +7685,12 @@
         <v>15</v>
       </c>
       <c r="G235" s="32" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="236" ht="17.1" spans="1:7">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="28" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>135</v>
@@ -8148,7 +7699,7 @@
         <v>48</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E236" s="31" t="s">
         <v>15</v>
@@ -8157,15 +7708,15 @@
         <v>2</v>
       </c>
       <c r="G236" s="32" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="237" ht="17.1" spans="1:7">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="28" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C237" s="29" t="s">
         <v>18</v>
@@ -8180,12 +7731,12 @@
         <v>7</v>
       </c>
       <c r="G237" s="25" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="238" ht="17.1" spans="1:7">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="28" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C238" s="29" t="s">
         <v>80</v>
@@ -8197,12 +7748,12 @@
         <v>15</v>
       </c>
       <c r="G238" s="25" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="239" ht="17.1" spans="1:7">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="28" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C239" s="29" t="s">
         <v>18</v>
@@ -8214,12 +7765,12 @@
         <v>15</v>
       </c>
       <c r="G239" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="240" ht="17.1" spans="1:7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="28" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>87</v>
@@ -8231,18 +7782,18 @@
         <v>322</v>
       </c>
       <c r="E240" s="28" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F240" s="1">
         <v>4</v>
       </c>
       <c r="G240" s="25" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="241" ht="17.1" spans="1:7">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>373</v>
@@ -8251,55 +7802,55 @@
         <v>80</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E241" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G241" s="32" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="242" ht="17.1" spans="1:7">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C242" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E242" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G242" s="32" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="243" ht="17.1" spans="1:7">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="28" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C243" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F243" s="1">
         <v>3</v>
       </c>
       <c r="G243" s="25" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="244" ht="17.1" spans="1:6">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="28" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>17</v>
@@ -8317,12 +7868,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" ht="17.1" spans="1:7">
+    <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="28" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C245" s="29" t="s">
         <v>18</v>
@@ -8334,12 +7885,12 @@
         <v>15</v>
       </c>
       <c r="G245" s="25" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="246" ht="17.1" spans="1:7">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>17</v>
@@ -8348,7 +7899,7 @@
         <v>28</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E246" s="31" t="s">
         <v>15</v>
@@ -8357,21 +7908,21 @@
         <v>6</v>
       </c>
       <c r="G246" s="32" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="247" ht="17.1" spans="1:6">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="28" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C247" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E247" s="31" t="s">
         <v>82</v>
@@ -8380,9 +7931,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" ht="17.1" spans="1:5">
+    <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="28" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>135</v>
@@ -8391,18 +7942,18 @@
         <v>28</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E248" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="249" ht="17.1" spans="1:7">
+    <row r="249" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="28" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C249" s="29" t="s">
         <v>80</v>
@@ -8414,15 +7965,15 @@
         <v>15</v>
       </c>
       <c r="G249" s="32" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="250" ht="17.1" spans="1:7">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="28" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C250" s="29" t="s">
         <v>28</v>
@@ -8434,15 +7985,15 @@
         <v>15</v>
       </c>
       <c r="G250" s="25" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="251" ht="17.1" spans="1:4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="30" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C251" s="29" t="s">
         <v>18</v>
@@ -8451,9 +8002,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" ht="17.1" spans="1:5">
+    <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="28" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C252" s="29" t="s">
         <v>124</v>
@@ -8465,9 +8016,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" ht="17.1" spans="1:6">
+    <row r="253" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="28" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>27</v>
@@ -8476,7 +8027,7 @@
         <v>18</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E253" s="31" t="s">
         <v>15</v>
@@ -8485,9 +8036,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" ht="17.1" spans="1:4">
+    <row r="254" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="28" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C254" s="29" t="s">
         <v>18</v>
@@ -8496,9 +8047,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" ht="17.1" spans="1:7">
+    <row r="255" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="28" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>27</v>
@@ -8507,7 +8058,7 @@
         <v>9</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E255" s="31" t="s">
         <v>15</v>
@@ -8516,12 +8067,12 @@
         <v>2</v>
       </c>
       <c r="G255" s="25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="256" ht="17.1" spans="1:5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="28" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>51</v>
@@ -8536,9 +8087,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="257" ht="17.1" spans="1:7">
+    <row r="257" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>27</v>
@@ -8547,21 +8098,21 @@
         <v>9</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F257" s="1">
         <v>3</v>
       </c>
       <c r="G257" s="25" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="258" ht="17.1" spans="1:7">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="28" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C258" s="29" t="s">
         <v>28</v>
@@ -8573,12 +8124,12 @@
         <v>15</v>
       </c>
       <c r="G258" s="32" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="259" ht="17.1" spans="1:5">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="28" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C259" s="29" t="s">
         <v>9</v>
@@ -8590,9 +8141,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" ht="17.1" spans="1:5">
+    <row r="260" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C260" s="29" t="s">
         <v>18</v>
@@ -8604,9 +8155,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" ht="17.1" spans="1:7">
+    <row r="261" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="28" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>17</v>
@@ -8615,18 +8166,18 @@
         <v>80</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E261" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G261" s="25" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="262" ht="17.1" spans="1:5">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="28" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>27</v>
@@ -8635,15 +8186,15 @@
         <v>18</v>
       </c>
       <c r="D262" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E262" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="263" ht="17.1" spans="1:7">
+    <row r="263" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>68</v>
@@ -8655,12 +8206,12 @@
         <v>54</v>
       </c>
       <c r="G263" s="25" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="264" ht="17.1" spans="1:7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>27</v>
@@ -8669,7 +8220,7 @@
         <v>18</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E264" s="31" t="s">
         <v>15</v>
@@ -8678,12 +8229,12 @@
         <v>4</v>
       </c>
       <c r="G264" s="25" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="265" ht="17.1" spans="1:5">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="28" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C265" s="29" t="s">
         <v>124</v>
@@ -8695,9 +8246,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" ht="17.1" spans="1:5">
+    <row r="266" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C266" s="29" t="s">
         <v>80</v>
@@ -8709,12 +8260,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" ht="17.1" spans="1:6">
+    <row r="267" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C267" s="29" t="s">
         <v>80</v>
@@ -8729,12 +8280,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" ht="17.1" spans="1:5">
+    <row r="268" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="28" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C268" s="29" t="s">
         <v>9</v>
@@ -8746,9 +8297,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" ht="17.1" spans="1:5">
+    <row r="269" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="28" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>236</v>
@@ -8757,15 +8308,15 @@
         <v>18</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E269" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="270" ht="17.1" spans="1:7">
+    <row r="270" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="28" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>27</v>
@@ -8780,12 +8331,12 @@
         <v>15</v>
       </c>
       <c r="G270" s="25" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="271" ht="17.1" spans="1:7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>27</v>
@@ -8794,7 +8345,7 @@
         <v>28</v>
       </c>
       <c r="D271" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E271" s="31" t="s">
         <v>15</v>
@@ -8803,38 +8354,38 @@
         <v>2</v>
       </c>
       <c r="G271" s="25" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="272" ht="17.1" spans="1:7">
-      <c r="A272" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="B272" s="37" t="s">
+    </row>
+    <row r="272" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="C272" s="38" t="s">
+      <c r="B272" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="C272" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D272" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E272" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F272" s="37">
+      <c r="D272" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="E272" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="36">
         <v>5</v>
       </c>
-      <c r="G272" s="45" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="273" ht="17.1" spans="1:7">
+      <c r="G272" s="44" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C273" s="29" t="s">
         <v>28</v>
@@ -8843,18 +8394,18 @@
         <v>73</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>665</v>
-      </c>
-      <c r="G273" s="43" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="274" ht="17.1" spans="1:7">
+      <c r="G273" s="42" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="28" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C274" s="29" t="s">
         <v>18</v>
@@ -8863,21 +8414,21 @@
         <v>420</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F274" s="1">
         <v>4</v>
       </c>
       <c r="G274" s="25" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="275" ht="17.1" spans="1:5">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="28" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C275" s="29" t="s">
         <v>48</v>
@@ -8886,15 +8437,15 @@
         <v>344</v>
       </c>
       <c r="E275" s="31" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="276" ht="17.1" spans="1:7">
-      <c r="A276" s="28" t="s">
-        <v>672</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="C276" s="29" t="s">
         <v>48</v>
@@ -8903,12 +8454,12 @@
         <v>344</v>
       </c>
       <c r="G276" s="25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="277" ht="17.1" spans="1:5">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="28" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>8</v>
@@ -8923,9 +8474,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="278" ht="17.1" spans="1:7">
+    <row r="278" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="28" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
@@ -8934,21 +8485,21 @@
         <v>9</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E278" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G278" s="32" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="279" ht="17.1" spans="1:7">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C279" s="29" t="s">
         <v>9</v>
@@ -8963,32 +8514,32 @@
         <v>3</v>
       </c>
       <c r="G279" s="25" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="280" ht="17.1" spans="1:7">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="28" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C280" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F280" s="1">
         <v>3</v>
       </c>
       <c r="G280" s="25" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="281" ht="17.1" spans="1:7">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="28" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>27</v>
@@ -8997,21 +8548,21 @@
         <v>18</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E281" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G281" s="25" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="282" ht="17.1" spans="1:7">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="28" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C282" s="29" t="s">
         <v>9</v>
@@ -9023,12 +8574,12 @@
         <v>3</v>
       </c>
       <c r="G282" s="25" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="283" ht="17.1" spans="1:7">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="28" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>383</v>
@@ -9040,27 +8591,27 @@
         <v>439</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F283" s="1">
         <v>4</v>
       </c>
       <c r="G283" s="25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="284" ht="17.1" spans="1:6">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="28" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C284" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E284" s="31" t="s">
         <v>15</v>
@@ -9069,9 +8620,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" ht="17.1" spans="1:7">
+    <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="28" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>115</v>
@@ -9080,18 +8631,18 @@
         <v>28</v>
       </c>
       <c r="D285" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E285" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G285" s="25" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="286" ht="17.1" spans="1:6">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="28" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>115</v>
@@ -9100,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E286" s="31" t="s">
         <v>15</v>
@@ -9109,9 +8660,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="17.1" spans="1:6">
+    <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="28" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>115</v>
@@ -9129,63 +8680,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" ht="17.1" spans="1:5">
+    <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C288" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E288" s="31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="289" ht="17.1" spans="1:5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="28" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C289" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="290" ht="17.1" spans="1:7">
-      <c r="A290" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="B290" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="C290" s="38" t="s">
+    </row>
+    <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="B290" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="C290" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D290" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E290" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" s="37">
+      <c r="D290" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="E290" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="36">
         <v>5</v>
       </c>
-      <c r="G290" s="45" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="291" ht="17.1" spans="1:5">
+      <c r="G290" s="44" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="28" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>17</v>
@@ -9200,9 +8751,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" ht="17.1" spans="1:7">
+    <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="28" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>68</v>
@@ -9211,7 +8762,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E292" s="31" t="s">
         <v>15</v>
@@ -9220,12 +8771,12 @@
         <v>2</v>
       </c>
       <c r="G292" s="25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="293" ht="17.1" spans="1:5">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="28" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>115</v>
@@ -9234,15 +8785,15 @@
         <v>9</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E293" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="294" ht="17.1" spans="1:6">
+    <row r="294" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C294" s="29" t="s">
         <v>18</v>
@@ -9257,9 +8808,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" ht="17.1" spans="1:5">
+    <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="28" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>27</v>
@@ -9268,15 +8819,15 @@
         <v>9</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E295" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="296" ht="17.1" spans="1:5">
+    <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>17</v>
@@ -9285,18 +8836,18 @@
         <v>80</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E296" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="297" ht="17.1" spans="1:6">
+    <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C297" s="29" t="s">
         <v>18</v>
@@ -9311,9 +8862,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" ht="17.1" spans="1:7">
+    <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C298" s="29" t="s">
         <v>18</v>
@@ -9328,12 +8879,12 @@
         <v>4</v>
       </c>
       <c r="G298" s="32" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="299" ht="17.1" spans="1:7">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="28" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>108</v>
@@ -9348,12 +8899,12 @@
         <v>3</v>
       </c>
       <c r="G299" s="25" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="300" ht="17.1" spans="1:7">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="30" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>13</v>
@@ -9362,18 +8913,18 @@
         <v>9</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E300" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="25" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="301" ht="17.1" spans="1:7">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="30" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>13</v>
@@ -9382,18 +8933,18 @@
         <v>9</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E301" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G301" s="25" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="302" ht="17.1" spans="1:7">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>13</v>
@@ -9402,18 +8953,18 @@
         <v>28</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E302" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G302" s="25" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="303" ht="17.1" spans="1:5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="30" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>13</v>
@@ -9422,15 +8973,15 @@
         <v>28</v>
       </c>
       <c r="D303" s="24" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E303" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="304" ht="17.1" spans="1:7">
+    <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="30" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>13</v>
@@ -9445,12 +8996,12 @@
         <v>15</v>
       </c>
       <c r="G304" s="25" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="305" ht="17.1" spans="1:7">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="30" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>13</v>
@@ -9465,35 +9016,35 @@
         <v>15</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="306" ht="17.1" spans="1:7">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="30" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C306" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D306" s="24" t="s">
+        <v>728</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" s="25" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="E306" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G306" s="25" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="307" ht="17.1" spans="1:5">
-      <c r="A307" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="C307" s="29" t="s">
         <v>28</v>
@@ -9505,12 +9056,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" ht="17.1" spans="1:7">
+    <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C308" s="29" t="s">
         <v>48</v>
@@ -9525,9 +9076,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="309" ht="17.1" spans="1:7">
+    <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>13</v>
@@ -9542,15 +9093,15 @@
         <v>15</v>
       </c>
       <c r="G309" s="25" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="310" ht="17.1" spans="1:7">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="30" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C310" s="29" t="s">
         <v>9</v>
@@ -9562,15 +9113,15 @@
         <v>15</v>
       </c>
       <c r="G310" s="25" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="311" ht="17.1" spans="1:5">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="30" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C311" s="29" t="s">
         <v>18</v>
@@ -9582,12 +9133,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" ht="17.1" spans="1:7">
+    <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="30" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C312" s="29" t="s">
         <v>28</v>
@@ -9599,15 +9150,15 @@
         <v>15</v>
       </c>
       <c r="G312" s="25" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="313" ht="17.1" spans="1:5">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="30" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C313" s="29" t="s">
         <v>18</v>
@@ -9619,12 +9170,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" ht="17.1" spans="1:7">
+    <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="30" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C314" s="29" t="s">
         <v>48</v>
@@ -9636,15 +9187,15 @@
         <v>15</v>
       </c>
       <c r="G314" s="32" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="315" ht="17.1" spans="1:7">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="30" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C315" s="29" t="s">
         <v>28</v>
@@ -9656,15 +9207,15 @@
         <v>15</v>
       </c>
       <c r="G315" s="25" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="316" ht="17.1" spans="1:7">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="30" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C316" s="29" t="s">
         <v>9</v>
@@ -9676,15 +9227,15 @@
         <v>15</v>
       </c>
       <c r="G316" s="25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="317" ht="17.1" spans="1:7">
-      <c r="A317" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="C317" s="29" t="s">
         <v>28</v>
@@ -9696,15 +9247,15 @@
         <v>15</v>
       </c>
       <c r="G317" s="25" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="318" ht="17.1" spans="1:7">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="30" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C318" s="29" t="s">
         <v>28</v>
@@ -9716,15 +9267,15 @@
         <v>15</v>
       </c>
       <c r="G318" s="25" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="319" ht="17.1" spans="1:7">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="30" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C319" s="29" t="s">
         <v>48</v>
@@ -9736,15 +9287,15 @@
         <v>15</v>
       </c>
       <c r="G319" s="25" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="320" ht="17.1" spans="1:7">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="30" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C320" s="29" t="s">
         <v>28</v>
@@ -9756,12 +9307,12 @@
         <v>15</v>
       </c>
       <c r="G320" s="25" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="321" ht="17.1" spans="1:7">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>13</v>
@@ -9770,18 +9321,18 @@
         <v>80</v>
       </c>
       <c r="D321" s="24" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E321" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G321" s="25" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="322" ht="17.1" spans="1:5">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="30" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>13</v>
@@ -9796,12 +9347,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" ht="17.1" spans="1:7">
+    <row r="323" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C323" s="29" t="s">
         <v>18</v>
@@ -9813,660 +9364,674 @@
         <v>15</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="324" ht="17.1" spans="1:7">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="28" t="s">
-        <v>768</v>
-      </c>
-      <c r="B324" s="46" t="s">
         <v>769</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="C324" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D324" s="33" t="s">
+      <c r="D324" s="24" t="s">
         <v>58</v>
       </c>
       <c r="G324" s="25" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="325" ht="17.1" spans="1:4">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="28" t="s">
-        <v>771</v>
-      </c>
-      <c r="B325" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C325" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="D325" s="33" t="s">
+      <c r="D325" s="24" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="326" ht="17.1" spans="1:4">
+    <row r="326" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="28" t="s">
-        <v>772</v>
-      </c>
-      <c r="B326" s="46" t="s">
-        <v>769</v>
+        <v>773</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="C326" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="D326" s="24" t="s">
         <v>288</v>
       </c>
     </row>
+    <row r="327" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="B327" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="C327" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D327" s="46" t="s">
+        <v>795</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A327:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A328:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A327:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A328:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A327:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A328:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId2" display="1185. 一周中的第几天"/>
-    <hyperlink ref="A11" r:id="rId3" display="1049.最后一块石头的重量II"/>
-    <hyperlink ref="A25" r:id="rId4" display="1154. 一年中的第几天"/>
-    <hyperlink ref="A64" r:id="rId5" display="1599. 经营摩天轮的最大利润"/>
-    <hyperlink ref="A218" r:id="rId6" display="466. 统计重复个数"/>
-    <hyperlink ref="A127" r:id="rId7" display="2487. 从链表中移除节点"/>
-    <hyperlink ref="A122" r:id="rId8" display="2397. 被列覆盖的最多行数"/>
-    <hyperlink ref="A146" r:id="rId9" display="2807. 在链表中插入最大公约数"/>
-    <hyperlink ref="A194" r:id="rId10" display="383. 赎金信"/>
-    <hyperlink ref="A210" r:id="rId11" display="447. 回旋镖的数量"/>
-    <hyperlink ref="A137" r:id="rId12" display="2707. 字符串中的额外字符"/>
-    <hyperlink ref="A135" r:id="rId13" display="2696. 删除子串后的字符串最小长度"/>
-    <hyperlink ref="A134" r:id="rId14" display="2645. 构造有效字符串的最少插入数"/>
-    <hyperlink ref="A87" r:id="rId15" display="2085. 统计出现过一次的公共字符串"/>
-    <hyperlink ref="A95" r:id="rId16" display="2182. 构造限制重复的字符串"/>
-    <hyperlink ref="A2" r:id="rId17" display="1. 两数之和"/>
-    <hyperlink ref="A222" r:id="rId18" display="49. 字母异位词分组"/>
-    <hyperlink ref="A35" r:id="rId19" display="128. 最长连续序列"/>
-    <hyperlink ref="A289" r:id="rId20" display="83. 删除排序链表中的重复元素"/>
-    <hyperlink ref="A150" r:id="rId21" display="283. 移动零"/>
-    <hyperlink ref="A269" r:id="rId22" display="708. 循环有序列表的插入"/>
-    <hyperlink ref="A17" r:id="rId23" display="11. 盛最多水的容器"/>
-    <hyperlink ref="A55" r:id="rId24" display="15. 三数之和"/>
-    <hyperlink ref="A288" r:id="rId25" display="82. 删除排序链表中的重复元素 II"/>
-    <hyperlink ref="A62" r:id="rId26" display="156. 上下翻转二叉树"/>
-    <hyperlink ref="A159" r:id="rId27" display="3. 无重复字符的最长子串"/>
-    <hyperlink ref="A208" r:id="rId28" display="438. 找到字符串中所有字母异位词"/>
-    <hyperlink ref="A277" r:id="rId29" display="734. 句子相似性"/>
-    <hyperlink ref="A138" r:id="rId30" display="2719. 统计整数数目"/>
-    <hyperlink ref="A247" r:id="rId31" display="560. 和为 K 的子数组"/>
-    <hyperlink ref="A121" r:id="rId32" display="239. 滑动窗口最大值"/>
-    <hyperlink ref="A283" r:id="rId33" display="76. 最小覆盖子串"/>
-    <hyperlink ref="A139" r:id="rId34" display="2744. 最大字符串配对数目"/>
-    <hyperlink ref="A94" r:id="rId35" display="2171. 拿出最少数目的魔法豆"/>
-    <hyperlink ref="A148" r:id="rId36" display="2809. 使数组和小于等于 x 的最少时间"/>
-    <hyperlink ref="A141" r:id="rId37" display="2788. 按分隔符拆分字符串"/>
-    <hyperlink ref="A261" r:id="rId38" display="670. 最大交换"/>
-    <hyperlink ref="E261" r:id="rId39" display="灵茶山艾府"/>
-    <hyperlink ref="E141" r:id="rId40" display="ylb"/>
-    <hyperlink ref="E148" r:id="rId41" display="ylb"/>
-    <hyperlink ref="E94" r:id="rId42" display="ylb"/>
-    <hyperlink ref="E139" r:id="rId43" display="灵茶山艾府"/>
-    <hyperlink ref="E283" r:id="rId44" display="Mcdull"/>
-    <hyperlink ref="E121" r:id="rId45" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E247" r:id="rId46" display="力扣官方"/>
-    <hyperlink ref="E138" r:id="rId47" display="力扣官方"/>
-    <hyperlink ref="E277" r:id="rId48" display="力扣官方"/>
-    <hyperlink ref="E208" r:id="rId49" display="labuladong"/>
-    <hyperlink ref="E159" r:id="rId50" display="力扣官方"/>
-    <hyperlink ref="E62" r:id="rId51" display="力扣官方"/>
-    <hyperlink ref="E288" r:id="rId52" display="负雪明烛"/>
-    <hyperlink ref="E17" r:id="rId53" display="Krahets"/>
-    <hyperlink ref="E269" r:id="rId54" display="力扣官方"/>
-    <hyperlink ref="E150" r:id="rId55" display="王尼玛"/>
-    <hyperlink ref="E289" r:id="rId56" display="画手大鹏"/>
-    <hyperlink ref="E95" r:id="rId57" display="ylb"/>
-    <hyperlink ref="E87" r:id="rId58" display="ylb"/>
-    <hyperlink ref="E134" r:id="rId59" display="ylb"/>
-    <hyperlink ref="E135" r:id="rId60" display="ylb"/>
-    <hyperlink ref="E137" r:id="rId61" display="ylb"/>
-    <hyperlink ref="E210" r:id="rId62" display="力扣官方"/>
-    <hyperlink ref="E146" r:id="rId63" display="灵茶山艾府"/>
-    <hyperlink ref="E122" r:id="rId64" display="力扣官方"/>
-    <hyperlink ref="E127" r:id="rId65" display="力扣官方"/>
-    <hyperlink ref="E218" r:id="rId66" display="liqing"/>
-    <hyperlink ref="E64" r:id="rId67" display="ylb"/>
-    <hyperlink ref="E25" r:id="rId68" display="力扣官方"/>
-    <hyperlink ref="E11" r:id="rId69" display="代码随想录"/>
-    <hyperlink ref="E29" r:id="rId70" display="宫水三叶"/>
-    <hyperlink ref="A140" r:id="rId71" display="2765. 最长交替子数组"/>
-    <hyperlink ref="E140" r:id="rId72" display="灵茶山艾府"/>
-    <hyperlink ref="A155" r:id="rId73" display="2865. 美丽塔 I"/>
-    <hyperlink ref="E155" r:id="rId74" display="ylb"/>
-    <hyperlink ref="A153" r:id="rId75" display="2859. 计算 K 置位下标对应元素的和"/>
-    <hyperlink ref="A152" r:id="rId76" display="2846. 边权重均等查询"/>
-    <hyperlink ref="A154" r:id="rId77" display="2861. 最大合金数"/>
-    <hyperlink ref="A190" r:id="rId78" display="365. 水壶问题"/>
-    <hyperlink ref="A233" r:id="rId79" display="514. 自由之路"/>
-    <hyperlink ref="E233" r:id="rId80" display="Ikaruga"/>
-    <hyperlink ref="A147" r:id="rId81" display="2808. 使循环数组所有元素相等的最少秒数"/>
-    <hyperlink ref="A73" r:id="rId82" display="189.轮转数组"/>
-    <hyperlink ref="A120" r:id="rId83" display="238. 除自身以外数组的乘积"/>
-    <hyperlink ref="A202" r:id="rId84" display="41. 缺失的第一个正数"/>
-    <hyperlink ref="A274" r:id="rId85" display="73. 矩阵置零"/>
-    <hyperlink ref="E274" r:id="rId86" display="powcai"/>
-    <hyperlink ref="A240" r:id="rId87" display="54. 螺旋矩阵"/>
-    <hyperlink ref="E240" r:id="rId88" display="YouLookDeliciousC"/>
-    <hyperlink ref="A221" r:id="rId89" display="48. 旋转图像"/>
-    <hyperlink ref="E221" r:id="rId90" display="Krahets"/>
-    <hyperlink ref="A124" r:id="rId91" display="240. 搜索二维矩阵 II"/>
-    <hyperlink ref="E124" r:id="rId92" display="Krahets"/>
-    <hyperlink ref="A65" r:id="rId93" display="160. 相交链表"/>
-    <hyperlink ref="A83" r:id="rId94" display="206. 反转链表"/>
-    <hyperlink ref="A115" r:id="rId95" display="234. 回文链表"/>
-    <hyperlink ref="A46" r:id="rId96" display="141. 环形链表"/>
-    <hyperlink ref="A47" r:id="rId97" display="142. 环形链表 II"/>
-    <hyperlink ref="A89" r:id="rId98" display="21. 合并两个有序链表"/>
-    <hyperlink ref="A78" r:id="rId99" display="2. 两数相加"/>
-    <hyperlink ref="A74" r:id="rId100" display="19. 删除链表的倒数第 N 个结点"/>
-    <hyperlink ref="A128" r:id="rId101" display="25. K 个一组翻转链表"/>
-    <hyperlink ref="A43" r:id="rId102" display="138. 随机链表的复制"/>
-    <hyperlink ref="E43" r:id="rId103" display="王尼玛"/>
-    <hyperlink ref="A54" r:id="rId104" display="148. 排序链表"/>
-    <hyperlink ref="A112" r:id="rId105" display="23. 合并 K 个升序链表"/>
-    <hyperlink ref="A52" r:id="rId106" display="146. LRU 缓存"/>
-    <hyperlink ref="A104" r:id="rId107" display="226. 翻转二叉树"/>
-    <hyperlink ref="A5" r:id="rId108" display="101. 对称二叉树"/>
-    <hyperlink ref="A243" r:id="rId109" display="543. 二叉树的直径"/>
-    <hyperlink ref="A16" r:id="rId110" display="108. 将有序数组转换为二叉搜索树"/>
-    <hyperlink ref="A113" r:id="rId111" display="230. 二叉搜索树中第 K 小的元素"/>
-    <hyperlink ref="A22" r:id="rId112" display="114. 二叉树展开为链表"/>
-    <hyperlink ref="A207" r:id="rId113" display="437. 路径总和 III"/>
-    <hyperlink ref="A34" r:id="rId114" display="124. 二叉树中的最大路径和"/>
-    <hyperlink ref="A80" r:id="rId115" display="200. 岛屿数量"/>
-    <hyperlink ref="A299" r:id="rId116" display="994. 腐烂的橘子"/>
-    <hyperlink ref="A84" r:id="rId117" display="207. 课程表"/>
-    <hyperlink ref="A86" r:id="rId118" display="208. 实现 Trie (前缀树)"/>
-    <hyperlink ref="A217" r:id="rId119" display="46. 全排列"/>
-    <hyperlink ref="A286" r:id="rId120" display="78. 子集"/>
-    <hyperlink ref="A69" r:id="rId121" display="17. 电话号码的字母组合"/>
-    <hyperlink ref="A195" r:id="rId122" display="39. 组合总和"/>
-    <hyperlink ref="E287" r:id="rId123" display="Krahets"/>
-    <hyperlink ref="A287" r:id="rId124" display="79. 单词搜索"/>
-    <hyperlink ref="A97" r:id="rId125" display="22. 括号生成"/>
-    <hyperlink ref="A37" r:id="rId126" display="131. 分割回文串"/>
-    <hyperlink ref="A231" r:id="rId127" display="51. N 皇后"/>
-    <hyperlink ref="E231" r:id="rId128" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" display="代码随想录"/>
-    <hyperlink ref="E184" r:id="rId129" display="力扣官方"/>
-    <hyperlink ref="A184" r:id="rId130" display="34. 在排序数组中查找元素的第一个和最后一个位置"/>
-    <hyperlink ref="A189" r:id="rId131" display="35. 搜索插入位置"/>
-    <hyperlink ref="A280" r:id="rId132" display="74. 搜索二维矩阵"/>
-    <hyperlink ref="E178" r:id="rId133" display="Peaceful Ishi2akaG5W"/>
-    <hyperlink ref="A178" r:id="rId134" display="33. 搜索旋转排序数组"/>
-    <hyperlink ref="A59" r:id="rId135" display="153. 寻找旋转排序数组中的最小值"/>
-    <hyperlink ref="E198" r:id="rId136" display="windliang"/>
-    <hyperlink ref="A79" r:id="rId137" display="20. 有效的括号"/>
-    <hyperlink ref="A198" r:id="rId138" display="4. 寻找两个正序数组的中位数"/>
-    <hyperlink ref="E61" r:id="rId139" display="负雪明烛"/>
-    <hyperlink ref="A61" r:id="rId140" display="155. 最小栈"/>
-    <hyperlink ref="A197" r:id="rId141" display="394. 字符串解码"/>
-    <hyperlink ref="E197" r:id="rId142" display="Krahets"/>
-    <hyperlink ref="A92" r:id="rId143" display="215. 数组中的第K个最大元素"/>
-    <hyperlink ref="E158" r:id="rId144" display="宫水三叶"/>
-    <hyperlink ref="A158" r:id="rId145" display="295. 数据流的中位数"/>
-    <hyperlink ref="A187" r:id="rId146" display="347. 前 K 个高频元素"/>
-    <hyperlink ref="A40" r:id="rId147" display="136. 只出现一次的数字"/>
-    <hyperlink ref="A68" r:id="rId148" display="169. 多数元素"/>
-    <hyperlink ref="A282" r:id="rId149" display="75. 颜色分类"/>
-    <hyperlink ref="A168" r:id="rId150" display="31. 下一个排列"/>
-    <hyperlink ref="E168" r:id="rId151" display="Imageslr"/>
-    <hyperlink ref="A156" r:id="rId152" display="287. 寻找重复数"/>
-    <hyperlink ref="E156" r:id="rId153" display="Kirsche"/>
-    <hyperlink ref="A28" r:id="rId154" display="118. 杨辉三角"/>
-    <hyperlink ref="A58" r:id="rId155" display="152. 乘积最大子数组"/>
-    <hyperlink ref="A171" r:id="rId156" display="32. 最长有效括号"/>
-    <hyperlink ref="A257" r:id="rId157" display="64. 最小路径和"/>
-    <hyperlink ref="A226" r:id="rId158" display="5. 最长回文子串"/>
-    <hyperlink ref="E226" r:id="rId159" display="力扣官方"/>
-    <hyperlink ref="A23" r:id="rId160" display="1143. 最长公共子序列"/>
-    <hyperlink ref="E23" r:id="rId161" display="代码随想录"/>
-    <hyperlink ref="A169" r:id="rId162" display="3127. 构造相同颜色的正方形"/>
-    <hyperlink ref="A51" r:id="rId163" display="1450. 在既定时间做作业的学生人数"/>
-    <hyperlink ref="A220" r:id="rId164" display="474. 一和零"/>
-    <hyperlink ref="E220" r:id="rId165" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E65" r:id="rId166" display="我是猫"/>
-    <hyperlink ref="E47" r:id="rId167" display="Allen_0x4bb"/>
-    <hyperlink ref="A123" r:id="rId168" display="24. 两两交换链表中的节点"/>
-    <hyperlink ref="A254" r:id="rId169" display="624. 数组列表中的最大距离"/>
-    <hyperlink ref="A145" r:id="rId170" display="280. 摆动排序"/>
-    <hyperlink ref="A13" r:id="rId171" display="1056. 易混淆数"/>
-    <hyperlink ref="A48" r:id="rId172" display="1427. 字符串的左右移"/>
-    <hyperlink ref="E48" r:id="rId173" display="byakuya"/>
-    <hyperlink ref="A66" r:id="rId174" display="161. 相隔为 1 的编辑距离"/>
-    <hyperlink ref="E97" r:id="rId175" display="ascii"/>
-    <hyperlink ref="A70" r:id="rId176" display="1705. 吃苹果的最大数目"/>
-    <hyperlink ref="A172" r:id="rId177" display="3218. 切蛋糕的最小总开销 I"/>
-    <hyperlink ref="E172" r:id="rId178" display="ylb"/>
-    <hyperlink ref="A164" r:id="rId179" display="3083. 字符串及其反转中是否存在同一子字符串"/>
-    <hyperlink ref="A170" r:id="rId180" display="3159. 查询数组中元素的出现位置"/>
-    <hyperlink ref="A41" r:id="rId181" display="1366. 通过投票对团队排名"/>
-    <hyperlink ref="A42" r:id="rId182" display="1367. 二叉树中的链表"/>
-    <hyperlink ref="A175" r:id="rId183" display="3280. 将日期转换为二进制表示"/>
-    <hyperlink ref="A273" r:id="rId184" display="729. 我的日程安排表 I"/>
-    <hyperlink ref="E273" r:id="rId185" display="Lfool"/>
-    <hyperlink ref="G273" r:id="rId186" display="木子喵neko"/>
-    <hyperlink ref="A275" r:id="rId187" display="731. 我的日程安排表 II"/>
-    <hyperlink ref="E275" r:id="rId185" display="Lfool"/>
-    <hyperlink ref="A276" r:id="rId188" display="732. 我的日程安排表 III"/>
-    <hyperlink ref="A109" r:id="rId189" display="2274. 不含特殊楼层的最大连续楼层数"/>
-    <hyperlink ref="A102" r:id="rId190" display="2241. 设计一个 ATM 机器"/>
-    <hyperlink ref="G102" r:id="rId191" display="ATM机明明可以凑出六百块但是不凑，ATM机坏； ATM机这么做是为了我们题目更简单，ATM机好；"/>
-    <hyperlink ref="A161" r:id="rId192" display="3019. 按键变更的次数"/>
-    <hyperlink ref="E35" r:id="rId193" display="Teck"/>
-    <hyperlink ref="A105" r:id="rId194" display="2264. 字符串中最大的 3 位相同数字"/>
-    <hyperlink ref="E105" r:id="rId195" display="灵茶山艾府"/>
-    <hyperlink ref="A136" r:id="rId196" display="27. 移除元素"/>
-    <hyperlink ref="A267" r:id="rId197" display="704. 二分查找"/>
-    <hyperlink ref="A297" r:id="rId198" display="977. 有序数组的平方"/>
-    <hyperlink ref="A176" r:id="rId199" display="3297. 统计重新排列后包含另一个字符串的子字符串数目 I"/>
-    <hyperlink ref="E176" r:id="rId200" display="灵茶山艾府"/>
-    <hyperlink ref="A177" r:id="rId201" display="3298. 统计重新排列后包含另一个字符串的子字符串数目 II"/>
-    <hyperlink ref="E177" r:id="rId200" display="灵茶山艾府"/>
-    <hyperlink ref="G177" r:id="rId202" display="Rui-为什么ans+=left"/>
-    <hyperlink ref="A88" r:id="rId203" display="209. 长度最小的子数组"/>
-    <hyperlink ref="A251" r:id="rId204" display="59. 螺旋矩阵 II"/>
-    <hyperlink ref="A209" r:id="rId205" display="44. 开发商购买土地"/>
-    <hyperlink ref="E55" r:id="rId206" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="A82" r:id="rId207" display="203. 移除链表元素"/>
-    <hyperlink ref="A268" r:id="rId208" display="707. 设计链表"/>
-    <hyperlink ref="E82" r:id="rId209" display="代码随想录"/>
-    <hyperlink ref="E268" r:id="rId210" display="代码随想录"/>
-    <hyperlink ref="E83" r:id="rId211" display="代码随想录"/>
-    <hyperlink ref="A174" r:id="rId212" display="3270. 求出数字答案"/>
-    <hyperlink ref="A323" r:id="rId213" display="面试题 02.07. 链表相交"/>
-    <hyperlink ref="A110" r:id="rId214" display="2275. 按位与结果大于零的最长组合"/>
-    <hyperlink ref="A249" r:id="rId215" display="58. 区间和（第九期模拟笔试）"/>
-    <hyperlink ref="A126" r:id="rId216" display="242. 有效的字母异位词"/>
-    <hyperlink ref="A188" r:id="rId217" display="349. 两个数组的交集"/>
-    <hyperlink ref="A81" r:id="rId218" display="202. 快乐数"/>
-    <hyperlink ref="A108" r:id="rId219" display="2270. 分割数组的方案数"/>
-    <hyperlink ref="A214" r:id="rId220" display="454. 四数相加 II"/>
-    <hyperlink ref="E214" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A71" r:id="rId222" display="18. 四数之和"/>
-    <hyperlink ref="E71" r:id="rId223" display="代码随想录"/>
-    <hyperlink ref="E81" r:id="rId224" display="代码随想录"/>
-    <hyperlink ref="E188" r:id="rId225" display="代码随想录"/>
-    <hyperlink ref="E126" r:id="rId226" display="代码随想录"/>
-    <hyperlink ref="E249" r:id="rId227" display="代码随想录"/>
-    <hyperlink ref="E323" r:id="rId228" display="代码随想录"/>
-    <hyperlink ref="A162" r:id="rId229" display="3065. 超过阈值的最少操作数 I"/>
-    <hyperlink ref="A186" r:id="rId230" display="344. 反转字符串"/>
-    <hyperlink ref="E186" r:id="rId231" display="代码随想录"/>
-    <hyperlink ref="A242" r:id="rId232" display="541. 反转字符串 II"/>
-    <hyperlink ref="E242" r:id="rId233" display="代码随想录"/>
-    <hyperlink ref="A241" r:id="rId234" display="54. 替换数字（第八期模拟笔试）"/>
-    <hyperlink ref="E241" r:id="rId235" display="代码随想录"/>
-    <hyperlink ref="A57" r:id="rId236" display="151. 反转字符串中的单词"/>
-    <hyperlink ref="E57" r:id="rId237" display="代码随想录"/>
-    <hyperlink ref="E297" r:id="rId238" display="代码随想录"/>
-    <hyperlink ref="A163" r:id="rId239" display="3066. 超过阈值的最少操作数 II"/>
-    <hyperlink ref="A245" r:id="rId240" display="55. 右旋字符串（第八期模拟笔试）"/>
-    <hyperlink ref="E245" r:id="rId241" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A144" r:id="rId242" display="28. 找出字符串中第一个匹配项的下标"/>
-    <hyperlink ref="A216" r:id="rId243" display="459. 重复的子字符串"/>
-    <hyperlink ref="E144" r:id="rId244" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E216" r:id="rId245" display="代码随想录"/>
-    <hyperlink ref="A166" r:id="rId246" display="3095. 或值至少 K 的最短子数组 I"/>
-    <hyperlink ref="E166" r:id="rId247" display="灵茶山艾府"/>
-    <hyperlink ref="A167" r:id="rId248" display="3097. 或值至少为 K 的最短子数组 II"/>
-    <hyperlink ref="E167" r:id="rId247" display="灵茶山艾府"/>
-    <hyperlink ref="E114" r:id="rId249" display="代码随想录"/>
-    <hyperlink ref="A103" r:id="rId250" display="225. 用队列实现栈"/>
-    <hyperlink ref="A114" r:id="rId251" display="232. 用栈实现队列"/>
-    <hyperlink ref="E103" r:id="rId252" display="代码随想录"/>
-    <hyperlink ref="E79" r:id="rId253" display="代码随想录"/>
-    <hyperlink ref="A9" r:id="rId254" display="1047. 删除字符串中的所有相邻重复项"/>
-    <hyperlink ref="E9" r:id="rId255" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A56" r:id="rId256" display="150. 逆波兰表达式求值"/>
-    <hyperlink ref="E56" r:id="rId257" display="代码随想录"/>
-    <hyperlink ref="E187" r:id="rId258" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A106" r:id="rId259" display="2266. 统计打字方案数"/>
-    <hyperlink ref="A101" r:id="rId260" display="2239. 找到最接近 0 的数字"/>
-    <hyperlink ref="A49" r:id="rId261" display="144. 二叉树的前序遍历"/>
-    <hyperlink ref="A50" r:id="rId262" display="145. 二叉树的后序遍历"/>
-    <hyperlink ref="A294" r:id="rId263" display="94. 二叉树的中序遍历"/>
-    <hyperlink ref="E49" r:id="rId264" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E50" r:id="rId264" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E294" r:id="rId264" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A6" r:id="rId265" display="102. 二叉树的层序遍历"/>
-    <hyperlink ref="E6" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A15" r:id="rId267" display="107. 二叉树的层序遍历 II"/>
-    <hyperlink ref="E15" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A77" r:id="rId268" display="199. 二叉树的右视图"/>
-    <hyperlink ref="E77" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A256" r:id="rId269" display="637. 二叉树的层平均值"/>
-    <hyperlink ref="E256" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A205" r:id="rId270" display="429. N 叉树的层序遍历"/>
-    <hyperlink ref="E205" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A234" r:id="rId271" display="515. 在每个树行中找最大值"/>
-    <hyperlink ref="E234" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A26" r:id="rId272" display="116. 填充每个节点的下一个右侧节点指针"/>
-    <hyperlink ref="E26" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A27" r:id="rId273" display="117. 填充每个节点的下一个右侧节点指针 II"/>
-    <hyperlink ref="E27" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A8" r:id="rId274" display="104. 二叉树的最大深度"/>
-    <hyperlink ref="E8" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="E19" r:id="rId266" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" display="代码随想录"/>
-    <hyperlink ref="A19" r:id="rId275" display="111. 二叉树的最小深度"/>
-    <hyperlink ref="E104" r:id="rId276" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="E5" r:id="rId277" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A63" r:id="rId278" display="1561. 你可以获得的最大硬币数目"/>
-    <hyperlink ref="A99" r:id="rId279" display="222. 完全二叉树的节点个数"/>
-    <hyperlink ref="A18" r:id="rId280" display="110. 平衡二叉树"/>
-    <hyperlink ref="E99" r:id="rId281" display="代码随想录"/>
-    <hyperlink ref="E18" r:id="rId282" display="代码随想录"/>
-    <hyperlink ref="A131" r:id="rId283" display="257. 二叉树的所有路径"/>
-    <hyperlink ref="E131" r:id="rId284" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A200" r:id="rId285" display="404. 左叶子之和"/>
-    <hyperlink ref="E200" r:id="rId286" display="代码随想录"/>
-    <hyperlink ref="A232" r:id="rId287" display="513. 找树左下角的值"/>
-    <hyperlink ref="E232" r:id="rId288" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="A20" r:id="rId289" display="112. 路径总和"/>
-    <hyperlink ref="E20" r:id="rId290" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="A21" r:id="rId291" display="113. 路径总和 II"/>
-    <hyperlink ref="E21" r:id="rId290" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="A14" r:id="rId292" display="106. 从中序与后序遍历序列构造二叉树"/>
-    <hyperlink ref="A12" r:id="rId293" display="105. 从前序与中序遍历序列构造二叉树"/>
-    <hyperlink ref="E14" r:id="rId294" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E12" r:id="rId294" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A259" r:id="rId295" display="654. 最大二叉树"/>
-    <hyperlink ref="E259" r:id="rId296" display="代码随想录"/>
-    <hyperlink ref="A252" r:id="rId297" display="617. 合并二叉树"/>
-    <hyperlink ref="E252" r:id="rId298" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E265" r:id="rId299" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A265" r:id="rId300" display="700. 二叉搜索树中的搜索"/>
-    <hyperlink ref="A298" r:id="rId301" display="98. 验证二叉搜索树"/>
-    <hyperlink ref="E298" r:id="rId302" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A157" r:id="rId303" display="2944. 购买水果需要的最少金币数"/>
-    <hyperlink ref="E238" r:id="rId304" display="代码随想录"/>
-    <hyperlink ref="E228" r:id="rId305" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E118" r:id="rId306" display="代码随想录"/>
-    <hyperlink ref="A238" r:id="rId307" display="530. 二叉搜索树的最小绝对差"/>
-    <hyperlink ref="A228" r:id="rId308" display="501. 二叉搜索树中的众数"/>
-    <hyperlink ref="A118" r:id="rId309" display="236. 二叉树的最近公共祖先"/>
-    <hyperlink ref="A125" r:id="rId310" display="2412. 完成所有交易的初始最少钱数"/>
-    <hyperlink ref="E125" r:id="rId311" display="灵茶山艾府"/>
-    <hyperlink ref="A199" r:id="rId312" display="40. 组合总和 II"/>
-    <hyperlink ref="A116" r:id="rId313" display="235. 二叉搜索树的最近公共祖先"/>
-    <hyperlink ref="E116" r:id="rId314" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E212" r:id="rId315" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E266" r:id="rId316" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A266" r:id="rId317" display="701. 二叉搜索树中的插入操作"/>
-    <hyperlink ref="A212" r:id="rId318" display="450. 删除二叉搜索树中的节点"/>
-    <hyperlink ref="A96" r:id="rId319" display="219. 存在重复元素 II"/>
-    <hyperlink ref="A263" r:id="rId320" display="680. 验证回文串 II"/>
-    <hyperlink ref="E16" r:id="rId321" display="代码随想录"/>
-    <hyperlink ref="A260" r:id="rId322" display="669. 修剪二叉搜索树"/>
-    <hyperlink ref="A239" r:id="rId323" display="538. 把二叉搜索树转换为累加树"/>
-    <hyperlink ref="E260" r:id="rId324" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E239" r:id="rId315" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A285" r:id="rId325" display="77. 组合"/>
-    <hyperlink ref="A93" r:id="rId326" display="216. 组合总和 III"/>
-    <hyperlink ref="E285" r:id="rId327" display="代码随想录"/>
-    <hyperlink ref="E93" r:id="rId328" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E69" r:id="rId329" display="代码随想录"/>
-    <hyperlink ref="A292" r:id="rId330" display="90. 子集 II"/>
-    <hyperlink ref="A293" r:id="rId331" display="93. 复原 IP 地址"/>
-    <hyperlink ref="E293" r:id="rId332" display="代码随想录"/>
-    <hyperlink ref="E292" r:id="rId333" display="代码随想录"/>
-    <hyperlink ref="A223" r:id="rId334" display="491. 非递减子序列"/>
-    <hyperlink ref="E223" r:id="rId335" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" display="代码随想录"/>
-    <hyperlink ref="A219" r:id="rId336" display="47. 全排列 II"/>
-    <hyperlink ref="E219" r:id="rId337" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A180" r:id="rId338" display="332. 重新安排行程"/>
-    <hyperlink ref="E180" r:id="rId339" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A191" r:id="rId340" display="37. 解数独"/>
-    <hyperlink ref="E191" r:id="rId341" display="代码随想录"/>
-    <hyperlink ref="A215" r:id="rId342" display="455. 分发饼干"/>
-    <hyperlink ref="E215" r:id="rId343" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E192" r:id="rId344" display="代码随想录"/>
-    <hyperlink ref="A192" r:id="rId345" display="376. 摆动序列"/>
-    <hyperlink ref="E37" r:id="rId346" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E194" r:id="rId347" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E195" r:id="rId348" display="代码随想录"/>
-    <hyperlink ref="E199" r:id="rId349" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E217" r:id="rId350" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E286" r:id="rId351" display="代码随想录"/>
-    <hyperlink ref="E244" r:id="rId352" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E211" r:id="rId353" display="代码随想录"/>
-    <hyperlink ref="E4" r:id="rId354" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A244" r:id="rId355" display="55. 跳跃游戏"/>
-    <hyperlink ref="A211" r:id="rId356" display="45. 跳跃游戏 II"/>
-    <hyperlink ref="A4" r:id="rId357" display="1005. K 次取反后最大化的数组和"/>
-    <hyperlink ref="A38" r:id="rId358" display="134. 加油站"/>
-    <hyperlink ref="E38" r:id="rId359" display="代码随想录"/>
-    <hyperlink ref="E39" r:id="rId360" location="%E6%80%BB%E7%BB%93" display="代码随想录"/>
-    <hyperlink ref="E291" r:id="rId354" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E201" r:id="rId354" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A39" r:id="rId361" display="135. 分发糖果"/>
-    <hyperlink ref="A291" r:id="rId362" display="860. 柠檬水找零"/>
-    <hyperlink ref="A201" r:id="rId363" display="406. 根据身高重建队列"/>
-    <hyperlink ref="A213" r:id="rId364" display="452. 用最少数量的箭引爆气球"/>
-    <hyperlink ref="E213" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A206" r:id="rId366" display="435. 无重叠区间"/>
-    <hyperlink ref="E206" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="A284" r:id="rId367" display="763. 划分字母区间"/>
-    <hyperlink ref="E284" r:id="rId368" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E246" r:id="rId369" display="代码随想录"/>
-    <hyperlink ref="E278" r:id="rId370" display="代码随想录"/>
-    <hyperlink ref="E296" r:id="rId371" display="代码随想录"/>
-    <hyperlink ref="A246" r:id="rId372" display="56. 合并区间"/>
-    <hyperlink ref="A278" r:id="rId373" display="738. 单调递增的数字"/>
-    <hyperlink ref="A296" r:id="rId374" display="968. 监控二叉树"/>
-    <hyperlink ref="E230" r:id="rId375" display="代码随想录"/>
-    <hyperlink ref="E264" r:id="rId376" display="代码随想录"/>
-    <hyperlink ref="E281" r:id="rId377" display="代码随想录"/>
-    <hyperlink ref="A230" r:id="rId378" display="509. 斐波那契数"/>
-    <hyperlink ref="A264" r:id="rId379" display="70. 爬楼梯"/>
-    <hyperlink ref="A281" r:id="rId380" display="746. 使用最小花费爬楼梯"/>
-    <hyperlink ref="A253" r:id="rId381" display="62. 不同路径"/>
-    <hyperlink ref="E253" r:id="rId382" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E255" r:id="rId383" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E185" r:id="rId384" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A185" r:id="rId385" display="343. 整数拆分"/>
-    <hyperlink ref="E295" r:id="rId386" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A295" r:id="rId387" display="96. 不同的二叉搜索树"/>
-    <hyperlink ref="A255" r:id="rId388" display="63. 不同路径 II"/>
-    <hyperlink ref="A203" r:id="rId389" display="416. 分割等和子集"/>
-    <hyperlink ref="E203" r:id="rId390" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A36" r:id="rId391" display="1299. 将每个元素替换为右侧最大元素"/>
-    <hyperlink ref="E10" r:id="rId392" display="代码随想录"/>
-    <hyperlink ref="E224" r:id="rId393" display="代码随想录"/>
-    <hyperlink ref="A10" r:id="rId394" display="1049. 最后一块石头的重量 II"/>
-    <hyperlink ref="A224" r:id="rId395" display="494. 目标和"/>
-    <hyperlink ref="E236" r:id="rId396" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E193" r:id="rId397" display="代码随想录"/>
-    <hyperlink ref="E248" r:id="rId165" display="代码随想录"/>
-    <hyperlink ref="A236" r:id="rId398" display="518. 零钱兑换 II"/>
-    <hyperlink ref="A193" r:id="rId399" display="377. 组合总和 Ⅳ"/>
-    <hyperlink ref="A248" r:id="rId400" display="57. 爬楼梯（第八期模拟笔试）"/>
-    <hyperlink ref="E173" r:id="rId401" display="代码随想录"/>
-    <hyperlink ref="E44" r:id="rId402" display="代码随想录"/>
-    <hyperlink ref="E142" r:id="rId403" display="代码随想录"/>
-    <hyperlink ref="A173" r:id="rId404" display="322. 零钱兑换"/>
-    <hyperlink ref="A142" r:id="rId405" display="279. 完全平方数"/>
-    <hyperlink ref="A44" r:id="rId406" display="139. 单词拆分"/>
-    <hyperlink ref="E76" r:id="rId407" display="代码随想录"/>
-    <hyperlink ref="E90" r:id="rId408" display="代码随想录"/>
-    <hyperlink ref="E181" r:id="rId409" display="代码随想录"/>
-    <hyperlink ref="A76" r:id="rId410" display="198. 打家劫舍"/>
-    <hyperlink ref="A90" r:id="rId411" display="213. 打家劫舍 II"/>
-    <hyperlink ref="A181" r:id="rId412" display="337. 打家劫舍 III"/>
-    <hyperlink ref="A133" r:id="rId413" display="2595. 奇偶位数"/>
-    <hyperlink ref="E123" r:id="rId414" display="代码随想录"/>
-    <hyperlink ref="E31" r:id="rId415" display="代码随想录"/>
-    <hyperlink ref="E32" r:id="rId416" display="代码随想录"/>
-    <hyperlink ref="E33" r:id="rId417" display="代码随想录"/>
-    <hyperlink ref="A32" r:id="rId418" display="122. 买卖股票的最佳时机 II"/>
-    <hyperlink ref="A33" r:id="rId419" display="123. 买卖股票的最佳时机 III"/>
-    <hyperlink ref="A31" r:id="rId420" display="121. 买卖股票的最佳时机"/>
-    <hyperlink ref="A98" r:id="rId421" display="2209. 用地毯覆盖后的最少白色砖块"/>
-    <hyperlink ref="E72" r:id="rId422" display="代码随想录"/>
-    <hyperlink ref="E165" r:id="rId423" display="代码随想录"/>
-    <hyperlink ref="E270" r:id="rId424" display="代码随想录"/>
-    <hyperlink ref="A72" r:id="rId425" display="188. 买卖股票的最佳时机 IV"/>
-    <hyperlink ref="A165" r:id="rId426" display="309. 买卖股票的最佳时机含冷冻期"/>
-    <hyperlink ref="A270" r:id="rId427" display="714. 买卖股票的最佳时机含手续费"/>
-    <hyperlink ref="A130" r:id="rId428" display="2506. 统计相似字符串对的数目"/>
-    <hyperlink ref="A30" r:id="rId429" display="1206. 设计跳表"/>
-    <hyperlink ref="E30" r:id="rId430" display="宫水三叶"/>
-    <hyperlink ref="E160" r:id="rId431" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E262" r:id="rId432" display="代码随想录"/>
-    <hyperlink ref="E271" r:id="rId433" display="代码随想录"/>
-    <hyperlink ref="A160" r:id="rId434" display="300. 最长递增子序列"/>
-    <hyperlink ref="A262" r:id="rId435" display="674. 最长连续递增序列"/>
-    <hyperlink ref="A271" r:id="rId436" display="718. 最长重复子数组"/>
-    <hyperlink ref="A67" r:id="rId437" display="1656. 设计有序流"/>
-    <hyperlink ref="E7" r:id="rId438" display="代码随想录"/>
-    <hyperlink ref="E237" r:id="rId439" display="代码随想录"/>
-    <hyperlink ref="E196" r:id="rId440" display="代码随想录"/>
-    <hyperlink ref="A7" r:id="rId441" display="1035. 不相交的线"/>
-    <hyperlink ref="A237" r:id="rId442" display="53. 最大子数组和"/>
-    <hyperlink ref="A196" r:id="rId443" display="392. 判断子序列"/>
-    <hyperlink ref="A129" r:id="rId444" display="2502. 设计内存分配器"/>
-    <hyperlink ref="E24" r:id="rId445" display="代码随想录"/>
-    <hyperlink ref="E250" r:id="rId446" display="代码随想录"/>
-    <hyperlink ref="E272" r:id="rId447" display="代码随想录"/>
-    <hyperlink ref="A24" r:id="rId448" display="115. 不同的子序列"/>
-    <hyperlink ref="A250" r:id="rId449" display="583. 两个字符串的删除操作"/>
-    <hyperlink ref="A272" r:id="rId450" display="72. 编辑距离"/>
-    <hyperlink ref="A53" r:id="rId451" display="1472. 设计浏览器历史记录"/>
-    <hyperlink ref="E258" r:id="rId452" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E235" r:id="rId453" display="代码随想录"/>
-    <hyperlink ref="A235" r:id="rId454" display="516. 最长回文子序列"/>
-    <hyperlink ref="A258" r:id="rId455" display="647. 回文子串"/>
-    <hyperlink ref="A111" r:id="rId456" display="2296. 设计一个文本编辑器"/>
-    <hyperlink ref="E111" r:id="rId457" display="灵茶山艾府"/>
-    <hyperlink ref="E279" r:id="rId458" display="代码随想录"/>
-    <hyperlink ref="E225" r:id="rId459" display="代码随想录"/>
-    <hyperlink ref="E229" r:id="rId460" display="代码随想录"/>
-    <hyperlink ref="A279" r:id="rId461" display="739. 每日温度"/>
-    <hyperlink ref="A225" r:id="rId462" display="496. 下一个更大元素 I"/>
-    <hyperlink ref="A229" r:id="rId463" display="503. 下一个更大元素 II"/>
-    <hyperlink ref="A117" r:id="rId464" display="2353. 设计食物评分系统"/>
-    <hyperlink ref="E117" r:id="rId465" display="灵茶山艾府"/>
-    <hyperlink ref="E204" r:id="rId466" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" display="代码随想录"/>
-    <hyperlink ref="E290" r:id="rId467" display="代码随想录"/>
-    <hyperlink ref="A290" r:id="rId468" display="84. 柱状图中最大的矩形"/>
-    <hyperlink ref="A204" r:id="rId469" display="42. 接雨水"/>
-    <hyperlink ref="A321" r:id="rId470" display="K98. 所有可达路径"/>
-    <hyperlink ref="E321" r:id="rId471" location="%E6%8F%92%E6%9B%B2" display="代码随想录"/>
-    <hyperlink ref="E322" r:id="rId472" display="代码随想录"/>
-    <hyperlink ref="E3" r:id="rId473" display="代码随想录"/>
-    <hyperlink ref="A322" r:id="rId474" display="K99. 岛屿数量"/>
-    <hyperlink ref="A3" r:id="rId475" display="100. 岛屿的最大面积"/>
-    <hyperlink ref="E300" r:id="rId476" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E301" r:id="rId477" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E302" r:id="rId478" display="代码随想录"/>
-    <hyperlink ref="E303" r:id="rId479" display="代码随想录"/>
-    <hyperlink ref="A300" r:id="rId480" display="K101. 孤岛的总面积"/>
-    <hyperlink ref="A301" r:id="rId481" display="K102. 沉没孤岛"/>
-    <hyperlink ref="A302" r:id="rId482" display="K103. 水流问题"/>
-    <hyperlink ref="A303" r:id="rId483" display="K104. 建造最大岛屿"/>
-    <hyperlink ref="E309" r:id="rId484" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E304" r:id="rId485" display="代码随想录"/>
-    <hyperlink ref="E305" r:id="rId486" display="代码随想录"/>
-    <hyperlink ref="A309" r:id="rId487" display="K110. 字符串接龙"/>
-    <hyperlink ref="A304" r:id="rId488" display="K105. 有向图的完全可达性"/>
-    <hyperlink ref="A305" r:id="rId489" display="K106. 岛屿的周长"/>
-    <hyperlink ref="A132" r:id="rId490" display="2588. 统计美丽子数组数目"/>
-    <hyperlink ref="E132" r:id="rId491" display="灵茶山艾府"/>
-    <hyperlink ref="E306" r:id="rId492" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A306" r:id="rId493" display="K107. 寻找存在的路径"/>
-    <hyperlink ref="E307" r:id="rId494" display="代码随想录"/>
-    <hyperlink ref="E308" r:id="rId495" display="代码随想录"/>
-    <hyperlink ref="A307" r:id="rId496" display="K108. 冗余连接"/>
-    <hyperlink ref="A308" r:id="rId497" display="K109. 冗余连接II"/>
-    <hyperlink ref="A100" r:id="rId498" display="2234. 花园的最大总美丽值"/>
-    <hyperlink ref="E100" r:id="rId499" display="灵茶山艾府"/>
-    <hyperlink ref="A85" r:id="rId500" display="2070. 每一个查询的最大美丽值"/>
-    <hyperlink ref="E85" r:id="rId501" display="灵茶山艾府"/>
-    <hyperlink ref="A107" r:id="rId502" display="2269. 找到一个数字的 K 美丽值"/>
-    <hyperlink ref="A315" r:id="rId503" display="K53. 寻宝（prim）"/>
-    <hyperlink ref="E315" r:id="rId504" display="代码随想录"/>
-    <hyperlink ref="A314" r:id="rId503" display="K53. 寻宝（kruskal）"/>
-    <hyperlink ref="E314" r:id="rId504" display="代码随想录"/>
-    <hyperlink ref="E310" r:id="rId505" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" display="代码随想录"/>
-    <hyperlink ref="A310" r:id="rId506" display="K117. 软件构建"/>
-    <hyperlink ref="E313" r:id="rId507" display="代码随想录"/>
-    <hyperlink ref="E312" r:id="rId508" display="代码随想录"/>
-    <hyperlink ref="E316" r:id="rId509" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E317" r:id="rId510" location="%E8%83%8C%E6%99%AF" display="代码随想录"/>
-    <hyperlink ref="E318" r:id="rId511" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E319" r:id="rId512" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="E320" r:id="rId513" display="代码随想录"/>
-    <hyperlink ref="E311" r:id="rId514" location="%E6%80%9D%E8%B7%AF" display="代码随想录"/>
-    <hyperlink ref="A313" r:id="rId515" display="K47. 参加科学大会（dijstra朴素版）"/>
-    <hyperlink ref="A312" r:id="rId515" display="K47. 参加科学大会（dijstra堆优化版）"/>
-    <hyperlink ref="A316" r:id="rId516" display="K94. 城市间货物运输 I（BF）"/>
-    <hyperlink ref="A317" r:id="rId516" display="K94. 城市间货物运输 I（SPFA）"/>
-    <hyperlink ref="A318" r:id="rId517" display="K95. 城市间货物运输 II"/>
-    <hyperlink ref="A319" r:id="rId518" display="K96. 城市间货物运输 III"/>
-    <hyperlink ref="A320" r:id="rId519" display="K97. 小明逛公园"/>
-    <hyperlink ref="A311" r:id="rId520" display="K127. 骑士的攻击"/>
-    <hyperlink ref="A179" r:id="rId521" display="3306. 元音辅音字符串计数 II"/>
-    <hyperlink ref="E179" r:id="rId522" display="灵茶山艾府"/>
-    <hyperlink ref="A149" r:id="rId523" display="2829. k-avoiding 数组的最小总和"/>
-    <hyperlink ref="E149" r:id="rId524" display="灵茶山艾府"/>
-    <hyperlink ref="A183" r:id="rId525" display="3396. 使数组元素互不相同所需的最少操作次数"/>
-    <hyperlink ref="A182" r:id="rId526" display="3375. 使数组的值全部为 K 的最少操作次数"/>
-    <hyperlink ref="A227" r:id="rId527" display="50. Pow(x, n)"/>
-    <hyperlink ref="E227" r:id="rId528" display="灵茶山艾府"/>
-    <hyperlink ref="A75" r:id="rId529" display="1922. 统计好数字的数目"/>
-    <hyperlink ref="E75" r:id="rId530" display="灵茶山艾府"/>
-    <hyperlink ref="A60" r:id="rId531" display="1534. 统计好三元组"/>
-    <hyperlink ref="E60" r:id="rId532" display="灵茶山艾府"/>
-    <hyperlink ref="A119" r:id="rId533" display="2364. 统计坏数对的数目"/>
-    <hyperlink ref="E119" r:id="rId534" display="灵茶山艾府"/>
-    <hyperlink ref="A91" r:id="rId535" display="2145. 统计隐藏数组数目"/>
-    <hyperlink ref="E91" r:id="rId536" display="灵茶山艾府"/>
-    <hyperlink ref="A45" r:id="rId537" display="1399. 统计最大组的数目"/>
-    <hyperlink ref="A143" r:id="rId538" display="2799. 统计完全子数组的数目"/>
-    <hyperlink ref="A151" r:id="rId539" display="2845. 统计趣味子数组的数目"/>
-    <hyperlink ref="G151" r:id="rId540" display="s[0]=0"/>
-    <hyperlink ref="E151" r:id="rId541" display="灵茶山艾府"/>
-    <hyperlink ref="A324" r:id="rId542" display="3373. 连接两棵树后最大目标节点数目 II"/>
-    <hyperlink ref="A325" r:id="rId543" display="2894. 分类求和并作差"/>
-    <hyperlink ref="A326" r:id="rId544" display="3372. 连接两棵树后最大目标节点数目 I"/>
+    <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A218" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A127" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A122" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A146" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A194" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A210" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A137" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A135" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A134" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A87" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A95" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A222" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A289" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A150" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A269" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A55" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A288" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A62" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A159" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A208" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A277" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A138" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A247" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A121" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A283" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A139" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A94" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A148" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A141" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A261" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E261" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E141" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E148" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E94" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E139" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E283" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E121" r:id="rId44" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E247" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E277" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E208" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E159" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E62" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E288" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E17" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E269" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E150" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E289" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E95" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E87" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E134" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E135" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E137" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E210" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E146" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E122" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E127" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E218" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E64" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E25" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E11" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E29" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A140" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E140" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A155" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E155" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A153" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A152" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A154" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A190" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A233" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E233" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A147" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A73" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A120" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A202" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A274" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E274" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A240" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E240" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A221" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E221" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A124" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E124" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A65" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A83" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A46" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A47" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A89" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A78" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A74" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A43" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E43" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A54" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A112" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A52" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A104" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A5" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A243" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A16" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A22" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A207" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A34" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A80" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A299" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A84" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A86" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A217" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A286" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A69" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A195" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E287" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A287" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A97" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A37" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A231" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E231" r:id="rId127" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E184" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A184" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A189" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A280" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E178" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A178" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A59" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E198" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A79" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A198" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E61" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A61" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A197" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E197" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A92" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E158" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A187" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A40" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A68" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A282" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A168" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E168" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A156" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E156" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A28" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A58" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A257" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A226" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E226" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A23" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E23" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A169" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A51" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A220" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E220" r:id="rId164" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E65" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E47" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A123" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A254" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A145" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A13" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A48" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E48" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A66" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E97" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A70" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A172" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E172" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A164" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A170" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A41" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A42" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A175" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A273" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E273" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="G273" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A275" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E275" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A276" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A109" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A102" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="G102" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A161" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E35" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A105" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E105" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A136" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A267" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A297" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A176" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E176" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A177" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E177" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G177" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A88" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A251" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A209" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="E55" r:id="rId207" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A82" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A268" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E82" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="E268" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E83" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A174" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A323" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A110" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A249" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A126" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A188" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A81" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A108" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A214" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E214" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A71" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E71" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="E81" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E188" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E126" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="E249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="E323" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A162" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A186" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="E186" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A242" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E242" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A241" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E241" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A57" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E57" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="E297" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A163" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A245" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E245" r:id="rId242" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A144" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A216" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="E144" r:id="rId245" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E216" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A166" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E166" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A167" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="E167" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E114" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A103" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A114" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E103" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="E79" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A9" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="E9" r:id="rId257" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A56" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E56" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="E187" r:id="rId260" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A106" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A101" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A49" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A50" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A294" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="E49" r:id="rId266" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="E50" r:id="rId267" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E294" r:id="rId268" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A6" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="E6" r:id="rId270" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A15" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E15" r:id="rId272" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A77" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="E77" r:id="rId274" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A256" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="E256" r:id="rId276" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A205" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="E205" r:id="rId278" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A234" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="E234" r:id="rId280" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A26" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="E26" r:id="rId282" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A27" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="E27" r:id="rId284" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A8" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="E8" r:id="rId286" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E19" r:id="rId287" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A19" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="E104" r:id="rId289" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="E5" r:id="rId290" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A63" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A99" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A18" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E99" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="E18" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A131" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="E131" r:id="rId297" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="A200" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="E200" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="A232" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="E232" r:id="rId301" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="A20" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="E20" r:id="rId303" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="A21" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="E21" r:id="rId305" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A14" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="A12" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="E14" r:id="rId308" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E12" r:id="rId309" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="A259" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="E259" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="A252" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="E252" r:id="rId313" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="E265" r:id="rId314" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="A265" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A298" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="E298" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="A157" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E238" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="E228" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="E118" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="A238" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="A228" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="A118" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="A125" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E125" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A199" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="A116" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="E116" r:id="rId329" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="E212" r:id="rId330" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="E266" r:id="rId331" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="A266" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A212" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="A96" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A263" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="E16" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A260" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="A239" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="E260" r:id="rId339" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="E239" r:id="rId340" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A285" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="A93" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="E285" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="E93" r:id="rId344" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="E69" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="A292" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A293" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="E293" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="E292" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="A223" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="E223" r:id="rId351" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="A219" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E219" r:id="rId353" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="A180" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="E180" r:id="rId355" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="A191" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="E191" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="A215" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="E215" r:id="rId359" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E192" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A192" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E37" r:id="rId362" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="E194" r:id="rId363" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="E195" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="E199" r:id="rId365" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E217" r:id="rId366" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="E286" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="E244" r:id="rId368" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="E211" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="E4" r:id="rId370" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A244" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="A211" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A4" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="A38" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="E38" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="E39" r:id="rId376" location="%E6%80%BB%E7%BB%93" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="E291" r:id="rId377" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="E201" r:id="rId378" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A39" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="A291" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="A201" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="A213" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="E213" r:id="rId383" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="A206" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E206" r:id="rId385" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="A284" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="E284" r:id="rId387" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="E246" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="E278" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="E296" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="A246" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="A278" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="A296" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="E230" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="E264" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="E281" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="A230" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="A264" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="A281" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="A253" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="E253" r:id="rId401" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E255" r:id="rId402" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="E185" r:id="rId403" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="A185" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="E295" r:id="rId405" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="A295" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="A255" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="A203" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="E203" r:id="rId409" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="A36" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="E10" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E224" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="A10" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="A224" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E236" r:id="rId415" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="E193" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="E248" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="A236" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="A193" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="A248" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="E173" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="E44" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="E142" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="A173" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A142" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="A44" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="E76" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="E90" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="E181" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="A76" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="A90" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="A181" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="A133" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="E123" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="E31" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="E32" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="E33" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="A32" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="A33" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="A31" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="A98" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="E72" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="E165" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="E270" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A72" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="A165" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="A270" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="A130" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="A30" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="E30" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="E160" r:id="rId451" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="E262" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="E271" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="A160" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A262" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="A271" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="A67" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="E7" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="E237" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="E196" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="A7" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="A237" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="A196" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="A129" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="E24" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="E250" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="E272" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="A24" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A250" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="A272" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="A53" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="E258" r:id="rId472" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="E235" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="A235" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="A258" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="A111" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="E111" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="E279" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="E225" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="E229" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="A279" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="A225" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="A229" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="A117" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="E117" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="E204" r:id="rId486" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="E290" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="A290" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A204" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="A321" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="E321" r:id="rId491" location="%E6%8F%92%E6%9B%B2" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="E322" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="E3" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="A322" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="A3" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="E300" r:id="rId496" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="E301" r:id="rId497" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="E302" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="E303" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="A300" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="A301" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="A302" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="A303" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="E309" r:id="rId504" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="E304" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="E305" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="A309" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="A304" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="A305" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="A132" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="E132" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="E306" r:id="rId512" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="A306" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="E307" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="E308" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="A307" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="A308" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="A100" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="E100" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="A85" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="E85" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="A107" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="A315" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="E315" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="A314" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="E314" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="E310" r:id="rId527" location="%E6%8B%93%E6%89%91%E6%8E%92%E5%BA%8F%E7%9A%84%E8%83%8C%E6%99%AF" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="A310" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="E313" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="E312" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="E316" r:id="rId531" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="E317" r:id="rId532" location="%E8%83%8C%E6%99%AF" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="E318" r:id="rId533" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="E319" r:id="rId534" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="E320" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="E311" r:id="rId536" location="%E6%80%9D%E8%B7%AF" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="A313" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="A312" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="A316" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="A317" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="A318" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="A319" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="A320" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="A311" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="A179" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="E179" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="A149" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="E149" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="A183" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="A182" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="A227" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="E227" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="A75" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="E75" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="A60" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="E60" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="A119" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="E119" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="A91" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="E91" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="A45" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="A143" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="A151" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="G151" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="E151" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="A324" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="A325" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="A326" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="A327" r:id="rId569" display="https://leetcode.cn/problems/find-closest-node-to-given-two-nodes/" xr:uid="{68FDC2C4-8A7B-4E7A-88C7-25E17A96106F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId570"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.6416666666667" customWidth="1"/>
-    <col min="2" max="3" width="15.6416666666667" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6416666666667" customWidth="1"/>
-    <col min="6" max="6" width="30.6416666666667" customWidth="1"/>
+    <col min="1" max="1" width="30.640625" customWidth="1"/>
+    <col min="2" max="3" width="15.640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.640625" customWidth="1"/>
+    <col min="6" max="6" width="30.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.85" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10474,7 +10039,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -10486,7 +10051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="17.85" spans="1:6">
+    <row r="2" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>218</v>
       </c>
@@ -10499,7 +10064,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" ht="17.1" spans="1:6">
+    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>161</v>
       </c>
@@ -10512,32 +10077,32 @@
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" ht="17.1" spans="1:6">
+    <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" ht="17.1" spans="1:6">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>9</v>
@@ -10547,7 +10112,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" ht="17.1" spans="1:6">
+    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
         <v>72</v>
       </c>
@@ -10555,7 +10120,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -10567,134 +10132,134 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" ht="17.1" spans="1:6">
+    <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="18" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="11"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F8" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId2" display="19. 删除链表的倒数第 N 个结点"/>
-    <hyperlink ref="A3" r:id="rId3" display="148. 排序链表"/>
-    <hyperlink ref="A5" r:id="rId4" display="1262. 可被三整除的最大和"/>
-    <hyperlink ref="A6" r:id="rId5" display="1143. 最长公共子序列"/>
-    <hyperlink ref="E6" r:id="rId6" display="代码随想录"/>
-    <hyperlink ref="A7" r:id="rId7" display="146. LRU 缓存"/>
-    <hyperlink ref="A8" r:id="rId8" display="39. 组合总和"/>
-    <hyperlink ref="A10" r:id="rId9" display="2628. 完全相等的 JSON 字符串"/>
-    <hyperlink ref="A9" r:id="rId10" display="42. 接雨水"/>
-    <hyperlink ref="A11" r:id="rId11" display="1044. 最长重复子串"/>
-    <hyperlink ref="A12" r:id="rId12" display="5. 最长回文子串"/>
-    <hyperlink ref="A13" r:id="rId13" display="LCR 016. 无重复字符的最长子串"/>
-    <hyperlink ref="A14" r:id="rId14" display="16. 最接近的三数之和"/>
-    <hyperlink ref="A15" r:id="rId15" display="21. 合并两个有序链表"/>
-    <hyperlink ref="A16" r:id="rId16" display="1456. 定长子串中元音的最大数目"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C25F05-B44B-4434-ADE5-5646161FE600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF1B6A-7390-4192-9089-70536F3465DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="799">
   <si>
     <t>题目</t>
   </si>
@@ -563,7 +563,7 @@
     <t>150. 逆波兰表达式求值</t>
   </si>
   <si>
-    <t>2025.01.18</t>
+    <t>2025.05.31</t>
   </si>
   <si>
     <t>stack.push(Integer.valueOf(s));</t>
@@ -1048,6 +1048,9 @@
   </si>
   <si>
     <t>单调队列</t>
+  </si>
+  <si>
+    <t>2025.01.18</t>
   </si>
   <si>
     <t>升序单调队列ArrayDeque存放下标，淘汰一定不是候选的，去掉窗口之外的</t>
@@ -1662,7 +1665,8 @@
   <si>
     <t>w和h分开避免*优先级
 mid在while里
-while里还要if判断st</t>
+while里还要if判断st
+- height[mid]不是- mid</t>
   </si>
   <si>
     <t>429. N 叉树的层序遍历</t>
@@ -2428,6 +2432,12 @@
   </si>
   <si>
     <t>3372. 连接两棵树后最大目标节点数目 I</t>
+  </si>
+  <si>
+    <t>2359. 找到离给定两个节点最近的节点</t>
+  </si>
+  <si>
+    <t>图、dfs</t>
   </si>
   <si>
     <t>大厂</t>
@@ -2539,22 +2549,22 @@
     <t>蚂蚁</t>
   </si>
   <si>
-    <t>2359. 找到离给定两个节点最近的节点</t>
-  </si>
-  <si>
-    <t>图、dfs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.05.30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>909. 蛇梯棋</t>
+  </si>
+  <si>
+    <t>2025.05.31</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2603,6 +2613,13 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2659,14 +2676,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
-        <bgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
+        <bgColor theme="9" tint="0.79989013336588644"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor theme="9" tint="0.79989013336588644"/>
       </patternFill>
     </fill>
     <fill>
@@ -2777,7 +2794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2895,10 +2912,16 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3388,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G327"/>
+  <dimension ref="A1:G328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4438,6 +4461,9 @@
       <c r="E56" s="31" t="s">
         <v>15</v>
       </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
       <c r="G56" s="25" t="s">
         <v>169</v>
       </c>
@@ -5569,7 +5595,7 @@
         <v>48</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="E121" s="31" t="s">
         <v>15</v>
@@ -5578,32 +5604,32 @@
         <v>6</v>
       </c>
       <c r="G121" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C122" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E122" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G122" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C123" s="29" t="s">
         <v>48</v>
@@ -5618,12 +5644,12 @@
         <v>4</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>179</v>
@@ -5641,15 +5667,15 @@
         <v>5</v>
       </c>
       <c r="G124" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C125" s="29" t="s">
         <v>80</v>
@@ -5661,12 +5687,12 @@
         <v>185</v>
       </c>
       <c r="G125" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>8</v>
@@ -5683,27 +5709,27 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C127" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E127" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G127" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>236</v>
@@ -5718,12 +5744,12 @@
         <v>4</v>
       </c>
       <c r="G128" s="25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>95</v>
@@ -5737,21 +5763,21 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C130" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>276</v>
@@ -5768,30 +5794,30 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C132" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E132" s="31" t="s">
         <v>185</v>
       </c>
       <c r="G132" s="25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C133" s="29" t="s">
         <v>80</v>
@@ -5802,7 +5828,7 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>57</v>
@@ -5811,18 +5837,18 @@
         <v>18</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E134" s="31" t="s">
         <v>196</v>
       </c>
       <c r="G134" s="25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>34</v>
@@ -5831,7 +5857,7 @@
         <v>18</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E135" s="31" t="s">
         <v>196</v>
@@ -5839,10 +5865,10 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C136" s="29" t="s">
         <v>80</v>
@@ -5856,16 +5882,16 @@
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C137" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E137" s="31" t="s">
         <v>196</v>
@@ -5873,16 +5899,16 @@
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C138" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E138" s="31" t="s">
         <v>82</v>
@@ -5890,16 +5916,16 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C139" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E139" s="31" t="s">
         <v>185</v>
@@ -5907,16 +5933,16 @@
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C140" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E140" s="31" t="s">
         <v>185</v>
@@ -5924,27 +5950,27 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C141" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E141" s="31" t="s">
         <v>196</v>
       </c>
       <c r="G141" s="25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>135</v>
@@ -5964,30 +5990,30 @@
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C143" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C144" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E144" s="31" t="s">
         <v>15</v>
@@ -5995,7 +6021,7 @@
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C145" s="29" t="s">
         <v>9</v>
@@ -6004,12 +6030,12 @@
         <v>46</v>
       </c>
       <c r="G145" s="25" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>236</v>
@@ -6024,32 +6050,32 @@
         <v>185</v>
       </c>
       <c r="G146" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C147" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C148" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E148" s="31" t="s">
         <v>196</v>
@@ -6057,27 +6083,27 @@
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C149" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E149" s="31" t="s">
         <v>185</v>
       </c>
       <c r="G149" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>140</v>
@@ -6097,7 +6123,7 @@
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>183</v>
@@ -6106,66 +6132,66 @@
         <v>9</v>
       </c>
       <c r="D151" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E151" s="31" t="s">
         <v>185</v>
       </c>
       <c r="G151" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C152" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D152" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C153" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G153" s="25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C154" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C155" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E155" s="31" t="s">
         <v>196</v>
@@ -6173,10 +6199,10 @@
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C156" s="29" t="s">
         <v>9</v>
@@ -6185,18 +6211,18 @@
         <v>125</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F156" s="1">
         <v>3</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
@@ -6205,18 +6231,18 @@
         <v>9</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G157" s="25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C158" s="29" t="s">
         <v>28</v>
@@ -6231,15 +6257,15 @@
         <v>3</v>
       </c>
       <c r="G158" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C159" s="29" t="s">
         <v>28</v>
@@ -6254,12 +6280,12 @@
         <v>4</v>
       </c>
       <c r="G159" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
@@ -6277,15 +6303,15 @@
         <v>4</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C161" s="29" t="s">
         <v>124</v>
@@ -6296,7 +6322,7 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>87</v>
@@ -6310,35 +6336,35 @@
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C163" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C164" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G164" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="35" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B165" s="36" t="s">
         <v>27</v>
@@ -6359,16 +6385,16 @@
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C166" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E166" s="31" t="s">
         <v>185</v>
@@ -6376,16 +6402,16 @@
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C167" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E167" s="31" t="s">
         <v>185</v>
@@ -6393,10 +6419,10 @@
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C168" s="29" t="s">
         <v>18</v>
@@ -6405,7 +6431,7 @@
         <v>125</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F168" s="1">
         <v>3</v>
@@ -6413,29 +6439,29 @@
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="28" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C169" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C170" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="28" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>27</v>
@@ -6452,7 +6478,7 @@
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>17</v>
@@ -6461,7 +6487,7 @@
         <v>18</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E172" s="31" t="s">
         <v>196</v>
@@ -6472,7 +6498,7 @@
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>135</v>
@@ -6490,12 +6516,12 @@
         <v>4</v>
       </c>
       <c r="G173" s="25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>87</v>
@@ -6509,10 +6535,10 @@
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C175" s="29" t="s">
         <v>80</v>
@@ -6521,15 +6547,15 @@
         <v>73</v>
       </c>
       <c r="G175" s="25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="28" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C176" s="29" t="s">
         <v>9</v>
@@ -6543,10 +6569,10 @@
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C177" s="29" t="s">
         <v>9</v>
@@ -6558,12 +6584,12 @@
         <v>185</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>179</v>
@@ -6572,30 +6598,30 @@
         <v>48</v>
       </c>
       <c r="D178" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E178" s="43" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F178" s="1">
         <v>3</v>
       </c>
       <c r="G178" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C179" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E179" s="31" t="s">
         <v>185</v>
@@ -6603,7 +6629,7 @@
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>115</v>
@@ -6612,21 +6638,21 @@
         <v>18</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E180" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C181" s="29" t="s">
         <v>48</v>
@@ -6641,12 +6667,12 @@
         <v>2</v>
       </c>
       <c r="G181" s="32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>17</v>
@@ -6655,29 +6681,29 @@
         <v>80</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G182" s="25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="28" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C183" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>179</v>
@@ -6686,7 +6712,7 @@
         <v>28</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E184" s="31" t="s">
         <v>82</v>
@@ -6697,7 +6723,7 @@
     </row>
     <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>27</v>
@@ -6706,21 +6732,21 @@
         <v>80</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E185" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G185" s="25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C186" s="29" t="s">
         <v>80</v>
@@ -6734,16 +6760,16 @@
     </row>
     <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C187" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="E187" s="31" t="s">
         <v>15</v>
@@ -6752,12 +6778,12 @@
         <v>5</v>
       </c>
       <c r="G187" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="28" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>8</v>
@@ -6772,12 +6798,12 @@
         <v>15</v>
       </c>
       <c r="G188" s="25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>179</v>
@@ -6786,32 +6812,32 @@
         <v>18</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F189" s="1">
         <v>3</v>
       </c>
       <c r="G189" s="25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C190" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="28" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>115</v>
@@ -6820,7 +6846,7 @@
         <v>9</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E191" s="31" t="s">
         <v>15</v>
@@ -6828,36 +6854,36 @@
     </row>
     <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="28" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C192" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E192" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G192" s="25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="28" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C193" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E193" s="31" t="s">
         <v>15</v>
@@ -6866,15 +6892,15 @@
         <v>2</v>
       </c>
       <c r="G193" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="28" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C194" s="29" t="s">
         <v>80</v>
@@ -6889,12 +6915,12 @@
         <v>2</v>
       </c>
       <c r="G194" s="25" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="28" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>115</v>
@@ -6912,15 +6938,15 @@
         <v>4</v>
       </c>
       <c r="G195" s="25" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="28" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C196" s="29" t="s">
         <v>9</v>
@@ -6934,10 +6960,10 @@
     </row>
     <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="28" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C197" s="29" t="s">
         <v>48</v>
@@ -6954,7 +6980,7 @@
     </row>
     <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="28" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>179</v>
@@ -6966,18 +6992,18 @@
         <v>180</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F198" s="1">
         <v>2</v>
       </c>
       <c r="G198" s="25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="28" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>115</v>
@@ -6994,7 +7020,7 @@
     </row>
     <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>68</v>
@@ -7011,7 +7037,7 @@
     </row>
     <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="28" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
@@ -7028,10 +7054,10 @@
     </row>
     <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="28" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C202" s="29" t="s">
         <v>9</v>
@@ -7043,12 +7069,12 @@
         <v>4</v>
       </c>
       <c r="G202" s="25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="35" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B203" s="36" t="s">
         <v>37</v>
@@ -7066,35 +7092,35 @@
         <v>7</v>
       </c>
       <c r="G203" s="40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="35" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B204" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C204" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="E204" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F204" s="36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G204" s="44" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>24</v>
@@ -7111,36 +7137,36 @@
     </row>
     <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="28" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C206" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E206" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G206" s="25" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="28" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C207" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F207" s="1">
         <v>3</v>
@@ -7151,10 +7177,10 @@
     </row>
     <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C208" s="29" t="s">
         <v>48</v>
@@ -7163,21 +7189,21 @@
         <v>212</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F208" s="1">
         <v>5</v>
       </c>
       <c r="G208" s="25" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="30" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C209" s="29" t="s">
         <v>18</v>
@@ -7188,7 +7214,7 @@
     </row>
     <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="28" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>8</v>
@@ -7197,18 +7223,18 @@
         <v>124</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E210" s="31" t="s">
         <v>82</v>
       </c>
       <c r="G210" s="25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="28" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>17</v>
@@ -7228,7 +7254,7 @@
     </row>
     <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="28" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C212" s="29" t="s">
         <v>28</v>
@@ -7240,32 +7266,32 @@
         <v>15</v>
       </c>
       <c r="G212" s="25" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C213" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E213" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G213" s="25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
@@ -7282,7 +7308,7 @@
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>17</v>
@@ -7291,47 +7317,47 @@
         <v>124</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E215" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G215" s="25" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="28" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C216" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E216" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G216" s="32" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="28" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C217" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E217" s="31" t="s">
         <v>15</v>
@@ -7340,32 +7366,32 @@
         <v>4</v>
       </c>
       <c r="G217" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="28" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C218" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G218" s="25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>115</v>
@@ -7374,21 +7400,21 @@
         <v>48</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E219" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C220" s="29" t="s">
         <v>48</v>
@@ -7405,7 +7431,7 @@
     </row>
     <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="28" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>87</v>
@@ -7414,7 +7440,7 @@
         <v>80</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E221" s="31" t="s">
         <v>59</v>
@@ -7425,7 +7451,7 @@
     </row>
     <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="28" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>8</v>
@@ -7440,12 +7466,12 @@
         <v>6</v>
       </c>
       <c r="G222" s="25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>115</v>
@@ -7454,18 +7480,18 @@
         <v>28</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E223" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G223" s="32" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="28" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>37</v>
@@ -7483,15 +7509,15 @@
         <v>2</v>
       </c>
       <c r="G224" s="25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="28" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C225" s="29" t="s">
         <v>28</v>
@@ -7505,7 +7531,7 @@
     </row>
     <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="28" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>27</v>
@@ -7514,7 +7540,7 @@
         <v>48</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E226" s="31" t="s">
         <v>82</v>
@@ -7528,7 +7554,7 @@
     </row>
     <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C227" s="29" t="s">
         <v>9</v>
@@ -7542,7 +7568,7 @@
     </row>
     <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="28" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C228" s="29" t="s">
         <v>80</v>
@@ -7554,15 +7580,15 @@
         <v>15</v>
       </c>
       <c r="G228" s="25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C229" s="29" t="s">
         <v>9</v>
@@ -7576,7 +7602,7 @@
     </row>
     <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="28" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>27</v>
@@ -7585,18 +7611,18 @@
         <v>18</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E230" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G230" s="25" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>115</v>
@@ -7605,7 +7631,7 @@
         <v>48</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E231" s="31" t="s">
         <v>15</v>
@@ -7614,12 +7640,12 @@
         <v>4</v>
       </c>
       <c r="G231" s="25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>24</v>
@@ -7636,7 +7662,7 @@
     </row>
     <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="28" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>27</v>
@@ -7645,15 +7671,15 @@
         <v>80</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>24</v>
@@ -7670,10 +7696,10 @@
     </row>
     <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="28" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C235" s="29" t="s">
         <v>28</v>
@@ -7685,12 +7711,12 @@
         <v>15</v>
       </c>
       <c r="G235" s="32" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="28" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>135</v>
@@ -7699,7 +7725,7 @@
         <v>48</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E236" s="31" t="s">
         <v>15</v>
@@ -7708,15 +7734,15 @@
         <v>2</v>
       </c>
       <c r="G236" s="32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="28" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C237" s="29" t="s">
         <v>18</v>
@@ -7731,12 +7757,12 @@
         <v>7</v>
       </c>
       <c r="G237" s="25" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="28" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C238" s="29" t="s">
         <v>80</v>
@@ -7748,12 +7774,12 @@
         <v>15</v>
       </c>
       <c r="G238" s="25" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C239" s="29" t="s">
         <v>18</v>
@@ -7765,12 +7791,12 @@
         <v>15</v>
       </c>
       <c r="G239" s="25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="28" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>87</v>
@@ -7782,21 +7808,21 @@
         <v>322</v>
       </c>
       <c r="E240" s="28" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F240" s="1">
         <v>4</v>
       </c>
       <c r="G240" s="25" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C241" s="29" t="s">
         <v>80</v>
@@ -7808,15 +7834,15 @@
         <v>15</v>
       </c>
       <c r="G241" s="32" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C242" s="29" t="s">
         <v>18</v>
@@ -7828,29 +7854,29 @@
         <v>15</v>
       </c>
       <c r="G242" s="32" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="28" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C243" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F243" s="1">
         <v>3</v>
       </c>
       <c r="G243" s="25" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="28" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>17</v>
@@ -7870,27 +7896,27 @@
     </row>
     <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="28" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C245" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E245" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G245" s="25" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>17</v>
@@ -7899,7 +7925,7 @@
         <v>28</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E246" s="31" t="s">
         <v>15</v>
@@ -7908,15 +7934,15 @@
         <v>6</v>
       </c>
       <c r="G246" s="32" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="28" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C247" s="29" t="s">
         <v>48</v>
@@ -7933,7 +7959,7 @@
     </row>
     <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="28" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>135</v>
@@ -7942,7 +7968,7 @@
         <v>28</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E248" s="31" t="s">
         <v>15</v>
@@ -7950,7 +7976,7 @@
     </row>
     <row r="249" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="28" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>183</v>
@@ -7965,15 +7991,15 @@
         <v>15</v>
       </c>
       <c r="G249" s="32" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="28" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C250" s="29" t="s">
         <v>28</v>
@@ -7985,12 +8011,12 @@
         <v>15</v>
       </c>
       <c r="G250" s="25" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="30" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>194</v>
@@ -8004,13 +8030,13 @@
     </row>
     <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="28" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C252" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E252" s="31" t="s">
         <v>15</v>
@@ -8018,7 +8044,7 @@
     </row>
     <row r="253" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="28" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>27</v>
@@ -8027,7 +8053,7 @@
         <v>18</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E253" s="31" t="s">
         <v>15</v>
@@ -8038,7 +8064,7 @@
     </row>
     <row r="254" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="28" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C254" s="29" t="s">
         <v>18</v>
@@ -8049,7 +8075,7 @@
     </row>
     <row r="255" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="28" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>27</v>
@@ -8058,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E255" s="31" t="s">
         <v>15</v>
@@ -8067,12 +8093,12 @@
         <v>2</v>
       </c>
       <c r="G255" s="25" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="28" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>51</v>
@@ -8089,7 +8115,7 @@
     </row>
     <row r="257" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="28" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>27</v>
@@ -8104,15 +8130,15 @@
         <v>3</v>
       </c>
       <c r="G257" s="25" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C258" s="29" t="s">
         <v>28</v>
@@ -8124,18 +8150,18 @@
         <v>15</v>
       </c>
       <c r="G258" s="32" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="28" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C259" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E259" s="31" t="s">
         <v>15</v>
@@ -8143,7 +8169,7 @@
     </row>
     <row r="260" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="28" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C260" s="29" t="s">
         <v>18</v>
@@ -8157,7 +8183,7 @@
     </row>
     <row r="261" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>17</v>
@@ -8166,18 +8192,18 @@
         <v>80</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E261" s="31" t="s">
         <v>185</v>
       </c>
       <c r="G261" s="25" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="28" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>27</v>
@@ -8194,7 +8220,7 @@
     </row>
     <row r="263" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>68</v>
@@ -8206,12 +8232,12 @@
         <v>54</v>
       </c>
       <c r="G263" s="25" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="28" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>27</v>
@@ -8220,7 +8246,7 @@
         <v>18</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E264" s="31" t="s">
         <v>15</v>
@@ -8229,18 +8255,18 @@
         <v>4</v>
       </c>
       <c r="G264" s="25" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="28" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C265" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E265" s="31" t="s">
         <v>15</v>
@@ -8248,7 +8274,7 @@
     </row>
     <row r="266" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="28" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C266" s="29" t="s">
         <v>80</v>
@@ -8262,10 +8288,10 @@
     </row>
     <row r="267" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="28" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C267" s="29" t="s">
         <v>80</v>
@@ -8282,10 +8308,10 @@
     </row>
     <row r="268" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="28" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C268" s="29" t="s">
         <v>9</v>
@@ -8299,7 +8325,7 @@
     </row>
     <row r="269" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="28" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>236</v>
@@ -8308,7 +8334,7 @@
         <v>18</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E269" s="31" t="s">
         <v>82</v>
@@ -8316,7 +8342,7 @@
     </row>
     <row r="270" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="28" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>27</v>
@@ -8325,18 +8351,18 @@
         <v>9</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E270" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G270" s="25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="28" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>27</v>
@@ -8354,21 +8380,21 @@
         <v>2</v>
       </c>
       <c r="G271" s="25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="35" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B272" s="36" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C272" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D272" s="38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E272" s="39" t="s">
         <v>15</v>
@@ -8377,15 +8403,15 @@
         <v>5</v>
       </c>
       <c r="G272" s="44" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C273" s="29" t="s">
         <v>28</v>
@@ -8394,72 +8420,72 @@
         <v>73</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G273" s="42" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="28" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C274" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D274" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F274" s="1">
         <v>4</v>
       </c>
       <c r="G274" s="25" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="28" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C275" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="28" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C276" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D276" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G276" s="25" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="28" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>8</v>
@@ -8468,7 +8494,7 @@
         <v>80</v>
       </c>
       <c r="D277" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E277" s="31" t="s">
         <v>82</v>
@@ -8476,7 +8502,7 @@
     </row>
     <row r="278" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="28" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
@@ -8485,21 +8511,21 @@
         <v>9</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E278" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G278" s="32" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="28" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C279" s="29" t="s">
         <v>9</v>
@@ -8514,12 +8540,12 @@
         <v>3</v>
       </c>
       <c r="G279" s="25" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="28" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>179</v>
@@ -8528,18 +8554,18 @@
         <v>18</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F280" s="1">
         <v>3</v>
       </c>
       <c r="G280" s="25" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="28" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>27</v>
@@ -8548,21 +8574,21 @@
         <v>18</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E281" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G281" s="25" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="28" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C282" s="29" t="s">
         <v>9</v>
@@ -8574,44 +8600,44 @@
         <v>3</v>
       </c>
       <c r="G282" s="25" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C283" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D283" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F283" s="1">
         <v>4</v>
       </c>
       <c r="G283" s="25" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="28" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C284" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E284" s="31" t="s">
         <v>15</v>
@@ -8622,7 +8648,7 @@
     </row>
     <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>115</v>
@@ -8637,12 +8663,12 @@
         <v>15</v>
       </c>
       <c r="G285" s="25" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="28" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>115</v>
@@ -8651,7 +8677,7 @@
         <v>9</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E286" s="31" t="s">
         <v>15</v>
@@ -8662,7 +8688,7 @@
     </row>
     <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="28" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>115</v>
@@ -8682,10 +8708,10 @@
     </row>
     <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="28" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C288" s="29" t="s">
         <v>80</v>
@@ -8699,30 +8725,30 @@
     </row>
     <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C289" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="35" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B290" s="36" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C290" s="37" t="s">
         <v>48</v>
       </c>
       <c r="D290" s="38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E290" s="39" t="s">
         <v>15</v>
@@ -8731,12 +8757,12 @@
         <v>5</v>
       </c>
       <c r="G290" s="44" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="28" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>17</v>
@@ -8753,7 +8779,7 @@
     </row>
     <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="28" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>68</v>
@@ -8762,7 +8788,7 @@
         <v>9</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E292" s="31" t="s">
         <v>15</v>
@@ -8771,12 +8797,12 @@
         <v>2</v>
       </c>
       <c r="G292" s="25" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="28" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>115</v>
@@ -8785,7 +8811,7 @@
         <v>9</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E293" s="31" t="s">
         <v>15</v>
@@ -8793,7 +8819,7 @@
     </row>
     <row r="294" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="28" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C294" s="29" t="s">
         <v>18</v>
@@ -8810,7 +8836,7 @@
     </row>
     <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>27</v>
@@ -8819,7 +8845,7 @@
         <v>9</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E295" s="31" t="s">
         <v>15</v>
@@ -8827,7 +8853,7 @@
     </row>
     <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>17</v>
@@ -8836,7 +8862,7 @@
         <v>80</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E296" s="31" t="s">
         <v>15</v>
@@ -8844,10 +8870,10 @@
     </row>
     <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="28" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C297" s="29" t="s">
         <v>18</v>
@@ -8864,13 +8890,13 @@
     </row>
     <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="28" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C298" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E298" s="31" t="s">
         <v>15</v>
@@ -8879,12 +8905,12 @@
         <v>4</v>
       </c>
       <c r="G298" s="32" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>108</v>
@@ -8899,12 +8925,12 @@
         <v>3</v>
       </c>
       <c r="G299" s="25" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="30" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>13</v>
@@ -8913,18 +8939,18 @@
         <v>9</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E300" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="25" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="30" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>13</v>
@@ -8933,18 +8959,18 @@
         <v>9</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E301" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G301" s="25" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="30" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>13</v>
@@ -8953,18 +8979,18 @@
         <v>28</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E302" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G302" s="25" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="30" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>13</v>
@@ -8973,7 +8999,7 @@
         <v>28</v>
       </c>
       <c r="D303" s="24" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E303" s="31" t="s">
         <v>15</v>
@@ -8981,7 +9007,7 @@
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="30" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>13</v>
@@ -8990,18 +9016,18 @@
         <v>9</v>
       </c>
       <c r="D304" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E304" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G304" s="25" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="30" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>13</v>
@@ -9010,41 +9036,41 @@
         <v>18</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E305" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="30" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C306" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D306" s="24" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E306" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G306" s="25" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="30" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C307" s="29" t="s">
         <v>28</v>
@@ -9058,10 +9084,10 @@
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="30" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C308" s="29" t="s">
         <v>48</v>
@@ -9078,7 +9104,7 @@
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>13</v>
@@ -9087,21 +9113,21 @@
         <v>18</v>
       </c>
       <c r="D309" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E309" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G309" s="25" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="30" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C310" s="29" t="s">
         <v>9</v>
@@ -9113,15 +9139,15 @@
         <v>15</v>
       </c>
       <c r="G310" s="25" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="30" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C311" s="29" t="s">
         <v>18</v>
@@ -9135,10 +9161,10 @@
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="30" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C312" s="29" t="s">
         <v>28</v>
@@ -9150,15 +9176,15 @@
         <v>15</v>
       </c>
       <c r="G312" s="25" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="30" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C313" s="29" t="s">
         <v>18</v>
@@ -9172,10 +9198,10 @@
     </row>
     <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="30" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C314" s="29" t="s">
         <v>48</v>
@@ -9187,15 +9213,15 @@
         <v>15</v>
       </c>
       <c r="G314" s="32" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="30" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C315" s="29" t="s">
         <v>28</v>
@@ -9207,15 +9233,15 @@
         <v>15</v>
       </c>
       <c r="G315" s="25" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="30" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C316" s="29" t="s">
         <v>9</v>
@@ -9227,15 +9253,15 @@
         <v>15</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="30" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C317" s="29" t="s">
         <v>28</v>
@@ -9247,15 +9273,15 @@
         <v>15</v>
       </c>
       <c r="G317" s="25" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="30" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C318" s="29" t="s">
         <v>28</v>
@@ -9267,15 +9293,15 @@
         <v>15</v>
       </c>
       <c r="G318" s="25" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="30" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C319" s="29" t="s">
         <v>48</v>
@@ -9287,15 +9313,15 @@
         <v>15</v>
       </c>
       <c r="G319" s="25" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="30" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C320" s="29" t="s">
         <v>28</v>
@@ -9307,12 +9333,12 @@
         <v>15</v>
       </c>
       <c r="G320" s="25" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="30" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>13</v>
@@ -9321,18 +9347,18 @@
         <v>80</v>
       </c>
       <c r="D321" s="24" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E321" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G321" s="25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="30" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>13</v>
@@ -9349,10 +9375,10 @@
     </row>
     <row r="323" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="28" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C323" s="29" t="s">
         <v>18</v>
@@ -9364,15 +9390,15 @@
         <v>15</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C324" s="29" t="s">
         <v>9</v>
@@ -9381,15 +9407,15 @@
         <v>58</v>
       </c>
       <c r="G324" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C325" s="29" t="s">
         <v>124</v>
@@ -9400,10 +9426,10 @@
     </row>
     <row r="326" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="28" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C326" s="29" t="s">
         <v>18</v>
@@ -9414,27 +9440,41 @@
     </row>
     <row r="327" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="28" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="C327" s="29" t="s">
         <v>18</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>795</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="B328" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="C328" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328" s="47" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A328:A1048576">
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A329:A1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A328:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A329:A1048576">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A328:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A329:A1048576">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10006,11 +10046,12 @@
     <hyperlink ref="A324" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
     <hyperlink ref="A325" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
     <hyperlink ref="A326" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="A327" r:id="rId569" display="https://leetcode.cn/problems/find-closest-node-to-given-two-nodes/" xr:uid="{68FDC2C4-8A7B-4E7A-88C7-25E17A96106F}"/>
+    <hyperlink ref="A327" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="A328" r:id="rId570" display="https://leetcode.cn/problems/snakes-and-ladders/" xr:uid="{C2E4524D-288C-4E2A-959E-63B0B85EFE1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId570"/>
+    <tablePart r:id="rId571"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10039,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -10079,30 +10120,30 @@
     </row>
     <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>9</v>
@@ -10120,7 +10161,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -10138,7 +10179,7 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="11"/>
@@ -10146,52 +10187,52 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="F8" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -10199,27 +10240,27 @@
         <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EF1B6A-7390-4192-9089-70536F3465DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7FFEE6-D1D1-4A44-848C-7F7A9ABC985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="809">
   <si>
     <t>题目</t>
   </si>
@@ -2490,12 +2490,6 @@
     </r>
   </si>
   <si>
-    <t>字符串乘法</t>
-  </si>
-  <si>
-    <t>GPT</t>
-  </si>
-  <si>
     <t>// 反向遍历字符串并相乘
         for (int i = len1 - 1; i &gt;= 0; i--) {
             for (int j = len2 - 1; j &gt;= 0; j--) {
@@ -2543,12 +2537,6 @@
     <t>1456. 定长子串中元音的最大数目</t>
   </si>
   <si>
-    <t>3.无重复字符的最长子串</t>
-  </si>
-  <si>
-    <t>蚂蚁</t>
-  </si>
-  <si>
     <t>909. 蛇梯棋</t>
   </si>
   <si>
@@ -2557,6 +2545,61 @@
   </si>
   <si>
     <t>bfs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2929. 给小朋友们分糖果 II</t>
+  </si>
+  <si>
+    <t>字节、拼多多、腾讯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁、字节、腾讯、华为、百度、美团</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合数学</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.02</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2655,7 +2698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2678,24 +2721,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor theme="9" tint="0.79989013336588644"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.79989013336588644"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -2794,12 +2819,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,31 +2830,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,12 +2846,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2884,20 +2886,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2909,7 +2911,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2924,12 +2926,82 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3084,7 +3156,12 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3126,27 +3203,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:F1048573" totalsRowShown="0">
-  <autoFilter ref="A1:F1048573" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="标签" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
+  <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="参考题解"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3411,115 +3486,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="20.640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="20.640625" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="23"/>
+    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1">
@@ -3527,19 +3602,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1">
@@ -3547,39 +3622,39 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1">
@@ -3587,19 +3662,19 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="1">
@@ -3607,56 +3682,56 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="1">
@@ -3664,283 +3739,283 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="E15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="33" t="s">
+      <c r="E19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F28" s="1">
@@ -3948,148 +4023,148 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="21" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="20" t="s">
         <v>111</v>
       </c>
       <c r="F35" s="1">
@@ -4097,87 +4172,90 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="C39" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="1">
@@ -4185,47 +4263,47 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="20" t="s">
         <v>133</v>
       </c>
       <c r="F43" s="1">
@@ -4233,19 +4311,19 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="1">
@@ -4253,27 +4331,27 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F46" s="1">
@@ -4281,90 +4359,90 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="23" t="s">
         <v>145</v>
       </c>
       <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="25" t="s">
+      <c r="E49" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="25" t="s">
+      <c r="E50" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="13" t="s">
         <v>155</v>
       </c>
       <c r="F51" s="1">
@@ -4372,193 +4450,193 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="13" t="s">
         <v>157</v>
       </c>
       <c r="F52" s="1">
         <v>4</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F54" s="1">
         <v>4</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="1">
         <v>6</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="21" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D56" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="25" t="s">
+      <c r="E57" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="20" t="s">
         <v>188</v>
       </c>
       <c r="F61" s="1">
@@ -4566,110 +4644,110 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="17" t="s">
         <v>189</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="31"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="17" t="s">
         <v>193</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="23" t="s">
         <v>198</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="17" t="s">
         <v>202</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="1">
@@ -4677,19 +4755,19 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="17" t="s">
         <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="1">
@@ -4697,16 +4775,16 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="13" t="s">
         <v>210</v>
       </c>
       <c r="F70" s="1">
@@ -4714,56 +4792,56 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D71" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="32" t="s">
+      <c r="E71" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="36">
+      <c r="E72" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="25">
         <v>2</v>
       </c>
-      <c r="G72" s="40" t="s">
+      <c r="G72" s="29" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="13" t="s">
         <v>217</v>
       </c>
       <c r="F73" s="1">
@@ -4771,93 +4849,93 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="17" t="s">
         <v>218</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="13" t="s">
         <v>144</v>
       </c>
       <c r="F74" s="1">
         <v>5</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G74" s="14" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F76" s="1">
         <v>4</v>
       </c>
-      <c r="G76" s="25" t="s">
+      <c r="G76" s="14" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="1">
         <v>4</v>
       </c>
-      <c r="G77" s="25" t="s">
+      <c r="G77" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F78" s="1">
@@ -4865,19 +4943,19 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F79" s="1">
@@ -4885,70 +4963,70 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F80" s="1">
         <v>3</v>
       </c>
-      <c r="G80" s="25" t="s">
+      <c r="G80" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="17" t="s">
         <v>232</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="17" t="s">
         <v>235</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="1">
@@ -4956,13 +5034,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="13" t="s">
         <v>240</v>
       </c>
       <c r="F84" s="1">
@@ -4970,33 +5048,33 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="17" t="s">
         <v>241</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="14" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="13" t="s">
         <v>240</v>
       </c>
       <c r="F86" s="1">
@@ -5004,70 +5082,70 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="17" t="s">
         <v>245</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="G87" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="17" t="s">
         <v>248</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="25" t="s">
+      <c r="G89" s="14" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F90" s="1">
@@ -5075,33 +5153,33 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="17" t="s">
         <v>254</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="13" t="s">
         <v>259</v>
       </c>
       <c r="F92" s="1">
@@ -5109,90 +5187,90 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G94" s="25" t="s">
+      <c r="G94" s="14" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="G95" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="17" t="s">
         <v>269</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="17" t="s">
         <v>271</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="20" t="s">
         <v>273</v>
       </c>
       <c r="F97" s="1">
@@ -5200,98 +5278,98 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="17" t="s">
         <v>274</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="17" t="s">
         <v>275</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="25" t="s">
+      <c r="E99" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="14" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="17" t="s">
         <v>278</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G100" s="25" t="s">
+      <c r="G100" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="31" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="17" t="s">
         <v>286</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F103" s="1">
@@ -5299,129 +5377,129 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="17" t="s">
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F104" s="1">
         <v>3</v>
       </c>
-      <c r="G104" s="25" t="s">
+      <c r="G104" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G107" s="32" t="s">
+      <c r="G107" s="21" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="17" t="s">
         <v>298</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="28" t="s">
+      <c r="A109" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="D109" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G109" s="25" t="s">
+      <c r="G109" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G110" s="21" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="28" t="s">
+      <c r="A111" s="17" t="s">
         <v>305</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="20" t="s">
         <v>185</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -5429,16 +5507,16 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="13" t="s">
         <v>310</v>
       </c>
       <c r="F112" s="1">
@@ -5446,36 +5524,36 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="D113" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F113" s="1">
         <v>3</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="14" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="28" t="s">
+      <c r="A114" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="24" t="s">
+      <c r="D114" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F114" s="1">
@@ -5483,101 +5561,101 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="24" t="s">
+      <c r="D115" s="13" t="s">
         <v>315</v>
       </c>
       <c r="F115" s="1">
         <v>4</v>
       </c>
-      <c r="G115" s="32" t="s">
+      <c r="G115" s="21" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="28" t="s">
+      <c r="A117" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D117" s="24" t="s">
+      <c r="D117" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="24" t="s">
+      <c r="D118" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F118" s="1">
         <v>4</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="28" t="s">
+      <c r="A119" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D119" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="17" t="s">
         <v>326</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F120" s="1">
@@ -5585,295 +5663,295 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="24" t="s">
+      <c r="D121" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F121" s="1">
         <v>6</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G121" s="14" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="28" t="s">
+      <c r="A122" s="17" t="s">
         <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="24" t="s">
+      <c r="D122" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G122" s="25" t="s">
+      <c r="G122" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D123" s="24" t="s">
+      <c r="D123" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F123" s="1">
         <v>4</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G123" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="28" t="s">
+      <c r="A124" s="17" t="s">
         <v>337</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F124" s="1">
         <v>5</v>
       </c>
-      <c r="G124" s="25" t="s">
+      <c r="G124" s="14" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="17" t="s">
         <v>339</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D125" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G125" s="25" t="s">
+      <c r="G125" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="24" t="s">
+      <c r="D126" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="17" t="s">
         <v>343</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="24" t="s">
+      <c r="D127" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="E127" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G127" s="25" t="s">
+      <c r="G127" s="14" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="17" t="s">
         <v>347</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="D128" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F128" s="1">
         <v>4</v>
       </c>
-      <c r="G128" s="25" t="s">
+      <c r="G128" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="28" t="s">
+      <c r="A129" s="17" t="s">
         <v>349</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C130" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="24" t="s">
+      <c r="D130" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G130" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="17" t="s">
         <v>353</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="24" t="s">
+      <c r="D131" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="28" t="s">
+      <c r="A132" s="17" t="s">
         <v>354</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C132" s="29" t="s">
+      <c r="C132" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G132" s="25" t="s">
+      <c r="G132" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="17" t="s">
         <v>358</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C133" s="29" t="s">
+      <c r="C133" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D133" s="24" t="s">
+      <c r="D133" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="28" t="s">
+      <c r="A134" s="17" t="s">
         <v>360</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C134" s="29" t="s">
+      <c r="C134" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D134" s="24" t="s">
+      <c r="D134" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E134" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G134" s="25" t="s">
+      <c r="G134" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="28" t="s">
+      <c r="A135" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="29" t="s">
+      <c r="C135" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="24" t="s">
+      <c r="D135" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E135" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="17" t="s">
         <v>365</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="13" t="s">
         <v>292</v>
       </c>
       <c r="F136" s="1">
@@ -5881,107 +5959,107 @@
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="28" t="s">
+      <c r="A137" s="17" t="s">
         <v>367</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C137" s="29" t="s">
+      <c r="C137" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="24" t="s">
+      <c r="D137" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="E137" s="31" t="s">
+      <c r="E137" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="17" t="s">
         <v>370</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C138" s="29" t="s">
+      <c r="C138" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D138" s="24" t="s">
+      <c r="D138" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="28" t="s">
+      <c r="A139" s="17" t="s">
         <v>373</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="C139" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D139" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A140" s="28" t="s">
+      <c r="A140" s="17" t="s">
         <v>376</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C140" s="29" t="s">
+      <c r="C140" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D140" s="24" t="s">
+      <c r="D140" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A141" s="28" t="s">
+      <c r="A141" s="17" t="s">
         <v>379</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="E141" s="31" t="s">
+      <c r="E141" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G141" s="25" t="s">
+      <c r="G141" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="28" t="s">
+      <c r="A142" s="17" t="s">
         <v>382</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="29" t="s">
+      <c r="C142" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E142" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F142" s="1">
@@ -5989,132 +6067,132 @@
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="17" t="s">
         <v>383</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C143" s="29" t="s">
+      <c r="C143" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="13" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="28" t="s">
+      <c r="A144" s="17" t="s">
         <v>386</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="29" t="s">
+      <c r="C144" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="24" t="s">
+      <c r="D144" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="28" t="s">
+      <c r="A145" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="24" t="s">
+      <c r="D145" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G145" s="25" t="s">
+      <c r="G145" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="28" t="s">
+      <c r="A146" s="17" t="s">
         <v>391</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C146" s="29" t="s">
+      <c r="C146" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="24" t="s">
+      <c r="D146" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G146" s="25" t="s">
+      <c r="G146" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="28" t="s">
+      <c r="A147" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C147" s="29" t="s">
+      <c r="C147" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="13" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="17" t="s">
         <v>395</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="28" t="s">
+      <c r="A149" s="17" t="s">
         <v>398</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C149" s="29" t="s">
+      <c r="C149" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D149" s="24" t="s">
+      <c r="D149" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="E149" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G149" s="25" t="s">
+      <c r="G149" s="14" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="28" t="s">
+      <c r="A150" s="17" t="s">
         <v>402</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="C150" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="24" t="s">
+      <c r="D150" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E150" s="31" t="s">
+      <c r="E150" s="20" t="s">
         <v>133</v>
       </c>
       <c r="F150" s="1">
@@ -6122,95 +6200,95 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="28" t="s">
+      <c r="A151" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="29" t="s">
+      <c r="C151" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="24" t="s">
+      <c r="D151" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E151" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="42" t="s">
+      <c r="G151" s="31" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="28" t="s">
+      <c r="A152" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C152" s="29" t="s">
+      <c r="C152" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D152" s="24" t="s">
+      <c r="D152" s="13" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="17" t="s">
         <v>408</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C153" s="29" t="s">
+      <c r="C153" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D153" s="24" t="s">
+      <c r="D153" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="G153" s="25" t="s">
+      <c r="G153" s="14" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C154" s="29" t="s">
+      <c r="C154" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="D154" s="13" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C155" s="29" t="s">
+      <c r="C155" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="24" t="s">
+      <c r="D155" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="E155" s="31" t="s">
+      <c r="E155" s="20" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="28" t="s">
+      <c r="A156" s="17" t="s">
         <v>417</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C156" s="29" t="s">
+      <c r="C156" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="24" t="s">
+      <c r="D156" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E156" s="31" t="s">
+      <c r="E156" s="20" t="s">
         <v>419</v>
       </c>
       <c r="F156" s="1">
@@ -6221,216 +6299,216 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A157" s="28" t="s">
+      <c r="A157" s="17" t="s">
         <v>420</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="29" t="s">
+      <c r="C157" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="24" t="s">
+      <c r="D157" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="G157" s="25" t="s">
+      <c r="G157" s="14" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="17" t="s">
         <v>423</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C158" s="29" t="s">
+      <c r="C158" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="24" t="s">
+      <c r="D158" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E158" s="31" t="s">
+      <c r="E158" s="20" t="s">
         <v>92</v>
       </c>
       <c r="F158" s="1">
         <v>3</v>
       </c>
-      <c r="G158" s="25" t="s">
+      <c r="G158" s="14" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A159" s="28" t="s">
+      <c r="A159" s="17" t="s">
         <v>426</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C159" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E159" s="31" t="s">
+      <c r="C159" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D159" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="E159" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F159" s="1">
-        <v>4</v>
-      </c>
-      <c r="G159" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G159" s="14" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="17" t="s">
         <v>428</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="29" t="s">
+      <c r="C160" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="24" t="s">
+      <c r="D160" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E160" s="31" t="s">
+      <c r="E160" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F160" s="1">
         <v>4</v>
       </c>
-      <c r="G160" s="25" t="s">
+      <c r="G160" s="14" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A161" s="28" t="s">
+      <c r="A161" s="17" t="s">
         <v>430</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C161" s="29" t="s">
+      <c r="C161" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D161" s="24" t="s">
+      <c r="D161" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A162" s="28" t="s">
+      <c r="A162" s="17" t="s">
         <v>432</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C162" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D162" s="24" t="s">
+      <c r="D162" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A163" s="28" t="s">
+      <c r="A163" s="17" t="s">
         <v>433</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C163" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D163" s="24" t="s">
+      <c r="D163" s="13" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A164" s="28" t="s">
+      <c r="A164" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C164" s="29" t="s">
+      <c r="C164" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D164" s="24" t="s">
+      <c r="D164" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="G164" s="25" t="s">
+      <c r="G164" s="14" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A165" s="35" t="s">
+      <c r="A165" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="B165" s="36" t="s">
+      <c r="B165" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="37" t="s">
+      <c r="C165" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D165" s="38" t="s">
+      <c r="D165" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E165" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="36">
+      <c r="E165" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="25">
         <v>2</v>
       </c>
-      <c r="G165" s="40"/>
+      <c r="G165" s="29"/>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A166" s="28" t="s">
+      <c r="A166" s="17" t="s">
         <v>439</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C166" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D166" s="24" t="s">
+      <c r="D166" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A167" s="28" t="s">
+      <c r="A167" s="17" t="s">
         <v>441</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C167" s="29" t="s">
+      <c r="C167" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="24" t="s">
+      <c r="D167" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="17" t="s">
         <v>443</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C168" s="29" t="s">
+      <c r="C168" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D168" s="24" t="s">
+      <c r="D168" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E168" s="20" t="s">
         <v>445</v>
       </c>
       <c r="F168" s="1">
@@ -6438,38 +6516,38 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" s="28" t="s">
+      <c r="A169" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C169" s="29" t="s">
+      <c r="C169" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D169" s="24" t="s">
+      <c r="D169" s="13" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A170" s="28" t="s">
+      <c r="A170" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C170" s="29" t="s">
+      <c r="C170" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="24" t="s">
+      <c r="D170" s="13" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A171" s="28" t="s">
+      <c r="A171" s="17" t="s">
         <v>450</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="29" t="s">
+      <c r="C171" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="24" t="s">
+      <c r="D171" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F171" s="1">
@@ -6477,19 +6555,19 @@
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="28" t="s">
+      <c r="A172" s="17" t="s">
         <v>451</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="29" t="s">
+      <c r="C172" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="24" t="s">
+      <c r="D172" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E172" s="31" t="s">
+      <c r="E172" s="20" t="s">
         <v>196</v>
       </c>
       <c r="F172" s="1">
@@ -6497,481 +6575,482 @@
       </c>
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="28" t="s">
+      <c r="A173" s="17" t="s">
         <v>453</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C173" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D173" s="24" t="s">
+      <c r="D173" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E173" s="31" t="s">
+      <c r="E173" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F173" s="1">
         <v>4</v>
       </c>
-      <c r="G173" s="25" t="s">
+      <c r="G173" s="14" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="28" t="s">
+      <c r="A174" s="17" t="s">
         <v>455</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="29" t="s">
+      <c r="C174" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D174" s="24" t="s">
+      <c r="D174" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="17" t="s">
         <v>456</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C175" s="29" t="s">
+      <c r="C175" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G175" s="25" t="s">
+      <c r="G175" s="14" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="28" t="s">
+      <c r="A176" s="17" t="s">
         <v>458</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C176" s="29" t="s">
+      <c r="C176" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="24" t="s">
+      <c r="D176" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="28" t="s">
+    <row r="177" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="17" t="s">
         <v>459</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C177" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="24" t="s">
+      <c r="D177" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E177" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G177" s="42" t="s">
+      <c r="G177" s="31" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="28" t="s">
+    <row r="178" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="17" t="s">
         <v>461</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="29" t="s">
+      <c r="C178" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D178" s="24" t="s">
+      <c r="D178" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="E178" s="43" t="s">
+      <c r="E178" s="32" t="s">
         <v>463</v>
       </c>
       <c r="F178" s="1">
         <v>3</v>
       </c>
-      <c r="G178" s="25" t="s">
+      <c r="G178" s="14" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="28" t="s">
+    <row r="179" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="17" t="s">
         <v>465</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C179" s="29" t="s">
+      <c r="C179" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D179" s="24" t="s">
+      <c r="D179" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E179" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="28" t="s">
+    <row r="180" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="17" t="s">
         <v>467</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C180" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D180" s="24" t="s">
+      <c r="D180" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E180" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" s="25" t="s">
+      <c r="E180" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="14" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="28" t="s">
+    <row r="181" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="17" t="s">
         <v>470</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C181" s="29" t="s">
+      <c r="C181" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="24" t="s">
+      <c r="D181" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="E181" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F181" s="1">
         <v>2</v>
       </c>
-      <c r="G181" s="32" t="s">
+      <c r="G181" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A182" s="28" t="s">
+    <row r="182" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="17" t="s">
         <v>473</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C182" s="29" t="s">
+      <c r="C182" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D182" s="24" t="s">
+      <c r="D182" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="28" t="s">
+    <row r="183" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="17" t="s">
         <v>476</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C183" s="29" t="s">
+      <c r="C183" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D183" s="13" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="28" t="s">
+    <row r="184" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="17" t="s">
         <v>479</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="29" t="s">
+      <c r="C184" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D184" s="24" t="s">
+      <c r="D184" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E184" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F184" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="28" t="s">
+    <row r="185" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="17" t="s">
         <v>480</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="29" t="s">
+      <c r="C185" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D185" s="24" t="s">
+      <c r="D185" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E185" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" s="25" t="s">
+      <c r="E185" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="28" t="s">
+    <row r="186" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="17" t="s">
         <v>483</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C186" s="29" t="s">
+      <c r="C186" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="24" t="s">
+      <c r="D186" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E186" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="28" t="s">
+      <c r="E186" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="17" t="s">
         <v>485</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C187" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D187" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="E187" s="31" t="s">
+      <c r="C187" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="D187" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="E187" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F187" s="1">
-        <v>5</v>
-      </c>
-      <c r="G187" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G187" s="14" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="28" t="s">
+      <c r="H187" s="38"/>
+    </row>
+    <row r="188" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="17" t="s">
         <v>487</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C188" s="29" t="s">
+      <c r="C188" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="24" t="s">
+      <c r="D188" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E188" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="25" t="s">
+      <c r="E188" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="14" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="28" t="s">
+    <row r="189" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="17" t="s">
         <v>489</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C189" s="29" t="s">
+      <c r="C189" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D189" s="24" t="s">
+      <c r="D189" s="13" t="s">
         <v>490</v>
       </c>
       <c r="F189" s="1">
         <v>3</v>
       </c>
-      <c r="G189" s="25" t="s">
+      <c r="G189" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="28" t="s">
+    <row r="190" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="17" t="s">
         <v>492</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C190" s="29" t="s">
+      <c r="C190" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D190" s="24" t="s">
+      <c r="D190" s="13" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="28" t="s">
+    <row r="191" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="17" t="s">
         <v>495</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C191" s="29" t="s">
+      <c r="C191" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="24" t="s">
+      <c r="D191" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E191" s="31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="28" t="s">
+      <c r="E191" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="17" t="s">
         <v>496</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C192" s="29" t="s">
+      <c r="C192" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="24" t="s">
+      <c r="D192" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="E192" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" s="25" t="s">
+      <c r="E192" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="14" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="28" t="s">
+      <c r="A193" s="17" t="s">
         <v>500</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C193" s="29" t="s">
+      <c r="C193" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D193" s="24" t="s">
+      <c r="D193" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="E193" s="31" t="s">
+      <c r="E193" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F193" s="1">
         <v>2</v>
       </c>
-      <c r="G193" s="32" t="s">
+      <c r="G193" s="21" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="28" t="s">
+      <c r="A194" s="17" t="s">
         <v>504</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C194" s="29" t="s">
+      <c r="C194" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="D194" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E194" s="31" t="s">
+      <c r="E194" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F194" s="1">
         <v>2</v>
       </c>
-      <c r="G194" s="25" t="s">
+      <c r="G194" s="14" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="28" t="s">
+      <c r="A195" s="17" t="s">
         <v>507</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C195" s="29" t="s">
+      <c r="C195" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D195" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E195" s="31" t="s">
+      <c r="E195" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F195" s="1">
         <v>4</v>
       </c>
-      <c r="G195" s="25" t="s">
+      <c r="G195" s="14" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="28" t="s">
+      <c r="A196" s="17" t="s">
         <v>509</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C196" s="29" t="s">
+      <c r="C196" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="24" t="s">
+      <c r="D196" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E196" s="31" t="s">
+      <c r="E196" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="28" t="s">
+      <c r="A197" s="17" t="s">
         <v>511</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C197" s="29" t="s">
+      <c r="C197" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="24" t="s">
+      <c r="D197" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E197" s="31" t="s">
+      <c r="E197" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F197" s="1">
@@ -6979,273 +7058,273 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="28" t="s">
+      <c r="A198" s="17" t="s">
         <v>513</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="29" t="s">
+      <c r="C198" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="24" t="s">
+      <c r="D198" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E198" s="31" t="s">
+      <c r="E198" s="20" t="s">
         <v>514</v>
       </c>
       <c r="F198" s="1">
         <v>2</v>
       </c>
-      <c r="G198" s="25" t="s">
+      <c r="G198" s="14" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="28" t="s">
+      <c r="A199" s="17" t="s">
         <v>516</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C199" s="29" t="s">
+      <c r="C199" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D199" s="24" t="s">
+      <c r="D199" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E199" s="31" t="s">
+      <c r="E199" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="28" t="s">
+      <c r="A200" s="17" t="s">
         <v>517</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C200" s="29" t="s">
+      <c r="C200" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="24" t="s">
+      <c r="D200" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E200" s="31" t="s">
+      <c r="E200" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="28" t="s">
+      <c r="A201" s="17" t="s">
         <v>518</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C201" s="29" t="s">
+      <c r="C201" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D201" s="24" t="s">
+      <c r="D201" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E201" s="31" t="s">
+      <c r="E201" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="28" t="s">
+      <c r="A202" s="17" t="s">
         <v>519</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C202" s="29" t="s">
+      <c r="C202" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="24" t="s">
+      <c r="D202" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F202" s="1">
         <v>4</v>
       </c>
-      <c r="G202" s="25" t="s">
+      <c r="G202" s="14" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="35" t="s">
+      <c r="A203" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B203" s="36" t="s">
+      <c r="B203" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C203" s="37" t="s">
+      <c r="C203" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D203" s="38" t="s">
+      <c r="D203" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="E203" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F203" s="36">
+      <c r="E203" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="25">
         <v>7</v>
       </c>
-      <c r="G203" s="40" t="s">
+      <c r="G203" s="29" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="35" t="s">
+      <c r="A204" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B204" s="36" t="s">
+      <c r="B204" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="C204" s="37" t="s">
+      <c r="C204" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D204" s="38" t="s">
+      <c r="D204" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E204" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="36">
+      <c r="E204" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="25">
         <v>7</v>
       </c>
-      <c r="G204" s="44" t="s">
+      <c r="G204" s="33" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="28" t="s">
+      <c r="A205" s="17" t="s">
         <v>527</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="29" t="s">
+      <c r="C205" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="24" t="s">
+      <c r="D205" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E205" s="31" t="s">
+      <c r="E205" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="28" t="s">
+      <c r="A206" s="17" t="s">
         <v>528</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C206" s="29" t="s">
+      <c r="C206" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="24" t="s">
+      <c r="D206" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E206" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" s="25" t="s">
+      <c r="E206" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="14" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="28" t="s">
+      <c r="A207" s="17" t="s">
         <v>532</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C207" s="29" t="s">
+      <c r="C207" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D207" s="24" t="s">
+      <c r="D207" s="13" t="s">
         <v>534</v>
       </c>
       <c r="F207" s="1">
         <v>3</v>
       </c>
-      <c r="G207" s="25" t="s">
+      <c r="G207" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="17" t="s">
         <v>535</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C208" s="29" t="s">
+      <c r="C208" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D208" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E208" s="31" t="s">
+      <c r="D208" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="E208" s="20" t="s">
         <v>536</v>
       </c>
       <c r="F208" s="1">
-        <v>5</v>
-      </c>
-      <c r="G208" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="30" t="s">
+      <c r="A209" s="19" t="s">
         <v>538</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C209" s="29" t="s">
+      <c r="C209" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="24" t="s">
+      <c r="D209" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="28" t="s">
+      <c r="A210" s="17" t="s">
         <v>540</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="29" t="s">
+      <c r="C210" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D210" s="24" t="s">
+      <c r="D210" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="E210" s="31" t="s">
+      <c r="E210" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="G210" s="25" t="s">
+      <c r="G210" s="14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="28" t="s">
+      <c r="A211" s="17" t="s">
         <v>543</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="29" t="s">
+      <c r="C211" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="24" t="s">
+      <c r="D211" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E211" s="31" t="s">
+      <c r="E211" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F211" s="1">
@@ -7253,176 +7332,176 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="28" t="s">
+      <c r="A212" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="C212" s="29" t="s">
+      <c r="C212" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D212" s="24" t="s">
+      <c r="D212" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E212" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G212" s="25" t="s">
+      <c r="E212" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" s="14" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" s="28" t="s">
+      <c r="A213" s="17" t="s">
         <v>546</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C213" s="29" t="s">
+      <c r="C213" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="24" t="s">
+      <c r="D213" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E213" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" s="25" t="s">
+      <c r="E213" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="14" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" s="28" t="s">
+      <c r="A214" s="17" t="s">
         <v>548</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="29" t="s">
+      <c r="C214" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D214" s="24" t="s">
+      <c r="D214" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E214" s="31" t="s">
+      <c r="E214" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="28" t="s">
+      <c r="A215" s="17" t="s">
         <v>549</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C215" s="29" t="s">
+      <c r="C215" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D215" s="24" t="s">
+      <c r="D215" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="E215" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" s="25" t="s">
+      <c r="E215" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="17" t="s">
         <v>551</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C216" s="29" t="s">
+      <c r="C216" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="24" t="s">
+      <c r="D216" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E216" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" s="32" t="s">
+      <c r="E216" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="21" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="28" t="s">
+      <c r="A217" s="17" t="s">
         <v>553</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C217" s="29" t="s">
+      <c r="C217" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D217" s="24" t="s">
+      <c r="D217" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E217" s="31" t="s">
+      <c r="E217" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F217" s="1">
         <v>4</v>
       </c>
-      <c r="G217" s="25" t="s">
+      <c r="G217" s="14" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="17" t="s">
         <v>556</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C218" s="29" t="s">
+      <c r="C218" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D218" s="24" t="s">
+      <c r="D218" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E218" s="31" t="s">
+      <c r="E218" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="G218" s="25" t="s">
+      <c r="G218" s="14" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="28" t="s">
+      <c r="A219" s="17" t="s">
         <v>561</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C219" s="29" t="s">
+      <c r="C219" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D219" s="24" t="s">
+      <c r="D219" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E219" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" s="32" t="s">
+      <c r="E219" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" s="21" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="28" t="s">
+      <c r="A220" s="17" t="s">
         <v>563</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C220" s="29" t="s">
+      <c r="C220" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D220" s="24" t="s">
+      <c r="D220" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E220" s="31" t="s">
+      <c r="E220" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F220" s="1">
@@ -7430,19 +7509,19 @@
       </c>
     </row>
     <row r="221" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" s="28" t="s">
+      <c r="A221" s="17" t="s">
         <v>565</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C221" s="29" t="s">
+      <c r="C221" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D221" s="24" t="s">
+      <c r="D221" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="E221" s="31" t="s">
+      <c r="E221" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F221" s="1">
@@ -7450,444 +7529,444 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="28" t="s">
+      <c r="A222" s="17" t="s">
         <v>567</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="29" t="s">
+      <c r="C222" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D222" s="24" t="s">
+      <c r="D222" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F222" s="1">
         <v>6</v>
       </c>
-      <c r="G222" s="25" t="s">
+      <c r="G222" s="14" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" s="28" t="s">
+      <c r="A223" s="17" t="s">
         <v>569</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C223" s="29" t="s">
+      <c r="C223" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="24" t="s">
+      <c r="D223" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E223" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" s="32" t="s">
+      <c r="E223" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="21" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" s="28" t="s">
+      <c r="A224" s="17" t="s">
         <v>571</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C224" s="29" t="s">
+      <c r="C224" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D224" s="24" t="s">
+      <c r="D224" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E224" s="31" t="s">
+      <c r="E224" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F224" s="1">
         <v>2</v>
       </c>
-      <c r="G224" s="25" t="s">
+      <c r="G224" s="14" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" s="28" t="s">
+      <c r="A225" s="17" t="s">
         <v>573</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C225" s="29" t="s">
+      <c r="C225" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D225" s="24" t="s">
+      <c r="D225" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E225" s="31" t="s">
+      <c r="E225" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="28" t="s">
+      <c r="A226" s="17" t="s">
         <v>574</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C226" s="29" t="s">
+      <c r="C226" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D226" s="24" t="s">
+      <c r="D226" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="E226" s="31" t="s">
+      <c r="E226" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F226" s="1">
         <v>3</v>
       </c>
-      <c r="G226" s="25" t="s">
+      <c r="G226" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" s="28" t="s">
+      <c r="A227" s="17" t="s">
         <v>576</v>
       </c>
-      <c r="C227" s="29" t="s">
+      <c r="C227" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="24" t="s">
+      <c r="D227" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E227" s="31" t="s">
+      <c r="E227" s="20" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="28" t="s">
+      <c r="A228" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="C228" s="29" t="s">
+      <c r="C228" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D228" s="24" t="s">
+      <c r="D228" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E228" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G228" s="25" t="s">
+      <c r="E228" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="14" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" s="28" t="s">
+      <c r="A229" s="17" t="s">
         <v>579</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C229" s="29" t="s">
+      <c r="C229" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="24" t="s">
+      <c r="D229" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E229" s="31" t="s">
+      <c r="E229" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="28" t="s">
+      <c r="A230" s="17" t="s">
         <v>580</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C230" s="29" t="s">
+      <c r="C230" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D230" s="24" t="s">
+      <c r="D230" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E230" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G230" s="25" t="s">
+      <c r="E230" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="14" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="28" t="s">
+      <c r="A231" s="17" t="s">
         <v>583</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C231" s="29" t="s">
+      <c r="C231" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D231" s="24" t="s">
+      <c r="D231" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="E231" s="31" t="s">
+      <c r="E231" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F231" s="1">
         <v>4</v>
       </c>
-      <c r="G231" s="25" t="s">
+      <c r="G231" s="14" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="28" t="s">
+      <c r="A232" s="17" t="s">
         <v>585</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C232" s="29" t="s">
+      <c r="C232" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D232" s="24" t="s">
+      <c r="D232" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E232" s="31" t="s">
+      <c r="E232" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="28" t="s">
+      <c r="A233" s="17" t="s">
         <v>586</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C233" s="29" t="s">
+      <c r="C233" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D233" s="24" t="s">
+      <c r="D233" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="E233" s="31" t="s">
+      <c r="E233" s="20" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="17" t="s">
         <v>589</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C234" s="29" t="s">
+      <c r="C234" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D234" s="24" t="s">
+      <c r="D234" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E234" s="31" t="s">
+      <c r="E234" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="28" t="s">
+      <c r="A235" s="17" t="s">
         <v>590</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C235" s="29" t="s">
+      <c r="C235" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D235" s="24" t="s">
+      <c r="D235" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E235" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" s="32" t="s">
+      <c r="E235" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="21" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236" s="28" t="s">
+      <c r="A236" s="17" t="s">
         <v>593</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C236" s="29" t="s">
+      <c r="C236" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D236" s="24" t="s">
+      <c r="D236" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="E236" s="31" t="s">
+      <c r="E236" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F236" s="1">
         <v>2</v>
       </c>
-      <c r="G236" s="32" t="s">
+      <c r="G236" s="21" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" s="28" t="s">
+      <c r="A237" s="17" t="s">
         <v>595</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C237" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D237" s="24" t="s">
+      <c r="D237" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E237" s="31" t="s">
+      <c r="E237" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F237" s="1">
         <v>7</v>
       </c>
-      <c r="G237" s="25" t="s">
+      <c r="G237" s="14" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="28" t="s">
+      <c r="A238" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="C238" s="29" t="s">
+      <c r="C238" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D238" s="24" t="s">
+      <c r="D238" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E238" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G238" s="25" t="s">
+      <c r="E238" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="14" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="28" t="s">
+      <c r="A239" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="C239" s="29" t="s">
+      <c r="C239" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D239" s="24" t="s">
+      <c r="D239" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" s="25" t="s">
+      <c r="E239" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="14" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="28" t="s">
+      <c r="A240" s="17" t="s">
         <v>602</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C240" s="29" t="s">
+      <c r="C240" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D240" s="24" t="s">
+      <c r="D240" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="E240" s="28" t="s">
+      <c r="E240" s="17" t="s">
         <v>603</v>
       </c>
       <c r="F240" s="1">
         <v>4</v>
       </c>
-      <c r="G240" s="25" t="s">
+      <c r="G240" s="14" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" s="28" t="s">
+      <c r="A241" s="17" t="s">
         <v>605</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C241" s="29" t="s">
+      <c r="C241" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D241" s="24" t="s">
+      <c r="D241" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E241" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G241" s="32" t="s">
+      <c r="E241" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" s="21" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="28" t="s">
+      <c r="A242" s="17" t="s">
         <v>607</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="C242" s="29" t="s">
+      <c r="C242" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D242" s="24" t="s">
+      <c r="D242" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E242" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G242" s="32" t="s">
+      <c r="E242" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="21" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="28" t="s">
+      <c r="A243" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="C243" s="29" t="s">
+      <c r="C243" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="24" t="s">
+      <c r="D243" s="13" t="s">
         <v>611</v>
       </c>
       <c r="F243" s="1">
         <v>3</v>
       </c>
-      <c r="G243" s="25" t="s">
+      <c r="G243" s="14" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="28" t="s">
+      <c r="A244" s="17" t="s">
         <v>613</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C244" s="29" t="s">
+      <c r="C244" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D244" s="24" t="s">
+      <c r="D244" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E244" s="31" t="s">
+      <c r="E244" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F244" s="1">
@@ -7895,62 +7974,62 @@
       </c>
     </row>
     <row r="245" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="28" t="s">
+      <c r="A245" s="17" t="s">
         <v>614</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C245" s="29" t="s">
+      <c r="C245" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D245" s="24" t="s">
+      <c r="D245" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E245" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="25" t="s">
+      <c r="E245" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" s="14" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="28" t="s">
+      <c r="A246" s="17" t="s">
         <v>617</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C246" s="29" t="s">
+      <c r="C246" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="24" t="s">
+      <c r="D246" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="E246" s="31" t="s">
+      <c r="E246" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F246" s="1">
         <v>6</v>
       </c>
-      <c r="G246" s="32" t="s">
+      <c r="G246" s="21" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" s="28" t="s">
+      <c r="A247" s="17" t="s">
         <v>620</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C247" s="29" t="s">
+      <c r="C247" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D247" s="24" t="s">
+      <c r="D247" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E247" s="31" t="s">
+      <c r="E247" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F247" s="1">
@@ -7958,104 +8037,104 @@
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248" s="28" t="s">
+      <c r="A248" s="17" t="s">
         <v>622</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C248" s="29" t="s">
+      <c r="C248" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D248" s="24" t="s">
+      <c r="D248" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="E248" s="31" t="s">
+      <c r="E248" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" s="28" t="s">
+      <c r="A249" s="17" t="s">
         <v>623</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C249" s="29" t="s">
+      <c r="C249" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D249" s="24" t="s">
+      <c r="D249" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E249" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G249" s="32" t="s">
+      <c r="E249" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="21" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="17" t="s">
         <v>625</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C250" s="29" t="s">
+      <c r="C250" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D250" s="24" t="s">
+      <c r="D250" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E250" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G250" s="25" t="s">
+      <c r="E250" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" s="14" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="30" t="s">
+      <c r="A251" s="19" t="s">
         <v>628</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C251" s="29" t="s">
+      <c r="C251" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D251" s="24" t="s">
+      <c r="D251" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="28" t="s">
+      <c r="A252" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="C252" s="29" t="s">
+      <c r="C252" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D252" s="24" t="s">
+      <c r="D252" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E252" s="31" t="s">
+      <c r="E252" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" s="28" t="s">
+      <c r="A253" s="17" t="s">
         <v>630</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C253" s="29" t="s">
+      <c r="C253" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D253" s="24" t="s">
+      <c r="D253" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E253" s="31" t="s">
+      <c r="E253" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F253" s="1">
@@ -8063,583 +8142,583 @@
       </c>
     </row>
     <row r="254" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="28" t="s">
+      <c r="A254" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="C254" s="29" t="s">
+      <c r="C254" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D254" s="24" t="s">
+      <c r="D254" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="28" t="s">
+      <c r="A255" s="17" t="s">
         <v>632</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C255" s="29" t="s">
+      <c r="C255" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="24" t="s">
+      <c r="D255" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E255" s="31" t="s">
+      <c r="E255" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F255" s="1">
         <v>2</v>
       </c>
-      <c r="G255" s="25" t="s">
+      <c r="G255" s="14" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="28" t="s">
+      <c r="A256" s="17" t="s">
         <v>634</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C256" s="29" t="s">
+      <c r="C256" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D256" s="24" t="s">
+      <c r="D256" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E256" s="31" t="s">
+      <c r="E256" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="17" t="s">
         <v>635</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C257" s="29" t="s">
+      <c r="C257" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="24" t="s">
+      <c r="D257" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F257" s="1">
         <v>3</v>
       </c>
-      <c r="G257" s="25" t="s">
+      <c r="G257" s="14" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="28" t="s">
+      <c r="A258" s="17" t="s">
         <v>637</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C258" s="29" t="s">
+      <c r="C258" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D258" s="24" t="s">
+      <c r="D258" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="E258" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G258" s="32" t="s">
+      <c r="E258" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" s="21" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" s="28" t="s">
+      <c r="A259" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="C259" s="29" t="s">
+      <c r="C259" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="24" t="s">
+      <c r="D259" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E259" s="31" t="s">
+      <c r="E259" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="28" t="s">
+      <c r="A260" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="C260" s="29" t="s">
+      <c r="C260" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D260" s="24" t="s">
+      <c r="D260" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E260" s="31" t="s">
+      <c r="E260" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="28" t="s">
+      <c r="A261" s="17" t="s">
         <v>641</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C261" s="29" t="s">
+      <c r="C261" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D261" s="24" t="s">
+      <c r="D261" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="E261" s="31" t="s">
+      <c r="E261" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G261" s="25" t="s">
+      <c r="G261" s="14" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="28" t="s">
+      <c r="A262" s="17" t="s">
         <v>644</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C262" s="29" t="s">
+      <c r="C262" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D262" s="24" t="s">
+      <c r="D262" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E262" s="31" t="s">
+      <c r="E262" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="28" t="s">
+      <c r="A263" s="17" t="s">
         <v>645</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C263" s="29" t="s">
+      <c r="C263" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D263" s="24" t="s">
+      <c r="D263" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G263" s="25" t="s">
+      <c r="G263" s="14" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="28" t="s">
+      <c r="A264" s="17" t="s">
         <v>647</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C264" s="29" t="s">
+      <c r="C264" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D264" s="24" t="s">
+      <c r="D264" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E264" s="31" t="s">
+      <c r="E264" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F264" s="1">
         <v>4</v>
       </c>
-      <c r="G264" s="25" t="s">
+      <c r="G264" s="14" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="28" t="s">
+      <c r="A265" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="C265" s="29" t="s">
+      <c r="C265" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D265" s="24" t="s">
+      <c r="D265" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E265" s="31" t="s">
+      <c r="E265" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="28" t="s">
+      <c r="A266" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="C266" s="29" t="s">
+      <c r="C266" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D266" s="24" t="s">
+      <c r="D266" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="E266" s="31" t="s">
+      <c r="E266" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A267" s="28" t="s">
+      <c r="A267" s="17" t="s">
         <v>651</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C267" s="29" t="s">
+      <c r="C267" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D267" s="24" t="s">
-        <v>292</v>
+      <c r="D267" s="36" t="s">
+        <v>805</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F267" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="28" t="s">
+      <c r="A268" s="17" t="s">
         <v>653</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C268" s="29" t="s">
+      <c r="C268" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D268" s="24" t="s">
+      <c r="D268" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E268" s="31" t="s">
+      <c r="E268" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="28" t="s">
+      <c r="A269" s="17" t="s">
         <v>655</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C269" s="29" t="s">
+      <c r="C269" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D269" s="24" t="s">
+      <c r="D269" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="E269" s="31" t="s">
+      <c r="E269" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="28" t="s">
+      <c r="A270" s="17" t="s">
         <v>657</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C270" s="29" t="s">
+      <c r="C270" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D270" s="24" t="s">
+      <c r="D270" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="E270" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G270" s="25" t="s">
+      <c r="E270" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G270" s="14" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271" s="28" t="s">
+      <c r="A271" s="17" t="s">
         <v>659</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C271" s="29" t="s">
+      <c r="C271" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="24" t="s">
+      <c r="D271" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="E271" s="31" t="s">
+      <c r="E271" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F271" s="1">
         <v>2</v>
       </c>
-      <c r="G271" s="25" t="s">
+      <c r="G271" s="14" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272" s="35" t="s">
+      <c r="A272" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="B272" s="36" t="s">
+      <c r="B272" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="C272" s="37" t="s">
+      <c r="C272" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D272" s="38" t="s">
+      <c r="D272" s="27" t="s">
         <v>663</v>
       </c>
-      <c r="E272" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F272" s="36">
+      <c r="E272" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="25">
         <v>5</v>
       </c>
-      <c r="G272" s="44" t="s">
+      <c r="G272" s="33" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A273" s="28" t="s">
+      <c r="A273" s="17" t="s">
         <v>665</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C273" s="29" t="s">
+      <c r="C273" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D273" s="24" t="s">
+      <c r="D273" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E273" s="31" t="s">
+      <c r="E273" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="G273" s="42" t="s">
+      <c r="G273" s="31" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" s="28" t="s">
+      <c r="A274" s="17" t="s">
         <v>669</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C274" s="29" t="s">
+      <c r="C274" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D274" s="24" t="s">
+      <c r="D274" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E274" s="31" t="s">
+      <c r="E274" s="20" t="s">
         <v>671</v>
       </c>
       <c r="F274" s="1">
         <v>4</v>
       </c>
-      <c r="G274" s="25" t="s">
+      <c r="G274" s="14" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" s="28" t="s">
+      <c r="A275" s="17" t="s">
         <v>673</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C275" s="29" t="s">
+      <c r="C275" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D275" s="24" t="s">
+      <c r="D275" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="E275" s="31" t="s">
+      <c r="E275" s="20" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="28" t="s">
+      <c r="A276" s="17" t="s">
         <v>674</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C276" s="29" t="s">
+      <c r="C276" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D276" s="24" t="s">
+      <c r="D276" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G276" s="25" t="s">
+      <c r="G276" s="14" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="28" t="s">
+      <c r="A277" s="17" t="s">
         <v>676</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C277" s="29" t="s">
+      <c r="C277" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D277" s="24" t="s">
+      <c r="D277" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="E277" s="31" t="s">
+      <c r="E277" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="28" t="s">
+      <c r="A278" s="17" t="s">
         <v>677</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C278" s="29" t="s">
+      <c r="C278" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="24" t="s">
+      <c r="D278" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="E278" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G278" s="32" t="s">
+      <c r="E278" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" s="21" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="28" t="s">
+      <c r="A279" s="17" t="s">
         <v>679</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C279" s="29" t="s">
+      <c r="C279" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D279" s="24" t="s">
+      <c r="D279" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="E279" s="31" t="s">
+      <c r="E279" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F279" s="1">
         <v>3</v>
       </c>
-      <c r="G279" s="25" t="s">
+      <c r="G279" s="14" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A280" s="28" t="s">
+      <c r="A280" s="17" t="s">
         <v>681</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C280" s="29" t="s">
+      <c r="C280" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D280" s="24" t="s">
+      <c r="D280" s="13" t="s">
         <v>462</v>
       </c>
       <c r="F280" s="1">
         <v>3</v>
       </c>
-      <c r="G280" s="25" t="s">
+      <c r="G280" s="14" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="28" t="s">
+      <c r="A281" s="17" t="s">
         <v>683</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C281" s="29" t="s">
+      <c r="C281" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D281" s="24" t="s">
+      <c r="D281" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E281" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G281" s="25" t="s">
+      <c r="E281" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G281" s="14" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" s="28" t="s">
+      <c r="A282" s="17" t="s">
         <v>685</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C282" s="29" t="s">
+      <c r="C282" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D282" s="24" t="s">
+      <c r="D282" s="13" t="s">
         <v>125</v>
       </c>
       <c r="F282" s="1">
         <v>3</v>
       </c>
-      <c r="G282" s="25" t="s">
+      <c r="G282" s="14" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A283" s="28" t="s">
+      <c r="A283" s="17" t="s">
         <v>688</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C283" s="29" t="s">
+      <c r="C283" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D283" s="24" t="s">
+      <c r="D283" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="E283" s="31" t="s">
+      <c r="E283" s="20" t="s">
         <v>689</v>
       </c>
       <c r="F283" s="1">
         <v>4</v>
       </c>
-      <c r="G283" s="25" t="s">
+      <c r="G283" s="14" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="28" t="s">
+      <c r="A284" s="17" t="s">
         <v>691</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C284" s="29" t="s">
+      <c r="C284" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D284" s="24" t="s">
+      <c r="D284" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E284" s="31" t="s">
+      <c r="E284" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F284" s="1">
@@ -8647,39 +8726,39 @@
       </c>
     </row>
     <row r="285" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" s="28" t="s">
+      <c r="A285" s="17" t="s">
         <v>692</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C285" s="29" t="s">
+      <c r="C285" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D285" s="24" t="s">
+      <c r="D285" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E285" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" s="25" t="s">
+      <c r="E285" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" s="14" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="28" t="s">
+      <c r="A286" s="17" t="s">
         <v>694</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C286" s="29" t="s">
+      <c r="C286" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="24" t="s">
+      <c r="D286" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="E286" s="31" t="s">
+      <c r="E286" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F286" s="1">
@@ -8687,19 +8766,19 @@
       </c>
     </row>
     <row r="287" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A287" s="28" t="s">
+      <c r="A287" s="17" t="s">
         <v>696</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C287" s="29" t="s">
+      <c r="C287" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="24" t="s">
+      <c r="D287" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E287" s="31" t="s">
+      <c r="E287" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F287" s="1">
@@ -8707,127 +8786,127 @@
       </c>
     </row>
     <row r="288" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A288" s="28" t="s">
+      <c r="A288" s="17" t="s">
         <v>697</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C288" s="29" t="s">
+      <c r="C288" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D288" s="24" t="s">
+      <c r="D288" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E288" s="31" t="s">
+      <c r="E288" s="20" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A289" s="28" t="s">
+      <c r="A289" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="C289" s="29" t="s">
+      <c r="C289" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D289" s="24" t="s">
+      <c r="D289" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="E289" s="31" t="s">
+      <c r="E289" s="20" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A290" s="35" t="s">
+      <c r="A290" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="B290" s="36" t="s">
+      <c r="B290" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="C290" s="37" t="s">
+      <c r="C290" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D290" s="38" t="s">
+      <c r="D290" s="27" t="s">
         <v>663</v>
       </c>
-      <c r="E290" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" s="36">
+      <c r="E290" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="25">
         <v>5</v>
       </c>
-      <c r="G290" s="44" t="s">
+      <c r="G290" s="33" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="17" t="s">
         <v>703</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="29" t="s">
+      <c r="C291" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D291" s="24" t="s">
+      <c r="D291" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E291" s="31" t="s">
+      <c r="E291" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A292" s="28" t="s">
+      <c r="A292" s="17" t="s">
         <v>704</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C292" s="29" t="s">
+      <c r="C292" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D292" s="24" t="s">
+      <c r="D292" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="E292" s="31" t="s">
+      <c r="E292" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F292" s="1">
         <v>2</v>
       </c>
-      <c r="G292" s="25" t="s">
+      <c r="G292" s="14" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A293" s="28" t="s">
+      <c r="A293" s="17" t="s">
         <v>706</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C293" s="29" t="s">
+      <c r="C293" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="24" t="s">
+      <c r="D293" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="E293" s="31" t="s">
+      <c r="E293" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A294" s="28" t="s">
+      <c r="A294" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="C294" s="29" t="s">
+      <c r="C294" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D294" s="24" t="s">
+      <c r="D294" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E294" s="31" t="s">
+      <c r="E294" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F294" s="1">
@@ -8835,53 +8914,53 @@
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A295" s="28" t="s">
+      <c r="A295" s="17" t="s">
         <v>708</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C295" s="29" t="s">
+      <c r="C295" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D295" s="24" t="s">
+      <c r="D295" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="E295" s="31" t="s">
+      <c r="E295" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="28" t="s">
+      <c r="A296" s="17" t="s">
         <v>709</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C296" s="29" t="s">
+      <c r="C296" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D296" s="24" t="s">
+      <c r="D296" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="E296" s="31" t="s">
+      <c r="E296" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="28" t="s">
+      <c r="A297" s="17" t="s">
         <v>710</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C297" s="29" t="s">
+      <c r="C297" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D297" s="24" t="s">
+      <c r="D297" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="E297" s="31" t="s">
+      <c r="E297" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F297" s="1">
@@ -8889,593 +8968,607 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="28" t="s">
+      <c r="A298" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="C298" s="29" t="s">
+      <c r="C298" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D298" s="24" t="s">
+      <c r="D298" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E298" s="31" t="s">
+      <c r="E298" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F298" s="1">
         <v>4</v>
       </c>
-      <c r="G298" s="32" t="s">
+      <c r="G298" s="21" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="28" t="s">
+      <c r="A299" s="17" t="s">
         <v>713</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C299" s="29" t="s">
+      <c r="C299" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D299" s="24" t="s">
+      <c r="D299" s="13" t="s">
         <v>107</v>
       </c>
       <c r="F299" s="1">
         <v>3</v>
       </c>
-      <c r="G299" s="25" t="s">
+      <c r="G299" s="14" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="30" t="s">
+      <c r="A300" s="19" t="s">
         <v>715</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C300" s="29" t="s">
+      <c r="C300" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D300" s="24" t="s">
+      <c r="D300" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="E300" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G300" s="25" t="s">
+      <c r="E300" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" s="14" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="30" t="s">
+      <c r="A301" s="19" t="s">
         <v>718</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C301" s="29" t="s">
+      <c r="C301" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="24" t="s">
+      <c r="D301" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="E301" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G301" s="25" t="s">
+      <c r="E301" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" s="14" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="30" t="s">
+      <c r="A302" s="19" t="s">
         <v>720</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C302" s="29" t="s">
+      <c r="C302" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D302" s="24" t="s">
+      <c r="D302" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="E302" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G302" s="25" t="s">
+      <c r="E302" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" s="14" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="30" t="s">
+      <c r="A303" s="19" t="s">
         <v>722</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="29" t="s">
+      <c r="C303" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D303" s="24" t="s">
+      <c r="D303" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="E303" s="31" t="s">
+      <c r="E303" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="30" t="s">
+      <c r="A304" s="19" t="s">
         <v>723</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C304" s="29" t="s">
+      <c r="C304" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D304" s="24" t="s">
+      <c r="D304" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E304" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G304" s="25" t="s">
+      <c r="E304" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" s="14" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="30" t="s">
+      <c r="A305" s="19" t="s">
         <v>725</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C305" s="29" t="s">
+      <c r="C305" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D305" s="24" t="s">
+      <c r="D305" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E305" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G305" s="25" t="s">
+      <c r="E305" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" s="14" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="30" t="s">
+      <c r="A306" s="19" t="s">
         <v>727</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C306" s="29" t="s">
+      <c r="C306" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D306" s="24" t="s">
+      <c r="D306" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="E306" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G306" s="25" t="s">
+      <c r="E306" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" s="14" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="30" t="s">
+      <c r="A307" s="19" t="s">
         <v>731</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C307" s="29" t="s">
+      <c r="C307" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D307" s="24" t="s">
+      <c r="D307" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E307" s="31" t="s">
+      <c r="E307" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="30" t="s">
+      <c r="A308" s="19" t="s">
         <v>732</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C308" s="29" t="s">
+      <c r="C308" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D308" s="24" t="s">
+      <c r="D308" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E308" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G308" s="25" t="s">
+      <c r="E308" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" s="14" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="30" t="s">
+      <c r="A309" s="19" t="s">
         <v>733</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C309" s="29" t="s">
+      <c r="C309" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D309" s="24" t="s">
+      <c r="D309" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E309" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G309" s="25" t="s">
+      <c r="E309" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" s="14" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="30" t="s">
+      <c r="A310" s="19" t="s">
         <v>735</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C310" s="29" t="s">
+      <c r="C310" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D310" s="24" t="s">
+      <c r="D310" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E310" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G310" s="25" t="s">
+      <c r="E310" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="14" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="30" t="s">
+      <c r="A311" s="19" t="s">
         <v>738</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C311" s="29" t="s">
+      <c r="C311" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D311" s="24" t="s">
+      <c r="D311" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E311" s="31" t="s">
+      <c r="E311" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="30" t="s">
+      <c r="A312" s="19" t="s">
         <v>740</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C312" s="29" t="s">
+      <c r="C312" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="24" t="s">
+      <c r="D312" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E312" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G312" s="25" t="s">
+      <c r="E312" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G312" s="14" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="30" t="s">
+      <c r="A313" s="19" t="s">
         <v>743</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C313" s="29" t="s">
+      <c r="C313" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D313" s="24" t="s">
+      <c r="D313" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E313" s="31" t="s">
+      <c r="E313" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="30" t="s">
+      <c r="A314" s="19" t="s">
         <v>745</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C314" s="29" t="s">
+      <c r="C314" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D314" s="24" t="s">
+      <c r="D314" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E314" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G314" s="32" t="s">
+      <c r="E314" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G314" s="21" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="30" t="s">
+      <c r="A315" s="19" t="s">
         <v>748</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C315" s="29" t="s">
+      <c r="C315" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D315" s="24" t="s">
+      <c r="D315" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E315" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G315" s="25" t="s">
+      <c r="E315" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G315" s="14" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="30" t="s">
+      <c r="A316" s="19" t="s">
         <v>751</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C316" s="29" t="s">
+      <c r="C316" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D316" s="24" t="s">
+      <c r="D316" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E316" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G316" s="25" t="s">
+      <c r="E316" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" s="14" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" s="30" t="s">
+      <c r="A317" s="19" t="s">
         <v>754</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C317" s="29" t="s">
+      <c r="C317" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D317" s="24" t="s">
+      <c r="D317" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E317" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G317" s="25" t="s">
+      <c r="E317" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" s="14" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" s="30" t="s">
+      <c r="A318" s="19" t="s">
         <v>756</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C318" s="29" t="s">
+      <c r="C318" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D318" s="24" t="s">
+      <c r="D318" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E318" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G318" s="25" t="s">
+      <c r="E318" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G318" s="14" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="30" t="s">
+      <c r="A319" s="19" t="s">
         <v>758</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C319" s="29" t="s">
+      <c r="C319" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D319" s="24" t="s">
+      <c r="D319" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E319" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G319" s="25" t="s">
+      <c r="E319" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" s="14" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" s="30" t="s">
+      <c r="A320" s="19" t="s">
         <v>760</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C320" s="29" t="s">
+      <c r="C320" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D320" s="24" t="s">
+      <c r="D320" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E320" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G320" s="25" t="s">
+      <c r="E320" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" s="14" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" s="30" t="s">
+      <c r="A321" s="19" t="s">
         <v>763</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C321" s="29" t="s">
+      <c r="C321" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D321" s="24" t="s">
+      <c r="D321" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="E321" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G321" s="25" t="s">
+      <c r="E321" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G321" s="14" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" s="30" t="s">
+      <c r="A322" s="19" t="s">
         <v>766</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C322" s="29" t="s">
+      <c r="C322" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D322" s="24" t="s">
+      <c r="D322" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E322" s="31" t="s">
+      <c r="E322" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A323" s="28" t="s">
+      <c r="A323" s="17" t="s">
         <v>767</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C323" s="29" t="s">
+      <c r="C323" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D323" s="24" t="s">
+      <c r="D323" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E323" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G323" s="25" t="s">
+      <c r="E323" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" s="14" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A324" s="28" t="s">
+      <c r="A324" s="17" t="s">
         <v>770</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C324" s="29" t="s">
+      <c r="C324" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D324" s="24" t="s">
+      <c r="D324" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G324" s="25" t="s">
+      <c r="G324" s="14" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A325" s="28" t="s">
+      <c r="A325" s="17" t="s">
         <v>773</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C325" s="29" t="s">
+      <c r="C325" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D325" s="24" t="s">
+      <c r="D325" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="28" t="s">
+      <c r="A326" s="17" t="s">
         <v>774</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C326" s="29" t="s">
+      <c r="C326" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D326" s="24" t="s">
+      <c r="D326" s="13" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A327" s="28" t="s">
+      <c r="A327" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="B327" s="45" t="s">
+      <c r="B327" s="34" t="s">
         <v>776</v>
       </c>
-      <c r="C327" s="29" t="s">
+      <c r="C327" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D327" s="46" t="s">
+      <c r="D327" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="28" t="s">
-        <v>796</v>
-      </c>
-      <c r="B328" s="48" t="s">
-        <v>798</v>
-      </c>
-      <c r="C328" s="29" t="s">
+      <c r="A328" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B328" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="C328" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D328" s="47" t="s">
+      <c r="D328" s="36" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B329" s="37" t="s">
+        <v>800</v>
+      </c>
+      <c r="C329" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="D329" s="36" t="s">
         <v>797</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A329:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A330:A1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A329:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A330:A1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A329:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A330:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10048,235 +10141,261 @@
     <hyperlink ref="A326" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
     <hyperlink ref="A327" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
     <hyperlink ref="A328" r:id="rId570" display="https://leetcode.cn/problems/snakes-and-ladders/" xr:uid="{C2E4524D-288C-4E2A-959E-63B0B85EFE1D}"/>
+    <hyperlink ref="A329" r:id="rId571" display="https://leetcode.cn/problems/distribute-candies-among-children-ii/" xr:uid="{EDC65D62-5C98-499A-9FD2-4955438247BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId571"/>
+    <tablePart r:id="rId572"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.640625" customWidth="1"/>
-    <col min="2" max="3" width="15.640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.640625" customWidth="1"/>
-    <col min="6" max="6" width="30.640625" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.640625" customWidth="1"/>
+    <col min="4" max="4" width="30.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>777</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="17.600000000000001" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15" t="s">
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
+      <c r="D8" t="s">
         <v>784</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C9" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="B14" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>791</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>793</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>794</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>795</v>
+      <c r="B16" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>803</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
     <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="8" priority="7"/>
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
@@ -10286,21 +10405,25 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{4455A064-D037-4F50-B115-0306ED70D8D6}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{A912251F-CF83-475D-8A5D-4D12B7D3794A}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://leetcode.cn/problems/binary-search/" xr:uid="{E61032F1-F20A-408E-9377-9F5A7C4667D1}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/candy/" xr:uid="{8855D59D-D862-459C-8B4F-8546892C3986}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{09154B65-84E6-4926-8586-9D8FAC182C46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7FFEE6-D1D1-4A44-848C-7F7A9ABC985A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D39F6-3F10-410A-BB1C-ADEDBBA842D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="815">
   <si>
     <t>题目</t>
   </si>
@@ -2600,6 +2600,29 @@
   </si>
   <si>
     <t>⭐⭐⭐⭐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节5</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节6</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1298. 你能从盒子里获得的最大糖果数</t>
+  </si>
+  <si>
+    <t>爱彼迎</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2819,7 +2842,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2936,6 +2959,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3486,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H329"/>
+  <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5951,11 +5977,11 @@
       <c r="C136" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>292</v>
+      <c r="D136" s="36" t="s">
+        <v>809</v>
       </c>
       <c r="F136" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8026,14 +8052,14 @@
       <c r="C247" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D247" s="13" t="s">
-        <v>172</v>
+      <c r="D247" s="36" t="s">
+        <v>809</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F247" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9559,15 +9585,32 @@
         <v>797</v>
       </c>
     </row>
+    <row r="330" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="B330" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="C330" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="D330" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="G330" s="42" t="s">
+        <v>814</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A330:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A332:A1048576">
     <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A330:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A332:A1048576">
     <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A330:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A332:A1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10142,20 +10185,21 @@
     <hyperlink ref="A327" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
     <hyperlink ref="A328" r:id="rId570" display="https://leetcode.cn/problems/snakes-and-ladders/" xr:uid="{C2E4524D-288C-4E2A-959E-63B0B85EFE1D}"/>
     <hyperlink ref="A329" r:id="rId571" display="https://leetcode.cn/problems/distribute-candies-among-children-ii/" xr:uid="{EDC65D62-5C98-499A-9FD2-4955438247BF}"/>
+    <hyperlink ref="A330" r:id="rId572" display="https://leetcode.cn/problems/maximum-candies-you-can-get-from-boxes/" xr:uid="{94C0DA2D-608A-40AC-9D71-97F56010EB00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId572"/>
+    <tablePart r:id="rId573"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10366,6 +10410,28 @@
       </c>
       <c r="C21" s="4" t="s">
         <v>802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>811</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -10420,10 +10486,12 @@
     <hyperlink ref="A19" r:id="rId17" display="https://leetcode.cn/problems/binary-search/" xr:uid="{E61032F1-F20A-408E-9377-9F5A7C4667D1}"/>
     <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/candy/" xr:uid="{8855D59D-D862-459C-8B4F-8546892C3986}"/>
     <hyperlink ref="A21" r:id="rId19" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{09154B65-84E6-4926-8586-9D8FAC182C46}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{780CC166-F2D3-4186-99D3-A64F98CD8E74}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://leetcode.cn/problems/remove-element/" xr:uid="{B5A20826-2CF7-4216-A1A4-B7259684657B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CFA42-7D89-431F-8270-A81BCAB11A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F2686-921A-468E-A738-DC53F07F1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="829">
   <si>
     <t>题目</t>
   </si>
@@ -2660,6 +2660,25 @@
   </si>
   <si>
     <t>并查集</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2434. 使用机器人打印字典序最小的字符串</t>
+  </si>
+  <si>
+    <t>2025.06.06</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节2、华为2、拼多多2、百度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、贪心</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2861,7 +2880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2893,28 +2912,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2923,13 +2939,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -2944,22 +2960,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
@@ -2967,87 +2980,56 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="43">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="fill"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left"/>
     </dxf>
     <dxf>
       <font>
@@ -3330,6 +3312,87 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="fill"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3344,16 +3407,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3363,8 +3426,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
   <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
@@ -3630,22 +3693,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H332"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D334" sqref="D334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="16"/>
-    <col min="7" max="7" width="20.640625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="20.640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.640625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -3675,36 +3738,36 @@
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="1">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3712,19 +3775,19 @@
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3732,16 +3795,16 @@
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="16">
+      <c r="E5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3749,19 +3812,19 @@
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3769,19 +3832,19 @@
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3789,19 +3852,19 @@
       <c r="A8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3809,19 +3872,19 @@
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="E9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3829,39 +3892,39 @@
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3869,16 +3932,16 @@
       <c r="A12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3886,10 +3949,10 @@
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3897,16 +3960,16 @@
       <c r="A14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="23" t="s">
+      <c r="E14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3914,19 +3977,19 @@
       <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="E15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3934,19 +3997,19 @@
       <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="E16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3954,22 +4017,22 @@
       <c r="A17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3977,13 +4040,13 @@
       <c r="A18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3991,16 +4054,16 @@
       <c r="A19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4008,16 +4071,16 @@
       <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4025,16 +4088,16 @@
       <c r="A21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4042,16 +4105,16 @@
       <c r="A22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4059,22 +4122,22 @@
       <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="16">
+      <c r="E23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
         <v>5</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4082,36 +4145,36 @@
       <c r="A24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4119,16 +4182,16 @@
       <c r="A26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4136,16 +4199,16 @@
       <c r="A27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4153,36 +4216,36 @@
       <c r="A28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4190,19 +4253,19 @@
       <c r="A30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4210,22 +4273,22 @@
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="16">
+      <c r="E31" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4233,22 +4296,22 @@
       <c r="A32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="16">
+      <c r="E32" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4256,22 +4319,22 @@
       <c r="A33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="16">
+      <c r="E33" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="18" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4279,19 +4342,19 @@
       <c r="A34" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4299,19 +4362,19 @@
       <c r="A35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4319,10 +4382,10 @@
       <c r="A36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4330,22 +4393,22 @@
       <c r="A37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="16">
+      <c r="E37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4353,16 +4416,16 @@
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4370,22 +4433,22 @@
       <c r="A39" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="24" t="s">
         <v>803</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="16">
+      <c r="E39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4393,16 +4456,16 @@
       <c r="A40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4410,13 +4473,13 @@
       <c r="A41" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="18" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4424,13 +4487,13 @@
       <c r="A42" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4438,19 +4501,19 @@
       <c r="A43" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4458,19 +4521,19 @@
       <c r="A44" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="16">
+      <c r="E44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4478,10 +4541,10 @@
       <c r="A45" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4489,16 +4552,16 @@
       <c r="A46" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4506,22 +4569,22 @@
       <c r="A47" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="1">
         <v>4</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="18" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4529,16 +4592,16 @@
       <c r="A48" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="18" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4546,16 +4609,16 @@
       <c r="A49" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="19" t="s">
+      <c r="E49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="18" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4563,16 +4626,16 @@
       <c r="A50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="19" t="s">
+      <c r="E50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="18" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4580,16 +4643,16 @@
       <c r="A51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -4597,16 +4660,16 @@
       <c r="A52" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="1">
         <v>4</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="18" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4614,13 +4677,13 @@
       <c r="A53" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G53" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4628,19 +4691,19 @@
       <c r="A54" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="1">
         <v>4</v>
       </c>
-      <c r="G54" s="19" t="s">
+      <c r="G54" s="18" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4648,22 +4711,22 @@
       <c r="A55" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="16">
+      <c r="E55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1">
         <v>6</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="22" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4671,22 +4734,22 @@
       <c r="A56" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="16">
+      <c r="E56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="1">
         <v>2</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4694,19 +4757,19 @@
       <c r="A57" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="19" t="s">
+      <c r="E57" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4714,19 +4777,19 @@
       <c r="A58" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="19" t="s">
+      <c r="G58" s="18" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4734,19 +4797,19 @@
       <c r="A59" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="18" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4754,16 +4817,16 @@
       <c r="A60" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4771,19 +4834,19 @@
       <c r="A61" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4791,16 +4854,16 @@
       <c r="A62" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4808,31 +4871,31 @@
       <c r="A63" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4840,19 +4903,19 @@
       <c r="A65" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E65" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="1">
         <v>4</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="G65" s="18" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4860,10 +4923,10 @@
       <c r="A66" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4871,13 +4934,13 @@
       <c r="A67" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="17" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4885,16 +4948,16 @@
       <c r="A68" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="1">
         <v>3</v>
       </c>
     </row>
@@ -4902,19 +4965,19 @@
       <c r="A69" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E69" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="16">
+      <c r="E69" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4922,16 +4985,16 @@
       <c r="A70" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4939,19 +5002,19 @@
       <c r="A71" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="23" t="s">
+      <c r="E71" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="22" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4959,36 +5022,36 @@
       <c r="A72" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="16">
+      <c r="E72" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="1">
         <v>2</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="1">
         <v>4</v>
       </c>
     </row>
@@ -4996,19 +5059,19 @@
       <c r="A74" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="1">
         <v>5</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="18" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5016,13 +5079,13 @@
       <c r="A75" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5030,22 +5093,22 @@
       <c r="A76" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="16">
+      <c r="E76" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="1">
         <v>4</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="18" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5053,22 +5116,22 @@
       <c r="A77" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="16">
+      <c r="E77" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="1">
         <v>4</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="18" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5076,13 +5139,13 @@
       <c r="A78" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5090,19 +5153,19 @@
       <c r="A79" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E79" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="16">
+      <c r="E79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="1">
         <v>5</v>
       </c>
     </row>
@@ -5110,16 +5173,16 @@
       <c r="A80" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="1">
         <v>3</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="18" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5127,16 +5190,16 @@
       <c r="A81" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5144,16 +5207,16 @@
       <c r="A82" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5161,19 +5224,19 @@
       <c r="A83" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E83" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="16">
+      <c r="E83" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5181,13 +5244,13 @@
       <c r="A84" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5195,19 +5258,19 @@
       <c r="A85" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="18" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5215,13 +5278,13 @@
       <c r="A86" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5229,19 +5292,19 @@
       <c r="A87" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5249,33 +5312,33 @@
       <c r="A88" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="24" t="s">
         <v>818</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5283,19 +5346,19 @@
       <c r="A90" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E90" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="16">
+      <c r="E90" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5303,16 +5366,16 @@
       <c r="A91" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5320,16 +5383,16 @@
       <c r="A92" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5337,16 +5400,16 @@
       <c r="A93" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E93" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5354,19 +5417,19 @@
       <c r="A94" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G94" s="19" t="s">
+      <c r="G94" s="18" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5374,19 +5437,19 @@
       <c r="A95" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E95" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G95" s="19" t="s">
+      <c r="G95" s="18" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5394,13 +5457,13 @@
       <c r="A96" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="17" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5408,19 +5471,19 @@
       <c r="A97" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5428,13 +5491,13 @@
       <c r="A98" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="17" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5442,19 +5505,19 @@
       <c r="A99" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="19" t="s">
+      <c r="E99" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="18" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5462,19 +5525,19 @@
       <c r="A100" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G100" s="19" t="s">
+      <c r="G100" s="18" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5482,10 +5545,10 @@
       <c r="A101" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5493,13 +5556,13 @@
       <c r="A102" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G102" s="28" t="s">
+      <c r="G102" s="27" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5507,19 +5570,19 @@
       <c r="A103" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E103" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="16">
+      <c r="E103" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5527,22 +5590,22 @@
       <c r="A104" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="16">
+      <c r="E104" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="1">
         <v>3</v>
       </c>
-      <c r="G104" s="19" t="s">
+      <c r="G104" s="18" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5550,13 +5613,13 @@
       <c r="A105" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5564,13 +5627,13 @@
       <c r="A106" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5578,13 +5641,13 @@
       <c r="A107" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="22" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5592,13 +5655,13 @@
       <c r="A108" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="17" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5606,16 +5669,16 @@
       <c r="A109" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G109" s="18" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5623,13 +5686,13 @@
       <c r="A110" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G110" s="22" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5637,19 +5700,19 @@
       <c r="A111" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E111" s="22" t="s">
+      <c r="E111" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G111" s="16" t="s">
+      <c r="G111" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5657,16 +5720,16 @@
       <c r="A112" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="1">
         <v>3</v>
       </c>
     </row>
@@ -5674,16 +5737,16 @@
       <c r="A113" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="1">
         <v>3</v>
       </c>
-      <c r="G113" s="19" t="s">
+      <c r="G113" s="18" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5691,19 +5754,19 @@
       <c r="A114" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E114" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="16">
+      <c r="E114" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -5711,16 +5774,16 @@
       <c r="A115" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="1">
         <v>4</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="G115" s="22" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5728,13 +5791,13 @@
       <c r="A116" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E116" s="22" t="s">
+      <c r="E116" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5742,16 +5805,16 @@
       <c r="A117" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5759,22 +5822,22 @@
       <c r="A118" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E118" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="16">
+      <c r="E118" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1">
         <v>4</v>
       </c>
-      <c r="G118" s="19" t="s">
+      <c r="G118" s="18" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5782,13 +5845,13 @@
       <c r="A119" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E119" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5796,16 +5859,16 @@
       <c r="A120" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C120" s="17" t="s">
+      <c r="C120" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="1">
         <v>4</v>
       </c>
     </row>
@@ -5813,22 +5876,22 @@
       <c r="A121" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D121" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="16">
+      <c r="E121" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="1">
         <v>7</v>
       </c>
-      <c r="G121" s="19" t="s">
+      <c r="G121" s="18" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5836,19 +5899,19 @@
       <c r="A122" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C122" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E122" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="18" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5856,19 +5919,19 @@
       <c r="A123" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C123" s="17" t="s">
+      <c r="C123" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E123" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="16">
+      <c r="E123" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="1">
         <v>4</v>
       </c>
-      <c r="G123" s="19" t="s">
+      <c r="G123" s="18" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5876,22 +5939,22 @@
       <c r="A124" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C124" s="17" t="s">
+      <c r="C124" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E124" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="1">
         <v>5</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="18" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5899,19 +5962,19 @@
       <c r="A125" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B125" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C125" s="17" t="s">
+      <c r="C125" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="18" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5919,16 +5982,16 @@
       <c r="A126" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E126" s="22" t="s">
+      <c r="E126" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5936,19 +5999,19 @@
       <c r="A127" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C127" s="17" t="s">
+      <c r="C127" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G127" s="19" t="s">
+      <c r="G127" s="18" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5956,19 +6019,19 @@
       <c r="A128" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C128" s="17" t="s">
+      <c r="C128" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="1">
         <v>4</v>
       </c>
-      <c r="G128" s="19" t="s">
+      <c r="G128" s="18" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5976,13 +6039,13 @@
       <c r="A129" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="17" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5990,13 +6053,13 @@
       <c r="A130" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="G130" s="19" t="s">
+      <c r="G130" s="18" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6004,16 +6067,16 @@
       <c r="A131" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6021,19 +6084,19 @@
       <c r="A132" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G132" s="19" t="s">
+      <c r="G132" s="18" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6041,13 +6104,13 @@
       <c r="A133" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6055,19 +6118,19 @@
       <c r="A134" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E134" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G134" s="19" t="s">
+      <c r="G134" s="18" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6075,16 +6138,16 @@
       <c r="A135" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E135" s="22" t="s">
+      <c r="E135" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6092,16 +6155,16 @@
       <c r="A136" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D136" s="25" t="s">
+      <c r="D136" s="24" t="s">
         <v>807</v>
       </c>
-      <c r="F136" s="16">
+      <c r="F136" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6109,16 +6172,16 @@
       <c r="A137" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="E137" s="22" t="s">
+      <c r="E137" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6126,16 +6189,16 @@
       <c r="A138" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E138" s="22" t="s">
+      <c r="E138" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6143,16 +6206,16 @@
       <c r="A139" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E139" s="22" t="s">
+      <c r="E139" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6160,16 +6223,16 @@
       <c r="A140" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E140" s="22" t="s">
+      <c r="E140" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6177,19 +6240,19 @@
       <c r="A141" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E141" s="22" t="s">
+      <c r="E141" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="G141" s="19" t="s">
+      <c r="G141" s="18" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6197,19 +6260,19 @@
       <c r="A142" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E142" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="16">
+      <c r="E142" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="1">
         <v>4</v>
       </c>
     </row>
@@ -6217,13 +6280,13 @@
       <c r="A143" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="17" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6231,16 +6294,16 @@
       <c r="A144" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E144" s="22" t="s">
+      <c r="E144" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6248,13 +6311,13 @@
       <c r="A145" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G145" s="19" t="s">
+      <c r="G145" s="18" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6262,19 +6325,19 @@
       <c r="A146" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E146" s="22" t="s">
+      <c r="E146" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G146" s="19" t="s">
+      <c r="G146" s="18" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6282,10 +6345,10 @@
       <c r="A147" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="17" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6293,16 +6356,16 @@
       <c r="A148" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E148" s="22" t="s">
+      <c r="E148" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6310,19 +6373,19 @@
       <c r="A149" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E149" s="22" t="s">
+      <c r="E149" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G149" s="19" t="s">
+      <c r="G149" s="18" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6330,19 +6393,19 @@
       <c r="A150" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E150" s="22" t="s">
+      <c r="E150" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F150" s="16">
+      <c r="F150" s="1">
         <v>5</v>
       </c>
     </row>
@@ -6350,19 +6413,19 @@
       <c r="A151" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="E151" s="22" t="s">
+      <c r="E151" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G151" s="27" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6370,10 +6433,10 @@
       <c r="A152" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6381,16 +6444,16 @@
       <c r="A153" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="G153" s="19" t="s">
+      <c r="G153" s="18" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6398,10 +6461,10 @@
       <c r="A154" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="17" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6409,16 +6472,16 @@
       <c r="A155" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="E155" s="22" t="s">
+      <c r="E155" s="21" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6426,22 +6489,22 @@
       <c r="A156" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E156" s="22" t="s">
+      <c r="E156" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="F156" s="16">
+      <c r="F156" s="1">
         <v>3</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" s="1" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6449,16 +6512,16 @@
       <c r="A157" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="G157" s="19" t="s">
+      <c r="G157" s="18" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6466,22 +6529,22 @@
       <c r="A158" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E158" s="22" t="s">
+      <c r="E158" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F158" s="16">
+      <c r="F158" s="1">
         <v>3</v>
       </c>
-      <c r="G158" s="19" t="s">
+      <c r="G158" s="18" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6489,22 +6552,22 @@
       <c r="A159" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="D159" s="25" t="s">
+      <c r="D159" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="E159" s="22" t="s">
+      <c r="E159" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="1">
         <v>5</v>
       </c>
-      <c r="G159" s="19" t="s">
+      <c r="G159" s="18" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6512,22 +6575,22 @@
       <c r="A160" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E160" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="16">
+      <c r="E160" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="1">
         <v>4</v>
       </c>
-      <c r="G160" s="19" t="s">
+      <c r="G160" s="18" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6535,13 +6598,13 @@
       <c r="A161" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="17" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6549,13 +6612,13 @@
       <c r="A162" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6563,13 +6626,13 @@
       <c r="A163" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="17" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6577,13 +6640,13 @@
       <c r="A164" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="G164" s="19" t="s">
+      <c r="G164" s="18" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6591,19 +6654,19 @@
       <c r="A165" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E165" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="16">
+      <c r="E165" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="1">
         <v>2</v>
       </c>
     </row>
@@ -6611,16 +6674,16 @@
       <c r="A166" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="E166" s="22" t="s">
+      <c r="E166" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6628,16 +6691,16 @@
       <c r="A167" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="E167" s="22" t="s">
+      <c r="E167" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6645,19 +6708,19 @@
       <c r="A168" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="C168" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E168" s="22" t="s">
+      <c r="E168" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="F168" s="16">
+      <c r="F168" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6665,10 +6728,10 @@
       <c r="A169" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C169" s="17" t="s">
+      <c r="C169" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="17" t="s">
         <v>446</v>
       </c>
     </row>
@@ -6676,10 +6739,10 @@
       <c r="A170" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C170" s="17" t="s">
+      <c r="C170" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="18" t="s">
+      <c r="D170" s="17" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6687,16 +6750,16 @@
       <c r="A171" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C171" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D171" s="18" t="s">
+      <c r="D171" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F171" s="16">
+      <c r="F171" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6704,19 +6767,19 @@
       <c r="A172" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C172" s="17" t="s">
+      <c r="C172" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="E172" s="22" t="s">
+      <c r="E172" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F172" s="16">
+      <c r="F172" s="1">
         <v>1</v>
       </c>
     </row>
@@ -6724,22 +6787,22 @@
       <c r="A173" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C173" s="17" t="s">
+      <c r="C173" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E173" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="16">
+      <c r="E173" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="1">
         <v>4</v>
       </c>
-      <c r="G173" s="19" t="s">
+      <c r="G173" s="18" t="s">
         <v>453</v>
       </c>
     </row>
@@ -6747,13 +6810,13 @@
       <c r="A174" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C174" s="17" t="s">
+      <c r="C174" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6761,16 +6824,16 @@
       <c r="A175" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C175" s="17" t="s">
+      <c r="C175" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G175" s="19" t="s">
+      <c r="G175" s="18" t="s">
         <v>456</v>
       </c>
     </row>
@@ -6778,16 +6841,16 @@
       <c r="A176" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C176" s="17" t="s">
+      <c r="C176" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E176" s="22" t="s">
+      <c r="E176" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6795,19 +6858,19 @@
       <c r="A177" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C177" s="17" t="s">
+      <c r="C177" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E177" s="22" t="s">
+      <c r="E177" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G177" s="28" t="s">
+      <c r="G177" s="27" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6815,22 +6878,22 @@
       <c r="A178" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C178" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="E178" s="29" t="s">
+      <c r="E178" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F178" s="16">
+      <c r="F178" s="1">
         <v>3</v>
       </c>
-      <c r="G178" s="19" t="s">
+      <c r="G178" s="18" t="s">
         <v>463</v>
       </c>
     </row>
@@ -6838,16 +6901,16 @@
       <c r="A179" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C179" s="17" t="s">
+      <c r="C179" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="E179" s="22" t="s">
+      <c r="E179" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6855,19 +6918,19 @@
       <c r="A180" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C180" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E180" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" s="19" t="s">
+      <c r="E180" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="18" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6875,22 +6938,22 @@
       <c r="A181" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C181" s="17" t="s">
+      <c r="C181" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E181" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" s="16">
+      <c r="E181" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="1">
         <v>2</v>
       </c>
-      <c r="G181" s="23" t="s">
+      <c r="G181" s="22" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6898,16 +6961,16 @@
       <c r="A182" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="17" t="s">
         <v>473</v>
       </c>
-      <c r="G182" s="19" t="s">
+      <c r="G182" s="18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6915,13 +6978,13 @@
       <c r="A183" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C183" s="17" t="s">
+      <c r="C183" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="17" t="s">
         <v>477</v>
       </c>
     </row>
@@ -6929,19 +6992,19 @@
       <c r="A184" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="E184" s="22" t="s">
+      <c r="E184" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F184" s="16">
+      <c r="F184" s="1">
         <v>3</v>
       </c>
     </row>
@@ -6949,19 +7012,19 @@
       <c r="A185" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C185" s="17" t="s">
+      <c r="C185" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="E185" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" s="19" t="s">
+      <c r="E185" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G185" s="18" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6969,16 +7032,16 @@
       <c r="A186" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C186" s="17" t="s">
+      <c r="C186" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E186" s="22" t="s">
+      <c r="E186" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6986,43 +7049,43 @@
       <c r="A187" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C187" s="17" t="s">
+      <c r="C187" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="D187" s="25" t="s">
+      <c r="D187" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="E187" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F187" s="16">
+      <c r="E187" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="1">
         <v>6</v>
       </c>
-      <c r="G187" s="19" t="s">
+      <c r="G187" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="H187" s="30"/>
+      <c r="H187" s="29"/>
     </row>
     <row r="188" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E188" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" s="19" t="s">
+      <c r="E188" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G188" s="18" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7030,19 +7093,19 @@
       <c r="A189" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C189" s="17" t="s">
+      <c r="C189" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="F189" s="16">
+      <c r="F189" s="1">
         <v>3</v>
       </c>
-      <c r="G189" s="19" t="s">
+      <c r="G189" s="18" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7050,13 +7113,13 @@
       <c r="A190" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C190" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D190" s="18" t="s">
+      <c r="D190" s="17" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7064,16 +7127,16 @@
       <c r="A191" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C191" s="17" t="s">
+      <c r="C191" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="18" t="s">
+      <c r="D191" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E191" s="22" t="s">
+      <c r="E191" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7081,19 +7144,19 @@
       <c r="A192" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C192" s="17" t="s">
+      <c r="C192" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="18" t="s">
+      <c r="D192" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E192" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" s="19" t="s">
+      <c r="E192" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="18" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7101,22 +7164,22 @@
       <c r="A193" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C193" s="17" t="s">
+      <c r="C193" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D193" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E193" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F193" s="16">
+      <c r="E193" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="1">
         <v>2</v>
       </c>
-      <c r="G193" s="23" t="s">
+      <c r="G193" s="22" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7124,22 +7187,22 @@
       <c r="A194" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C194" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D194" s="18" t="s">
+      <c r="D194" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E194" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F194" s="16">
+      <c r="E194" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="1">
         <v>2</v>
       </c>
-      <c r="G194" s="19" t="s">
+      <c r="G194" s="18" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7147,22 +7210,22 @@
       <c r="A195" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C195" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E195" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F195" s="16">
+      <c r="E195" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="1">
         <v>4</v>
       </c>
-      <c r="G195" s="19" t="s">
+      <c r="G195" s="18" t="s">
         <v>507</v>
       </c>
     </row>
@@ -7170,16 +7233,16 @@
       <c r="A196" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C196" s="17" t="s">
+      <c r="C196" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E196" s="22" t="s">
+      <c r="E196" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7187,19 +7250,19 @@
       <c r="A197" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C197" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E197" s="22" t="s">
+      <c r="E197" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F197" s="16">
+      <c r="F197" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7207,22 +7270,22 @@
       <c r="A198" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C198" s="17" t="s">
+      <c r="C198" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D198" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E198" s="22" t="s">
+      <c r="E198" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="F198" s="16">
+      <c r="F198" s="1">
         <v>2</v>
       </c>
-      <c r="G198" s="19" t="s">
+      <c r="G198" s="18" t="s">
         <v>514</v>
       </c>
     </row>
@@ -7230,16 +7293,16 @@
       <c r="A199" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B199" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C199" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D199" s="18" t="s">
+      <c r="D199" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E199" s="22" t="s">
+      <c r="E199" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7247,16 +7310,16 @@
       <c r="A200" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C200" s="17" t="s">
+      <c r="C200" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D200" s="18" t="s">
+      <c r="D200" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E200" s="22" t="s">
+      <c r="E200" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7264,16 +7327,16 @@
       <c r="A201" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="C201" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D201" s="18" t="s">
+      <c r="D201" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E201" s="22" t="s">
+      <c r="E201" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7281,19 +7344,19 @@
       <c r="A202" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="18" t="s">
+      <c r="D202" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F202" s="16">
+      <c r="F202" s="1">
         <v>4</v>
       </c>
-      <c r="G202" s="19" t="s">
+      <c r="G202" s="18" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7301,22 +7364,22 @@
       <c r="A203" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D203" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E203" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F203" s="16">
+      <c r="E203" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="1">
         <v>7</v>
       </c>
-      <c r="G203" s="19" t="s">
+      <c r="G203" s="18" t="s">
         <v>522</v>
       </c>
     </row>
@@ -7324,22 +7387,22 @@
       <c r="A204" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D204" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E204" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F204" s="16">
+      <c r="E204" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F204" s="1">
         <v>7</v>
       </c>
-      <c r="G204" s="23" t="s">
+      <c r="G204" s="22" t="s">
         <v>525</v>
       </c>
     </row>
@@ -7347,16 +7410,16 @@
       <c r="A205" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="18" t="s">
+      <c r="D205" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E205" s="22" t="s">
+      <c r="E205" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7364,19 +7427,19 @@
       <c r="A206" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D206" s="18" t="s">
+      <c r="D206" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="E206" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" s="19" t="s">
+      <c r="E206" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G206" s="18" t="s">
         <v>530</v>
       </c>
     </row>
@@ -7384,19 +7447,19 @@
       <c r="A207" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B207" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D207" s="18" t="s">
+      <c r="D207" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="F207" s="16">
+      <c r="F207" s="1">
         <v>3</v>
       </c>
-      <c r="G207" s="19" t="s">
+      <c r="G207" s="18" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7404,36 +7467,36 @@
       <c r="A208" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D208" s="25" t="s">
+      <c r="D208" s="24" t="s">
         <v>803</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="F208" s="16">
+      <c r="F208" s="1">
         <v>6</v>
       </c>
-      <c r="G208" s="19" t="s">
+      <c r="G208" s="18" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D209" s="18" t="s">
+      <c r="D209" s="17" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7441,19 +7504,19 @@
       <c r="A210" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C210" s="17" t="s">
+      <c r="C210" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D210" s="18" t="s">
+      <c r="D210" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="E210" s="22" t="s">
+      <c r="E210" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G210" s="19" t="s">
+      <c r="G210" s="18" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7461,19 +7524,19 @@
       <c r="A211" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C211" s="17" t="s">
+      <c r="C211" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D211" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E211" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F211" s="16">
+      <c r="E211" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F211" s="1">
         <v>5</v>
       </c>
     </row>
@@ -7481,16 +7544,16 @@
       <c r="A212" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D212" s="18" t="s">
+      <c r="D212" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E212" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G212" s="19" t="s">
+      <c r="E212" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" s="18" t="s">
         <v>544</v>
       </c>
     </row>
@@ -7498,19 +7561,19 @@
       <c r="A213" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C213" s="17" t="s">
+      <c r="C213" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D213" s="18" t="s">
+      <c r="D213" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="E213" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" s="19" t="s">
+      <c r="E213" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="18" t="s">
         <v>546</v>
       </c>
     </row>
@@ -7518,16 +7581,16 @@
       <c r="A214" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C214" s="17" t="s">
+      <c r="C214" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D214" s="18" t="s">
+      <c r="D214" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E214" s="22" t="s">
+      <c r="E214" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7535,19 +7598,19 @@
       <c r="A215" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D215" s="18" t="s">
+      <c r="D215" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="E215" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" s="19" t="s">
+      <c r="E215" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G215" s="18" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7555,19 +7618,19 @@
       <c r="A216" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C216" s="17" t="s">
+      <c r="C216" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D216" s="18" t="s">
+      <c r="D216" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E216" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" s="23" t="s">
+      <c r="E216" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="22" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7575,22 +7638,22 @@
       <c r="A217" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B217" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C217" s="17" t="s">
+      <c r="C217" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D217" s="18" t="s">
+      <c r="D217" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E217" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F217" s="16">
+      <c r="E217" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F217" s="1">
         <v>4</v>
       </c>
-      <c r="G217" s="19" t="s">
+      <c r="G217" s="18" t="s">
         <v>554</v>
       </c>
     </row>
@@ -7598,19 +7661,19 @@
       <c r="A218" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B218" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C218" s="17" t="s">
+      <c r="C218" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D218" s="18" t="s">
+      <c r="D218" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="E218" s="22" t="s">
+      <c r="E218" s="21" t="s">
         <v>558</v>
       </c>
-      <c r="G218" s="19" t="s">
+      <c r="G218" s="18" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7618,19 +7681,19 @@
       <c r="A219" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="B219" s="16" t="s">
+      <c r="B219" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C219" s="17" t="s">
+      <c r="C219" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D219" s="18" t="s">
+      <c r="D219" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E219" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" s="23" t="s">
+      <c r="E219" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G219" s="22" t="s">
         <v>561</v>
       </c>
     </row>
@@ -7638,19 +7701,19 @@
       <c r="A220" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B220" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D220" s="18" t="s">
+      <c r="D220" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E220" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F220" s="16">
+      <c r="E220" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F220" s="1">
         <v>2</v>
       </c>
     </row>
@@ -7658,19 +7721,19 @@
       <c r="A221" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D221" s="18" t="s">
+      <c r="D221" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="E221" s="22" t="s">
+      <c r="E221" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F221" s="16">
+      <c r="F221" s="1">
         <v>3</v>
       </c>
     </row>
@@ -7678,19 +7741,19 @@
       <c r="A222" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="B222" s="16" t="s">
+      <c r="B222" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D222" s="18" t="s">
+      <c r="D222" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F222" s="16">
+      <c r="F222" s="1">
         <v>6</v>
       </c>
-      <c r="G222" s="19" t="s">
+      <c r="G222" s="18" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7698,19 +7761,19 @@
       <c r="A223" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B223" s="16" t="s">
+      <c r="B223" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="18" t="s">
+      <c r="D223" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E223" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" s="23" t="s">
+      <c r="E223" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G223" s="22" t="s">
         <v>569</v>
       </c>
     </row>
@@ -7718,22 +7781,22 @@
       <c r="A224" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B224" s="16" t="s">
+      <c r="B224" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="D224" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E224" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F224" s="16">
+      <c r="E224" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F224" s="1">
         <v>2</v>
       </c>
-      <c r="G224" s="19" t="s">
+      <c r="G224" s="18" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7741,16 +7804,16 @@
       <c r="A225" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D225" s="18" t="s">
+      <c r="D225" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E225" s="22" t="s">
+      <c r="E225" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7758,22 +7821,22 @@
       <c r="A226" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="B226" s="16" t="s">
+      <c r="B226" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D226" s="18" t="s">
+      <c r="D226" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="E226" s="22" t="s">
+      <c r="E226" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F226" s="16">
+      <c r="F226" s="1">
         <v>3</v>
       </c>
-      <c r="G226" s="19" t="s">
+      <c r="G226" s="18" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7781,13 +7844,13 @@
       <c r="A227" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D227" s="18" t="s">
+      <c r="D227" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E227" s="22" t="s">
+      <c r="E227" s="21" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7795,16 +7858,16 @@
       <c r="A228" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D228" s="18" t="s">
+      <c r="D228" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E228" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G228" s="19" t="s">
+      <c r="E228" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G228" s="18" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7812,16 +7875,16 @@
       <c r="A229" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D229" s="18" t="s">
+      <c r="D229" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E229" s="22" t="s">
+      <c r="E229" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7829,19 +7892,19 @@
       <c r="A230" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="B230" s="16" t="s">
+      <c r="B230" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D230" s="18" t="s">
+      <c r="D230" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="E230" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G230" s="19" t="s">
+      <c r="E230" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G230" s="18" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7849,22 +7912,22 @@
       <c r="A231" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B231" s="16" t="s">
+      <c r="B231" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D231" s="18" t="s">
+      <c r="D231" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="E231" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F231" s="16">
+      <c r="E231" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F231" s="1">
         <v>4</v>
       </c>
-      <c r="G231" s="19" t="s">
+      <c r="G231" s="18" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7872,16 +7935,16 @@
       <c r="A232" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C232" s="17" t="s">
+      <c r="C232" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D232" s="18" t="s">
+      <c r="D232" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E232" s="22" t="s">
+      <c r="E232" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7889,16 +7952,16 @@
       <c r="A233" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C233" s="17" t="s">
+      <c r="C233" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D233" s="18" t="s">
+      <c r="D233" s="17" t="s">
         <v>586</v>
       </c>
-      <c r="E233" s="22" t="s">
+      <c r="E233" s="21" t="s">
         <v>587</v>
       </c>
     </row>
@@ -7906,16 +7969,16 @@
       <c r="A234" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C234" s="17" t="s">
+      <c r="C234" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D234" s="18" t="s">
+      <c r="D234" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E234" s="22" t="s">
+      <c r="E234" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7923,19 +7986,19 @@
       <c r="A235" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C235" s="17" t="s">
+      <c r="C235" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D235" s="18" t="s">
+      <c r="D235" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E235" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" s="23" t="s">
+      <c r="E235" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="22" t="s">
         <v>591</v>
       </c>
     </row>
@@ -7943,22 +8006,22 @@
       <c r="A236" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C236" s="17" t="s">
+      <c r="C236" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D236" s="18" t="s">
+      <c r="D236" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E236" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F236" s="16">
+      <c r="E236" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F236" s="1">
         <v>2</v>
       </c>
-      <c r="G236" s="23" t="s">
+      <c r="G236" s="22" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7966,22 +8029,22 @@
       <c r="A237" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="B237" s="16" t="s">
+      <c r="B237" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C237" s="17" t="s">
+      <c r="C237" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D237" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E237" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F237" s="16">
-        <v>7</v>
-      </c>
-      <c r="G237" s="19" t="s">
+      <c r="D237" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="E237" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F237" s="1">
+        <v>8</v>
+      </c>
+      <c r="G237" s="18" t="s">
         <v>596</v>
       </c>
     </row>
@@ -7989,16 +8052,16 @@
       <c r="A238" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C238" s="17" t="s">
+      <c r="C238" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D238" s="18" t="s">
+      <c r="D238" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E238" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G238" s="19" t="s">
+      <c r="E238" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="18" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8006,16 +8069,16 @@
       <c r="A239" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C239" s="17" t="s">
+      <c r="C239" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D239" s="18" t="s">
+      <c r="D239" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E239" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" s="19" t="s">
+      <c r="E239" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="18" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8023,22 +8086,22 @@
       <c r="A240" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C240" s="17" t="s">
+      <c r="C240" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D240" s="18" t="s">
+      <c r="D240" s="17" t="s">
         <v>322</v>
       </c>
       <c r="E240" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="F240" s="16">
+      <c r="F240" s="1">
         <v>4</v>
       </c>
-      <c r="G240" s="19" t="s">
+      <c r="G240" s="18" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8046,19 +8109,19 @@
       <c r="A241" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C241" s="17" t="s">
+      <c r="C241" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D241" s="18" t="s">
+      <c r="D241" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E241" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G241" s="23" t="s">
+      <c r="E241" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" s="22" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8066,19 +8129,19 @@
       <c r="A242" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C242" s="17" t="s">
+      <c r="C242" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D242" s="18" t="s">
+      <c r="D242" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E242" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G242" s="23" t="s">
+      <c r="E242" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G242" s="22" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8086,16 +8149,16 @@
       <c r="A243" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C243" s="17" t="s">
+      <c r="C243" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="18" t="s">
+      <c r="D243" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="F243" s="16">
+      <c r="F243" s="1">
         <v>3</v>
       </c>
-      <c r="G243" s="19" t="s">
+      <c r="G243" s="18" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8103,19 +8166,19 @@
       <c r="A244" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C244" s="17" t="s">
+      <c r="C244" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D244" s="18" t="s">
+      <c r="D244" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E244" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F244" s="16">
+      <c r="E244" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F244" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8123,19 +8186,19 @@
       <c r="A245" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C245" s="17" t="s">
+      <c r="C245" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D245" s="18" t="s">
+      <c r="D245" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E245" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="19" t="s">
+      <c r="E245" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G245" s="18" t="s">
         <v>615</v>
       </c>
     </row>
@@ -8143,22 +8206,22 @@
       <c r="A246" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B246" s="16" t="s">
+      <c r="B246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C246" s="17" t="s">
+      <c r="C246" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="18" t="s">
+      <c r="D246" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="E246" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F246" s="16">
+      <c r="E246" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F246" s="1">
         <v>6</v>
       </c>
-      <c r="G246" s="23" t="s">
+      <c r="G246" s="22" t="s">
         <v>618</v>
       </c>
     </row>
@@ -8166,19 +8229,19 @@
       <c r="A247" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C247" s="17" t="s">
+      <c r="C247" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D247" s="25" t="s">
+      <c r="D247" s="24" t="s">
         <v>807</v>
       </c>
-      <c r="E247" s="22" t="s">
+      <c r="E247" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F247" s="16">
+      <c r="F247" s="1">
         <v>7</v>
       </c>
     </row>
@@ -8186,16 +8249,16 @@
       <c r="A248" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="B248" s="16" t="s">
+      <c r="B248" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C248" s="17" t="s">
+      <c r="C248" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D248" s="18" t="s">
+      <c r="D248" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E248" s="22" t="s">
+      <c r="E248" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8203,19 +8266,19 @@
       <c r="A249" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B249" s="16" t="s">
+      <c r="B249" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C249" s="17" t="s">
+      <c r="C249" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D249" s="18" t="s">
+      <c r="D249" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E249" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G249" s="23" t="s">
+      <c r="E249" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G249" s="22" t="s">
         <v>623</v>
       </c>
     </row>
@@ -8223,47 +8286,50 @@
       <c r="A250" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B250" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C250" s="17" t="s">
+      <c r="C250" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D250" s="18" t="s">
+      <c r="D250" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E250" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G250" s="19" t="s">
+      <c r="E250" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" s="18" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="21" t="s">
+      <c r="A251" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="B251" s="16" t="s">
+      <c r="B251" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C251" s="17" t="s">
+      <c r="C251" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D251" s="18" t="s">
-        <v>250</v>
+      <c r="D251" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="F251" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C252" s="17" t="s">
+      <c r="C252" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D252" s="18" t="s">
+      <c r="D252" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E252" s="22" t="s">
+      <c r="E252" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8271,19 +8337,19 @@
       <c r="A253" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C253" s="17" t="s">
+      <c r="C253" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D253" s="18" t="s">
+      <c r="D253" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="E253" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F253" s="16">
+      <c r="E253" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F253" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8291,10 +8357,10 @@
       <c r="A254" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C254" s="17" t="s">
+      <c r="C254" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D254" s="18" t="s">
+      <c r="D254" s="17" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8302,22 +8368,22 @@
       <c r="A255" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C255" s="17" t="s">
+      <c r="C255" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D255" s="18" t="s">
+      <c r="D255" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="E255" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F255" s="16">
+      <c r="E255" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F255" s="1">
         <v>2</v>
       </c>
-      <c r="G255" s="19" t="s">
+      <c r="G255" s="18" t="s">
         <v>632</v>
       </c>
     </row>
@@ -8325,16 +8391,16 @@
       <c r="A256" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="B256" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C256" s="17" t="s">
+      <c r="C256" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D256" s="18" t="s">
+      <c r="D256" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E256" s="22" t="s">
+      <c r="E256" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8342,19 +8408,19 @@
       <c r="A257" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C257" s="17" t="s">
+      <c r="C257" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D257" s="18" t="s">
+      <c r="D257" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="F257" s="16">
+      <c r="F257" s="1">
         <v>3</v>
       </c>
-      <c r="G257" s="19" t="s">
+      <c r="G257" s="18" t="s">
         <v>635</v>
       </c>
     </row>
@@ -8362,19 +8428,19 @@
       <c r="A258" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C258" s="17" t="s">
+      <c r="C258" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D258" s="18" t="s">
+      <c r="D258" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E258" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G258" s="23" t="s">
+      <c r="E258" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G258" s="22" t="s">
         <v>637</v>
       </c>
     </row>
@@ -8382,13 +8448,13 @@
       <c r="A259" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C259" s="17" t="s">
+      <c r="C259" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D259" s="18" t="s">
+      <c r="D259" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E259" s="22" t="s">
+      <c r="E259" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8396,13 +8462,13 @@
       <c r="A260" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C260" s="17" t="s">
+      <c r="C260" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D260" s="18" t="s">
+      <c r="D260" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E260" s="22" t="s">
+      <c r="E260" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8410,19 +8476,19 @@
       <c r="A261" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="C261" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D261" s="18" t="s">
+      <c r="D261" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="E261" s="22" t="s">
+      <c r="E261" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G261" s="19" t="s">
+      <c r="G261" s="18" t="s">
         <v>642</v>
       </c>
     </row>
@@ -8430,16 +8496,16 @@
       <c r="A262" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C262" s="17" t="s">
+      <c r="C262" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D262" s="18" t="s">
+      <c r="D262" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E262" s="22" t="s">
+      <c r="E262" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8447,16 +8513,16 @@
       <c r="A263" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C263" s="17" t="s">
+      <c r="C263" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D263" s="18" t="s">
+      <c r="D263" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G263" s="19" t="s">
+      <c r="G263" s="18" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8464,22 +8530,22 @@
       <c r="A264" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B264" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C264" s="17" t="s">
+      <c r="C264" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D264" s="18" t="s">
+      <c r="D264" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="E264" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F264" s="16">
+      <c r="E264" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F264" s="1">
         <v>4</v>
       </c>
-      <c r="G264" s="19" t="s">
+      <c r="G264" s="18" t="s">
         <v>647</v>
       </c>
     </row>
@@ -8487,13 +8553,13 @@
       <c r="A265" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="C265" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D265" s="18" t="s">
+      <c r="D265" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E265" s="22" t="s">
+      <c r="E265" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8501,13 +8567,13 @@
       <c r="A266" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="C266" s="17" t="s">
+      <c r="C266" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D266" s="18" t="s">
+      <c r="D266" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E266" s="22" t="s">
+      <c r="E266" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8515,19 +8581,19 @@
       <c r="A267" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C267" s="17" t="s">
+      <c r="C267" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D267" s="25" t="s">
+      <c r="D267" s="24" t="s">
         <v>803</v>
       </c>
-      <c r="E267" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F267" s="16">
+      <c r="E267" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F267" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8535,16 +8601,16 @@
       <c r="A268" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C268" s="17" t="s">
+      <c r="C268" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D268" s="18" t="s">
+      <c r="D268" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="E268" s="22" t="s">
+      <c r="E268" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8552,16 +8618,16 @@
       <c r="A269" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C269" s="17" t="s">
+      <c r="C269" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D269" s="18" t="s">
+      <c r="D269" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="E269" s="22" t="s">
+      <c r="E269" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8569,19 +8635,19 @@
       <c r="A270" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C270" s="17" t="s">
+      <c r="C270" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D270" s="18" t="s">
+      <c r="D270" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="E270" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G270" s="19" t="s">
+      <c r="E270" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G270" s="18" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8589,22 +8655,22 @@
       <c r="A271" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C271" s="17" t="s">
+      <c r="C271" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D271" s="18" t="s">
+      <c r="D271" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E271" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F271" s="16">
+      <c r="E271" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F271" s="1">
         <v>2</v>
       </c>
-      <c r="G271" s="19" t="s">
+      <c r="G271" s="18" t="s">
         <v>659</v>
       </c>
     </row>
@@ -8612,22 +8678,22 @@
       <c r="A272" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B272" s="16" t="s">
+      <c r="B272" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C272" s="17" t="s">
+      <c r="C272" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D272" s="18" t="s">
+      <c r="D272" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="E272" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F272" s="16">
+      <c r="E272" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F272" s="1">
         <v>5</v>
       </c>
-      <c r="G272" s="23" t="s">
+      <c r="G272" s="22" t="s">
         <v>663</v>
       </c>
     </row>
@@ -8635,19 +8701,19 @@
       <c r="A273" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B273" s="16" t="s">
+      <c r="B273" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C273" s="17" t="s">
+      <c r="C273" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D273" s="18" t="s">
+      <c r="D273" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E273" s="22" t="s">
+      <c r="E273" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="G273" s="28" t="s">
+      <c r="G273" s="27" t="s">
         <v>667</v>
       </c>
     </row>
@@ -8655,22 +8721,22 @@
       <c r="A274" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B274" s="16" t="s">
+      <c r="B274" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C274" s="17" t="s">
+      <c r="C274" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D274" s="18" t="s">
+      <c r="D274" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E274" s="22" t="s">
+      <c r="E274" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="F274" s="16">
+      <c r="F274" s="1">
         <v>4</v>
       </c>
-      <c r="G274" s="19" t="s">
+      <c r="G274" s="18" t="s">
         <v>671</v>
       </c>
     </row>
@@ -8678,16 +8744,16 @@
       <c r="A275" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="B275" s="16" t="s">
+      <c r="B275" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C275" s="17" t="s">
+      <c r="C275" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D275" s="18" t="s">
+      <c r="D275" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="E275" s="22" t="s">
+      <c r="E275" s="21" t="s">
         <v>666</v>
       </c>
     </row>
@@ -8695,16 +8761,16 @@
       <c r="A276" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C276" s="17" t="s">
+      <c r="C276" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D276" s="18" t="s">
+      <c r="D276" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="G276" s="19" t="s">
+      <c r="G276" s="18" t="s">
         <v>674</v>
       </c>
     </row>
@@ -8712,16 +8778,16 @@
       <c r="A277" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B277" s="16" t="s">
+      <c r="B277" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C277" s="17" t="s">
+      <c r="C277" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D277" s="18" t="s">
+      <c r="D277" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E277" s="22" t="s">
+      <c r="E277" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8729,19 +8795,19 @@
       <c r="A278" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B278" s="16" t="s">
+      <c r="B278" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C278" s="17" t="s">
+      <c r="C278" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="18" t="s">
+      <c r="D278" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="E278" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G278" s="23" t="s">
+      <c r="E278" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" s="22" t="s">
         <v>677</v>
       </c>
     </row>
@@ -8749,22 +8815,22 @@
       <c r="A279" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B279" s="16" t="s">
+      <c r="B279" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C279" s="17" t="s">
+      <c r="C279" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D279" s="18" t="s">
+      <c r="D279" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E279" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F279" s="16">
+      <c r="E279" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F279" s="1">
         <v>3</v>
       </c>
-      <c r="G279" s="19" t="s">
+      <c r="G279" s="18" t="s">
         <v>679</v>
       </c>
     </row>
@@ -8772,19 +8838,19 @@
       <c r="A280" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B280" s="16" t="s">
+      <c r="B280" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C280" s="17" t="s">
+      <c r="C280" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D280" s="18" t="s">
+      <c r="D280" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="F280" s="16">
+      <c r="F280" s="1">
         <v>3</v>
       </c>
-      <c r="G280" s="19" t="s">
+      <c r="G280" s="18" t="s">
         <v>681</v>
       </c>
     </row>
@@ -8792,19 +8858,19 @@
       <c r="A281" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B281" s="16" t="s">
+      <c r="B281" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="C281" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D281" s="18" t="s">
+      <c r="D281" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="E281" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G281" s="19" t="s">
+      <c r="E281" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G281" s="18" t="s">
         <v>683</v>
       </c>
     </row>
@@ -8812,19 +8878,19 @@
       <c r="A282" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B282" s="16" t="s">
+      <c r="B282" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C282" s="17" t="s">
+      <c r="C282" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D282" s="18" t="s">
+      <c r="D282" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F282" s="16">
+      <c r="F282" s="1">
         <v>3</v>
       </c>
-      <c r="G282" s="19" t="s">
+      <c r="G282" s="18" t="s">
         <v>686</v>
       </c>
     </row>
@@ -8832,22 +8898,22 @@
       <c r="A283" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="B283" s="16" t="s">
+      <c r="B283" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C283" s="17" t="s">
+      <c r="C283" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D283" s="25" t="s">
+      <c r="D283" s="24" t="s">
         <v>818</v>
       </c>
-      <c r="E283" s="22" t="s">
+      <c r="E283" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="F283" s="16">
+      <c r="F283" s="1">
         <v>5</v>
       </c>
-      <c r="G283" s="31" t="s">
+      <c r="G283" s="30" t="s">
         <v>821</v>
       </c>
     </row>
@@ -8855,19 +8921,19 @@
       <c r="A284" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C284" s="17" t="s">
+      <c r="C284" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D284" s="18" t="s">
+      <c r="D284" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="E284" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F284" s="16">
+      <c r="E284" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F284" s="1">
         <v>4</v>
       </c>
     </row>
@@ -8875,19 +8941,19 @@
       <c r="A285" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C285" s="17" t="s">
+      <c r="C285" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D285" s="18" t="s">
+      <c r="D285" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E285" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G285" s="19" t="s">
+      <c r="E285" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" s="18" t="s">
         <v>691</v>
       </c>
     </row>
@@ -8895,19 +8961,19 @@
       <c r="A286" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C286" s="17" t="s">
+      <c r="C286" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D286" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="E286" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F286" s="16">
+      <c r="E286" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F286" s="1">
         <v>5</v>
       </c>
     </row>
@@ -8915,19 +8981,19 @@
       <c r="A287" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B287" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C287" s="17" t="s">
+      <c r="C287" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D287" s="18" t="s">
+      <c r="D287" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E287" s="22" t="s">
+      <c r="E287" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F287" s="16">
+      <c r="F287" s="1">
         <v>3</v>
       </c>
     </row>
@@ -8935,16 +9001,16 @@
       <c r="A288" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C288" s="17" t="s">
+      <c r="C288" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D288" s="18" t="s">
+      <c r="D288" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E288" s="22" t="s">
+      <c r="E288" s="21" t="s">
         <v>188</v>
       </c>
     </row>
@@ -8952,13 +9018,13 @@
       <c r="A289" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="C289" s="17" t="s">
+      <c r="C289" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D289" s="18" t="s">
+      <c r="D289" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="E289" s="22" t="s">
+      <c r="E289" s="21" t="s">
         <v>698</v>
       </c>
     </row>
@@ -8966,22 +9032,22 @@
       <c r="A290" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B290" s="16" t="s">
+      <c r="B290" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C290" s="17" t="s">
+      <c r="C290" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D290" s="18" t="s">
+      <c r="D290" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="E290" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F290" s="16">
+      <c r="E290" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F290" s="1">
         <v>5</v>
       </c>
-      <c r="G290" s="23" t="s">
+      <c r="G290" s="22" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8989,16 +9055,16 @@
       <c r="A291" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B291" s="16" t="s">
+      <c r="B291" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="17" t="s">
+      <c r="C291" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D291" s="18" t="s">
+      <c r="D291" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E291" s="22" t="s">
+      <c r="E291" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9006,22 +9072,22 @@
       <c r="A292" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B292" s="16" t="s">
+      <c r="B292" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C292" s="17" t="s">
+      <c r="C292" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D292" s="18" t="s">
+      <c r="D292" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="E292" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F292" s="16">
+      <c r="E292" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F292" s="1">
         <v>2</v>
       </c>
-      <c r="G292" s="19" t="s">
+      <c r="G292" s="18" t="s">
         <v>703</v>
       </c>
     </row>
@@ -9029,16 +9095,16 @@
       <c r="A293" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C293" s="17" t="s">
+      <c r="C293" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D293" s="18" t="s">
+      <c r="D293" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="E293" s="22" t="s">
+      <c r="E293" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9046,16 +9112,16 @@
       <c r="A294" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="C294" s="17" t="s">
+      <c r="C294" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D294" s="18" t="s">
+      <c r="D294" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E294" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F294" s="16">
+      <c r="E294" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F294" s="1">
         <v>4</v>
       </c>
     </row>
@@ -9063,16 +9129,16 @@
       <c r="A295" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B295" s="16" t="s">
+      <c r="B295" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C295" s="17" t="s">
+      <c r="C295" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D295" s="18" t="s">
+      <c r="D295" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="E295" s="22" t="s">
+      <c r="E295" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9080,16 +9146,16 @@
       <c r="A296" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="B296" s="16" t="s">
+      <c r="B296" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C296" s="17" t="s">
+      <c r="C296" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D296" s="18" t="s">
+      <c r="D296" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="E296" s="22" t="s">
+      <c r="E296" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9097,19 +9163,19 @@
       <c r="A297" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B297" s="16" t="s">
+      <c r="B297" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C297" s="17" t="s">
+      <c r="C297" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D297" s="25" t="s">
+      <c r="D297" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="E297" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F297" s="16">
+      <c r="E297" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F297" s="1">
         <v>3</v>
       </c>
     </row>
@@ -9117,19 +9183,19 @@
       <c r="A298" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C298" s="17" t="s">
+      <c r="C298" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D298" s="18" t="s">
+      <c r="D298" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="E298" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F298" s="16">
+      <c r="E298" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F298" s="1">
         <v>4</v>
       </c>
-      <c r="G298" s="23" t="s">
+      <c r="G298" s="22" t="s">
         <v>710</v>
       </c>
     </row>
@@ -9137,464 +9203,464 @@
       <c r="A299" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B299" s="16" t="s">
+      <c r="B299" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C299" s="17" t="s">
+      <c r="C299" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D299" s="18" t="s">
+      <c r="D299" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F299" s="16">
+      <c r="F299" s="1">
         <v>3</v>
       </c>
-      <c r="G299" s="19" t="s">
+      <c r="G299" s="18" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="21" t="s">
+      <c r="A300" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="B300" s="16" t="s">
+      <c r="B300" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C300" s="17" t="s">
+      <c r="C300" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D300" s="18" t="s">
+      <c r="D300" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="E300" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G300" s="19" t="s">
+      <c r="E300" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G300" s="18" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="21" t="s">
+      <c r="A301" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="B301" s="16" t="s">
+      <c r="B301" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C301" s="17" t="s">
+      <c r="C301" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="18" t="s">
+      <c r="D301" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="E301" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G301" s="19" t="s">
+      <c r="E301" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G301" s="18" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="21" t="s">
+      <c r="A302" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C302" s="17" t="s">
+      <c r="C302" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D302" s="18" t="s">
+      <c r="D302" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="E302" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G302" s="19" t="s">
+      <c r="E302" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G302" s="18" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="21" t="s">
+      <c r="A303" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="B303" s="16" t="s">
+      <c r="B303" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C303" s="17" t="s">
+      <c r="C303" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D303" s="18" t="s">
+      <c r="D303" s="17" t="s">
         <v>714</v>
       </c>
-      <c r="E303" s="22" t="s">
+      <c r="E303" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="21" t="s">
+      <c r="A304" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="B304" s="16" t="s">
+      <c r="B304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="C304" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D304" s="18" t="s">
+      <c r="D304" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E304" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G304" s="19" t="s">
+      <c r="E304" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" s="18" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="21" t="s">
+      <c r="A305" s="20" t="s">
         <v>723</v>
       </c>
-      <c r="B305" s="16" t="s">
+      <c r="B305" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C305" s="17" t="s">
+      <c r="C305" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D305" s="18" t="s">
+      <c r="D305" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E305" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G305" s="19" t="s">
+      <c r="E305" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" s="18" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="21" t="s">
+      <c r="A306" s="20" t="s">
         <v>725</v>
       </c>
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C306" s="17" t="s">
+      <c r="C306" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="D306" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="E306" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G306" s="19" t="s">
+      <c r="E306" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306" s="18" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="21" t="s">
+      <c r="A307" s="20" t="s">
         <v>729</v>
       </c>
-      <c r="B307" s="16" t="s">
+      <c r="B307" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C307" s="17" t="s">
+      <c r="C307" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D307" s="18" t="s">
+      <c r="D307" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E307" s="22" t="s">
+      <c r="E307" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="21" t="s">
+      <c r="A308" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="B308" s="16" t="s">
+      <c r="B308" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C308" s="17" t="s">
+      <c r="C308" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D308" s="18" t="s">
+      <c r="D308" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E308" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G308" s="19" t="s">
+      <c r="E308" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" s="18" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="21" t="s">
+      <c r="A309" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="B309" s="16" t="s">
+      <c r="B309" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C309" s="17" t="s">
+      <c r="C309" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D309" s="18" t="s">
+      <c r="D309" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="E309" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G309" s="19" t="s">
+      <c r="E309" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G309" s="18" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="21" t="s">
+      <c r="A310" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="B310" s="16" t="s">
+      <c r="B310" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C310" s="17" t="s">
+      <c r="C310" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D310" s="18" t="s">
+      <c r="D310" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E310" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G310" s="19" t="s">
+      <c r="E310" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="18" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="21" t="s">
+      <c r="A311" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="B311" s="16" t="s">
+      <c r="B311" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C311" s="17" t="s">
+      <c r="C311" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D311" s="18" t="s">
+      <c r="D311" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E311" s="22" t="s">
+      <c r="E311" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="21" t="s">
+      <c r="A312" s="20" t="s">
         <v>738</v>
       </c>
-      <c r="B312" s="16" t="s">
+      <c r="B312" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="C312" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D312" s="18" t="s">
+      <c r="D312" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E312" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G312" s="19" t="s">
+      <c r="E312" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G312" s="18" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="21" t="s">
+      <c r="A313" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="B313" s="16" t="s">
+      <c r="B313" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C313" s="17" t="s">
+      <c r="C313" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D313" s="18" t="s">
+      <c r="D313" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E313" s="22" t="s">
+      <c r="E313" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="21" t="s">
+      <c r="A314" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="B314" s="16" t="s">
+      <c r="B314" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C314" s="17" t="s">
+      <c r="C314" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D314" s="18" t="s">
+      <c r="D314" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E314" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G314" s="23" t="s">
+      <c r="E314" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G314" s="22" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="21" t="s">
+      <c r="A315" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="B315" s="16" t="s">
+      <c r="B315" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C315" s="17" t="s">
+      <c r="C315" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D315" s="18" t="s">
+      <c r="D315" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E315" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G315" s="19" t="s">
+      <c r="E315" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G315" s="18" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="21" t="s">
+      <c r="A316" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="B316" s="16" t="s">
+      <c r="B316" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C316" s="17" t="s">
+      <c r="C316" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D316" s="18" t="s">
+      <c r="D316" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E316" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G316" s="19" t="s">
+      <c r="E316" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G316" s="18" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" s="21" t="s">
+      <c r="A317" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="B317" s="16" t="s">
+      <c r="B317" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C317" s="17" t="s">
+      <c r="C317" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D317" s="18" t="s">
+      <c r="D317" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E317" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G317" s="19" t="s">
+      <c r="E317" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" s="18" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" s="21" t="s">
+      <c r="A318" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="B318" s="16" t="s">
+      <c r="B318" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C318" s="17" t="s">
+      <c r="C318" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D318" s="18" t="s">
+      <c r="D318" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E318" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G318" s="19" t="s">
+      <c r="E318" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G318" s="18" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="21" t="s">
+      <c r="A319" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="B319" s="16" t="s">
+      <c r="B319" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C319" s="17" t="s">
+      <c r="C319" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D319" s="18" t="s">
+      <c r="D319" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E319" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G319" s="19" t="s">
+      <c r="E319" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" s="18" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" s="21" t="s">
+      <c r="A320" s="20" t="s">
         <v>758</v>
       </c>
-      <c r="B320" s="16" t="s">
+      <c r="B320" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C320" s="17" t="s">
+      <c r="C320" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D320" s="18" t="s">
+      <c r="D320" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E320" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G320" s="19" t="s">
+      <c r="E320" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G320" s="18" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" s="21" t="s">
+      <c r="A321" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="B321" s="16" t="s">
+      <c r="B321" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C321" s="17" t="s">
+      <c r="C321" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D321" s="18" t="s">
+      <c r="D321" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="E321" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G321" s="19" t="s">
+      <c r="E321" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G321" s="18" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" s="21" t="s">
+      <c r="A322" s="20" t="s">
         <v>764</v>
       </c>
-      <c r="B322" s="16" t="s">
+      <c r="B322" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C322" s="17" t="s">
+      <c r="C322" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D322" s="18" t="s">
+      <c r="D322" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E322" s="22" t="s">
+      <c r="E322" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9602,19 +9668,19 @@
       <c r="A323" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="B323" s="16" t="s">
+      <c r="B323" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C323" s="17" t="s">
+      <c r="C323" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D323" s="18" t="s">
+      <c r="D323" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E323" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G323" s="19" t="s">
+      <c r="E323" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G323" s="18" t="s">
         <v>767</v>
       </c>
     </row>
@@ -9622,16 +9688,16 @@
       <c r="A324" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="B324" s="16" t="s">
+      <c r="B324" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C324" s="17" t="s">
+      <c r="C324" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D324" s="18" t="s">
+      <c r="D324" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G324" s="19" t="s">
+      <c r="G324" s="18" t="s">
         <v>770</v>
       </c>
     </row>
@@ -9639,13 +9705,13 @@
       <c r="A325" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B325" s="16" t="s">
+      <c r="B325" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C325" s="17" t="s">
+      <c r="C325" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D325" s="18" t="s">
+      <c r="D325" s="17" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9653,13 +9719,13 @@
       <c r="A326" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="B326" s="16" t="s">
+      <c r="B326" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C326" s="17" t="s">
+      <c r="C326" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D326" s="18" t="s">
+      <c r="D326" s="17" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9667,13 +9733,13 @@
       <c r="A327" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B327" s="32" t="s">
+      <c r="B327" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C327" s="17" t="s">
+      <c r="C327" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D327" s="33" t="s">
+      <c r="D327" s="32" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9681,13 +9747,13 @@
       <c r="A328" s="9" t="s">
         <v>790</v>
       </c>
-      <c r="B328" s="34" t="s">
+      <c r="B328" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C328" s="17" t="s">
+      <c r="C328" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D328" s="25" t="s">
+      <c r="D328" s="24" t="s">
         <v>791</v>
       </c>
     </row>
@@ -9695,13 +9761,13 @@
       <c r="A329" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B329" s="34" t="s">
+      <c r="B329" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="C329" s="17" t="s">
+      <c r="C329" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="D329" s="25" t="s">
+      <c r="D329" s="24" t="s">
         <v>795</v>
       </c>
     </row>
@@ -9709,16 +9775,16 @@
       <c r="A330" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B330" s="34" t="s">
+      <c r="B330" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="C330" s="17" t="s">
+      <c r="C330" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="D330" s="25" t="s">
+      <c r="D330" s="24" t="s">
         <v>807</v>
       </c>
-      <c r="G330" s="35" t="s">
+      <c r="G330" s="33" t="s">
         <v>812</v>
       </c>
     </row>
@@ -9726,16 +9792,16 @@
       <c r="A331" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="B331" s="34" t="s">
+      <c r="B331" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C331" s="17" t="s">
+      <c r="C331" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D331" s="25" t="s">
+      <c r="D331" s="24" t="s">
         <v>813</v>
       </c>
-      <c r="G331" s="35" t="s">
+      <c r="G331" s="33" t="s">
         <v>816</v>
       </c>
     </row>
@@ -9743,26 +9809,40 @@
       <c r="A332" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B332" s="34" t="s">
+      <c r="B332" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C332" s="17" t="s">
+      <c r="C332" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="D332" s="25" t="s">
+      <c r="D332" s="24" t="s">
         <v>818</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D333" s="24" t="s">
+        <v>825</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A333:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A334:A1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A333:A1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A334:A1048576">
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A333:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A334:A1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10339,20 +10419,21 @@
     <hyperlink ref="A330" r:id="rId572" display="https://leetcode.cn/problems/maximum-candies-you-can-get-from-boxes/" xr:uid="{94C0DA2D-608A-40AC-9D71-97F56010EB00}"/>
     <hyperlink ref="A331" r:id="rId573" display="https://leetcode.cn/problems/find-the-lexicographically-largest-string-from-the-box-i/" xr:uid="{7D0D315B-446F-4194-B885-D9D2856AA93A}"/>
     <hyperlink ref="A332" r:id="rId574" display="https://leetcode.cn/problems/lexicographically-smallest-equivalent-string/" xr:uid="{88F99799-91DA-435D-802A-56DE1DEFB1FF}"/>
+    <hyperlink ref="A333" r:id="rId575" display="https://leetcode.cn/problems/using-a-robot-to-print-the-lexicographically-smallest-string/" xr:uid="{3872FC55-ED10-42E8-B17E-F17DCADC9939}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId575"/>
+    <tablePart r:id="rId576"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10631,47 +10712,84 @@
         <v>810</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -10699,10 +10817,12 @@
     <hyperlink ref="A25" r:id="rId23" xr:uid="{72DDA4A7-686B-4EFD-A95F-EE7C9529A6DD}"/>
     <hyperlink ref="A26" r:id="rId24" xr:uid="{BC3F7EB8-1096-4FC9-B3C7-EEA0926B9DF1}"/>
     <hyperlink ref="A27" r:id="rId25" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{CC321C86-E161-44F4-B146-3B8AF9F63B8A}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{DA5A8EF2-A144-422E-8BF3-6161EAC73CC3}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{2E0651BF-86B2-404F-B0D5-59F0C7F131B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F2686-921A-468E-A738-DC53F07F1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F14E3-09EF-412A-BA0B-D296A35C762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="831">
   <si>
     <t>题目</t>
   </si>
@@ -2679,6 +2679,13 @@
   </si>
   <si>
     <t>栈、贪心</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3170. 删除星号以后字典序最小的字符串</t>
+  </si>
+  <si>
+    <t>2025.06.07</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3003,6 +3010,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3018,16 +3035,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3693,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -8212,14 +8219,14 @@
       <c r="C246" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D246" s="17" t="s">
-        <v>617</v>
+      <c r="D246" s="24" t="s">
+        <v>830</v>
       </c>
       <c r="E246" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F246" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G246" s="22" t="s">
         <v>618</v>
@@ -8272,11 +8279,14 @@
       <c r="C249" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D249" s="17" t="s">
-        <v>234</v>
+      <c r="D249" s="24" t="s">
+        <v>830</v>
       </c>
       <c r="E249" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="F249" s="1">
+        <v>2</v>
       </c>
       <c r="G249" s="22" t="s">
         <v>623</v>
@@ -9833,15 +9843,26 @@
         <v>825</v>
       </c>
     </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="D334" s="24" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A334:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A335:A1048576">
     <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A334:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A335:A1048576">
     <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A334:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A335:A1048576">
     <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10420,10 +10441,11 @@
     <hyperlink ref="A331" r:id="rId573" display="https://leetcode.cn/problems/find-the-lexicographically-largest-string-from-the-box-i/" xr:uid="{7D0D315B-446F-4194-B885-D9D2856AA93A}"/>
     <hyperlink ref="A332" r:id="rId574" display="https://leetcode.cn/problems/lexicographically-smallest-equivalent-string/" xr:uid="{88F99799-91DA-435D-802A-56DE1DEFB1FF}"/>
     <hyperlink ref="A333" r:id="rId575" display="https://leetcode.cn/problems/using-a-robot-to-print-the-lexicographically-smallest-string/" xr:uid="{3872FC55-ED10-42E8-B17E-F17DCADC9939}"/>
+    <hyperlink ref="A334" r:id="rId576" display="https://leetcode.cn/problems/lexicographically-minimum-string-after-removing-stars/" xr:uid="{A8D77FB2-67F1-4264-B938-BC06D1A7CFDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId576"/>
+    <tablePart r:id="rId577"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10777,19 +10799,13 @@
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4F14E3-09EF-412A-BA0B-D296A35C762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BF622-992C-4E3F-9F4F-D261FB75726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="838">
   <si>
     <t>题目</t>
   </si>
@@ -2686,6 +2686,32 @@
   </si>
   <si>
     <t>2025.06.07</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.08</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>189. 轮转数组</t>
+  </si>
+  <si>
+    <t>386. 字典序排数</t>
+  </si>
+  <si>
+    <t>dfs、字典树</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫水三叶</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2987,7 +3013,37 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3414,16 +3470,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3433,8 +3489,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
   <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
@@ -3700,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G246" sqref="G246"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E335" sqref="E335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4619,11 +4675,14 @@
       <c r="C49" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>25</v>
+      <c r="D49" s="24" t="s">
+        <v>831</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>151</v>
@@ -5055,11 +5114,11 @@
       <c r="C73" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>217</v>
+      <c r="D73" s="24" t="s">
+        <v>831</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9125,14 +9184,14 @@
       <c r="C294" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D294" s="17" t="s">
-        <v>25</v>
+      <c r="D294" s="24" t="s">
+        <v>831</v>
       </c>
       <c r="E294" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F294" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9843,27 +9902,47 @@
         <v>825</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>828</v>
       </c>
+      <c r="C334" s="16" t="s">
+        <v>836</v>
+      </c>
       <c r="D334" s="24" t="s">
         <v>830</v>
       </c>
     </row>
+    <row r="335" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D335" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A335:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A336:A1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A335:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A336:A1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A335:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A336:A1048576">
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10442,20 +10521,21 @@
     <hyperlink ref="A332" r:id="rId574" display="https://leetcode.cn/problems/lexicographically-smallest-equivalent-string/" xr:uid="{88F99799-91DA-435D-802A-56DE1DEFB1FF}"/>
     <hyperlink ref="A333" r:id="rId575" display="https://leetcode.cn/problems/using-a-robot-to-print-the-lexicographically-smallest-string/" xr:uid="{3872FC55-ED10-42E8-B17E-F17DCADC9939}"/>
     <hyperlink ref="A334" r:id="rId576" display="https://leetcode.cn/problems/lexicographically-minimum-string-after-removing-stars/" xr:uid="{A8D77FB2-67F1-4264-B938-BC06D1A7CFDD}"/>
+    <hyperlink ref="A335" r:id="rId577" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{BF74A58B-66BC-4D5C-B0B8-C4C7B95B7A45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId577"/>
+    <tablePart r:id="rId578"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10756,56 +10836,109 @@
         <v>810</v>
       </c>
     </row>
+    <row r="30" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="25" priority="24"/>
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="22" priority="21"/>
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="19" priority="18"/>
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
     <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="16" priority="15"/>
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
     <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -10835,10 +10968,14 @@
     <hyperlink ref="A27" r:id="rId25" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{CC321C86-E161-44F4-B146-3B8AF9F63B8A}"/>
     <hyperlink ref="A28" r:id="rId26" xr:uid="{DA5A8EF2-A144-422E-8BF3-6161EAC73CC3}"/>
     <hyperlink ref="A29" r:id="rId27" xr:uid="{2E0651BF-86B2-404F-B0D5-59F0C7F131B3}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{51B04A81-38A8-437A-8093-34E271E36B71}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{81638171-D35E-4453-A1C3-109EDA182D99}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://leetcode.cn/problems/rotate-array/" xr:uid="{B0856788-0D93-4CF9-A6A2-33D1CC4A1D5A}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{09DACAF0-2DE3-4960-8D95-ED10303AB9FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BF622-992C-4E3F-9F4F-D261FB75726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA5A12D-941A-407B-9C11-376CBDBAD3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="844">
   <si>
     <t>题目</t>
   </si>
@@ -2712,6 +2712,29 @@
   </si>
   <si>
     <t>宫水三叶</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.09</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在for里面poll</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>440. 字典序的第K小数字</t>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10叉树的先序遍历</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3016,6 +3039,16 @@
   <dxfs count="46">
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3031,16 +3064,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3756,10 +3779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I334" sqref="I334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3881,14 +3904,17 @@
       <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
+      <c r="D6" s="24" t="s">
+        <v>838</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5931,11 +5957,11 @@
       <c r="C120" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>22</v>
+      <c r="D120" s="24" t="s">
+        <v>838</v>
       </c>
       <c r="F120" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -9933,15 +9959,32 @@
         <v>837</v>
       </c>
     </row>
+    <row r="336" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="D336" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="G336" s="33" t="s">
+        <v>842</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A336:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A337:A1048576">
     <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A336:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A337:A1048576">
     <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A336:A1048576">
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A337:A1048576">
     <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10522,20 +10565,21 @@
     <hyperlink ref="A333" r:id="rId575" display="https://leetcode.cn/problems/using-a-robot-to-print-the-lexicographically-smallest-string/" xr:uid="{3872FC55-ED10-42E8-B17E-F17DCADC9939}"/>
     <hyperlink ref="A334" r:id="rId576" display="https://leetcode.cn/problems/lexicographically-minimum-string-after-removing-stars/" xr:uid="{A8D77FB2-67F1-4264-B938-BC06D1A7CFDD}"/>
     <hyperlink ref="A335" r:id="rId577" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{BF74A58B-66BC-4D5C-B0B8-C4C7B95B7A45}"/>
+    <hyperlink ref="A336" r:id="rId578" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{AE837269-2493-4763-A4A9-1E3AFB492D26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId578"/>
+    <tablePart r:id="rId579"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10878,6 +10922,17 @@
       </c>
       <c r="C33" s="10" t="s">
         <v>802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -10932,13 +10987,9 @@
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -10972,10 +11023,11 @@
     <hyperlink ref="A31" r:id="rId29" xr:uid="{81638171-D35E-4453-A1C3-109EDA182D99}"/>
     <hyperlink ref="A32" r:id="rId30" display="https://leetcode.cn/problems/rotate-array/" xr:uid="{B0856788-0D93-4CF9-A6A2-33D1CC4A1D5A}"/>
     <hyperlink ref="A33" r:id="rId31" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{09DACAF0-2DE3-4960-8D95-ED10303AB9FF}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{4824237C-E205-4D18-A41F-9B2143B6CF96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA5A12D-941A-407B-9C11-376CBDBAD3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40264329-A6E5-49D8-B6BF-01A9E32DB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="847">
   <si>
     <t>题目</t>
   </si>
@@ -2735,6 +2735,17 @@
   </si>
   <si>
     <t>⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3442. 奇偶频次间的最大差值 I</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.10</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3036,7 +3047,37 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3493,16 +3534,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3512,8 +3553,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
   <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
@@ -3779,10 +3820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I334" sqref="I334"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5214,14 +5255,14 @@
       <c r="C77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>25</v>
+      <c r="D77" s="24" t="s">
+        <v>846</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F77" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="18" t="s">
         <v>228</v>
@@ -7442,11 +7483,11 @@
       <c r="C202" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="17" t="s">
-        <v>62</v>
+      <c r="D202" s="24" t="s">
+        <v>846</v>
       </c>
       <c r="F202" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G202" s="18" t="s">
         <v>520</v>
@@ -9976,16 +10017,30 @@
         <v>842</v>
       </c>
     </row>
+    <row r="337" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="D337" s="24" t="s">
+        <v>846</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A337:A1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A338:A1048576">
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A337:A1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A338:A1048576">
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A337:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A338:A1048576">
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10566,20 +10621,21 @@
     <hyperlink ref="A334" r:id="rId576" display="https://leetcode.cn/problems/lexicographically-minimum-string-after-removing-stars/" xr:uid="{A8D77FB2-67F1-4264-B938-BC06D1A7CFDD}"/>
     <hyperlink ref="A335" r:id="rId577" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{BF74A58B-66BC-4D5C-B0B8-C4C7B95B7A45}"/>
     <hyperlink ref="A336" r:id="rId578" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{AE837269-2493-4763-A4A9-1E3AFB492D26}"/>
+    <hyperlink ref="A337" r:id="rId579" display="https://leetcode.cn/problems/maximum-difference-between-even-and-odd-frequency-i/" xr:uid="{19F5AA30-DCB3-4FFF-A4AF-90DAFF2A73A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId579"/>
+    <tablePart r:id="rId580"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -10935,61 +10991,92 @@
         <v>810</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="duplicateValues" dxfId="31" priority="30"/>
     <cfRule type="duplicateValues" dxfId="30" priority="31"/>
     <cfRule type="duplicateValues" dxfId="29" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7">
     <cfRule type="duplicateValues" dxfId="28" priority="27"/>
     <cfRule type="duplicateValues" dxfId="27" priority="28"/>
     <cfRule type="duplicateValues" dxfId="26" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="25" priority="24"/>
     <cfRule type="duplicateValues" dxfId="24" priority="25"/>
     <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A17">
     <cfRule type="duplicateValues" dxfId="22" priority="21"/>
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
     <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
+  <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="19" priority="18"/>
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
     <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
+  <conditionalFormatting sqref="A24">
     <cfRule type="duplicateValues" dxfId="16" priority="15"/>
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
     <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
+  <conditionalFormatting sqref="A25">
     <cfRule type="duplicateValues" dxfId="13" priority="12"/>
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A28">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
     <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -11024,10 +11111,12 @@
     <hyperlink ref="A32" r:id="rId30" display="https://leetcode.cn/problems/rotate-array/" xr:uid="{B0856788-0D93-4CF9-A6A2-33D1CC4A1D5A}"/>
     <hyperlink ref="A33" r:id="rId31" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{09DACAF0-2DE3-4960-8D95-ED10303AB9FF}"/>
     <hyperlink ref="A34" r:id="rId32" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{4824237C-E205-4D18-A41F-9B2143B6CF96}"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{619BC669-D3FD-42BD-A715-5ADBBE3D143F}"/>
+    <hyperlink ref="A36" r:id="rId34" xr:uid="{F0FF3069-BF9F-40BB-95A5-2977262FDE72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40264329-A6E5-49D8-B6BF-01A9E32DB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8C088D-84ED-4511-AF7F-AEDE22F7552A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="854">
   <si>
     <t>题目</t>
   </si>
@@ -2746,6 +2746,34 @@
   </si>
   <si>
     <t>2025.06.10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.11</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节3、腾讯</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int size = q.size();    // 放到最前面！！！
+分为第一个、中间、最后一个</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3445. 奇偶频次间的最大差值 II</t>
+  </si>
+  <si>
+    <t>前缀和、滑动窗口</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2947,7 +2975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3042,12 +3070,25 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3075,6 +3116,236 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3259,176 +3530,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -3534,16 +3635,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3553,8 +3654,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
   <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="45"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
@@ -3820,10 +3921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3988,14 +4089,14 @@
       <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>25</v>
+      <c r="D8" s="24" t="s">
+        <v>847</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4333,13 +4434,19 @@
         <v>51</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>806</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>847</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>15</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8863,14 +8970,14 @@
       <c r="C274" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D274" s="17" t="s">
-        <v>420</v>
+      <c r="D274" s="24" t="s">
+        <v>847</v>
       </c>
       <c r="E274" s="21" t="s">
         <v>670</v>
       </c>
       <c r="F274" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G274" s="18" t="s">
         <v>671</v>
@@ -10017,7 +10124,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="5" t="s">
         <v>844</v>
       </c>
@@ -10031,16 +10138,36 @@
         <v>846</v>
       </c>
     </row>
+    <row r="338" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="D338" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="E338" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="G338" s="33" t="s">
+        <v>852</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A338:A1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+  <conditionalFormatting sqref="A284:A293 A1:A243 A295:A297 A301:A311 A339:A1048576">
+    <cfRule type="duplicateValues" dxfId="44" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A338:A1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+  <conditionalFormatting sqref="A284:A293 A1:A254 A295:A297 A301:A311 A339:A1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A338:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+  <conditionalFormatting sqref="A284:A293 A1:A277 A295:A297 A301:A311 A339:A1048576">
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A29" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10622,20 +10749,22 @@
     <hyperlink ref="A335" r:id="rId577" display="https://leetcode.cn/problems/lexicographical-numbers/" xr:uid="{BF74A58B-66BC-4D5C-B0B8-C4C7B95B7A45}"/>
     <hyperlink ref="A336" r:id="rId578" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{AE837269-2493-4763-A4A9-1E3AFB492D26}"/>
     <hyperlink ref="A337" r:id="rId579" display="https://leetcode.cn/problems/maximum-difference-between-even-and-odd-frequency-i/" xr:uid="{19F5AA30-DCB3-4FFF-A4AF-90DAFF2A73A0}"/>
+    <hyperlink ref="A338" r:id="rId580" display="https://leetcode.cn/problems/maximum-difference-between-even-and-odd-frequency-ii/" xr:uid="{33A5DF24-BDEE-433C-B5C5-867F8D8D0E6A}"/>
+    <hyperlink ref="E338" r:id="rId581" xr:uid="{0B0A8A5A-3EC0-4420-B326-C4CE216A6F4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId580"/>
+    <tablePart r:id="rId582"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -11013,69 +11142,119 @@
         <v>802</v>
       </c>
     </row>
+    <row r="37" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="34" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="28" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A38">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -11113,10 +11292,13 @@
     <hyperlink ref="A34" r:id="rId32" display="https://leetcode.cn/problems/k-th-smallest-in-lexicographical-order/" xr:uid="{4824237C-E205-4D18-A41F-9B2143B6CF96}"/>
     <hyperlink ref="A35" r:id="rId33" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{619BC669-D3FD-42BD-A715-5ADBBE3D143F}"/>
     <hyperlink ref="A36" r:id="rId34" xr:uid="{F0FF3069-BF9F-40BB-95A5-2977262FDE72}"/>
+    <hyperlink ref="A37" r:id="rId35" xr:uid="{41C2973C-A3C4-40AF-92B9-A973C8E888ED}"/>
+    <hyperlink ref="A38" r:id="rId36" xr:uid="{B4080E34-714B-44A3-BC96-142B1EC1C7F2}"/>
+    <hyperlink ref="A39" r:id="rId37" xr:uid="{70ADA620-62B9-4B51-B3DE-332DB0FE2A8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/刷题/LeetCode刷题记录.xlsx
+++ b/刷题/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\刷题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2018F69-A405-4C47-B37C-C4F08C9637C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2642C4FA-8669-4404-9D12-6C1EA7C968CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="862">
   <si>
     <t>题目</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>101. 对称二叉树</t>
-  </si>
-  <si>
-    <t>2025.01.21</t>
   </si>
   <si>
     <t>102. 二叉树的层序遍历</t>
@@ -1786,9 +1783,6 @@
   </si>
   <si>
     <t>48. 旋转图像</t>
-  </si>
-  <si>
-    <t>2025.01.26</t>
   </si>
   <si>
     <t>49. 字母异位词分组</t>
@@ -2797,6 +2791,21 @@
   </si>
   <si>
     <t>参考54.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>i和j至少有一个(n+1)/2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2616. 最小化数对的最大差值</t>
+  </si>
+  <si>
+    <t>二分查找</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3101,37 +3110,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3274,6 +3253,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3299,6 +3288,16 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3364,6 +3363,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3389,6 +3398,46 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3504,16 +3553,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -3534,21 +3573,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3718,19 +3757,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G1048522" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:G1048522" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G339">
     <sortCondition descending="1" ref="D1:D1048522"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="标签" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="价值" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="最近提交" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参考题解" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="做题次数" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="备注" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3740,8 +3779,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:D1048572" totalsRowShown="0">
   <autoFilter ref="A1:D1048572" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="题目" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="大厂" dataDxfId="54"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="价值"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="备注"/>
   </tableColumns>
@@ -4007,10 +4046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G343" sqref="G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4050,16 +4089,16 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>15</v>
@@ -4068,58 +4107,58 @@
         <v>4</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F3" s="1">
         <v>5</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>856</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>15</v>
@@ -4130,16 +4169,16 @@
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>15</v>
@@ -4148,64 +4187,64 @@
         <v>2</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>850</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>836</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>853</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>15</v>
@@ -4214,55 +4253,55 @@
         <v>5</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>844</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>15</v>
@@ -4271,21 +4310,21 @@
         <v>5</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -4293,30 +4332,30 @@
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>836</v>
+      </c>
+      <c r="G14" s="33" t="s">
         <v>840</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>843</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>15</v>
@@ -4325,18 +4364,18 @@
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F16" s="1">
         <v>5</v>
@@ -4344,13 +4383,13 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>15</v>
@@ -4361,33 +4400,33 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>15</v>
@@ -4396,21 +4435,21 @@
         <v>7</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>15</v>
@@ -4419,35 +4458,35 @@
         <v>2</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>828</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>836</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>15</v>
@@ -4456,55 +4495,55 @@
         <v>8</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -4512,53 +4551,53 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="C28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>15</v>
@@ -4567,21 +4606,21 @@
         <v>7</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>15</v>
@@ -4592,33 +4631,33 @@
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>817</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="C31" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F31" s="1">
         <v>3</v>
@@ -4626,19 +4665,19 @@
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="1">
         <v>7</v>
@@ -4646,33 +4685,33 @@
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>15</v>
@@ -4681,44 +4720,44 @@
         <v>2</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>534</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>535</v>
       </c>
       <c r="F35" s="1">
         <v>6</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
@@ -4729,39 +4768,39 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>15</v>
@@ -4770,35 +4809,35 @@
         <v>6</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>15</v>
@@ -4807,21 +4846,21 @@
         <v>2</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="C41" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>15</v>
@@ -4830,35 +4869,35 @@
         <v>7</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>792</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>15</v>
@@ -4869,16 +4908,16 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>15</v>
@@ -4887,58 +4926,58 @@
         <v>6</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>15</v>
@@ -4949,33 +4988,33 @@
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>15</v>
@@ -4986,19 +5025,19 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F50" s="1">
         <v>5</v>
@@ -5006,33 +5045,33 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="F52" s="1">
         <v>4</v>
@@ -5040,16 +5079,16 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>15</v>
@@ -5060,16 +5099,16 @@
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5094,13 +5133,13 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="9" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>10</v>
@@ -5109,66 +5148,66 @@
         <v>6</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>403</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>15</v>
@@ -5177,21 +5216,21 @@
         <v>2</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="21" t="s">
         <v>15</v>
@@ -5202,16 +5241,16 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>660</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>662</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>15</v>
@@ -5220,21 +5259,21 @@
         <v>5</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>15</v>
@@ -5243,38 +5282,38 @@
         <v>5</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>256</v>
-      </c>
       <c r="E64" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>15</v>
@@ -5283,182 +5322,182 @@
         <v>7</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="E68" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="17" t="s">
         <v>476</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="17" t="s">
+      <c r="E72" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>399</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>465</v>
-      </c>
       <c r="E73" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D74" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="G74" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>15</v>
@@ -5466,36 +5505,36 @@
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18" t="s">
         <v>738</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>15</v>
@@ -5503,196 +5542,196 @@
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="18" t="s">
         <v>746</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="20" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="20" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="20" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>758</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D86" s="17" t="s">
+      <c r="E86" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="20" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>15</v>
@@ -5700,67 +5739,67 @@
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D89" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="18" t="s">
         <v>280</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="20" t="s">
+        <v>723</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>725</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="E90" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="18" t="s">
         <v>726</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" s="18" t="s">
         <v>355</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>13</v>
@@ -5769,18 +5808,18 @@
         <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="20" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>13</v>
@@ -5789,18 +5828,18 @@
         <v>18</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="20" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>13</v>
@@ -5809,18 +5848,18 @@
         <v>18</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>13</v>
@@ -5829,18 +5868,18 @@
         <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="20" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>13</v>
@@ -5849,47 +5888,47 @@
         <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>15</v>
@@ -5914,7 +5953,7 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>13</v>
@@ -5931,53 +5970,53 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E101" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D102" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>320</v>
-      </c>
       <c r="E102" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>15</v>
@@ -5985,16 +6024,16 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>15</v>
@@ -6002,16 +6041,16 @@
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>15</v>
@@ -6020,81 +6059,81 @@
         <v>3</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" s="17" t="s">
+      <c r="E106" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>589</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>15</v>
@@ -6102,84 +6141,84 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="18" t="s">
         <v>624</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" s="18" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="D112" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="E112" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114" s="21" t="s">
         <v>15</v>
@@ -6187,30 +6226,30 @@
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E116" s="21" t="s">
         <v>15</v>
@@ -6219,21 +6258,21 @@
         <v>4</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>15</v>
@@ -6241,16 +6280,16 @@
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="D118" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E118" s="21" t="s">
         <v>15</v>
@@ -6259,75 +6298,75 @@
         <v>2</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E119" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G119" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>15</v>
@@ -6336,21 +6375,21 @@
         <v>4</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E123" s="21" t="s">
         <v>15</v>
@@ -6359,21 +6398,21 @@
         <v>3</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E124" s="21" t="s">
         <v>15</v>
@@ -6382,35 +6421,35 @@
         <v>2</v>
       </c>
       <c r="G124" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E126" s="21" t="s">
         <v>15</v>
@@ -6419,21 +6458,21 @@
         <v>4</v>
       </c>
       <c r="G126" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="E127" s="21" t="s">
         <v>15</v>
@@ -6444,30 +6483,30 @@
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="C128" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="C129" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E129" s="21" t="s">
         <v>15</v>
@@ -6476,21 +6515,21 @@
         <v>2</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="E130" s="21" t="s">
         <v>15</v>
@@ -6501,16 +6540,16 @@
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="E131" s="21" t="s">
         <v>15</v>
@@ -6521,16 +6560,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="E132" s="21" t="s">
         <v>15</v>
@@ -6539,21 +6578,21 @@
         <v>4</v>
       </c>
       <c r="G132" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>500</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>501</v>
       </c>
       <c r="E133" s="21" t="s">
         <v>15</v>
@@ -6562,21 +6601,21 @@
         <v>2</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="9" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>15</v>
@@ -6585,21 +6624,21 @@
         <v>2</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>15</v>
@@ -6607,16 +6646,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E136" s="21" t="s">
         <v>15</v>
@@ -6624,16 +6663,16 @@
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="C137" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E137" s="21" t="s">
         <v>15</v>
@@ -6644,16 +6683,16 @@
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E138" s="21" t="s">
         <v>15</v>
@@ -6662,52 +6701,52 @@
         <v>2</v>
       </c>
       <c r="G138" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D140" s="17" t="s">
+      <c r="E140" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E141" s="21" t="s">
         <v>15</v>
@@ -6718,16 +6757,16 @@
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>15</v>
@@ -6736,21 +6775,21 @@
         <v>2</v>
       </c>
       <c r="G142" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>15</v>
@@ -6758,36 +6797,36 @@
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="9" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G144" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E145" s="21" t="s">
         <v>15</v>
@@ -6796,32 +6835,32 @@
         <v>4</v>
       </c>
       <c r="G145" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G146" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>17</v>
@@ -6830,27 +6869,27 @@
         <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>15</v>
@@ -6858,56 +6897,56 @@
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="E149" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E149" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" s="18" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E150" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G150" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>528</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>529</v>
       </c>
       <c r="E151" s="21" t="s">
         <v>15</v>
@@ -6918,16 +6957,16 @@
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E152" s="21" t="s">
         <v>15</v>
@@ -6935,7 +6974,7 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>17</v>
@@ -6944,7 +6983,7 @@
         <v>18</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>15</v>
@@ -6952,7 +6991,7 @@
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>17</v>
@@ -6961,7 +7000,7 @@
         <v>18</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E154" s="21" t="s">
         <v>15</v>
@@ -6989,7 +7028,7 @@
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>17</v>
@@ -700